--- a/AAII_Financials/Quarterly/IQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IQ_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
   <si>
     <t>IQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,193 +665,218 @@
     <col min="1" max="1" width="4.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1020200</v>
+        <v>1049200</v>
       </c>
       <c r="E8" s="3">
-        <v>1002900</v>
+        <v>1035300</v>
       </c>
       <c r="F8" s="3">
-        <v>1008300</v>
+        <v>995100</v>
       </c>
       <c r="G8" s="3">
-        <v>992100</v>
+        <v>978300</v>
       </c>
       <c r="H8" s="3">
-        <v>885300</v>
+        <v>983500</v>
       </c>
       <c r="I8" s="3">
+        <v>967700</v>
+      </c>
+      <c r="J8" s="3">
+        <v>863600</v>
+      </c>
+      <c r="K8" s="3">
         <v>699800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>691200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>734700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>642100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>477600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>458800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>473800</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1001600</v>
+        <v>1107700</v>
       </c>
       <c r="E9" s="3">
-        <v>1044100</v>
+        <v>1144300</v>
       </c>
       <c r="F9" s="3">
-        <v>1222800</v>
+        <v>977100</v>
       </c>
       <c r="G9" s="3">
-        <v>1098400</v>
+        <v>1018500</v>
       </c>
       <c r="H9" s="3">
-        <v>876200</v>
+        <v>1192800</v>
       </c>
       <c r="I9" s="3">
+        <v>1071400</v>
+      </c>
+      <c r="J9" s="3">
+        <v>854700</v>
+      </c>
+      <c r="K9" s="3">
         <v>695600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>650700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>726900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1304500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1035100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>453900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>456800</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>18500</v>
+        <v>-58500</v>
       </c>
       <c r="E10" s="3">
-        <v>-41200</v>
+        <v>-109000</v>
       </c>
       <c r="F10" s="3">
-        <v>-214600</v>
+        <v>18100</v>
       </c>
       <c r="G10" s="3">
-        <v>-106300</v>
+        <v>-40200</v>
       </c>
       <c r="H10" s="3">
-        <v>9100</v>
+        <v>-209300</v>
       </c>
       <c r="I10" s="3">
+        <v>-103700</v>
+      </c>
+      <c r="J10" s="3">
+        <v>8900</v>
+      </c>
+      <c r="K10" s="3">
         <v>4200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>40500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>7800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>-662500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>-557500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>4900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -867,49 +892,57 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>93900</v>
+        <v>99500</v>
       </c>
       <c r="E12" s="3">
-        <v>85800</v>
+        <v>98400</v>
       </c>
       <c r="F12" s="3">
-        <v>87200</v>
+        <v>91600</v>
       </c>
       <c r="G12" s="3">
-        <v>80100</v>
+        <v>83700</v>
       </c>
       <c r="H12" s="3">
-        <v>63300</v>
+        <v>85000</v>
       </c>
       <c r="I12" s="3">
+        <v>78100</v>
+      </c>
+      <c r="J12" s="3">
+        <v>61800</v>
+      </c>
+      <c r="K12" s="3">
         <v>55600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>52300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>50800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>87400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>78200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>35500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>33400</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -949,8 +982,14 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -990,8 +1029,14 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1031,8 +1076,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1096,104 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1288700</v>
+        <v>1403100</v>
       </c>
       <c r="E17" s="3">
-        <v>1293600</v>
+        <v>1431600</v>
       </c>
       <c r="F17" s="3">
-        <v>1485300</v>
+        <v>1257100</v>
       </c>
       <c r="G17" s="3">
-        <v>1363900</v>
+        <v>1261900</v>
       </c>
       <c r="H17" s="3">
-        <v>1075800</v>
+        <v>1448900</v>
       </c>
       <c r="I17" s="3">
+        <v>1330400</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1049400</v>
+      </c>
+      <c r="K17" s="3">
         <v>852200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>814000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>893000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>789100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>628800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>569700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>557900</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-268500</v>
+        <v>-353900</v>
       </c>
       <c r="E18" s="3">
-        <v>-290700</v>
+        <v>-396300</v>
       </c>
       <c r="F18" s="3">
-        <v>-477000</v>
+        <v>-262000</v>
       </c>
       <c r="G18" s="3">
-        <v>-371800</v>
+        <v>-283600</v>
       </c>
       <c r="H18" s="3">
-        <v>-190500</v>
+        <v>-465300</v>
       </c>
       <c r="I18" s="3">
+        <v>-362700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-185900</v>
+      </c>
+      <c r="K18" s="3">
         <v>-152400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-122800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-158300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-147000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-151200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-110900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-84100</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1144,49 +1209,57 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-25700</v>
+        <v>49300</v>
       </c>
       <c r="E20" s="3">
-        <v>49700</v>
+        <v>-80100</v>
       </c>
       <c r="F20" s="3">
-        <v>3800</v>
+        <v>-25000</v>
       </c>
       <c r="G20" s="3">
-        <v>-75200</v>
+        <v>48500</v>
       </c>
       <c r="H20" s="3">
-        <v>-108900</v>
+        <v>3700</v>
       </c>
       <c r="I20" s="3">
+        <v>-73300</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-106200</v>
+      </c>
+      <c r="K20" s="3">
         <v>96800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>39800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>2300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>17900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-1600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-20200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1208,149 +1281,173 @@
       <c r="I21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="3">
         <v>1174600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>835600</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P21" s="3">
         <v>598900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>443800</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>35500</v>
+        <v>38800</v>
       </c>
       <c r="E22" s="3">
-        <v>19400</v>
+        <v>35600</v>
       </c>
       <c r="F22" s="3">
-        <v>8800</v>
+        <v>34700</v>
       </c>
       <c r="G22" s="3">
+        <v>18900</v>
+      </c>
+      <c r="H22" s="3">
+        <v>8600</v>
+      </c>
+      <c r="I22" s="3">
         <v>2200</v>
       </c>
-      <c r="H22" s="3">
-        <v>1400</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K22" s="3">
         <v>1200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>6300</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N22" s="3">
         <v>12200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>9900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>6100</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-329800</v>
+        <v>-343400</v>
       </c>
       <c r="E23" s="3">
-        <v>-260400</v>
+        <v>-512000</v>
       </c>
       <c r="F23" s="3">
-        <v>-482000</v>
+        <v>-321700</v>
       </c>
       <c r="G23" s="3">
-        <v>-449200</v>
+        <v>-254000</v>
       </c>
       <c r="H23" s="3">
-        <v>-300800</v>
+        <v>-470200</v>
       </c>
       <c r="I23" s="3">
+        <v>-438200</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-293400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-56900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-89300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-156000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-141400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-162700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-137200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-91300</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F24" s="3">
         <v>800</v>
       </c>
-      <c r="E24" s="3">
-        <v>1100</v>
-      </c>
-      <c r="F24" s="3">
-        <v>11400</v>
-      </c>
       <c r="G24" s="3">
-        <v>-900</v>
+        <v>1000</v>
       </c>
       <c r="H24" s="3">
+        <v>11100</v>
+      </c>
+      <c r="I24" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J24" s="3">
         <v>700</v>
-      </c>
-      <c r="I24" s="3">
-        <v>100</v>
-      </c>
-      <c r="J24" s="3">
-        <v>-1400</v>
       </c>
       <c r="K24" s="3">
         <v>100</v>
       </c>
       <c r="L24" s="3">
-        <v>100</v>
+        <v>-1400</v>
       </c>
       <c r="M24" s="3">
         <v>100</v>
       </c>
       <c r="N24" s="3">
+        <v>100</v>
+      </c>
+      <c r="O24" s="3">
+        <v>100</v>
+      </c>
+      <c r="P24" s="3">
         <v>600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1487,108 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-330600</v>
+        <v>-346500</v>
       </c>
       <c r="E26" s="3">
-        <v>-261500</v>
+        <v>-514300</v>
       </c>
       <c r="F26" s="3">
-        <v>-493400</v>
+        <v>-322500</v>
       </c>
       <c r="G26" s="3">
-        <v>-448300</v>
+        <v>-255000</v>
       </c>
       <c r="H26" s="3">
-        <v>-301500</v>
+        <v>-481300</v>
       </c>
       <c r="I26" s="3">
+        <v>-437300</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-294100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-56900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-87900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-156100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-141500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-162800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-137800</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-333900</v>
+        <v>-349200</v>
       </c>
       <c r="E27" s="3">
-        <v>-260300</v>
+        <v>-516200</v>
       </c>
       <c r="F27" s="3">
-        <v>-498800</v>
+        <v>-325700</v>
       </c>
       <c r="G27" s="3">
-        <v>-450600</v>
+        <v>-253900</v>
       </c>
       <c r="H27" s="3">
-        <v>-302200</v>
+        <v>-486600</v>
       </c>
       <c r="I27" s="3">
+        <v>-439500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-294800</v>
+      </c>
+      <c r="K27" s="3">
         <v>-98300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>2198300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1737000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-248500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-267600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-410200</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1628,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1675,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1722,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,90 +1769,108 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>25700</v>
+        <v>-49300</v>
       </c>
       <c r="E32" s="3">
-        <v>-49700</v>
+        <v>80100</v>
       </c>
       <c r="F32" s="3">
-        <v>-3800</v>
+        <v>25000</v>
       </c>
       <c r="G32" s="3">
-        <v>75200</v>
+        <v>-48500</v>
       </c>
       <c r="H32" s="3">
-        <v>108900</v>
+        <v>-3700</v>
       </c>
       <c r="I32" s="3">
+        <v>73300</v>
+      </c>
+      <c r="J32" s="3">
+        <v>106200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-96800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-39800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-2300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-17900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>1600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>20200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-333900</v>
+        <v>-349200</v>
       </c>
       <c r="E33" s="3">
-        <v>-260300</v>
+        <v>-516200</v>
       </c>
       <c r="F33" s="3">
-        <v>-498800</v>
+        <v>-325700</v>
       </c>
       <c r="G33" s="3">
-        <v>-450600</v>
+        <v>-253900</v>
       </c>
       <c r="H33" s="3">
-        <v>-302200</v>
+        <v>-486600</v>
       </c>
       <c r="I33" s="3">
+        <v>-439500</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-294800</v>
+      </c>
+      <c r="K33" s="3">
         <v>-98300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>2198300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1737000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-248500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-267600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-410200</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1910,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-333900</v>
+        <v>-349200</v>
       </c>
       <c r="E35" s="3">
-        <v>-260300</v>
+        <v>-516200</v>
       </c>
       <c r="F35" s="3">
-        <v>-498800</v>
+        <v>-325700</v>
       </c>
       <c r="G35" s="3">
-        <v>-450600</v>
+        <v>-253900</v>
       </c>
       <c r="H35" s="3">
-        <v>-302200</v>
+        <v>-486600</v>
       </c>
       <c r="I35" s="3">
+        <v>-439500</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-294800</v>
+      </c>
+      <c r="K35" s="3">
         <v>-98300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>2198300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1737000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-248500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-267600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-410200</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +2032,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,377 +2051,433 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>778700</v>
+        <v>830600</v>
       </c>
       <c r="E41" s="3">
-        <v>1703700</v>
+        <v>630500</v>
       </c>
       <c r="F41" s="3">
-        <v>658100</v>
+        <v>759600</v>
       </c>
       <c r="G41" s="3">
-        <v>836700</v>
+        <v>1661900</v>
       </c>
       <c r="H41" s="3">
-        <v>1188200</v>
+        <v>641900</v>
       </c>
       <c r="I41" s="3">
+        <v>816200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1159100</v>
+      </c>
+      <c r="K41" s="3">
         <v>57900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>105200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>176500</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>16</v>
       </c>
       <c r="O41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1265200</v>
+        <v>640900</v>
       </c>
       <c r="E42" s="3">
-        <v>557600</v>
+        <v>957600</v>
       </c>
       <c r="F42" s="3">
-        <v>869800</v>
+        <v>1234200</v>
       </c>
       <c r="G42" s="3">
-        <v>551600</v>
+        <v>543900</v>
       </c>
       <c r="H42" s="3">
-        <v>681800</v>
+        <v>848400</v>
       </c>
       <c r="I42" s="3">
+        <v>538000</v>
+      </c>
+      <c r="J42" s="3">
+        <v>665100</v>
+      </c>
+      <c r="K42" s="3">
         <v>70700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>111900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>497500</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>16</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>481900</v>
+        <v>537400</v>
       </c>
       <c r="E43" s="3">
-        <v>504600</v>
+        <v>461200</v>
       </c>
       <c r="F43" s="3">
-        <v>455000</v>
+        <v>470100</v>
       </c>
       <c r="G43" s="3">
-        <v>463500</v>
+        <v>492200</v>
       </c>
       <c r="H43" s="3">
-        <v>359000</v>
+        <v>443800</v>
       </c>
       <c r="I43" s="3">
+        <v>452200</v>
+      </c>
+      <c r="J43" s="3">
+        <v>350200</v>
+      </c>
+      <c r="K43" s="3">
         <v>420800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>322200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>693700</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>16</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>168800</v>
+        <v>171400</v>
       </c>
       <c r="E44" s="3">
-        <v>181000</v>
+        <v>185300</v>
       </c>
       <c r="F44" s="3">
-        <v>167000</v>
+        <v>164600</v>
       </c>
       <c r="G44" s="3">
-        <v>150900</v>
+        <v>176600</v>
       </c>
       <c r="H44" s="3">
-        <v>167000</v>
+        <v>162900</v>
       </c>
       <c r="I44" s="3">
+        <v>147200</v>
+      </c>
+      <c r="J44" s="3">
+        <v>162900</v>
+      </c>
+      <c r="K44" s="3">
         <v>172400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>117500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>110300</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>16</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>869600</v>
+        <v>657000</v>
       </c>
       <c r="E45" s="3">
-        <v>728900</v>
+        <v>925200</v>
       </c>
       <c r="F45" s="3">
-        <v>698800</v>
+        <v>848300</v>
       </c>
       <c r="G45" s="3">
-        <v>441400</v>
+        <v>711000</v>
       </c>
       <c r="H45" s="3">
-        <v>387300</v>
+        <v>681700</v>
       </c>
       <c r="I45" s="3">
+        <v>430500</v>
+      </c>
+      <c r="J45" s="3">
+        <v>377800</v>
+      </c>
+      <c r="K45" s="3">
         <v>145500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>161200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>137200</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>16</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3564200</v>
+        <v>2837400</v>
       </c>
       <c r="E46" s="3">
-        <v>3675800</v>
+        <v>3159800</v>
       </c>
       <c r="F46" s="3">
-        <v>2848600</v>
+        <v>3476800</v>
       </c>
       <c r="G46" s="3">
-        <v>2444100</v>
+        <v>3585600</v>
       </c>
       <c r="H46" s="3">
-        <v>2783300</v>
+        <v>2778700</v>
       </c>
       <c r="I46" s="3">
+        <v>2384200</v>
+      </c>
+      <c r="J46" s="3">
+        <v>2715100</v>
+      </c>
+      <c r="K46" s="3">
         <v>867300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>817900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1615200</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>16</v>
       </c>
       <c r="O46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>388500</v>
+        <v>441500</v>
       </c>
       <c r="E47" s="3">
-        <v>377800</v>
+        <v>431000</v>
       </c>
       <c r="F47" s="3">
-        <v>376600</v>
+        <v>379000</v>
       </c>
       <c r="G47" s="3">
-        <v>330900</v>
+        <v>368500</v>
       </c>
       <c r="H47" s="3">
-        <v>178300</v>
+        <v>367400</v>
       </c>
       <c r="I47" s="3">
+        <v>322800</v>
+      </c>
+      <c r="J47" s="3">
+        <v>173900</v>
+      </c>
+      <c r="K47" s="3">
         <v>170000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>81500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>59000</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>16</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>336300</v>
+        <v>346700</v>
       </c>
       <c r="E48" s="3">
-        <v>250600</v>
+        <v>331600</v>
       </c>
       <c r="F48" s="3">
-        <v>232200</v>
+        <v>328100</v>
       </c>
       <c r="G48" s="3">
-        <v>211700</v>
+        <v>244500</v>
       </c>
       <c r="H48" s="3">
-        <v>201500</v>
+        <v>226500</v>
       </c>
       <c r="I48" s="3">
+        <v>206500</v>
+      </c>
+      <c r="J48" s="3">
+        <v>196600</v>
+      </c>
+      <c r="K48" s="3">
         <v>189200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>179200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>179600</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>16</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2275600</v>
+        <v>2147700</v>
       </c>
       <c r="E49" s="3">
-        <v>2294000</v>
+        <v>2334100</v>
       </c>
       <c r="F49" s="3">
-        <v>2287600</v>
+        <v>2219800</v>
       </c>
       <c r="G49" s="3">
-        <v>2342500</v>
+        <v>2237700</v>
       </c>
       <c r="H49" s="3">
-        <v>1904800</v>
+        <v>2231500</v>
       </c>
       <c r="I49" s="3">
+        <v>2285000</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1858100</v>
+      </c>
+      <c r="K49" s="3">
         <v>1623800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1409900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1221500</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>16</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2517,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,49 +2564,61 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>644400</v>
+        <v>495900</v>
       </c>
       <c r="E52" s="3">
-        <v>742500</v>
+        <v>504900</v>
       </c>
       <c r="F52" s="3">
-        <v>677200</v>
+        <v>628600</v>
       </c>
       <c r="G52" s="3">
-        <v>584600</v>
+        <v>724300</v>
       </c>
       <c r="H52" s="3">
-        <v>543800</v>
+        <v>660600</v>
       </c>
       <c r="I52" s="3">
+        <v>570200</v>
+      </c>
+      <c r="J52" s="3">
+        <v>530500</v>
+      </c>
+      <c r="K52" s="3">
         <v>439700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>409900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>378500</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>16</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,49 +2658,61 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7209000</v>
+        <v>6269200</v>
       </c>
       <c r="E54" s="3">
-        <v>7340700</v>
+        <v>6761400</v>
       </c>
       <c r="F54" s="3">
-        <v>6422100</v>
+        <v>7032200</v>
       </c>
       <c r="G54" s="3">
-        <v>5913800</v>
+        <v>7160600</v>
       </c>
       <c r="H54" s="3">
-        <v>5611800</v>
+        <v>6264600</v>
       </c>
       <c r="I54" s="3">
+        <v>5768700</v>
+      </c>
+      <c r="J54" s="3">
+        <v>5474100</v>
+      </c>
+      <c r="K54" s="3">
         <v>3289900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2898400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3453700</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>16</v>
       </c>
       <c r="O54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2728,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,254 +2747,292 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1375100</v>
+        <v>1149400</v>
       </c>
       <c r="E57" s="3">
-        <v>1485200</v>
+        <v>1412200</v>
       </c>
       <c r="F57" s="3">
-        <v>1458100</v>
+        <v>1341400</v>
       </c>
       <c r="G57" s="3">
-        <v>1495500</v>
+        <v>1448800</v>
       </c>
       <c r="H57" s="3">
-        <v>1301000</v>
+        <v>1422300</v>
       </c>
       <c r="I57" s="3">
+        <v>1458800</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1269100</v>
+      </c>
+      <c r="K57" s="3">
         <v>1252000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1010300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1035600</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>16</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>627100</v>
+        <v>469600</v>
       </c>
       <c r="E58" s="3">
-        <v>525900</v>
+        <v>542100</v>
       </c>
       <c r="F58" s="3">
-        <v>449100</v>
+        <v>611700</v>
       </c>
       <c r="G58" s="3">
-        <v>169700</v>
+        <v>513000</v>
       </c>
       <c r="H58" s="3">
-        <v>92200</v>
+        <v>438100</v>
       </c>
       <c r="I58" s="3">
+        <v>165500</v>
+      </c>
+      <c r="J58" s="3">
+        <v>89900</v>
+      </c>
+      <c r="K58" s="3">
         <v>58400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>44400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1232000</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>16</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1074500</v>
+        <v>1204500</v>
       </c>
       <c r="E59" s="3">
-        <v>956300</v>
+        <v>1057000</v>
       </c>
       <c r="F59" s="3">
-        <v>935500</v>
+        <v>1048200</v>
       </c>
       <c r="G59" s="3">
-        <v>909500</v>
+        <v>932800</v>
       </c>
       <c r="H59" s="3">
-        <v>728100</v>
+        <v>912500</v>
       </c>
       <c r="I59" s="3">
+        <v>887200</v>
+      </c>
+      <c r="J59" s="3">
+        <v>710200</v>
+      </c>
+      <c r="K59" s="3">
         <v>619500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>613400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1325600</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>16</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3076800</v>
+        <v>2823400</v>
       </c>
       <c r="E60" s="3">
-        <v>2967300</v>
+        <v>3011300</v>
       </c>
       <c r="F60" s="3">
-        <v>2842700</v>
+        <v>3001300</v>
       </c>
       <c r="G60" s="3">
-        <v>2574700</v>
+        <v>2894500</v>
       </c>
       <c r="H60" s="3">
-        <v>2121300</v>
+        <v>2772900</v>
       </c>
       <c r="I60" s="3">
+        <v>2511500</v>
+      </c>
+      <c r="J60" s="3">
+        <v>2069200</v>
+      </c>
+      <c r="K60" s="3">
         <v>1929900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1668000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3593200</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>16</v>
       </c>
       <c r="O60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1765300</v>
+        <v>1844300</v>
       </c>
       <c r="E61" s="3">
-        <v>1751100</v>
+        <v>1846100</v>
       </c>
       <c r="F61" s="3">
-        <v>768500</v>
+        <v>1722000</v>
       </c>
       <c r="G61" s="3">
-        <v>39300</v>
+        <v>1708200</v>
       </c>
       <c r="H61" s="3">
+        <v>749700</v>
+      </c>
+      <c r="I61" s="3">
+        <v>38300</v>
+      </c>
+      <c r="J61" s="3">
+        <v>39000</v>
+      </c>
+      <c r="K61" s="3">
         <v>40000</v>
       </c>
-      <c r="I61" s="3">
-        <v>40000</v>
-      </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>40700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>42100</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>212200</v>
+        <v>241800</v>
       </c>
       <c r="E62" s="3">
-        <v>234600</v>
+        <v>198000</v>
       </c>
       <c r="F62" s="3">
-        <v>205900</v>
+        <v>207000</v>
       </c>
       <c r="G62" s="3">
-        <v>215300</v>
+        <v>228800</v>
       </c>
       <c r="H62" s="3">
-        <v>99500</v>
+        <v>200900</v>
       </c>
       <c r="I62" s="3">
+        <v>210000</v>
+      </c>
+      <c r="J62" s="3">
+        <v>97000</v>
+      </c>
+      <c r="K62" s="3">
         <v>96100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1100</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>16</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +3072,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +3119,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,49 +3166,61 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5073600</v>
+        <v>4929600</v>
       </c>
       <c r="E66" s="3">
-        <v>4968900</v>
+        <v>5077600</v>
       </c>
       <c r="F66" s="3">
-        <v>3834200</v>
+        <v>4949100</v>
       </c>
       <c r="G66" s="3">
-        <v>2840900</v>
+        <v>4847000</v>
       </c>
       <c r="H66" s="3">
-        <v>2261100</v>
+        <v>3740100</v>
       </c>
       <c r="I66" s="3">
+        <v>2771200</v>
+      </c>
+      <c r="J66" s="3">
+        <v>2205600</v>
+      </c>
+      <c r="K66" s="3">
         <v>2066400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1710600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3636400</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>16</v>
       </c>
       <c r="O66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3236,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3279,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3326,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3018,28 +3353,34 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>3284400</v>
       </c>
-      <c r="J70" s="3">
+      <c r="L70" s="3">
         <v>3242900</v>
       </c>
-      <c r="K70" s="3">
+      <c r="M70" s="3">
         <v>4323600</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3420,61 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-3967400</v>
+        <v>-4735500</v>
       </c>
       <c r="E72" s="3">
-        <v>-3633400</v>
+        <v>-4386200</v>
       </c>
       <c r="F72" s="3">
-        <v>-3373100</v>
+        <v>-3870000</v>
       </c>
       <c r="G72" s="3">
-        <v>-2867000</v>
+        <v>-3544300</v>
       </c>
       <c r="H72" s="3">
-        <v>-2416400</v>
+        <v>-3290400</v>
       </c>
       <c r="I72" s="3">
+        <v>-2796700</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-2357100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-2130900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-2154600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-4631600</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>16</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3514,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3561,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,49 +3608,61 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2135400</v>
+        <v>1339600</v>
       </c>
       <c r="E76" s="3">
-        <v>2371800</v>
+        <v>1683900</v>
       </c>
       <c r="F76" s="3">
-        <v>2587900</v>
+        <v>2083000</v>
       </c>
       <c r="G76" s="3">
-        <v>3072900</v>
+        <v>2313600</v>
       </c>
       <c r="H76" s="3">
-        <v>3350700</v>
+        <v>2524400</v>
       </c>
       <c r="I76" s="3">
+        <v>2997500</v>
+      </c>
+      <c r="J76" s="3">
+        <v>3268500</v>
+      </c>
+      <c r="K76" s="3">
         <v>-2060900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-2055000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-4506300</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>16</v>
       </c>
       <c r="O76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3702,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-333900</v>
+        <v>-349200</v>
       </c>
       <c r="E81" s="3">
-        <v>-260300</v>
+        <v>-516200</v>
       </c>
       <c r="F81" s="3">
-        <v>-498800</v>
+        <v>-325700</v>
       </c>
       <c r="G81" s="3">
-        <v>-450600</v>
+        <v>-253900</v>
       </c>
       <c r="H81" s="3">
-        <v>-302200</v>
+        <v>-486600</v>
       </c>
       <c r="I81" s="3">
+        <v>-439500</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-294800</v>
+      </c>
+      <c r="K81" s="3">
         <v>-98300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>2198300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1737000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-248500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-267600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-410200</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3824,10 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3461,17 +3858,23 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>16</v>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3914,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3961,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +4008,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +4055,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,8 +4102,14 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3707,17 +4140,23 @@
       <c r="L89" s="3">
         <v>0</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>16</v>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,8 +4172,10 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3765,17 +4206,23 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>16</v>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4262,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,8 +4309,14 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3888,17 +4347,23 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>16</v>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4379,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4422,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4469,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4516,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,8 +4563,14 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4110,17 +4601,23 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>16</v>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4151,17 +4648,23 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N101" s="3" t="s">
-        <v>16</v>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4192,13 +4695,19 @@
       <c r="L102" s="3">
         <v>0</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>16</v>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IQ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="92">
   <si>
     <t>IQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,244 @@
     <col min="1" max="1" width="4.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1049200</v>
+        <v>1076400</v>
       </c>
       <c r="E8" s="3">
-        <v>1035300</v>
+        <v>1111000</v>
       </c>
       <c r="F8" s="3">
-        <v>995100</v>
+        <v>1088700</v>
       </c>
       <c r="G8" s="3">
-        <v>978300</v>
+        <v>1074300</v>
       </c>
       <c r="H8" s="3">
-        <v>983500</v>
+        <v>1032600</v>
       </c>
       <c r="I8" s="3">
+        <v>1015100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1020600</v>
+      </c>
+      <c r="K8" s="3">
         <v>967700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>863600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>699800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>691200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>734700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>642100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>477600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>458800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>473800</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1107700</v>
+        <v>992400</v>
       </c>
       <c r="E9" s="3">
-        <v>1144300</v>
+        <v>1147700</v>
       </c>
       <c r="F9" s="3">
-        <v>977100</v>
+        <v>1149400</v>
       </c>
       <c r="G9" s="3">
-        <v>1018500</v>
+        <v>1187400</v>
       </c>
       <c r="H9" s="3">
-        <v>1192800</v>
+        <v>1013800</v>
       </c>
       <c r="I9" s="3">
+        <v>1056900</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1237800</v>
+      </c>
+      <c r="K9" s="3">
         <v>1071400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>854700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>695600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>650700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>726900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1304500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1035100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>453900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>456800</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>-58500</v>
+        <v>83900</v>
       </c>
       <c r="E10" s="3">
-        <v>-109000</v>
+        <v>-36800</v>
       </c>
       <c r="F10" s="3">
-        <v>18100</v>
+        <v>-60700</v>
       </c>
       <c r="G10" s="3">
-        <v>-40200</v>
+        <v>-113100</v>
       </c>
       <c r="H10" s="3">
-        <v>-209300</v>
+        <v>18800</v>
       </c>
       <c r="I10" s="3">
+        <v>-41700</v>
+      </c>
+      <c r="J10" s="3">
+        <v>-217200</v>
+      </c>
+      <c r="K10" s="3">
         <v>-103700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>8900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>4200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>40500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>7800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>-662500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>-557500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>4900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,55 +920,63 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>99500</v>
+        <v>96400</v>
       </c>
       <c r="E12" s="3">
-        <v>98400</v>
+        <v>98500</v>
       </c>
       <c r="F12" s="3">
-        <v>91600</v>
+        <v>103300</v>
       </c>
       <c r="G12" s="3">
-        <v>83700</v>
+        <v>102100</v>
       </c>
       <c r="H12" s="3">
-        <v>85000</v>
+        <v>95100</v>
       </c>
       <c r="I12" s="3">
+        <v>86900</v>
+      </c>
+      <c r="J12" s="3">
+        <v>88200</v>
+      </c>
+      <c r="K12" s="3">
         <v>78100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>61800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>55600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>52300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>50800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>87400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>78200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>35500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>33400</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -988,8 +1022,14 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1035,8 +1075,14 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1082,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1150,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1403100</v>
+        <v>1262500</v>
       </c>
       <c r="E17" s="3">
-        <v>1431600</v>
+        <v>1436600</v>
       </c>
       <c r="F17" s="3">
-        <v>1257100</v>
+        <v>1456000</v>
       </c>
       <c r="G17" s="3">
-        <v>1261900</v>
+        <v>1485500</v>
       </c>
       <c r="H17" s="3">
-        <v>1448900</v>
+        <v>1304400</v>
       </c>
       <c r="I17" s="3">
+        <v>1309400</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1503400</v>
+      </c>
+      <c r="K17" s="3">
         <v>1330400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1049400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>852200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>814000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>893000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>789100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>628800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>569700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>557900</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-353900</v>
+        <v>-186100</v>
       </c>
       <c r="E18" s="3">
-        <v>-396300</v>
+        <v>-325600</v>
       </c>
       <c r="F18" s="3">
-        <v>-262000</v>
+        <v>-367200</v>
       </c>
       <c r="G18" s="3">
-        <v>-283600</v>
+        <v>-411200</v>
       </c>
       <c r="H18" s="3">
-        <v>-465300</v>
+        <v>-271800</v>
       </c>
       <c r="I18" s="3">
+        <v>-294200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-482800</v>
+      </c>
+      <c r="K18" s="3">
         <v>-362700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-185900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-152400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-122800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-158300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-147000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-151200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-110900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-84100</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1211,55 +1277,63 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>49300</v>
+        <v>18100</v>
       </c>
       <c r="E20" s="3">
-        <v>-80100</v>
+        <v>-53200</v>
       </c>
       <c r="F20" s="3">
-        <v>-25000</v>
+        <v>51200</v>
       </c>
       <c r="G20" s="3">
-        <v>48500</v>
+        <v>-83100</v>
       </c>
       <c r="H20" s="3">
-        <v>3700</v>
+        <v>-26000</v>
       </c>
       <c r="I20" s="3">
+        <v>50300</v>
+      </c>
+      <c r="J20" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-73300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-106200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>96800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>39800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>2300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>17900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-1600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-20200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1287,167 +1361,191 @@
       <c r="K21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N21" s="3">
         <v>1174600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>835600</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R21" s="3">
         <v>598900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>443800</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>38800</v>
+        <v>38600</v>
       </c>
       <c r="E22" s="3">
-        <v>35600</v>
+        <v>38100</v>
       </c>
       <c r="F22" s="3">
-        <v>34700</v>
+        <v>40200</v>
       </c>
       <c r="G22" s="3">
-        <v>18900</v>
+        <v>37000</v>
       </c>
       <c r="H22" s="3">
-        <v>8600</v>
+        <v>36000</v>
       </c>
       <c r="I22" s="3">
+        <v>19600</v>
+      </c>
+      <c r="J22" s="3">
+        <v>8900</v>
+      </c>
+      <c r="K22" s="3">
         <v>2200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>1300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>1200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>6300</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P22" s="3">
         <v>12200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>9900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>6100</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-343400</v>
+        <v>-206600</v>
       </c>
       <c r="E23" s="3">
-        <v>-512000</v>
+        <v>-416900</v>
       </c>
       <c r="F23" s="3">
-        <v>-321700</v>
+        <v>-356300</v>
       </c>
       <c r="G23" s="3">
-        <v>-254000</v>
+        <v>-531300</v>
       </c>
       <c r="H23" s="3">
-        <v>-470200</v>
+        <v>-333800</v>
       </c>
       <c r="I23" s="3">
+        <v>-263600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-487900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-438200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-293400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-56900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-89300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-156000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-141400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-162700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-137200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-91300</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3200</v>
+        <v>2300</v>
       </c>
       <c r="E24" s="3">
-        <v>2200</v>
+        <v>700</v>
       </c>
       <c r="F24" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G24" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H24" s="3">
         <v>800</v>
       </c>
-      <c r="G24" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H24" s="3">
-        <v>11100</v>
-      </c>
       <c r="I24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J24" s="3">
+        <v>11500</v>
+      </c>
+      <c r="K24" s="3">
         <v>-800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>700</v>
-      </c>
-      <c r="K24" s="3">
-        <v>100</v>
-      </c>
-      <c r="L24" s="3">
-        <v>-1400</v>
       </c>
       <c r="M24" s="3">
         <v>100</v>
       </c>
       <c r="N24" s="3">
-        <v>100</v>
+        <v>-1400</v>
       </c>
       <c r="O24" s="3">
         <v>100</v>
       </c>
       <c r="P24" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>100</v>
+      </c>
+      <c r="R24" s="3">
         <v>600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-346500</v>
+        <v>-208900</v>
       </c>
       <c r="E26" s="3">
-        <v>-514300</v>
+        <v>-417600</v>
       </c>
       <c r="F26" s="3">
-        <v>-322500</v>
+        <v>-359600</v>
       </c>
       <c r="G26" s="3">
-        <v>-255000</v>
+        <v>-533600</v>
       </c>
       <c r="H26" s="3">
-        <v>-481300</v>
+        <v>-334600</v>
       </c>
       <c r="I26" s="3">
+        <v>-264600</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-499400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-437300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-294100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-56900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-87900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-156100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-141500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-162800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-137800</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-349200</v>
+        <v>-209600</v>
       </c>
       <c r="E27" s="3">
-        <v>-516200</v>
+        <v>-417700</v>
       </c>
       <c r="F27" s="3">
-        <v>-325700</v>
+        <v>-362400</v>
       </c>
       <c r="G27" s="3">
-        <v>-253900</v>
+        <v>-535600</v>
       </c>
       <c r="H27" s="3">
-        <v>-486600</v>
+        <v>-338000</v>
       </c>
       <c r="I27" s="3">
+        <v>-263400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-504900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-439500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-294800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-98300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>2198300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1737000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-248500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-267600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-410200</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1909,120 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-49300</v>
+        <v>-18100</v>
       </c>
       <c r="E32" s="3">
-        <v>80100</v>
+        <v>53200</v>
       </c>
       <c r="F32" s="3">
-        <v>25000</v>
+        <v>-51200</v>
       </c>
       <c r="G32" s="3">
-        <v>-48500</v>
+        <v>83100</v>
       </c>
       <c r="H32" s="3">
-        <v>-3700</v>
+        <v>26000</v>
       </c>
       <c r="I32" s="3">
+        <v>-50300</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="K32" s="3">
         <v>73300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>106200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-96800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-39800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-2300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-17900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>1600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>20200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-349200</v>
+        <v>-209600</v>
       </c>
       <c r="E33" s="3">
-        <v>-516200</v>
+        <v>-417700</v>
       </c>
       <c r="F33" s="3">
-        <v>-325700</v>
+        <v>-362400</v>
       </c>
       <c r="G33" s="3">
-        <v>-253900</v>
+        <v>-535600</v>
       </c>
       <c r="H33" s="3">
-        <v>-486600</v>
+        <v>-338000</v>
       </c>
       <c r="I33" s="3">
+        <v>-263400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-504900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-439500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-294800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-98300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>2198300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1737000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-248500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-267600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-410200</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-349200</v>
+        <v>-209600</v>
       </c>
       <c r="E35" s="3">
-        <v>-516200</v>
+        <v>-417700</v>
       </c>
       <c r="F35" s="3">
-        <v>-325700</v>
+        <v>-362400</v>
       </c>
       <c r="G35" s="3">
-        <v>-253900</v>
+        <v>-535600</v>
       </c>
       <c r="H35" s="3">
-        <v>-486600</v>
+        <v>-338000</v>
       </c>
       <c r="I35" s="3">
+        <v>-263400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-504900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-439500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-294800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-98300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>2198300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1737000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-248500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-267600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-410200</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,431 +2225,487 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>830600</v>
+        <v>621700</v>
       </c>
       <c r="E41" s="3">
-        <v>630500</v>
+        <v>536300</v>
       </c>
       <c r="F41" s="3">
-        <v>759600</v>
+        <v>861900</v>
       </c>
       <c r="G41" s="3">
-        <v>1661900</v>
+        <v>654300</v>
       </c>
       <c r="H41" s="3">
-        <v>641900</v>
+        <v>788200</v>
       </c>
       <c r="I41" s="3">
+        <v>1724500</v>
+      </c>
+      <c r="J41" s="3">
+        <v>666100</v>
+      </c>
+      <c r="K41" s="3">
         <v>816200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1159100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>57900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>105200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>176500</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>16</v>
       </c>
       <c r="Q41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>640900</v>
+        <v>609400</v>
       </c>
       <c r="E42" s="3">
-        <v>957600</v>
+        <v>763700</v>
       </c>
       <c r="F42" s="3">
-        <v>1234200</v>
+        <v>665100</v>
       </c>
       <c r="G42" s="3">
-        <v>543900</v>
+        <v>993600</v>
       </c>
       <c r="H42" s="3">
-        <v>848400</v>
+        <v>1280600</v>
       </c>
       <c r="I42" s="3">
+        <v>564400</v>
+      </c>
+      <c r="J42" s="3">
+        <v>880400</v>
+      </c>
+      <c r="K42" s="3">
         <v>538000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>665100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>70700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>111900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>497500</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>16</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>537400</v>
+        <v>496400</v>
       </c>
       <c r="E43" s="3">
-        <v>461200</v>
+        <v>665200</v>
       </c>
       <c r="F43" s="3">
-        <v>470100</v>
+        <v>557600</v>
       </c>
       <c r="G43" s="3">
-        <v>492200</v>
+        <v>478600</v>
       </c>
       <c r="H43" s="3">
-        <v>443800</v>
+        <v>487800</v>
       </c>
       <c r="I43" s="3">
+        <v>510700</v>
+      </c>
+      <c r="J43" s="3">
+        <v>460500</v>
+      </c>
+      <c r="K43" s="3">
         <v>452200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>350200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>420800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>322200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>693700</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>16</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>171400</v>
+        <v>171900</v>
       </c>
       <c r="E44" s="3">
-        <v>185300</v>
+        <v>208100</v>
       </c>
       <c r="F44" s="3">
-        <v>164600</v>
+        <v>177900</v>
       </c>
       <c r="G44" s="3">
-        <v>176600</v>
+        <v>192300</v>
       </c>
       <c r="H44" s="3">
+        <v>170800</v>
+      </c>
+      <c r="I44" s="3">
+        <v>183200</v>
+      </c>
+      <c r="J44" s="3">
+        <v>169000</v>
+      </c>
+      <c r="K44" s="3">
+        <v>147200</v>
+      </c>
+      <c r="L44" s="3">
         <v>162900</v>
       </c>
-      <c r="I44" s="3">
-        <v>147200</v>
-      </c>
-      <c r="J44" s="3">
-        <v>162900</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>172400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>117500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>110300</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P44" s="3" t="s">
         <v>16</v>
       </c>
       <c r="Q44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>657000</v>
+        <v>669900</v>
       </c>
       <c r="E45" s="3">
-        <v>925200</v>
+        <v>640600</v>
       </c>
       <c r="F45" s="3">
-        <v>848300</v>
+        <v>681700</v>
       </c>
       <c r="G45" s="3">
-        <v>711000</v>
+        <v>960100</v>
       </c>
       <c r="H45" s="3">
-        <v>681700</v>
+        <v>880200</v>
       </c>
       <c r="I45" s="3">
+        <v>737700</v>
+      </c>
+      <c r="J45" s="3">
+        <v>707300</v>
+      </c>
+      <c r="K45" s="3">
         <v>430500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>377800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>145500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>161200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>137200</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>16</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2837400</v>
+        <v>2569400</v>
       </c>
       <c r="E46" s="3">
-        <v>3159800</v>
+        <v>2813900</v>
       </c>
       <c r="F46" s="3">
-        <v>3476800</v>
+        <v>2944200</v>
       </c>
       <c r="G46" s="3">
-        <v>3585600</v>
+        <v>3278800</v>
       </c>
       <c r="H46" s="3">
-        <v>2778700</v>
+        <v>3607700</v>
       </c>
       <c r="I46" s="3">
+        <v>3720600</v>
+      </c>
+      <c r="J46" s="3">
+        <v>2883300</v>
+      </c>
+      <c r="K46" s="3">
         <v>2384200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2715100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>867300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>817900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1615200</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>16</v>
       </c>
       <c r="Q46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>441500</v>
+        <v>571500</v>
       </c>
       <c r="E47" s="3">
-        <v>431000</v>
+        <v>538200</v>
       </c>
       <c r="F47" s="3">
-        <v>379000</v>
+        <v>458100</v>
       </c>
       <c r="G47" s="3">
-        <v>368500</v>
+        <v>447200</v>
       </c>
       <c r="H47" s="3">
-        <v>367400</v>
+        <v>393300</v>
       </c>
       <c r="I47" s="3">
+        <v>382400</v>
+      </c>
+      <c r="J47" s="3">
+        <v>381200</v>
+      </c>
+      <c r="K47" s="3">
         <v>322800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>173900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>170000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>81500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>59000</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>16</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>346700</v>
+        <v>402500</v>
       </c>
       <c r="E48" s="3">
-        <v>331600</v>
+        <v>372900</v>
       </c>
       <c r="F48" s="3">
-        <v>328100</v>
+        <v>359800</v>
       </c>
       <c r="G48" s="3">
-        <v>244500</v>
+        <v>344100</v>
       </c>
       <c r="H48" s="3">
-        <v>226500</v>
+        <v>340400</v>
       </c>
       <c r="I48" s="3">
+        <v>253700</v>
+      </c>
+      <c r="J48" s="3">
+        <v>235000</v>
+      </c>
+      <c r="K48" s="3">
         <v>206500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>196600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>189200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>179200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>179600</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>16</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2147700</v>
+        <v>2143200</v>
       </c>
       <c r="E49" s="3">
-        <v>2334100</v>
+        <v>2197900</v>
       </c>
       <c r="F49" s="3">
-        <v>2219800</v>
+        <v>2228500</v>
       </c>
       <c r="G49" s="3">
-        <v>2237700</v>
+        <v>2422000</v>
       </c>
       <c r="H49" s="3">
-        <v>2231500</v>
+        <v>2303400</v>
       </c>
       <c r="I49" s="3">
+        <v>2322000</v>
+      </c>
+      <c r="J49" s="3">
+        <v>2315500</v>
+      </c>
+      <c r="K49" s="3">
         <v>2285000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1858100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1623800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1409900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1221500</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>16</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2804,67 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>495900</v>
+        <v>453400</v>
       </c>
       <c r="E52" s="3">
-        <v>504900</v>
+        <v>400600</v>
       </c>
       <c r="F52" s="3">
-        <v>628600</v>
+        <v>514600</v>
       </c>
       <c r="G52" s="3">
-        <v>724300</v>
+        <v>523900</v>
       </c>
       <c r="H52" s="3">
-        <v>660600</v>
+        <v>652300</v>
       </c>
       <c r="I52" s="3">
+        <v>751600</v>
+      </c>
+      <c r="J52" s="3">
+        <v>685500</v>
+      </c>
+      <c r="K52" s="3">
         <v>570200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>530500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>439700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>409900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>378500</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>16</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2910,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6269200</v>
+        <v>6140000</v>
       </c>
       <c r="E54" s="3">
-        <v>6761400</v>
+        <v>6323500</v>
       </c>
       <c r="F54" s="3">
-        <v>7032200</v>
+        <v>6505200</v>
       </c>
       <c r="G54" s="3">
-        <v>7160600</v>
+        <v>7016000</v>
       </c>
       <c r="H54" s="3">
-        <v>6264600</v>
+        <v>7297000</v>
       </c>
       <c r="I54" s="3">
+        <v>7430200</v>
+      </c>
+      <c r="J54" s="3">
+        <v>6500500</v>
+      </c>
+      <c r="K54" s="3">
         <v>5768700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>5474100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3289900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2898400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>3453700</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>16</v>
       </c>
       <c r="Q54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,290 +3009,328 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1149400</v>
+        <v>1117100</v>
       </c>
       <c r="E57" s="3">
-        <v>1412200</v>
+        <v>1209600</v>
       </c>
       <c r="F57" s="3">
-        <v>1341400</v>
+        <v>1192700</v>
       </c>
       <c r="G57" s="3">
-        <v>1448800</v>
+        <v>1465300</v>
       </c>
       <c r="H57" s="3">
-        <v>1422300</v>
+        <v>1391900</v>
       </c>
       <c r="I57" s="3">
+        <v>1503300</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1475900</v>
+      </c>
+      <c r="K57" s="3">
         <v>1458800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1269100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1252000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1010300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1035600</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>16</v>
       </c>
       <c r="Q57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>469600</v>
+        <v>592600</v>
       </c>
       <c r="E58" s="3">
-        <v>542100</v>
+        <v>481900</v>
       </c>
       <c r="F58" s="3">
-        <v>611700</v>
+        <v>487200</v>
       </c>
       <c r="G58" s="3">
-        <v>513000</v>
+        <v>562500</v>
       </c>
       <c r="H58" s="3">
-        <v>438100</v>
+        <v>634800</v>
       </c>
       <c r="I58" s="3">
+        <v>532300</v>
+      </c>
+      <c r="J58" s="3">
+        <v>454600</v>
+      </c>
+      <c r="K58" s="3">
         <v>165500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>89900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>58400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>44400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1232000</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>16</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1204500</v>
+        <v>1262700</v>
       </c>
       <c r="E59" s="3">
-        <v>1057000</v>
+        <v>1340500</v>
       </c>
       <c r="F59" s="3">
-        <v>1048200</v>
+        <v>1249800</v>
       </c>
       <c r="G59" s="3">
-        <v>932800</v>
+        <v>1096800</v>
       </c>
       <c r="H59" s="3">
-        <v>912500</v>
+        <v>1087600</v>
       </c>
       <c r="I59" s="3">
+        <v>967900</v>
+      </c>
+      <c r="J59" s="3">
+        <v>946900</v>
+      </c>
+      <c r="K59" s="3">
         <v>887200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>710200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>619500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>613400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1325600</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>16</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2823400</v>
+        <v>2972400</v>
       </c>
       <c r="E60" s="3">
-        <v>3011300</v>
+        <v>3032100</v>
       </c>
       <c r="F60" s="3">
-        <v>3001300</v>
+        <v>2929700</v>
       </c>
       <c r="G60" s="3">
-        <v>2894500</v>
+        <v>3124700</v>
       </c>
       <c r="H60" s="3">
-        <v>2772900</v>
+        <v>3114300</v>
       </c>
       <c r="I60" s="3">
+        <v>3003500</v>
+      </c>
+      <c r="J60" s="3">
+        <v>2877300</v>
+      </c>
+      <c r="K60" s="3">
         <v>2511500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2069200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1929900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1668000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>3593200</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>16</v>
       </c>
       <c r="Q60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1844300</v>
+        <v>1972300</v>
       </c>
       <c r="E61" s="3">
-        <v>1846100</v>
+        <v>1959300</v>
       </c>
       <c r="F61" s="3">
-        <v>1722000</v>
+        <v>1913700</v>
       </c>
       <c r="G61" s="3">
-        <v>1708200</v>
+        <v>1915600</v>
       </c>
       <c r="H61" s="3">
-        <v>749700</v>
+        <v>1786800</v>
       </c>
       <c r="I61" s="3">
+        <v>1772500</v>
+      </c>
+      <c r="J61" s="3">
+        <v>777900</v>
+      </c>
+      <c r="K61" s="3">
         <v>38300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>39000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>40000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>40700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>42100</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>241800</v>
+        <v>286100</v>
       </c>
       <c r="E62" s="3">
-        <v>198000</v>
+        <v>261100</v>
       </c>
       <c r="F62" s="3">
-        <v>207000</v>
+        <v>250900</v>
       </c>
       <c r="G62" s="3">
-        <v>228800</v>
+        <v>205400</v>
       </c>
       <c r="H62" s="3">
-        <v>200900</v>
+        <v>214700</v>
       </c>
       <c r="I62" s="3">
+        <v>237500</v>
+      </c>
+      <c r="J62" s="3">
+        <v>208500</v>
+      </c>
+      <c r="K62" s="3">
         <v>210000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>97000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>96100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1100</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>16</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4929600</v>
+        <v>5252500</v>
       </c>
       <c r="E66" s="3">
-        <v>5077600</v>
+        <v>5273100</v>
       </c>
       <c r="F66" s="3">
-        <v>4949100</v>
+        <v>5115200</v>
       </c>
       <c r="G66" s="3">
-        <v>4847000</v>
+        <v>5268800</v>
       </c>
       <c r="H66" s="3">
-        <v>3740100</v>
+        <v>5135500</v>
       </c>
       <c r="I66" s="3">
+        <v>5029500</v>
+      </c>
+      <c r="J66" s="3">
+        <v>3880900</v>
+      </c>
+      <c r="K66" s="3">
         <v>2771200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2205600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2066400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1710600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3636400</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>16</v>
       </c>
       <c r="Q66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3359,28 +3695,34 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>3284400</v>
       </c>
-      <c r="L70" s="3">
+      <c r="N70" s="3">
         <v>3242900</v>
       </c>
-      <c r="M70" s="3">
+      <c r="O70" s="3">
         <v>4323600</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
       <c r="P70" s="3">
         <v>0</v>
       </c>
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-4735500</v>
+        <v>-5554800</v>
       </c>
       <c r="E72" s="3">
-        <v>-4386200</v>
+        <v>-5334200</v>
       </c>
       <c r="F72" s="3">
-        <v>-3870000</v>
+        <v>-4913800</v>
       </c>
       <c r="G72" s="3">
-        <v>-3544300</v>
+        <v>-4551400</v>
       </c>
       <c r="H72" s="3">
-        <v>-3290400</v>
+        <v>-4015700</v>
       </c>
       <c r="I72" s="3">
+        <v>-3677700</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-3414300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-2796700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-2357100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-2130900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-2154600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-4631600</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>16</v>
       </c>
       <c r="Q72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1339600</v>
+        <v>887500</v>
       </c>
       <c r="E76" s="3">
-        <v>1683900</v>
+        <v>1050400</v>
       </c>
       <c r="F76" s="3">
-        <v>2083000</v>
+        <v>1390000</v>
       </c>
       <c r="G76" s="3">
-        <v>2313600</v>
+        <v>1747300</v>
       </c>
       <c r="H76" s="3">
-        <v>2524400</v>
+        <v>2161500</v>
       </c>
       <c r="I76" s="3">
+        <v>2400700</v>
+      </c>
+      <c r="J76" s="3">
+        <v>2619500</v>
+      </c>
+      <c r="K76" s="3">
         <v>2997500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>3268500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-2060900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-2055000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-4506300</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>16</v>
       </c>
       <c r="Q76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-349200</v>
+        <v>-209600</v>
       </c>
       <c r="E81" s="3">
-        <v>-516200</v>
+        <v>-417700</v>
       </c>
       <c r="F81" s="3">
-        <v>-325700</v>
+        <v>-362400</v>
       </c>
       <c r="G81" s="3">
-        <v>-253900</v>
+        <v>-535600</v>
       </c>
       <c r="H81" s="3">
-        <v>-486600</v>
+        <v>-338000</v>
       </c>
       <c r="I81" s="3">
+        <v>-263400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-504900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-439500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-294800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-98300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>2198300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1737000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-248500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-267600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-410200</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3864,17 +4262,23 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P83" s="3" t="s">
-        <v>16</v>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,31 +4536,37 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-197300</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
+        <v>-87800</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -4146,17 +4580,23 @@
       <c r="N89" s="3">
         <v>0</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P89" s="3" t="s">
-        <v>16</v>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4614,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4212,17 +4654,23 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>16</v>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,31 +4769,37 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>166200</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+        <v>-233700</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -4353,17 +4813,23 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>16</v>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,31 +5055,37 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>119500</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
+        <v>-11500</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -4607,40 +5099,46 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>16</v>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+        <v>9400</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -4654,40 +5152,46 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P101" s="3" t="s">
-        <v>16</v>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
       </c>
       <c r="Q101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>87000</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
+        <v>-323700</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
@@ -4701,13 +5205,19 @@
       <c r="N102" s="3">
         <v>0</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P102" s="3" t="s">
-        <v>16</v>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IQ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="92">
   <si>
     <t>IQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="4.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1076400</v>
+        <v>1093400</v>
       </c>
       <c r="E8" s="3">
-        <v>1111000</v>
+        <v>1127500</v>
       </c>
       <c r="F8" s="3">
-        <v>1088700</v>
+        <v>1163700</v>
       </c>
       <c r="G8" s="3">
-        <v>1074300</v>
+        <v>1140400</v>
       </c>
       <c r="H8" s="3">
-        <v>1032600</v>
+        <v>1125200</v>
       </c>
       <c r="I8" s="3">
-        <v>1015100</v>
+        <v>1081600</v>
       </c>
       <c r="J8" s="3">
+        <v>1063300</v>
+      </c>
+      <c r="K8" s="3">
         <v>1020600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>967700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>863600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>699800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>691200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>734700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>642100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>477600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>458800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>473800</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>992400</v>
+        <v>968000</v>
       </c>
       <c r="E9" s="3">
-        <v>1147700</v>
+        <v>1039500</v>
       </c>
       <c r="F9" s="3">
-        <v>1149400</v>
+        <v>1202200</v>
       </c>
       <c r="G9" s="3">
-        <v>1187400</v>
+        <v>1203900</v>
       </c>
       <c r="H9" s="3">
-        <v>1013800</v>
+        <v>1243700</v>
       </c>
       <c r="I9" s="3">
-        <v>1056900</v>
+        <v>1061900</v>
       </c>
       <c r="J9" s="3">
+        <v>1107000</v>
+      </c>
+      <c r="K9" s="3">
         <v>1237800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1071400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>854700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>695600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>650700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>726900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1304500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1035100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>453900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>456800</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>83900</v>
+        <v>125400</v>
       </c>
       <c r="E10" s="3">
-        <v>-36800</v>
+        <v>87900</v>
       </c>
       <c r="F10" s="3">
-        <v>-60700</v>
+        <v>-38500</v>
       </c>
       <c r="G10" s="3">
-        <v>-113100</v>
+        <v>-63600</v>
       </c>
       <c r="H10" s="3">
-        <v>18800</v>
+        <v>-118500</v>
       </c>
       <c r="I10" s="3">
-        <v>-41700</v>
+        <v>19700</v>
       </c>
       <c r="J10" s="3">
+        <v>-43700</v>
+      </c>
+      <c r="K10" s="3">
         <v>-217200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-103700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>40500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>7800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-662500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-557500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>96400</v>
+        <v>101900</v>
       </c>
       <c r="E12" s="3">
-        <v>98500</v>
+        <v>101000</v>
       </c>
       <c r="F12" s="3">
-        <v>103300</v>
+        <v>103200</v>
       </c>
       <c r="G12" s="3">
-        <v>102100</v>
+        <v>108200</v>
       </c>
       <c r="H12" s="3">
-        <v>95100</v>
+        <v>107000</v>
       </c>
       <c r="I12" s="3">
-        <v>86900</v>
+        <v>99600</v>
       </c>
       <c r="J12" s="3">
+        <v>91000</v>
+      </c>
+      <c r="K12" s="3">
         <v>88200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>78100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>61800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>55600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>52300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>50800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>87400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>78200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>35500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>33400</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1262500</v>
+        <v>1277400</v>
       </c>
       <c r="E17" s="3">
-        <v>1436600</v>
+        <v>1322400</v>
       </c>
       <c r="F17" s="3">
-        <v>1456000</v>
+        <v>1504700</v>
       </c>
       <c r="G17" s="3">
-        <v>1485500</v>
+        <v>1525000</v>
       </c>
       <c r="H17" s="3">
-        <v>1304400</v>
+        <v>1556000</v>
       </c>
       <c r="I17" s="3">
-        <v>1309400</v>
+        <v>1366300</v>
       </c>
       <c r="J17" s="3">
+        <v>1371500</v>
+      </c>
+      <c r="K17" s="3">
         <v>1503400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1330400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1049400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>852200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>814000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>893000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>789100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>628800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>569700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>557900</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-186100</v>
+        <v>-184000</v>
       </c>
       <c r="E18" s="3">
-        <v>-325600</v>
+        <v>-195000</v>
       </c>
       <c r="F18" s="3">
-        <v>-367200</v>
+        <v>-341000</v>
       </c>
       <c r="G18" s="3">
-        <v>-411200</v>
+        <v>-384700</v>
       </c>
       <c r="H18" s="3">
-        <v>-271800</v>
+        <v>-430700</v>
       </c>
       <c r="I18" s="3">
-        <v>-294200</v>
+        <v>-284700</v>
       </c>
       <c r="J18" s="3">
+        <v>-308200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-482800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-362700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-185900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-152400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-122800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-158300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-147000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-151200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-110900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-84100</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1279,61 +1312,65 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>18100</v>
+        <v>51200</v>
       </c>
       <c r="E20" s="3">
-        <v>-53200</v>
+        <v>19000</v>
       </c>
       <c r="F20" s="3">
-        <v>51200</v>
+        <v>-55800</v>
       </c>
       <c r="G20" s="3">
-        <v>-83100</v>
+        <v>53600</v>
       </c>
       <c r="H20" s="3">
-        <v>-26000</v>
+        <v>-87100</v>
       </c>
       <c r="I20" s="3">
-        <v>50300</v>
+        <v>-27200</v>
       </c>
       <c r="J20" s="3">
+        <v>52700</v>
+      </c>
+      <c r="K20" s="3">
         <v>3800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-73300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-106200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>96800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>39800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>17900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-20200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1367,170 +1404,179 @@
       <c r="M21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O21" s="3">
         <v>1174600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>835600</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S21" s="3">
         <v>598900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>443800</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>38600</v>
+        <v>41000</v>
       </c>
       <c r="E22" s="3">
-        <v>38100</v>
+        <v>40400</v>
       </c>
       <c r="F22" s="3">
-        <v>40200</v>
+        <v>39900</v>
       </c>
       <c r="G22" s="3">
-        <v>37000</v>
+        <v>42100</v>
       </c>
       <c r="H22" s="3">
-        <v>36000</v>
+        <v>38700</v>
       </c>
       <c r="I22" s="3">
-        <v>19600</v>
+        <v>37700</v>
       </c>
       <c r="J22" s="3">
+        <v>20600</v>
+      </c>
+      <c r="K22" s="3">
         <v>8900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>6300</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q22" s="3">
         <v>12200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>9900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>6100</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-206600</v>
+        <v>-173800</v>
       </c>
       <c r="E23" s="3">
-        <v>-416900</v>
+        <v>-216400</v>
       </c>
       <c r="F23" s="3">
-        <v>-356300</v>
+        <v>-436600</v>
       </c>
       <c r="G23" s="3">
-        <v>-531300</v>
+        <v>-373200</v>
       </c>
       <c r="H23" s="3">
-        <v>-333800</v>
+        <v>-556500</v>
       </c>
       <c r="I23" s="3">
-        <v>-263600</v>
+        <v>-349600</v>
       </c>
       <c r="J23" s="3">
+        <v>-276100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-487900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-438200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-293400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-56900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-89300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-156000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-141400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-162700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-137200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-91300</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2300</v>
+        <v>2900</v>
       </c>
       <c r="E24" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F24" s="3">
         <v>700</v>
       </c>
-      <c r="F24" s="3">
-        <v>3300</v>
-      </c>
       <c r="G24" s="3">
-        <v>2300</v>
+        <v>3400</v>
       </c>
       <c r="H24" s="3">
-        <v>800</v>
+        <v>2400</v>
       </c>
       <c r="I24" s="3">
+        <v>900</v>
+      </c>
+      <c r="J24" s="3">
         <v>1100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>11500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1400</v>
-      </c>
-      <c r="O24" s="3">
-        <v>100</v>
       </c>
       <c r="P24" s="3">
         <v>100</v>
@@ -1539,13 +1585,16 @@
         <v>100</v>
       </c>
       <c r="R24" s="3">
+        <v>100</v>
+      </c>
+      <c r="S24" s="3">
         <v>600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-208900</v>
+        <v>-176700</v>
       </c>
       <c r="E26" s="3">
-        <v>-417600</v>
+        <v>-218800</v>
       </c>
       <c r="F26" s="3">
-        <v>-359600</v>
+        <v>-437400</v>
       </c>
       <c r="G26" s="3">
-        <v>-533600</v>
+        <v>-376600</v>
       </c>
       <c r="H26" s="3">
-        <v>-334600</v>
+        <v>-558900</v>
       </c>
       <c r="I26" s="3">
-        <v>-264600</v>
+        <v>-350500</v>
       </c>
       <c r="J26" s="3">
+        <v>-277200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-499400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-437300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-294100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-56900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-87900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-156100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-141500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-162800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-137800</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-209600</v>
+        <v>-178900</v>
       </c>
       <c r="E27" s="3">
-        <v>-417700</v>
+        <v>-219600</v>
       </c>
       <c r="F27" s="3">
-        <v>-362400</v>
+        <v>-437600</v>
       </c>
       <c r="G27" s="3">
-        <v>-535600</v>
+        <v>-379600</v>
       </c>
       <c r="H27" s="3">
-        <v>-338000</v>
+        <v>-561000</v>
       </c>
       <c r="I27" s="3">
-        <v>-263400</v>
+        <v>-354100</v>
       </c>
       <c r="J27" s="3">
+        <v>-275900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-504900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-439500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-294800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-98300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2198300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1737000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-248500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-267600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-410200</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-18100</v>
+        <v>-51200</v>
       </c>
       <c r="E32" s="3">
-        <v>53200</v>
+        <v>-19000</v>
       </c>
       <c r="F32" s="3">
-        <v>-51200</v>
+        <v>55800</v>
       </c>
       <c r="G32" s="3">
-        <v>83100</v>
+        <v>-53600</v>
       </c>
       <c r="H32" s="3">
-        <v>26000</v>
+        <v>87100</v>
       </c>
       <c r="I32" s="3">
-        <v>-50300</v>
+        <v>27200</v>
       </c>
       <c r="J32" s="3">
+        <v>-52700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-3800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>73300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>106200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-96800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-39800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-17900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>20200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-209600</v>
+        <v>-178900</v>
       </c>
       <c r="E33" s="3">
-        <v>-417700</v>
+        <v>-219600</v>
       </c>
       <c r="F33" s="3">
-        <v>-362400</v>
+        <v>-437600</v>
       </c>
       <c r="G33" s="3">
-        <v>-535600</v>
+        <v>-379600</v>
       </c>
       <c r="H33" s="3">
-        <v>-338000</v>
+        <v>-561000</v>
       </c>
       <c r="I33" s="3">
-        <v>-263400</v>
+        <v>-354100</v>
       </c>
       <c r="J33" s="3">
+        <v>-275900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-504900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-439500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-294800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-98300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2198300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1737000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-248500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-267600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-410200</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-209600</v>
+        <v>-178900</v>
       </c>
       <c r="E35" s="3">
-        <v>-417700</v>
+        <v>-219600</v>
       </c>
       <c r="F35" s="3">
-        <v>-362400</v>
+        <v>-437600</v>
       </c>
       <c r="G35" s="3">
-        <v>-535600</v>
+        <v>-379600</v>
       </c>
       <c r="H35" s="3">
-        <v>-338000</v>
+        <v>-561000</v>
       </c>
       <c r="I35" s="3">
-        <v>-263400</v>
+        <v>-354100</v>
       </c>
       <c r="J35" s="3">
+        <v>-275900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-504900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-439500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-294800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-98300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2198300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1737000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-248500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-267600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-410200</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,50 +2313,51 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>621700</v>
+        <v>481200</v>
       </c>
       <c r="E41" s="3">
-        <v>536300</v>
+        <v>651200</v>
       </c>
       <c r="F41" s="3">
-        <v>861900</v>
+        <v>561800</v>
       </c>
       <c r="G41" s="3">
-        <v>654300</v>
+        <v>902800</v>
       </c>
       <c r="H41" s="3">
-        <v>788200</v>
+        <v>685300</v>
       </c>
       <c r="I41" s="3">
-        <v>1724500</v>
+        <v>825600</v>
       </c>
       <c r="J41" s="3">
+        <v>1806300</v>
+      </c>
+      <c r="K41" s="3">
         <v>666100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>816200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1159100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>57900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>105200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>176500</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2280,50 +2367,53 @@
       <c r="S41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>609400</v>
+        <v>548200</v>
       </c>
       <c r="E42" s="3">
-        <v>763700</v>
+        <v>638300</v>
       </c>
       <c r="F42" s="3">
+        <v>799900</v>
+      </c>
+      <c r="G42" s="3">
+        <v>696600</v>
+      </c>
+      <c r="H42" s="3">
+        <v>1040800</v>
+      </c>
+      <c r="I42" s="3">
+        <v>1341400</v>
+      </c>
+      <c r="J42" s="3">
+        <v>591100</v>
+      </c>
+      <c r="K42" s="3">
+        <v>880400</v>
+      </c>
+      <c r="L42" s="3">
+        <v>538000</v>
+      </c>
+      <c r="M42" s="3">
         <v>665100</v>
       </c>
-      <c r="G42" s="3">
-        <v>993600</v>
-      </c>
-      <c r="H42" s="3">
-        <v>1280600</v>
-      </c>
-      <c r="I42" s="3">
-        <v>564400</v>
-      </c>
-      <c r="J42" s="3">
-        <v>880400</v>
-      </c>
-      <c r="K42" s="3">
-        <v>538000</v>
-      </c>
-      <c r="L42" s="3">
-        <v>665100</v>
-      </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>70700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>111900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>497500</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2333,50 +2423,53 @@
       <c r="S42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>496400</v>
+        <v>521800</v>
       </c>
       <c r="E43" s="3">
-        <v>665200</v>
+        <v>520000</v>
       </c>
       <c r="F43" s="3">
-        <v>557600</v>
+        <v>696700</v>
       </c>
       <c r="G43" s="3">
-        <v>478600</v>
+        <v>584100</v>
       </c>
       <c r="H43" s="3">
-        <v>487800</v>
+        <v>501300</v>
       </c>
       <c r="I43" s="3">
-        <v>510700</v>
+        <v>510900</v>
       </c>
       <c r="J43" s="3">
+        <v>535000</v>
+      </c>
+      <c r="K43" s="3">
         <v>460500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>452200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>350200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>420800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>322200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>693700</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2386,50 +2479,53 @@
       <c r="S43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>171900</v>
+        <v>189800</v>
       </c>
       <c r="E44" s="3">
-        <v>208100</v>
+        <v>180100</v>
       </c>
       <c r="F44" s="3">
-        <v>177900</v>
+        <v>218000</v>
       </c>
       <c r="G44" s="3">
-        <v>192300</v>
+        <v>186300</v>
       </c>
       <c r="H44" s="3">
-        <v>170800</v>
+        <v>201400</v>
       </c>
       <c r="I44" s="3">
-        <v>183200</v>
+        <v>179000</v>
       </c>
       <c r="J44" s="3">
+        <v>191900</v>
+      </c>
+      <c r="K44" s="3">
         <v>169000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>147200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>162900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>172400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>117500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>110300</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q44" s="3" t="s">
         <v>16</v>
       </c>
@@ -2439,50 +2535,53 @@
       <c r="S44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>669900</v>
+        <v>626600</v>
       </c>
       <c r="E45" s="3">
-        <v>640600</v>
+        <v>701700</v>
       </c>
       <c r="F45" s="3">
-        <v>681700</v>
+        <v>671000</v>
       </c>
       <c r="G45" s="3">
-        <v>960100</v>
+        <v>714100</v>
       </c>
       <c r="H45" s="3">
-        <v>880200</v>
+        <v>1005600</v>
       </c>
       <c r="I45" s="3">
-        <v>737700</v>
+        <v>922000</v>
       </c>
       <c r="J45" s="3">
+        <v>772700</v>
+      </c>
+      <c r="K45" s="3">
         <v>707300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>430500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>377800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>145500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>161200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>137200</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2492,50 +2591,53 @@
       <c r="S45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2569400</v>
+        <v>2367500</v>
       </c>
       <c r="E46" s="3">
-        <v>2813900</v>
+        <v>2691300</v>
       </c>
       <c r="F46" s="3">
-        <v>2944200</v>
+        <v>2947400</v>
       </c>
       <c r="G46" s="3">
-        <v>3278800</v>
+        <v>3083900</v>
       </c>
       <c r="H46" s="3">
-        <v>3607700</v>
+        <v>3434400</v>
       </c>
       <c r="I46" s="3">
-        <v>3720600</v>
+        <v>3778800</v>
       </c>
       <c r="J46" s="3">
+        <v>3897100</v>
+      </c>
+      <c r="K46" s="3">
         <v>2883300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2384200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2715100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>867300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>817900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1615200</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2545,50 +2647,53 @@
       <c r="S46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>571500</v>
+        <v>601300</v>
       </c>
       <c r="E47" s="3">
-        <v>538200</v>
+        <v>598600</v>
       </c>
       <c r="F47" s="3">
-        <v>458100</v>
+        <v>563800</v>
       </c>
       <c r="G47" s="3">
-        <v>447200</v>
+        <v>479800</v>
       </c>
       <c r="H47" s="3">
-        <v>393300</v>
+        <v>468400</v>
       </c>
       <c r="I47" s="3">
-        <v>382400</v>
+        <v>411900</v>
       </c>
       <c r="J47" s="3">
+        <v>400600</v>
+      </c>
+      <c r="K47" s="3">
         <v>381200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>322800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>173900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>170000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>81500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>59000</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>16</v>
       </c>
@@ -2598,50 +2703,53 @@
       <c r="S47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>402500</v>
+        <v>375000</v>
       </c>
       <c r="E48" s="3">
-        <v>372900</v>
+        <v>421500</v>
       </c>
       <c r="F48" s="3">
-        <v>359800</v>
+        <v>390600</v>
       </c>
       <c r="G48" s="3">
-        <v>344100</v>
+        <v>376800</v>
       </c>
       <c r="H48" s="3">
-        <v>340400</v>
+        <v>360400</v>
       </c>
       <c r="I48" s="3">
-        <v>253700</v>
+        <v>356600</v>
       </c>
       <c r="J48" s="3">
+        <v>265700</v>
+      </c>
+      <c r="K48" s="3">
         <v>235000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>206500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>196600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>189200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>179200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>179600</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2651,50 +2759,53 @@
       <c r="S48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2143200</v>
+        <v>2453500</v>
       </c>
       <c r="E49" s="3">
-        <v>2197900</v>
+        <v>2244900</v>
       </c>
       <c r="F49" s="3">
-        <v>2228500</v>
+        <v>2302200</v>
       </c>
       <c r="G49" s="3">
-        <v>2422000</v>
+        <v>2334300</v>
       </c>
       <c r="H49" s="3">
-        <v>2303400</v>
+        <v>2536900</v>
       </c>
       <c r="I49" s="3">
-        <v>2322000</v>
+        <v>2412600</v>
       </c>
       <c r="J49" s="3">
+        <v>2432100</v>
+      </c>
+      <c r="K49" s="3">
         <v>2315500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2285000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1858100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1623800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1409900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1221500</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>16</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,50 +2927,53 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>453400</v>
+        <v>422600</v>
       </c>
       <c r="E52" s="3">
-        <v>400600</v>
+        <v>474900</v>
       </c>
       <c r="F52" s="3">
-        <v>514600</v>
+        <v>419600</v>
       </c>
       <c r="G52" s="3">
-        <v>523900</v>
+        <v>539000</v>
       </c>
       <c r="H52" s="3">
-        <v>652300</v>
+        <v>548800</v>
       </c>
       <c r="I52" s="3">
-        <v>751600</v>
+        <v>683200</v>
       </c>
       <c r="J52" s="3">
+        <v>787200</v>
+      </c>
+      <c r="K52" s="3">
         <v>685500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>570200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>530500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>439700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>409900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>378500</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>16</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,50 +3039,53 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6140000</v>
+        <v>6219900</v>
       </c>
       <c r="E54" s="3">
-        <v>6323500</v>
+        <v>6431200</v>
       </c>
       <c r="F54" s="3">
-        <v>6505200</v>
+        <v>6623500</v>
       </c>
       <c r="G54" s="3">
-        <v>7016000</v>
+        <v>6813800</v>
       </c>
       <c r="H54" s="3">
-        <v>7297000</v>
+        <v>7348900</v>
       </c>
       <c r="I54" s="3">
-        <v>7430200</v>
+        <v>7643100</v>
       </c>
       <c r="J54" s="3">
+        <v>7782700</v>
+      </c>
+      <c r="K54" s="3">
         <v>6500500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5768700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5474100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3289900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2898400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3453700</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>16</v>
       </c>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,50 +3141,51 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1117100</v>
+        <v>1134200</v>
       </c>
       <c r="E57" s="3">
-        <v>1209600</v>
+        <v>1170100</v>
       </c>
       <c r="F57" s="3">
-        <v>1192700</v>
+        <v>1267000</v>
       </c>
       <c r="G57" s="3">
-        <v>1465300</v>
+        <v>1249300</v>
       </c>
       <c r="H57" s="3">
-        <v>1391900</v>
+        <v>1534900</v>
       </c>
       <c r="I57" s="3">
-        <v>1503300</v>
+        <v>1457900</v>
       </c>
       <c r="J57" s="3">
+        <v>1574600</v>
+      </c>
+      <c r="K57" s="3">
         <v>1475900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1458800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1269100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1252000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1010300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1035600</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>16</v>
       </c>
@@ -3064,50 +3195,53 @@
       <c r="S57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>592600</v>
+        <v>690300</v>
       </c>
       <c r="E58" s="3">
-        <v>481900</v>
+        <v>620700</v>
       </c>
       <c r="F58" s="3">
-        <v>487200</v>
+        <v>504800</v>
       </c>
       <c r="G58" s="3">
-        <v>562500</v>
+        <v>510400</v>
       </c>
       <c r="H58" s="3">
-        <v>634800</v>
+        <v>589200</v>
       </c>
       <c r="I58" s="3">
-        <v>532300</v>
+        <v>664900</v>
       </c>
       <c r="J58" s="3">
+        <v>557600</v>
+      </c>
+      <c r="K58" s="3">
         <v>454600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>165500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>89900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>58400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>44400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1232000</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>16</v>
       </c>
@@ -3117,50 +3251,53 @@
       <c r="S58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1262700</v>
+        <v>1294500</v>
       </c>
       <c r="E59" s="3">
-        <v>1340500</v>
+        <v>1322600</v>
       </c>
       <c r="F59" s="3">
-        <v>1249800</v>
+        <v>1404100</v>
       </c>
       <c r="G59" s="3">
-        <v>1096800</v>
+        <v>1309100</v>
       </c>
       <c r="H59" s="3">
-        <v>1087600</v>
+        <v>1148900</v>
       </c>
       <c r="I59" s="3">
-        <v>967900</v>
+        <v>1139200</v>
       </c>
       <c r="J59" s="3">
+        <v>1013800</v>
+      </c>
+      <c r="K59" s="3">
         <v>946900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>887200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>710200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>619500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>613400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1325600</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3170,50 +3307,53 @@
       <c r="S59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2972400</v>
+        <v>3119000</v>
       </c>
       <c r="E60" s="3">
-        <v>3032100</v>
+        <v>3113400</v>
       </c>
       <c r="F60" s="3">
-        <v>2929700</v>
+        <v>3175900</v>
       </c>
       <c r="G60" s="3">
-        <v>3124700</v>
+        <v>3068700</v>
       </c>
       <c r="H60" s="3">
-        <v>3114300</v>
+        <v>3273000</v>
       </c>
       <c r="I60" s="3">
-        <v>3003500</v>
+        <v>3262000</v>
       </c>
       <c r="J60" s="3">
+        <v>3146000</v>
+      </c>
+      <c r="K60" s="3">
         <v>2877300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2511500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2069200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1929900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1668000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3593200</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>16</v>
       </c>
@@ -3223,50 +3363,53 @@
       <c r="S60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1972300</v>
+        <v>1967800</v>
       </c>
       <c r="E61" s="3">
-        <v>1959300</v>
+        <v>2065900</v>
       </c>
       <c r="F61" s="3">
-        <v>1913700</v>
+        <v>2052300</v>
       </c>
       <c r="G61" s="3">
-        <v>1915600</v>
+        <v>2004500</v>
       </c>
       <c r="H61" s="3">
-        <v>1786800</v>
+        <v>2006500</v>
       </c>
       <c r="I61" s="3">
-        <v>1772500</v>
+        <v>1871600</v>
       </c>
       <c r="J61" s="3">
+        <v>1856600</v>
+      </c>
+      <c r="K61" s="3">
         <v>777900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>38300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>39000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>40000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>40700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>42100</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3276,50 +3419,53 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>286100</v>
+        <v>300000</v>
       </c>
       <c r="E62" s="3">
-        <v>261100</v>
+        <v>299700</v>
       </c>
       <c r="F62" s="3">
-        <v>250900</v>
+        <v>273500</v>
       </c>
       <c r="G62" s="3">
-        <v>205400</v>
+        <v>262800</v>
       </c>
       <c r="H62" s="3">
-        <v>214700</v>
+        <v>215200</v>
       </c>
       <c r="I62" s="3">
-        <v>237500</v>
+        <v>224900</v>
       </c>
       <c r="J62" s="3">
+        <v>248700</v>
+      </c>
+      <c r="K62" s="3">
         <v>208500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>210000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>97000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>96100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1100</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>16</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,50 +3643,53 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5252500</v>
+        <v>5411400</v>
       </c>
       <c r="E66" s="3">
-        <v>5273100</v>
+        <v>5501700</v>
       </c>
       <c r="F66" s="3">
-        <v>5115200</v>
+        <v>5523300</v>
       </c>
       <c r="G66" s="3">
-        <v>5268800</v>
+        <v>5357900</v>
       </c>
       <c r="H66" s="3">
-        <v>5135500</v>
+        <v>5518700</v>
       </c>
       <c r="I66" s="3">
-        <v>5029500</v>
+        <v>5379100</v>
       </c>
       <c r="J66" s="3">
+        <v>5268100</v>
+      </c>
+      <c r="K66" s="3">
         <v>3880900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2771200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2205600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2066400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1710600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3636400</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>16</v>
       </c>
@@ -3541,8 +3699,11 @@
       <c r="S66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3701,17 +3869,17 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>3284400</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>3242900</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>4323600</v>
       </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
       <c r="Q70" s="3">
         <v>0</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,50 +3945,53 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-5554800</v>
+        <v>-5997200</v>
       </c>
       <c r="E72" s="3">
-        <v>-5334200</v>
+        <v>-5818300</v>
       </c>
       <c r="F72" s="3">
-        <v>-4913800</v>
+        <v>-5587300</v>
       </c>
       <c r="G72" s="3">
-        <v>-4551400</v>
+        <v>-5146900</v>
       </c>
       <c r="H72" s="3">
-        <v>-4015700</v>
+        <v>-4767300</v>
       </c>
       <c r="I72" s="3">
-        <v>-3677700</v>
+        <v>-4206300</v>
       </c>
       <c r="J72" s="3">
+        <v>-3852200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-3414300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2796700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2357100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2130900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2154600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4631600</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>16</v>
       </c>
@@ -3827,8 +4001,11 @@
       <c r="S72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,50 +4169,53 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>887500</v>
+        <v>808500</v>
       </c>
       <c r="E76" s="3">
-        <v>1050400</v>
+        <v>929600</v>
       </c>
       <c r="F76" s="3">
-        <v>1390000</v>
+        <v>1100200</v>
       </c>
       <c r="G76" s="3">
-        <v>1747300</v>
+        <v>1455900</v>
       </c>
       <c r="H76" s="3">
-        <v>2161500</v>
+        <v>1830100</v>
       </c>
       <c r="I76" s="3">
-        <v>2400700</v>
+        <v>2264000</v>
       </c>
       <c r="J76" s="3">
+        <v>2514600</v>
+      </c>
+      <c r="K76" s="3">
         <v>2619500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2997500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3268500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2060900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2055000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-4506300</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>16</v>
       </c>
@@ -4039,8 +4225,11 @@
       <c r="S76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-209600</v>
+        <v>-178900</v>
       </c>
       <c r="E81" s="3">
-        <v>-417700</v>
+        <v>-219600</v>
       </c>
       <c r="F81" s="3">
-        <v>-362400</v>
+        <v>-437600</v>
       </c>
       <c r="G81" s="3">
-        <v>-535600</v>
+        <v>-379600</v>
       </c>
       <c r="H81" s="3">
-        <v>-338000</v>
+        <v>-561000</v>
       </c>
       <c r="I81" s="3">
-        <v>-263400</v>
+        <v>-354100</v>
       </c>
       <c r="J81" s="3">
+        <v>-275900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-504900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-439500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-294800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-98300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2198300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1737000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-248500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-267600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-410200</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4268,8 +4467,8 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>16</v>
+      <c r="Q83" s="3">
+        <v>0</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>16</v>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,19 +4756,22 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-197300</v>
+        <v>-293500</v>
       </c>
       <c r="E89" s="3">
-        <v>-87800</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>16</v>
+        <v>-206600</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-91900</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>16</v>
@@ -4568,8 +4785,8 @@
       <c r="J89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
+      <c r="K89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
@@ -4586,8 +4803,8 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>16</v>
+      <c r="Q89" s="3">
+        <v>0</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>16</v>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4660,8 +4881,8 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>16</v>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>16</v>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,19 +5002,22 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>166200</v>
+        <v>52200</v>
       </c>
       <c r="E94" s="3">
-        <v>-233700</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>16</v>
+        <v>174100</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-244800</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>16</v>
@@ -4801,8 +5031,8 @@
       <c r="J94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -4819,8 +5049,8 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>16</v>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>16</v>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,19 +5304,22 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>119500</v>
+        <v>36200</v>
       </c>
       <c r="E100" s="3">
-        <v>-11500</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>16</v>
+        <v>125200</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-12100</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>16</v>
@@ -5087,8 +5333,8 @@
       <c r="J100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
+      <c r="K100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
@@ -5105,8 +5351,8 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>16</v>
+      <c r="Q100" s="3">
+        <v>0</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>16</v>
@@ -5114,19 +5360,22 @@
       <c r="S100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1500</v>
       </c>
-      <c r="E101" s="3">
-        <v>9400</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>16</v>
+      <c r="F101" s="3">
+        <v>9800</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>16</v>
@@ -5140,8 +5389,8 @@
       <c r="J101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -5158,8 +5407,8 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>16</v>
+      <c r="Q101" s="3">
+        <v>0</v>
       </c>
       <c r="R101" s="3" t="s">
         <v>16</v>
@@ -5167,19 +5416,22 @@
       <c r="S101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>87000</v>
+        <v>-222300</v>
       </c>
       <c r="E102" s="3">
-        <v>-323700</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>16</v>
+        <v>91100</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-339000</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>16</v>
@@ -5193,8 +5445,8 @@
       <c r="J102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
+      <c r="K102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
@@ -5211,13 +5463,16 @@
       <c r="P102" s="3">
         <v>0</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>16</v>
+      <c r="Q102" s="3">
+        <v>0</v>
       </c>
       <c r="R102" s="3" t="s">
         <v>16</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IQ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
   <si>
     <t>IQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="4.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1093400</v>
+        <v>1139500</v>
       </c>
       <c r="E8" s="3">
-        <v>1127500</v>
+        <v>1098100</v>
       </c>
       <c r="F8" s="3">
-        <v>1163700</v>
+        <v>1132300</v>
       </c>
       <c r="G8" s="3">
-        <v>1140400</v>
+        <v>1168700</v>
       </c>
       <c r="H8" s="3">
-        <v>1125200</v>
+        <v>1145300</v>
       </c>
       <c r="I8" s="3">
-        <v>1081600</v>
+        <v>1130100</v>
       </c>
       <c r="J8" s="3">
+        <v>1086300</v>
+      </c>
+      <c r="K8" s="3">
         <v>1063300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1020600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>967700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>863600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>699800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>691200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>734700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>642100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>477600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>458800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>473800</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>968000</v>
+        <v>1036500</v>
       </c>
       <c r="E9" s="3">
-        <v>1039500</v>
+        <v>972200</v>
       </c>
       <c r="F9" s="3">
-        <v>1202200</v>
+        <v>1044000</v>
       </c>
       <c r="G9" s="3">
-        <v>1203900</v>
+        <v>1207400</v>
       </c>
       <c r="H9" s="3">
-        <v>1243700</v>
+        <v>1209200</v>
       </c>
       <c r="I9" s="3">
-        <v>1061900</v>
+        <v>1249100</v>
       </c>
       <c r="J9" s="3">
+        <v>1066600</v>
+      </c>
+      <c r="K9" s="3">
         <v>1107000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1237800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1071400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>854700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>695600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>650700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>726900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1304500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1035100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>453900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>456800</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>125400</v>
+        <v>102900</v>
       </c>
       <c r="E10" s="3">
-        <v>87900</v>
+        <v>125900</v>
       </c>
       <c r="F10" s="3">
-        <v>-38500</v>
+        <v>88300</v>
       </c>
       <c r="G10" s="3">
-        <v>-63600</v>
+        <v>-38700</v>
       </c>
       <c r="H10" s="3">
-        <v>-118500</v>
+        <v>-63800</v>
       </c>
       <c r="I10" s="3">
+        <v>-119000</v>
+      </c>
+      <c r="J10" s="3">
         <v>19700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-43700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-217200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-103700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>8900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>40500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>7800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-662500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-557500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,64 +948,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>101900</v>
+        <v>101400</v>
       </c>
       <c r="E12" s="3">
-        <v>101000</v>
+        <v>102400</v>
       </c>
       <c r="F12" s="3">
-        <v>103200</v>
+        <v>101500</v>
       </c>
       <c r="G12" s="3">
-        <v>108200</v>
+        <v>103600</v>
       </c>
       <c r="H12" s="3">
-        <v>107000</v>
+        <v>108700</v>
       </c>
       <c r="I12" s="3">
-        <v>99600</v>
+        <v>107400</v>
       </c>
       <c r="J12" s="3">
+        <v>100000</v>
+      </c>
+      <c r="K12" s="3">
         <v>91000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>88200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>78100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>61800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>55600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>52300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>50800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>87400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>78200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>35500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>33400</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1104,8 +1123,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1277400</v>
+        <v>1339200</v>
       </c>
       <c r="E17" s="3">
-        <v>1322400</v>
+        <v>1282900</v>
       </c>
       <c r="F17" s="3">
-        <v>1504700</v>
+        <v>1328200</v>
       </c>
       <c r="G17" s="3">
-        <v>1525000</v>
+        <v>1511200</v>
       </c>
       <c r="H17" s="3">
-        <v>1556000</v>
+        <v>1531700</v>
       </c>
       <c r="I17" s="3">
-        <v>1366300</v>
+        <v>1562700</v>
       </c>
       <c r="J17" s="3">
+        <v>1372300</v>
+      </c>
+      <c r="K17" s="3">
         <v>1371500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1503400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1330400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1049400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>852200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>814000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>893000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>789100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>628800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>569700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>557900</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-184000</v>
+        <v>-199700</v>
       </c>
       <c r="E18" s="3">
-        <v>-195000</v>
+        <v>-184800</v>
       </c>
       <c r="F18" s="3">
-        <v>-341000</v>
+        <v>-195800</v>
       </c>
       <c r="G18" s="3">
-        <v>-384700</v>
+        <v>-342500</v>
       </c>
       <c r="H18" s="3">
-        <v>-430700</v>
+        <v>-386300</v>
       </c>
       <c r="I18" s="3">
-        <v>-284700</v>
+        <v>-432600</v>
       </c>
       <c r="J18" s="3">
+        <v>-286000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-308200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-482800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-362700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-185900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-152400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-122800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-158300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-147000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-151200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-110900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-84100</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1313,64 +1345,68 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>51200</v>
+        <v>4300</v>
       </c>
       <c r="E20" s="3">
-        <v>19000</v>
+        <v>51400</v>
       </c>
       <c r="F20" s="3">
-        <v>-55800</v>
+        <v>19100</v>
       </c>
       <c r="G20" s="3">
-        <v>53600</v>
+        <v>-56000</v>
       </c>
       <c r="H20" s="3">
-        <v>-87100</v>
+        <v>53800</v>
       </c>
       <c r="I20" s="3">
-        <v>-27200</v>
+        <v>-87400</v>
       </c>
       <c r="J20" s="3">
+        <v>-27300</v>
+      </c>
+      <c r="K20" s="3">
         <v>52700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-73300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-106200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>96800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>39800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>17900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-20200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1407,179 +1443,188 @@
       <c r="N21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P21" s="3">
         <v>1174600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>835600</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T21" s="3">
         <v>598900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>443800</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>41000</v>
+        <v>41100</v>
       </c>
       <c r="E22" s="3">
-        <v>40400</v>
+        <v>41100</v>
       </c>
       <c r="F22" s="3">
-        <v>39900</v>
+        <v>40600</v>
       </c>
       <c r="G22" s="3">
-        <v>42100</v>
+        <v>40000</v>
       </c>
       <c r="H22" s="3">
-        <v>38700</v>
+        <v>42300</v>
       </c>
       <c r="I22" s="3">
-        <v>37700</v>
+        <v>38900</v>
       </c>
       <c r="J22" s="3">
+        <v>37900</v>
+      </c>
+      <c r="K22" s="3">
         <v>20600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>8900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>6300</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R22" s="3">
         <v>12200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>9900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>6100</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-173800</v>
+        <v>-236600</v>
       </c>
       <c r="E23" s="3">
-        <v>-216400</v>
+        <v>-174600</v>
       </c>
       <c r="F23" s="3">
-        <v>-436600</v>
+        <v>-217300</v>
       </c>
       <c r="G23" s="3">
-        <v>-373200</v>
+        <v>-438500</v>
       </c>
       <c r="H23" s="3">
-        <v>-556500</v>
+        <v>-374800</v>
       </c>
       <c r="I23" s="3">
-        <v>-349600</v>
+        <v>-558900</v>
       </c>
       <c r="J23" s="3">
+        <v>-351100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-276100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-487900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-438200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-293400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-56900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-89300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-156000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-141400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-162700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-137200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-91300</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E24" s="3">
         <v>2900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>700</v>
       </c>
-      <c r="G24" s="3">
-        <v>3400</v>
-      </c>
       <c r="H24" s="3">
-        <v>2400</v>
+        <v>3500</v>
       </c>
       <c r="I24" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J24" s="3">
         <v>900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>11500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-1400</v>
-      </c>
-      <c r="P24" s="3">
-        <v>100</v>
       </c>
       <c r="Q24" s="3">
         <v>100</v>
@@ -1588,13 +1633,16 @@
         <v>100</v>
       </c>
       <c r="S24" s="3">
+        <v>100</v>
+      </c>
+      <c r="T24" s="3">
         <v>600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-176700</v>
+        <v>-234100</v>
       </c>
       <c r="E26" s="3">
-        <v>-218800</v>
+        <v>-177400</v>
       </c>
       <c r="F26" s="3">
-        <v>-437400</v>
+        <v>-219800</v>
       </c>
       <c r="G26" s="3">
-        <v>-376600</v>
+        <v>-439300</v>
       </c>
       <c r="H26" s="3">
-        <v>-558900</v>
+        <v>-378300</v>
       </c>
       <c r="I26" s="3">
-        <v>-350500</v>
+        <v>-561400</v>
       </c>
       <c r="J26" s="3">
+        <v>-352000</v>
+      </c>
+      <c r="K26" s="3">
         <v>-277200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-499400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-437300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-294100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-56900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-87900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-156100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-141500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-162800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-137800</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-178900</v>
+        <v>-236700</v>
       </c>
       <c r="E27" s="3">
-        <v>-219600</v>
+        <v>-179700</v>
       </c>
       <c r="F27" s="3">
-        <v>-437600</v>
+        <v>-220500</v>
       </c>
       <c r="G27" s="3">
-        <v>-379600</v>
+        <v>-439500</v>
       </c>
       <c r="H27" s="3">
-        <v>-561000</v>
+        <v>-381200</v>
       </c>
       <c r="I27" s="3">
-        <v>-354100</v>
+        <v>-563500</v>
       </c>
       <c r="J27" s="3">
+        <v>-355600</v>
+      </c>
+      <c r="K27" s="3">
         <v>-275900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-504900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-439500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-294800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-98300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2198300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1737000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-248500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-267600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-410200</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-51200</v>
+        <v>-4300</v>
       </c>
       <c r="E32" s="3">
-        <v>-19000</v>
+        <v>-51400</v>
       </c>
       <c r="F32" s="3">
-        <v>55800</v>
+        <v>-19100</v>
       </c>
       <c r="G32" s="3">
-        <v>-53600</v>
+        <v>56000</v>
       </c>
       <c r="H32" s="3">
-        <v>87100</v>
+        <v>-53800</v>
       </c>
       <c r="I32" s="3">
-        <v>27200</v>
+        <v>87400</v>
       </c>
       <c r="J32" s="3">
+        <v>27300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-52700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>73300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>106200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-96800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-39800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-17900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>20200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-178900</v>
+        <v>-236700</v>
       </c>
       <c r="E33" s="3">
-        <v>-219600</v>
+        <v>-179700</v>
       </c>
       <c r="F33" s="3">
-        <v>-437600</v>
+        <v>-220500</v>
       </c>
       <c r="G33" s="3">
-        <v>-379600</v>
+        <v>-439500</v>
       </c>
       <c r="H33" s="3">
-        <v>-561000</v>
+        <v>-381200</v>
       </c>
       <c r="I33" s="3">
-        <v>-354100</v>
+        <v>-563500</v>
       </c>
       <c r="J33" s="3">
+        <v>-355600</v>
+      </c>
+      <c r="K33" s="3">
         <v>-275900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-504900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-439500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-294800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-98300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2198300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1737000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-248500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-267600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-410200</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-178900</v>
+        <v>-236700</v>
       </c>
       <c r="E35" s="3">
-        <v>-219600</v>
+        <v>-179700</v>
       </c>
       <c r="F35" s="3">
-        <v>-437600</v>
+        <v>-220500</v>
       </c>
       <c r="G35" s="3">
-        <v>-379600</v>
+        <v>-439500</v>
       </c>
       <c r="H35" s="3">
-        <v>-561000</v>
+        <v>-381200</v>
       </c>
       <c r="I35" s="3">
-        <v>-354100</v>
+        <v>-563500</v>
       </c>
       <c r="J35" s="3">
+        <v>-355600</v>
+      </c>
+      <c r="K35" s="3">
         <v>-275900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-504900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-439500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-294800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-98300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2198300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1737000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-248500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-267600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-410200</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,53 +2399,54 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>481200</v>
+        <v>1667600</v>
       </c>
       <c r="E41" s="3">
-        <v>651200</v>
+        <v>483300</v>
       </c>
       <c r="F41" s="3">
-        <v>561800</v>
+        <v>654000</v>
       </c>
       <c r="G41" s="3">
-        <v>902800</v>
+        <v>564200</v>
       </c>
       <c r="H41" s="3">
-        <v>685300</v>
+        <v>906700</v>
       </c>
       <c r="I41" s="3">
-        <v>825600</v>
+        <v>688300</v>
       </c>
       <c r="J41" s="3">
+        <v>829200</v>
+      </c>
+      <c r="K41" s="3">
         <v>1806300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>666100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>816200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1159100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>57900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>105200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>176500</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2370,53 +2456,56 @@
       <c r="T41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>548200</v>
+        <v>513100</v>
       </c>
       <c r="E42" s="3">
-        <v>638300</v>
+        <v>550600</v>
       </c>
       <c r="F42" s="3">
-        <v>799900</v>
+        <v>641100</v>
       </c>
       <c r="G42" s="3">
-        <v>696600</v>
+        <v>803400</v>
       </c>
       <c r="H42" s="3">
-        <v>1040800</v>
+        <v>699600</v>
       </c>
       <c r="I42" s="3">
-        <v>1341400</v>
+        <v>1045300</v>
       </c>
       <c r="J42" s="3">
+        <v>1347200</v>
+      </c>
+      <c r="K42" s="3">
         <v>591100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>880400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>538000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>665100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>70700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>111900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>497500</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2426,53 +2515,56 @@
       <c r="T42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>521800</v>
+        <v>525600</v>
       </c>
       <c r="E43" s="3">
-        <v>520000</v>
+        <v>524000</v>
       </c>
       <c r="F43" s="3">
-        <v>696700</v>
+        <v>522200</v>
       </c>
       <c r="G43" s="3">
-        <v>584100</v>
+        <v>699700</v>
       </c>
       <c r="H43" s="3">
-        <v>501300</v>
+        <v>586600</v>
       </c>
       <c r="I43" s="3">
-        <v>510900</v>
+        <v>503500</v>
       </c>
       <c r="J43" s="3">
+        <v>513100</v>
+      </c>
+      <c r="K43" s="3">
         <v>535000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>460500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>452200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>350200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>420800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>322200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>693700</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2482,53 +2574,56 @@
       <c r="T43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>189800</v>
+        <v>158200</v>
       </c>
       <c r="E44" s="3">
-        <v>180100</v>
+        <v>190600</v>
       </c>
       <c r="F44" s="3">
-        <v>218000</v>
+        <v>180900</v>
       </c>
       <c r="G44" s="3">
-        <v>186300</v>
+        <v>218900</v>
       </c>
       <c r="H44" s="3">
-        <v>201400</v>
+        <v>187100</v>
       </c>
       <c r="I44" s="3">
-        <v>179000</v>
+        <v>202200</v>
       </c>
       <c r="J44" s="3">
+        <v>179700</v>
+      </c>
+      <c r="K44" s="3">
         <v>191900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>169000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>147200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>162900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>172400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>117500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>110300</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R44" s="3" t="s">
         <v>16</v>
       </c>
@@ -2538,53 +2633,56 @@
       <c r="T44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>626600</v>
+        <v>541000</v>
       </c>
       <c r="E45" s="3">
-        <v>701700</v>
+        <v>629300</v>
       </c>
       <c r="F45" s="3">
-        <v>671000</v>
+        <v>704800</v>
       </c>
       <c r="G45" s="3">
-        <v>714100</v>
+        <v>673900</v>
       </c>
       <c r="H45" s="3">
-        <v>1005600</v>
+        <v>717200</v>
       </c>
       <c r="I45" s="3">
-        <v>922000</v>
+        <v>1010000</v>
       </c>
       <c r="J45" s="3">
+        <v>926000</v>
+      </c>
+      <c r="K45" s="3">
         <v>772700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>707300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>430500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>377800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>145500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>161200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>137200</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2594,53 +2692,56 @@
       <c r="T45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2367500</v>
+        <v>3405500</v>
       </c>
       <c r="E46" s="3">
-        <v>2691300</v>
+        <v>2377800</v>
       </c>
       <c r="F46" s="3">
-        <v>2947400</v>
+        <v>2703000</v>
       </c>
       <c r="G46" s="3">
-        <v>3083900</v>
+        <v>2960200</v>
       </c>
       <c r="H46" s="3">
-        <v>3434400</v>
+        <v>3097300</v>
       </c>
       <c r="I46" s="3">
-        <v>3778800</v>
+        <v>3449300</v>
       </c>
       <c r="J46" s="3">
+        <v>3795200</v>
+      </c>
+      <c r="K46" s="3">
         <v>3897100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2883300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2384200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2715100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>867300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>817900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1615200</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2650,53 +2751,56 @@
       <c r="T46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>601300</v>
+        <v>495300</v>
       </c>
       <c r="E47" s="3">
-        <v>598600</v>
+        <v>603900</v>
       </c>
       <c r="F47" s="3">
-        <v>563800</v>
+        <v>601200</v>
       </c>
       <c r="G47" s="3">
-        <v>479800</v>
+        <v>566200</v>
       </c>
       <c r="H47" s="3">
-        <v>468400</v>
+        <v>481900</v>
       </c>
       <c r="I47" s="3">
-        <v>411900</v>
+        <v>470500</v>
       </c>
       <c r="J47" s="3">
+        <v>413700</v>
+      </c>
+      <c r="K47" s="3">
         <v>400600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>381200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>322800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>173900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>170000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>81500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>59000</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>16</v>
       </c>
@@ -2706,53 +2810,56 @@
       <c r="T47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>375000</v>
+        <v>366000</v>
       </c>
       <c r="E48" s="3">
-        <v>421500</v>
+        <v>376700</v>
       </c>
       <c r="F48" s="3">
-        <v>390600</v>
+        <v>423400</v>
       </c>
       <c r="G48" s="3">
-        <v>376800</v>
+        <v>392300</v>
       </c>
       <c r="H48" s="3">
-        <v>360400</v>
+        <v>378500</v>
       </c>
       <c r="I48" s="3">
-        <v>356600</v>
+        <v>362000</v>
       </c>
       <c r="J48" s="3">
+        <v>358100</v>
+      </c>
+      <c r="K48" s="3">
         <v>265700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>235000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>206500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>196600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>189200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>179200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>179600</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2762,53 +2869,56 @@
       <c r="T48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2453500</v>
+        <v>2674700</v>
       </c>
       <c r="E49" s="3">
-        <v>2244900</v>
+        <v>2464100</v>
       </c>
       <c r="F49" s="3">
-        <v>2302200</v>
+        <v>2254600</v>
       </c>
       <c r="G49" s="3">
-        <v>2334300</v>
+        <v>2312100</v>
       </c>
       <c r="H49" s="3">
-        <v>2536900</v>
+        <v>2344400</v>
       </c>
       <c r="I49" s="3">
-        <v>2412600</v>
+        <v>2547900</v>
       </c>
       <c r="J49" s="3">
+        <v>2423100</v>
+      </c>
+      <c r="K49" s="3">
         <v>2432100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2315500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2285000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1858100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1623800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1409900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1221500</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R49" s="3" t="s">
         <v>16</v>
       </c>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,53 +3046,56 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>422600</v>
+        <v>420300</v>
       </c>
       <c r="E52" s="3">
-        <v>474900</v>
+        <v>424400</v>
       </c>
       <c r="F52" s="3">
-        <v>419600</v>
+        <v>477000</v>
       </c>
       <c r="G52" s="3">
-        <v>539000</v>
+        <v>421400</v>
       </c>
       <c r="H52" s="3">
-        <v>548800</v>
+        <v>541400</v>
       </c>
       <c r="I52" s="3">
-        <v>683200</v>
+        <v>551200</v>
       </c>
       <c r="J52" s="3">
+        <v>686200</v>
+      </c>
+      <c r="K52" s="3">
         <v>787200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>685500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>570200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>530500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>439700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>409900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>378500</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>16</v>
       </c>
@@ -2986,8 +3105,11 @@
       <c r="T52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,53 +3164,56 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6219900</v>
+        <v>7361800</v>
       </c>
       <c r="E54" s="3">
-        <v>6431200</v>
+        <v>6246900</v>
       </c>
       <c r="F54" s="3">
-        <v>6623500</v>
+        <v>6459100</v>
       </c>
       <c r="G54" s="3">
-        <v>6813800</v>
+        <v>6652200</v>
       </c>
       <c r="H54" s="3">
-        <v>7348900</v>
+        <v>6843400</v>
       </c>
       <c r="I54" s="3">
-        <v>7643100</v>
+        <v>7380800</v>
       </c>
       <c r="J54" s="3">
+        <v>7676300</v>
+      </c>
+      <c r="K54" s="3">
         <v>7782700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6500500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5768700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5474100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3289900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2898400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3453700</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>16</v>
       </c>
@@ -3098,8 +3223,11 @@
       <c r="T54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,53 +3271,54 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1134200</v>
+        <v>1155300</v>
       </c>
       <c r="E57" s="3">
-        <v>1170100</v>
+        <v>1139100</v>
       </c>
       <c r="F57" s="3">
-        <v>1267000</v>
+        <v>1175100</v>
       </c>
       <c r="G57" s="3">
-        <v>1249300</v>
+        <v>1272500</v>
       </c>
       <c r="H57" s="3">
-        <v>1534900</v>
+        <v>1254700</v>
       </c>
       <c r="I57" s="3">
-        <v>1457900</v>
+        <v>1541500</v>
       </c>
       <c r="J57" s="3">
+        <v>1464200</v>
+      </c>
+      <c r="K57" s="3">
         <v>1574600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1475900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1458800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1269100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1252000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1010300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1035600</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>16</v>
       </c>
@@ -3198,53 +3328,56 @@
       <c r="T57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>690300</v>
+        <v>1318000</v>
       </c>
       <c r="E58" s="3">
-        <v>620700</v>
+        <v>693300</v>
       </c>
       <c r="F58" s="3">
-        <v>504800</v>
+        <v>623400</v>
       </c>
       <c r="G58" s="3">
-        <v>510400</v>
+        <v>507000</v>
       </c>
       <c r="H58" s="3">
-        <v>589200</v>
+        <v>512600</v>
       </c>
       <c r="I58" s="3">
-        <v>664900</v>
+        <v>591800</v>
       </c>
       <c r="J58" s="3">
+        <v>667800</v>
+      </c>
+      <c r="K58" s="3">
         <v>557600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>454600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>165500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>89900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>58400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>44400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1232000</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>16</v>
       </c>
@@ -3254,53 +3387,56 @@
       <c r="T58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1294500</v>
+        <v>1324000</v>
       </c>
       <c r="E59" s="3">
-        <v>1322600</v>
+        <v>1300100</v>
       </c>
       <c r="F59" s="3">
-        <v>1404100</v>
+        <v>1328300</v>
       </c>
       <c r="G59" s="3">
-        <v>1309100</v>
+        <v>1410200</v>
       </c>
       <c r="H59" s="3">
-        <v>1148900</v>
+        <v>1314800</v>
       </c>
       <c r="I59" s="3">
-        <v>1139200</v>
+        <v>1153900</v>
       </c>
       <c r="J59" s="3">
+        <v>1144200</v>
+      </c>
+      <c r="K59" s="3">
         <v>1013800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>946900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>887200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>710200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>619500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>613400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1325600</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3310,53 +3446,56 @@
       <c r="T59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3119000</v>
+        <v>3797300</v>
       </c>
       <c r="E60" s="3">
-        <v>3113400</v>
+        <v>3132500</v>
       </c>
       <c r="F60" s="3">
-        <v>3175900</v>
+        <v>3126900</v>
       </c>
       <c r="G60" s="3">
-        <v>3068700</v>
+        <v>3189700</v>
       </c>
       <c r="H60" s="3">
-        <v>3273000</v>
+        <v>3082100</v>
       </c>
       <c r="I60" s="3">
-        <v>3262000</v>
+        <v>3287200</v>
       </c>
       <c r="J60" s="3">
+        <v>3276200</v>
+      </c>
+      <c r="K60" s="3">
         <v>3146000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2877300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2511500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2069200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1929900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1668000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3593200</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>16</v>
       </c>
@@ -3366,53 +3505,56 @@
       <c r="T60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1967800</v>
+        <v>1822200</v>
       </c>
       <c r="E61" s="3">
-        <v>2065900</v>
+        <v>1976300</v>
       </c>
       <c r="F61" s="3">
-        <v>2052300</v>
+        <v>2074900</v>
       </c>
       <c r="G61" s="3">
-        <v>2004500</v>
+        <v>2061200</v>
       </c>
       <c r="H61" s="3">
-        <v>2006500</v>
+        <v>2013200</v>
       </c>
       <c r="I61" s="3">
-        <v>1871600</v>
+        <v>2015200</v>
       </c>
       <c r="J61" s="3">
+        <v>1879700</v>
+      </c>
+      <c r="K61" s="3">
         <v>1856600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>777900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>38300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>39000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>40000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>40700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>42100</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3422,53 +3564,56 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>300000</v>
+        <v>299400</v>
       </c>
       <c r="E62" s="3">
-        <v>299700</v>
+        <v>301300</v>
       </c>
       <c r="F62" s="3">
-        <v>273500</v>
+        <v>301000</v>
       </c>
       <c r="G62" s="3">
-        <v>262800</v>
+        <v>274700</v>
       </c>
       <c r="H62" s="3">
-        <v>215200</v>
+        <v>263900</v>
       </c>
       <c r="I62" s="3">
-        <v>224900</v>
+        <v>216100</v>
       </c>
       <c r="J62" s="3">
+        <v>225900</v>
+      </c>
+      <c r="K62" s="3">
         <v>248700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>208500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>210000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>97000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>96100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1100</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>16</v>
       </c>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,53 +3800,56 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5411400</v>
+        <v>5947500</v>
       </c>
       <c r="E66" s="3">
-        <v>5501700</v>
+        <v>5434900</v>
       </c>
       <c r="F66" s="3">
-        <v>5523300</v>
+        <v>5525500</v>
       </c>
       <c r="G66" s="3">
-        <v>5357900</v>
+        <v>5547200</v>
       </c>
       <c r="H66" s="3">
-        <v>5518700</v>
+        <v>5381100</v>
       </c>
       <c r="I66" s="3">
-        <v>5379100</v>
+        <v>5542700</v>
       </c>
       <c r="J66" s="3">
+        <v>5402400</v>
+      </c>
+      <c r="K66" s="3">
         <v>5268100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3880900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2771200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2205600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2066400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1710600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3636400</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>16</v>
       </c>
@@ -3702,8 +3859,11 @@
       <c r="T66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3872,17 +4039,17 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
         <v>3284400</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>3242900</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>4323600</v>
       </c>
-      <c r="Q70" s="3">
-        <v>0</v>
-      </c>
       <c r="R70" s="3">
         <v>0</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,53 +4118,56 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-5997200</v>
+        <v>-6260000</v>
       </c>
       <c r="E72" s="3">
-        <v>-5818300</v>
+        <v>-6023300</v>
       </c>
       <c r="F72" s="3">
-        <v>-5587300</v>
+        <v>-5843600</v>
       </c>
       <c r="G72" s="3">
-        <v>-5146900</v>
+        <v>-5611500</v>
       </c>
       <c r="H72" s="3">
-        <v>-4767300</v>
+        <v>-5169200</v>
       </c>
       <c r="I72" s="3">
-        <v>-4206300</v>
+        <v>-4788000</v>
       </c>
       <c r="J72" s="3">
+        <v>-4224500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-3852200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3414300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2796700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2357100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2130900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2154600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-4631600</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>16</v>
       </c>
@@ -4004,8 +4177,11 @@
       <c r="T72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,53 +4354,56 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>808500</v>
+        <v>1414200</v>
       </c>
       <c r="E76" s="3">
-        <v>929600</v>
+        <v>812000</v>
       </c>
       <c r="F76" s="3">
-        <v>1100200</v>
+        <v>933600</v>
       </c>
       <c r="G76" s="3">
-        <v>1455900</v>
+        <v>1105000</v>
       </c>
       <c r="H76" s="3">
-        <v>1830100</v>
+        <v>1462300</v>
       </c>
       <c r="I76" s="3">
-        <v>2264000</v>
+        <v>1838100</v>
       </c>
       <c r="J76" s="3">
+        <v>2273900</v>
+      </c>
+      <c r="K76" s="3">
         <v>2514600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2619500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2997500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3268500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2060900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2055000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-4506300</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>16</v>
       </c>
@@ -4228,8 +4413,11 @@
       <c r="T76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-178900</v>
+        <v>-236700</v>
       </c>
       <c r="E81" s="3">
-        <v>-219600</v>
+        <v>-179700</v>
       </c>
       <c r="F81" s="3">
-        <v>-437600</v>
+        <v>-220500</v>
       </c>
       <c r="G81" s="3">
-        <v>-379600</v>
+        <v>-439500</v>
       </c>
       <c r="H81" s="3">
-        <v>-561000</v>
+        <v>-381200</v>
       </c>
       <c r="I81" s="3">
-        <v>-354100</v>
+        <v>-563500</v>
       </c>
       <c r="J81" s="3">
+        <v>-355600</v>
+      </c>
+      <c r="K81" s="3">
         <v>-275900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-504900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-439500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-294800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-98300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2198300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1737000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-248500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-267600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-410200</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4470,8 +4668,8 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>16</v>
+      <c r="R83" s="3">
+        <v>0</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>16</v>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,22 +4972,25 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-293500</v>
+        <v>-232100</v>
       </c>
       <c r="E89" s="3">
-        <v>-206600</v>
+        <v>-294700</v>
       </c>
       <c r="F89" s="3">
-        <v>-91900</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>16</v>
+        <v>-207500</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-92300</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>16</v>
@@ -4788,8 +5004,8 @@
       <c r="K89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
+      <c r="L89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
@@ -4806,8 +5022,8 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>16</v>
+      <c r="R89" s="3">
+        <v>0</v>
       </c>
       <c r="S89" s="3" t="s">
         <v>16</v>
@@ -4815,8 +5031,11 @@
       <c r="T89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4884,8 +5104,8 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>16</v>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>16</v>
@@ -4893,8 +5113,11 @@
       <c r="T91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,22 +5231,25 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>52200</v>
+        <v>43000</v>
       </c>
       <c r="E94" s="3">
-        <v>174100</v>
+        <v>52400</v>
       </c>
       <c r="F94" s="3">
-        <v>-244800</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>16</v>
+        <v>174800</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-245900</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>16</v>
@@ -5034,8 +5263,8 @@
       <c r="K94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -5052,8 +5281,8 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>16</v>
+      <c r="R94" s="3">
+        <v>0</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>16</v>
@@ -5061,8 +5290,11 @@
       <c r="T94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,23 +5549,26 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>36200</v>
+        <v>1282200</v>
       </c>
       <c r="E100" s="3">
-        <v>125200</v>
+        <v>36400</v>
       </c>
       <c r="F100" s="3">
+        <v>125700</v>
+      </c>
+      <c r="G100" s="3">
         <v>-12100</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>16</v>
       </c>
@@ -5336,8 +5581,8 @@
       <c r="K100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
+      <c r="L100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -5354,8 +5599,8 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>16</v>
+      <c r="R100" s="3">
+        <v>0</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>16</v>
@@ -5363,22 +5608,25 @@
       <c r="T100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-17200</v>
+        <v>-5000</v>
       </c>
       <c r="E101" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="F101" s="3">
         <v>-1500</v>
       </c>
-      <c r="F101" s="3">
-        <v>9800</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>16</v>
+      <c r="G101" s="3">
+        <v>9900</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>16</v>
@@ -5392,8 +5640,8 @@
       <c r="K101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -5410,8 +5658,8 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>16</v>
+      <c r="R101" s="3">
+        <v>0</v>
       </c>
       <c r="S101" s="3" t="s">
         <v>16</v>
@@ -5419,22 +5667,25 @@
       <c r="T101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-222300</v>
+        <v>1088100</v>
       </c>
       <c r="E102" s="3">
-        <v>91100</v>
+        <v>-223200</v>
       </c>
       <c r="F102" s="3">
-        <v>-339000</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>16</v>
+        <v>91500</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-340500</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>16</v>
@@ -5448,8 +5699,8 @@
       <c r="K102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
+      <c r="L102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
@@ -5466,13 +5717,16 @@
       <c r="Q102" s="3">
         <v>0</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>16</v>
+      <c r="R102" s="3">
+        <v>0</v>
       </c>
       <c r="S102" s="3" t="s">
         <v>16</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IQ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
   <si>
     <t>IQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="4.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1139500</v>
+        <v>1243200</v>
       </c>
       <c r="E8" s="3">
-        <v>1098100</v>
+        <v>1163600</v>
       </c>
       <c r="F8" s="3">
-        <v>1132300</v>
+        <v>1121400</v>
       </c>
       <c r="G8" s="3">
-        <v>1168700</v>
+        <v>1156300</v>
       </c>
       <c r="H8" s="3">
-        <v>1145300</v>
+        <v>1193400</v>
       </c>
       <c r="I8" s="3">
-        <v>1130100</v>
+        <v>1169500</v>
       </c>
       <c r="J8" s="3">
+        <v>1154000</v>
+      </c>
+      <c r="K8" s="3">
         <v>1086300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1063300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1020600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>967700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>863600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>699800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>691200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>734700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>642100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>477600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>458800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>473800</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1036500</v>
+        <v>1109100</v>
       </c>
       <c r="E9" s="3">
-        <v>972200</v>
+        <v>1058500</v>
       </c>
       <c r="F9" s="3">
-        <v>1044000</v>
+        <v>992800</v>
       </c>
       <c r="G9" s="3">
-        <v>1207400</v>
+        <v>1066100</v>
       </c>
       <c r="H9" s="3">
-        <v>1209200</v>
+        <v>1232900</v>
       </c>
       <c r="I9" s="3">
-        <v>1249100</v>
+        <v>1234700</v>
       </c>
       <c r="J9" s="3">
+        <v>1275500</v>
+      </c>
+      <c r="K9" s="3">
         <v>1066600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1107000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1237800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1071400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>854700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>695600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>650700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>726900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1304500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1035100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>453900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>456800</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>102900</v>
+        <v>134000</v>
       </c>
       <c r="E10" s="3">
-        <v>125900</v>
+        <v>105100</v>
       </c>
       <c r="F10" s="3">
-        <v>88300</v>
+        <v>128600</v>
       </c>
       <c r="G10" s="3">
-        <v>-38700</v>
+        <v>90200</v>
       </c>
       <c r="H10" s="3">
-        <v>-63800</v>
+        <v>-39500</v>
       </c>
       <c r="I10" s="3">
-        <v>-119000</v>
+        <v>-65200</v>
       </c>
       <c r="J10" s="3">
+        <v>-121500</v>
+      </c>
+      <c r="K10" s="3">
         <v>19700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-43700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-217200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-103700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>8900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>40500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>7800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-662500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-557500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,67 +962,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>101400</v>
+        <v>104900</v>
       </c>
       <c r="E12" s="3">
-        <v>102400</v>
+        <v>103500</v>
       </c>
       <c r="F12" s="3">
-        <v>101500</v>
+        <v>104500</v>
       </c>
       <c r="G12" s="3">
         <v>103600</v>
       </c>
       <c r="H12" s="3">
-        <v>108700</v>
+        <v>105800</v>
       </c>
       <c r="I12" s="3">
-        <v>107400</v>
+        <v>111000</v>
       </c>
       <c r="J12" s="3">
+        <v>109700</v>
+      </c>
+      <c r="K12" s="3">
         <v>100000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>91000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>88200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>78100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>61800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>55600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>52300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>50800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>87400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>78200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>35500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>33400</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1339200</v>
+        <v>1401400</v>
       </c>
       <c r="E17" s="3">
-        <v>1282900</v>
+        <v>1367500</v>
       </c>
       <c r="F17" s="3">
-        <v>1328200</v>
+        <v>1310100</v>
       </c>
       <c r="G17" s="3">
-        <v>1511200</v>
+        <v>1356200</v>
       </c>
       <c r="H17" s="3">
-        <v>1531700</v>
+        <v>1543200</v>
       </c>
       <c r="I17" s="3">
-        <v>1562700</v>
+        <v>1564000</v>
       </c>
       <c r="J17" s="3">
+        <v>1595700</v>
+      </c>
+      <c r="K17" s="3">
         <v>1372300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1371500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1503400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1330400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1049400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>852200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>814000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>893000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>789100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>628800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>569700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>557900</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-199700</v>
+        <v>-158200</v>
       </c>
       <c r="E18" s="3">
-        <v>-184800</v>
+        <v>-204000</v>
       </c>
       <c r="F18" s="3">
-        <v>-195800</v>
+        <v>-188700</v>
       </c>
       <c r="G18" s="3">
-        <v>-342500</v>
+        <v>-200000</v>
       </c>
       <c r="H18" s="3">
-        <v>-386300</v>
+        <v>-349700</v>
       </c>
       <c r="I18" s="3">
-        <v>-432600</v>
+        <v>-394500</v>
       </c>
       <c r="J18" s="3">
+        <v>-441800</v>
+      </c>
+      <c r="K18" s="3">
         <v>-286000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-308200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-482800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-362700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-185900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-152400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-122800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-158300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-147000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-151200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-110900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-84100</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1346,67 +1379,71 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>4300</v>
+        <v>16900</v>
       </c>
       <c r="E20" s="3">
-        <v>51400</v>
+        <v>4400</v>
       </c>
       <c r="F20" s="3">
-        <v>19100</v>
+        <v>52500</v>
       </c>
       <c r="G20" s="3">
-        <v>-56000</v>
+        <v>19500</v>
       </c>
       <c r="H20" s="3">
-        <v>53800</v>
+        <v>-57200</v>
       </c>
       <c r="I20" s="3">
-        <v>-87400</v>
+        <v>55000</v>
       </c>
       <c r="J20" s="3">
+        <v>-89300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-27300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>52700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-73300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-106200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>96800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>39800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>17900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-20200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1446,188 +1483,197 @@
       <c r="O21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q21" s="3">
         <v>1174600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>835600</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U21" s="3">
         <v>598900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>443800</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>41100</v>
+        <v>51600</v>
       </c>
       <c r="E22" s="3">
-        <v>41100</v>
+        <v>42000</v>
       </c>
       <c r="F22" s="3">
-        <v>40600</v>
+        <v>42000</v>
       </c>
       <c r="G22" s="3">
-        <v>40000</v>
+        <v>41400</v>
       </c>
       <c r="H22" s="3">
-        <v>42300</v>
+        <v>40900</v>
       </c>
       <c r="I22" s="3">
-        <v>38900</v>
+        <v>43200</v>
       </c>
       <c r="J22" s="3">
+        <v>39700</v>
+      </c>
+      <c r="K22" s="3">
         <v>37900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>20600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>8900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>6300</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S22" s="3">
         <v>12200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>9900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>6100</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-236600</v>
+        <v>-192900</v>
       </c>
       <c r="E23" s="3">
-        <v>-174600</v>
+        <v>-241600</v>
       </c>
       <c r="F23" s="3">
-        <v>-217300</v>
+        <v>-178300</v>
       </c>
       <c r="G23" s="3">
-        <v>-438500</v>
+        <v>-221900</v>
       </c>
       <c r="H23" s="3">
-        <v>-374800</v>
+        <v>-447800</v>
       </c>
       <c r="I23" s="3">
-        <v>-558900</v>
+        <v>-382700</v>
       </c>
       <c r="J23" s="3">
+        <v>-570700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-351100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-276100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-487900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-438200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-293400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-56900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-89300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-156000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-141400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-162700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-137200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-91300</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-2500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2900</v>
       </c>
-      <c r="F24" s="3">
-        <v>2400</v>
-      </c>
       <c r="G24" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H24" s="3">
+        <v>800</v>
+      </c>
+      <c r="I24" s="3">
+        <v>3500</v>
+      </c>
+      <c r="J24" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K24" s="3">
+        <v>900</v>
+      </c>
+      <c r="L24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M24" s="3">
+        <v>11500</v>
+      </c>
+      <c r="N24" s="3">
+        <v>-800</v>
+      </c>
+      <c r="O24" s="3">
         <v>700</v>
       </c>
-      <c r="H24" s="3">
-        <v>3500</v>
-      </c>
-      <c r="I24" s="3">
-        <v>2500</v>
-      </c>
-      <c r="J24" s="3">
-        <v>900</v>
-      </c>
-      <c r="K24" s="3">
-        <v>1100</v>
-      </c>
-      <c r="L24" s="3">
-        <v>11500</v>
-      </c>
-      <c r="M24" s="3">
-        <v>-800</v>
-      </c>
-      <c r="N24" s="3">
-        <v>700</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-1400</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>100</v>
       </c>
       <c r="R24" s="3">
         <v>100</v>
@@ -1636,13 +1682,16 @@
         <v>100</v>
       </c>
       <c r="T24" s="3">
+        <v>100</v>
+      </c>
+      <c r="U24" s="3">
         <v>600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-234100</v>
+        <v>-196100</v>
       </c>
       <c r="E26" s="3">
-        <v>-177400</v>
+        <v>-239000</v>
       </c>
       <c r="F26" s="3">
-        <v>-219800</v>
+        <v>-181200</v>
       </c>
       <c r="G26" s="3">
-        <v>-439300</v>
+        <v>-224400</v>
       </c>
       <c r="H26" s="3">
-        <v>-378300</v>
+        <v>-448600</v>
       </c>
       <c r="I26" s="3">
-        <v>-561400</v>
+        <v>-386300</v>
       </c>
       <c r="J26" s="3">
+        <v>-573200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-352000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-277200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-499400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-437300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-294100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-56900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-87900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-156100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-141500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-162800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-137800</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-236700</v>
+        <v>-198200</v>
       </c>
       <c r="E27" s="3">
-        <v>-179700</v>
+        <v>-241700</v>
       </c>
       <c r="F27" s="3">
-        <v>-220500</v>
+        <v>-183500</v>
       </c>
       <c r="G27" s="3">
+        <v>-225200</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-448700</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-389300</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-575400</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-355600</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-275900</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-504900</v>
+      </c>
+      <c r="N27" s="3">
         <v>-439500</v>
       </c>
-      <c r="H27" s="3">
-        <v>-381200</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-563500</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-355600</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-275900</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-504900</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-439500</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-294800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-98300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2198300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1737000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-248500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-267600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-410200</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-4300</v>
+        <v>-16900</v>
       </c>
       <c r="E32" s="3">
-        <v>-51400</v>
+        <v>-4400</v>
       </c>
       <c r="F32" s="3">
-        <v>-19100</v>
+        <v>-52500</v>
       </c>
       <c r="G32" s="3">
-        <v>56000</v>
+        <v>-19500</v>
       </c>
       <c r="H32" s="3">
-        <v>-53800</v>
+        <v>57200</v>
       </c>
       <c r="I32" s="3">
-        <v>87400</v>
+        <v>-55000</v>
       </c>
       <c r="J32" s="3">
+        <v>89300</v>
+      </c>
+      <c r="K32" s="3">
         <v>27300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-52700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>73300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>106200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-96800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-39800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-17900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>20200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-236700</v>
+        <v>-198200</v>
       </c>
       <c r="E33" s="3">
-        <v>-179700</v>
+        <v>-241700</v>
       </c>
       <c r="F33" s="3">
-        <v>-220500</v>
+        <v>-183500</v>
       </c>
       <c r="G33" s="3">
+        <v>-225200</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-448700</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-389300</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-575400</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-355600</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-275900</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-504900</v>
+      </c>
+      <c r="N33" s="3">
         <v>-439500</v>
       </c>
-      <c r="H33" s="3">
-        <v>-381200</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-563500</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-355600</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-275900</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-504900</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-439500</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-294800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-98300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2198300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1737000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-248500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-267600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-410200</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-236700</v>
+        <v>-198200</v>
       </c>
       <c r="E35" s="3">
-        <v>-179700</v>
+        <v>-241700</v>
       </c>
       <c r="F35" s="3">
-        <v>-220500</v>
+        <v>-183500</v>
       </c>
       <c r="G35" s="3">
+        <v>-225200</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-448700</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-389300</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-575400</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-355600</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-275900</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-504900</v>
+      </c>
+      <c r="N35" s="3">
         <v>-439500</v>
       </c>
-      <c r="H35" s="3">
-        <v>-381200</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-563500</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-355600</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-275900</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-504900</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-439500</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-294800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-98300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2198300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1737000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-248500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-267600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-410200</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,56 +2486,57 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1667600</v>
+        <v>1147100</v>
       </c>
       <c r="E41" s="3">
-        <v>483300</v>
+        <v>1702900</v>
       </c>
       <c r="F41" s="3">
-        <v>654000</v>
+        <v>493500</v>
       </c>
       <c r="G41" s="3">
-        <v>564200</v>
+        <v>667800</v>
       </c>
       <c r="H41" s="3">
-        <v>906700</v>
+        <v>576100</v>
       </c>
       <c r="I41" s="3">
-        <v>688300</v>
+        <v>925900</v>
       </c>
       <c r="J41" s="3">
+        <v>702900</v>
+      </c>
+      <c r="K41" s="3">
         <v>829200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1806300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>666100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>816200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1159100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>57900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>105200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>176500</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2459,56 +2546,59 @@
       <c r="U41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>513100</v>
+        <v>922800</v>
       </c>
       <c r="E42" s="3">
-        <v>550600</v>
+        <v>523900</v>
       </c>
       <c r="F42" s="3">
-        <v>641100</v>
+        <v>562200</v>
       </c>
       <c r="G42" s="3">
-        <v>803400</v>
+        <v>654700</v>
       </c>
       <c r="H42" s="3">
-        <v>699600</v>
+        <v>820400</v>
       </c>
       <c r="I42" s="3">
-        <v>1045300</v>
+        <v>714400</v>
       </c>
       <c r="J42" s="3">
+        <v>1067400</v>
+      </c>
+      <c r="K42" s="3">
         <v>1347200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>591100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>880400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>538000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>665100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>70700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>111900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>497500</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2518,56 +2608,59 @@
       <c r="U42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>525600</v>
+        <v>554600</v>
       </c>
       <c r="E43" s="3">
-        <v>524000</v>
+        <v>536800</v>
       </c>
       <c r="F43" s="3">
-        <v>522200</v>
+        <v>535100</v>
       </c>
       <c r="G43" s="3">
-        <v>699700</v>
+        <v>533300</v>
       </c>
       <c r="H43" s="3">
-        <v>586600</v>
+        <v>714500</v>
       </c>
       <c r="I43" s="3">
-        <v>503500</v>
+        <v>599000</v>
       </c>
       <c r="J43" s="3">
+        <v>514100</v>
+      </c>
+      <c r="K43" s="3">
         <v>513100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>535000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>460500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>452200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>350200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>420800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>322200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>693700</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2577,56 +2670,59 @@
       <c r="U43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>158200</v>
+        <v>161000</v>
       </c>
       <c r="E44" s="3">
-        <v>190600</v>
+        <v>161500</v>
       </c>
       <c r="F44" s="3">
-        <v>180900</v>
+        <v>194600</v>
       </c>
       <c r="G44" s="3">
-        <v>218900</v>
+        <v>184700</v>
       </c>
       <c r="H44" s="3">
-        <v>187100</v>
+        <v>223600</v>
       </c>
       <c r="I44" s="3">
-        <v>202200</v>
+        <v>191100</v>
       </c>
       <c r="J44" s="3">
+        <v>206500</v>
+      </c>
+      <c r="K44" s="3">
         <v>179700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>191900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>169000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>147200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>162900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>172400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>117500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>110300</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S44" s="3" t="s">
         <v>16</v>
       </c>
@@ -2636,56 +2732,59 @@
       <c r="U44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>541000</v>
+        <v>670000</v>
       </c>
       <c r="E45" s="3">
-        <v>629300</v>
+        <v>552400</v>
       </c>
       <c r="F45" s="3">
-        <v>704800</v>
+        <v>642600</v>
       </c>
       <c r="G45" s="3">
-        <v>673900</v>
+        <v>719700</v>
       </c>
       <c r="H45" s="3">
-        <v>717200</v>
+        <v>688100</v>
       </c>
       <c r="I45" s="3">
-        <v>1010000</v>
+        <v>732300</v>
       </c>
       <c r="J45" s="3">
+        <v>1031300</v>
+      </c>
+      <c r="K45" s="3">
         <v>926000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>772700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>707300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>430500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>377800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>145500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>161200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>137200</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2695,56 +2794,59 @@
       <c r="U45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3405500</v>
+        <v>3455400</v>
       </c>
       <c r="E46" s="3">
-        <v>2377800</v>
+        <v>3477500</v>
       </c>
       <c r="F46" s="3">
-        <v>2703000</v>
+        <v>2428100</v>
       </c>
       <c r="G46" s="3">
-        <v>2960200</v>
+        <v>2760100</v>
       </c>
       <c r="H46" s="3">
-        <v>3097300</v>
+        <v>3022800</v>
       </c>
       <c r="I46" s="3">
-        <v>3449300</v>
+        <v>3162800</v>
       </c>
       <c r="J46" s="3">
+        <v>3522200</v>
+      </c>
+      <c r="K46" s="3">
         <v>3795200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3897100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2883300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2384200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2715100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>867300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>817900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1615200</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2754,56 +2856,59 @@
       <c r="U46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>495300</v>
+        <v>544600</v>
       </c>
       <c r="E47" s="3">
-        <v>603900</v>
+        <v>505800</v>
       </c>
       <c r="F47" s="3">
-        <v>601200</v>
+        <v>616700</v>
       </c>
       <c r="G47" s="3">
-        <v>566200</v>
+        <v>613900</v>
       </c>
       <c r="H47" s="3">
-        <v>481900</v>
+        <v>578200</v>
       </c>
       <c r="I47" s="3">
-        <v>470500</v>
+        <v>492100</v>
       </c>
       <c r="J47" s="3">
+        <v>480400</v>
+      </c>
+      <c r="K47" s="3">
         <v>413700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>400600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>381200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>322800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>173900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>170000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>81500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>59000</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S47" s="3" t="s">
         <v>16</v>
       </c>
@@ -2813,56 +2918,59 @@
       <c r="U47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>366000</v>
+        <v>362500</v>
       </c>
       <c r="E48" s="3">
-        <v>376700</v>
+        <v>373700</v>
       </c>
       <c r="F48" s="3">
-        <v>423400</v>
+        <v>384600</v>
       </c>
       <c r="G48" s="3">
-        <v>392300</v>
+        <v>432300</v>
       </c>
       <c r="H48" s="3">
-        <v>378500</v>
+        <v>400600</v>
       </c>
       <c r="I48" s="3">
-        <v>362000</v>
+        <v>386500</v>
       </c>
       <c r="J48" s="3">
+        <v>369600</v>
+      </c>
+      <c r="K48" s="3">
         <v>358100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>265700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>235000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>206500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>196600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>189200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>179200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>179600</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2872,56 +2980,59 @@
       <c r="U48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2674700</v>
+        <v>2853700</v>
       </c>
       <c r="E49" s="3">
-        <v>2464100</v>
+        <v>2731200</v>
       </c>
       <c r="F49" s="3">
-        <v>2254600</v>
+        <v>2516200</v>
       </c>
       <c r="G49" s="3">
-        <v>2312100</v>
+        <v>2302300</v>
       </c>
       <c r="H49" s="3">
-        <v>2344400</v>
+        <v>2361000</v>
       </c>
       <c r="I49" s="3">
-        <v>2547900</v>
+        <v>2394000</v>
       </c>
       <c r="J49" s="3">
+        <v>2601800</v>
+      </c>
+      <c r="K49" s="3">
         <v>2423100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2432100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2315500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2285000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1858100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1623800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1409900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1221500</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S49" s="3" t="s">
         <v>16</v>
       </c>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,56 +3166,59 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>420300</v>
+        <v>426300</v>
       </c>
       <c r="E52" s="3">
-        <v>424400</v>
+        <v>429100</v>
       </c>
       <c r="F52" s="3">
-        <v>477000</v>
+        <v>433400</v>
       </c>
       <c r="G52" s="3">
-        <v>421400</v>
+        <v>487100</v>
       </c>
       <c r="H52" s="3">
-        <v>541400</v>
+        <v>430300</v>
       </c>
       <c r="I52" s="3">
-        <v>551200</v>
+        <v>552800</v>
       </c>
       <c r="J52" s="3">
+        <v>562800</v>
+      </c>
+      <c r="K52" s="3">
         <v>686200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>787200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>685500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>570200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>530500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>439700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>409900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>378500</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>16</v>
       </c>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,56 +3290,59 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7361800</v>
+        <v>7642600</v>
       </c>
       <c r="E54" s="3">
-        <v>6246900</v>
+        <v>7517400</v>
       </c>
       <c r="F54" s="3">
-        <v>6459100</v>
+        <v>6379000</v>
       </c>
       <c r="G54" s="3">
-        <v>6652200</v>
+        <v>6595700</v>
       </c>
       <c r="H54" s="3">
-        <v>6843400</v>
+        <v>6792900</v>
       </c>
       <c r="I54" s="3">
-        <v>7380800</v>
+        <v>6988100</v>
       </c>
       <c r="J54" s="3">
+        <v>7536800</v>
+      </c>
+      <c r="K54" s="3">
         <v>7676300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7782700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6500500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5768700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5474100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3289900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2898400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3453700</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>16</v>
       </c>
@@ -3226,8 +3352,11 @@
       <c r="U54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,56 +3402,57 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1155300</v>
+        <v>1171400</v>
       </c>
       <c r="E57" s="3">
-        <v>1139100</v>
+        <v>1179700</v>
       </c>
       <c r="F57" s="3">
-        <v>1175100</v>
+        <v>1163200</v>
       </c>
       <c r="G57" s="3">
-        <v>1272500</v>
+        <v>1200000</v>
       </c>
       <c r="H57" s="3">
-        <v>1254700</v>
+        <v>1299400</v>
       </c>
       <c r="I57" s="3">
-        <v>1541500</v>
+        <v>1281200</v>
       </c>
       <c r="J57" s="3">
+        <v>1574100</v>
+      </c>
+      <c r="K57" s="3">
         <v>1464200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1574600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1475900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1458800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1269100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1252000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1010300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1035600</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>16</v>
       </c>
@@ -3331,56 +3462,59 @@
       <c r="U57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1318000</v>
+        <v>1235200</v>
       </c>
       <c r="E58" s="3">
-        <v>693300</v>
+        <v>1345900</v>
       </c>
       <c r="F58" s="3">
-        <v>623400</v>
+        <v>707900</v>
       </c>
       <c r="G58" s="3">
-        <v>507000</v>
+        <v>636600</v>
       </c>
       <c r="H58" s="3">
-        <v>512600</v>
+        <v>517700</v>
       </c>
       <c r="I58" s="3">
-        <v>591800</v>
+        <v>523400</v>
       </c>
       <c r="J58" s="3">
+        <v>604300</v>
+      </c>
+      <c r="K58" s="3">
         <v>667800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>557600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>454600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>165500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>89900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>58400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>44400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1232000</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>16</v>
       </c>
@@ -3390,56 +3524,59 @@
       <c r="U58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1324000</v>
+        <v>1519600</v>
       </c>
       <c r="E59" s="3">
-        <v>1300100</v>
+        <v>1352000</v>
       </c>
       <c r="F59" s="3">
-        <v>1328300</v>
+        <v>1327600</v>
       </c>
       <c r="G59" s="3">
-        <v>1410200</v>
+        <v>1356400</v>
       </c>
       <c r="H59" s="3">
-        <v>1314800</v>
+        <v>1440000</v>
       </c>
       <c r="I59" s="3">
-        <v>1153900</v>
+        <v>1342600</v>
       </c>
       <c r="J59" s="3">
+        <v>1178200</v>
+      </c>
+      <c r="K59" s="3">
         <v>1144200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1013800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>946900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>887200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>710200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>619500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>613400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1325600</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3449,56 +3586,59 @@
       <c r="U59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3797300</v>
+        <v>3926200</v>
       </c>
       <c r="E60" s="3">
-        <v>3132500</v>
+        <v>3877600</v>
       </c>
       <c r="F60" s="3">
-        <v>3126900</v>
+        <v>3198700</v>
       </c>
       <c r="G60" s="3">
-        <v>3189700</v>
+        <v>3193000</v>
       </c>
       <c r="H60" s="3">
-        <v>3082100</v>
+        <v>3257100</v>
       </c>
       <c r="I60" s="3">
-        <v>3287200</v>
+        <v>3147200</v>
       </c>
       <c r="J60" s="3">
+        <v>3356700</v>
+      </c>
+      <c r="K60" s="3">
         <v>3276200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3146000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2877300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2511500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2069200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1929900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1668000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3593200</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>16</v>
       </c>
@@ -3508,56 +3648,59 @@
       <c r="U60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1822200</v>
+        <v>1976700</v>
       </c>
       <c r="E61" s="3">
-        <v>1976300</v>
+        <v>1860700</v>
       </c>
       <c r="F61" s="3">
-        <v>2074900</v>
+        <v>2018100</v>
       </c>
       <c r="G61" s="3">
-        <v>2061200</v>
+        <v>2118700</v>
       </c>
       <c r="H61" s="3">
-        <v>2013200</v>
+        <v>2104700</v>
       </c>
       <c r="I61" s="3">
-        <v>2015200</v>
+        <v>2055800</v>
       </c>
       <c r="J61" s="3">
+        <v>2057800</v>
+      </c>
+      <c r="K61" s="3">
         <v>1879700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1856600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>777900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>38300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>39000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>40000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>40700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>42100</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -3567,56 +3710,59 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>299400</v>
+        <v>289900</v>
       </c>
       <c r="E62" s="3">
-        <v>301300</v>
+        <v>305800</v>
       </c>
       <c r="F62" s="3">
-        <v>301000</v>
+        <v>307700</v>
       </c>
       <c r="G62" s="3">
-        <v>274700</v>
+        <v>307400</v>
       </c>
       <c r="H62" s="3">
-        <v>263900</v>
+        <v>280500</v>
       </c>
       <c r="I62" s="3">
-        <v>216100</v>
+        <v>269500</v>
       </c>
       <c r="J62" s="3">
+        <v>220700</v>
+      </c>
+      <c r="K62" s="3">
         <v>225900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>248700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>208500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>210000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>97000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>96100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1100</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>16</v>
       </c>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,56 +3958,59 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5947500</v>
+        <v>6238900</v>
       </c>
       <c r="E66" s="3">
-        <v>5434900</v>
+        <v>6073300</v>
       </c>
       <c r="F66" s="3">
-        <v>5525500</v>
+        <v>5549800</v>
       </c>
       <c r="G66" s="3">
-        <v>5547200</v>
+        <v>5642400</v>
       </c>
       <c r="H66" s="3">
-        <v>5381100</v>
+        <v>5664500</v>
       </c>
       <c r="I66" s="3">
-        <v>5542700</v>
+        <v>5494900</v>
       </c>
       <c r="J66" s="3">
+        <v>5659900</v>
+      </c>
+      <c r="K66" s="3">
         <v>5402400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5268100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3880900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2771200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2205600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2066400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1710600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3636400</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>16</v>
       </c>
@@ -3862,8 +4020,11 @@
       <c r="U66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4042,17 +4210,17 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
         <v>3284400</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>3242900</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>4323600</v>
       </c>
-      <c r="R70" s="3">
-        <v>0</v>
-      </c>
       <c r="S70" s="3">
         <v>0</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,56 +4292,59 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-6260000</v>
+        <v>-6590500</v>
       </c>
       <c r="E72" s="3">
-        <v>-6023300</v>
+        <v>-6392300</v>
       </c>
       <c r="F72" s="3">
-        <v>-5843600</v>
+        <v>-6150600</v>
       </c>
       <c r="G72" s="3">
-        <v>-5611500</v>
+        <v>-5967100</v>
       </c>
       <c r="H72" s="3">
-        <v>-5169200</v>
+        <v>-5730200</v>
       </c>
       <c r="I72" s="3">
-        <v>-4788000</v>
+        <v>-5278500</v>
       </c>
       <c r="J72" s="3">
+        <v>-4889200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-4224500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3852200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3414300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2796700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2357100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2130900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2154600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-4631600</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>16</v>
       </c>
@@ -4180,8 +4354,11 @@
       <c r="U72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,56 +4540,59 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1414200</v>
+        <v>1403600</v>
       </c>
       <c r="E76" s="3">
-        <v>812000</v>
+        <v>1444100</v>
       </c>
       <c r="F76" s="3">
-        <v>933600</v>
+        <v>829100</v>
       </c>
       <c r="G76" s="3">
-        <v>1105000</v>
+        <v>953300</v>
       </c>
       <c r="H76" s="3">
-        <v>1462300</v>
+        <v>1128400</v>
       </c>
       <c r="I76" s="3">
-        <v>1838100</v>
+        <v>1493200</v>
       </c>
       <c r="J76" s="3">
+        <v>1876900</v>
+      </c>
+      <c r="K76" s="3">
         <v>2273900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2514600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2619500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2997500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3268500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2060900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2055000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-4506300</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>16</v>
       </c>
@@ -4416,8 +4602,11 @@
       <c r="U76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-236700</v>
+        <v>-198200</v>
       </c>
       <c r="E81" s="3">
-        <v>-179700</v>
+        <v>-241700</v>
       </c>
       <c r="F81" s="3">
-        <v>-220500</v>
+        <v>-183500</v>
       </c>
       <c r="G81" s="3">
+        <v>-225200</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-448700</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-389300</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-575400</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-355600</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-275900</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-504900</v>
+      </c>
+      <c r="N81" s="3">
         <v>-439500</v>
       </c>
-      <c r="H81" s="3">
-        <v>-381200</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-563500</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-355600</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-275900</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-504900</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-439500</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-294800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-98300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2198300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1737000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-248500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-267600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-410200</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4671,8 +4870,8 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>16</v>
+      <c r="S83" s="3">
+        <v>0</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>16</v>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,25 +5189,28 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-232100</v>
+        <v>-210600</v>
       </c>
       <c r="E89" s="3">
-        <v>-294700</v>
+        <v>-237000</v>
       </c>
       <c r="F89" s="3">
-        <v>-207500</v>
+        <v>-301000</v>
       </c>
       <c r="G89" s="3">
-        <v>-92300</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>16</v>
+        <v>-211900</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-94300</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>16</v>
@@ -5007,8 +5224,8 @@
       <c r="L89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
+      <c r="M89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
@@ -5025,8 +5242,8 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>16</v>
+      <c r="S89" s="3">
+        <v>0</v>
       </c>
       <c r="T89" s="3" t="s">
         <v>16</v>
@@ -5034,8 +5251,11 @@
       <c r="U89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5107,8 +5328,8 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>16</v>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>16</v>
@@ -5116,8 +5337,11 @@
       <c r="U91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,25 +5461,28 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>43000</v>
+        <v>-433400</v>
       </c>
       <c r="E94" s="3">
-        <v>52400</v>
+        <v>43900</v>
       </c>
       <c r="F94" s="3">
-        <v>174800</v>
+        <v>53500</v>
       </c>
       <c r="G94" s="3">
-        <v>-245900</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>16</v>
+        <v>178500</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-251100</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>16</v>
@@ -5266,8 +5496,8 @@
       <c r="L94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -5284,8 +5514,8 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>16</v>
+      <c r="S94" s="3">
+        <v>0</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>16</v>
@@ -5293,8 +5523,11 @@
       <c r="U94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,25 +5795,28 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1282200</v>
+        <v>95300</v>
       </c>
       <c r="E100" s="3">
-        <v>36400</v>
+        <v>1309300</v>
       </c>
       <c r="F100" s="3">
-        <v>125700</v>
+        <v>37100</v>
       </c>
       <c r="G100" s="3">
-        <v>-12100</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>16</v>
+        <v>128400</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-12400</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>16</v>
@@ -5584,8 +5830,8 @@
       <c r="L100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
+      <c r="M100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
@@ -5602,8 +5848,8 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>16</v>
+      <c r="S100" s="3">
+        <v>0</v>
       </c>
       <c r="T100" s="3" t="s">
         <v>16</v>
@@ -5611,25 +5857,28 @@
       <c r="U100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-5000</v>
+        <v>-4400</v>
       </c>
       <c r="E101" s="3">
-        <v>-17300</v>
+        <v>-5100</v>
       </c>
       <c r="F101" s="3">
-        <v>-1500</v>
+        <v>-17600</v>
       </c>
       <c r="G101" s="3">
-        <v>9900</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>16</v>
+        <v>-1600</v>
+      </c>
+      <c r="H101" s="3">
+        <v>10100</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>16</v>
@@ -5643,8 +5892,8 @@
       <c r="L101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
+      <c r="M101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
@@ -5661,8 +5910,8 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>16</v>
+      <c r="S101" s="3">
+        <v>0</v>
       </c>
       <c r="T101" s="3" t="s">
         <v>16</v>
@@ -5670,25 +5919,28 @@
       <c r="U101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1088100</v>
+        <v>-553100</v>
       </c>
       <c r="E102" s="3">
-        <v>-223200</v>
+        <v>1111100</v>
       </c>
       <c r="F102" s="3">
-        <v>91500</v>
+        <v>-228000</v>
       </c>
       <c r="G102" s="3">
-        <v>-340500</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>16</v>
+        <v>93400</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-347700</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>16</v>
@@ -5702,8 +5954,8 @@
       <c r="L102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
+      <c r="M102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
@@ -5720,13 +5972,16 @@
       <c r="R102" s="3">
         <v>0</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>16</v>
+      <c r="S102" s="3">
+        <v>0</v>
       </c>
       <c r="T102" s="3" t="s">
         <v>16</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IQ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="92">
   <si>
     <t>IQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="4.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1243200</v>
+        <v>1171500</v>
       </c>
       <c r="E8" s="3">
-        <v>1163600</v>
+        <v>1227000</v>
       </c>
       <c r="F8" s="3">
-        <v>1121400</v>
+        <v>1148400</v>
       </c>
       <c r="G8" s="3">
-        <v>1156300</v>
+        <v>1106800</v>
       </c>
       <c r="H8" s="3">
-        <v>1193400</v>
+        <v>1141200</v>
       </c>
       <c r="I8" s="3">
-        <v>1169500</v>
+        <v>1177900</v>
       </c>
       <c r="J8" s="3">
+        <v>1154300</v>
+      </c>
+      <c r="K8" s="3">
         <v>1154000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1086300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1063300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1020600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>967700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>863600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>699800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>691200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>734700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>642100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>477600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>458800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>473800</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1109100</v>
+        <v>1057700</v>
       </c>
       <c r="E9" s="3">
-        <v>1058500</v>
+        <v>1094700</v>
       </c>
       <c r="F9" s="3">
-        <v>992800</v>
+        <v>1044700</v>
       </c>
       <c r="G9" s="3">
-        <v>1066100</v>
+        <v>979800</v>
       </c>
       <c r="H9" s="3">
-        <v>1232900</v>
+        <v>1052200</v>
       </c>
       <c r="I9" s="3">
-        <v>1234700</v>
+        <v>1216900</v>
       </c>
       <c r="J9" s="3">
+        <v>1218700</v>
+      </c>
+      <c r="K9" s="3">
         <v>1275500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1066600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1107000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1237800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1071400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>854700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>695600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>650700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>726900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1304500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1035100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>453900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>456800</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>134000</v>
+        <v>113900</v>
       </c>
       <c r="E10" s="3">
-        <v>105100</v>
+        <v>132300</v>
       </c>
       <c r="F10" s="3">
-        <v>128600</v>
+        <v>103700</v>
       </c>
       <c r="G10" s="3">
-        <v>90200</v>
+        <v>126900</v>
       </c>
       <c r="H10" s="3">
-        <v>-39500</v>
+        <v>89000</v>
       </c>
       <c r="I10" s="3">
-        <v>-65200</v>
+        <v>-39000</v>
       </c>
       <c r="J10" s="3">
+        <v>-64300</v>
+      </c>
+      <c r="K10" s="3">
         <v>-121500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>19700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-43700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-217200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-103700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>8900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>40500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>7800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-662500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-557500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>4900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,70 +976,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>104900</v>
+        <v>104200</v>
       </c>
       <c r="E12" s="3">
         <v>103500</v>
       </c>
       <c r="F12" s="3">
-        <v>104500</v>
+        <v>102100</v>
       </c>
       <c r="G12" s="3">
-        <v>103600</v>
+        <v>103200</v>
       </c>
       <c r="H12" s="3">
-        <v>105800</v>
+        <v>102200</v>
       </c>
       <c r="I12" s="3">
-        <v>111000</v>
+        <v>104400</v>
       </c>
       <c r="J12" s="3">
+        <v>109500</v>
+      </c>
+      <c r="K12" s="3">
         <v>109700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>100000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>91000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>88200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>78100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>61800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>55600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>52300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>50800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>87400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>78200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>35500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>33400</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1401400</v>
+        <v>1344300</v>
       </c>
       <c r="E17" s="3">
-        <v>1367500</v>
+        <v>1383100</v>
       </c>
       <c r="F17" s="3">
-        <v>1310100</v>
+        <v>1349700</v>
       </c>
       <c r="G17" s="3">
-        <v>1356200</v>
+        <v>1293000</v>
       </c>
       <c r="H17" s="3">
-        <v>1543200</v>
+        <v>1338600</v>
       </c>
       <c r="I17" s="3">
-        <v>1564000</v>
+        <v>1523100</v>
       </c>
       <c r="J17" s="3">
+        <v>1543700</v>
+      </c>
+      <c r="K17" s="3">
         <v>1595700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1372300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1371500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1503400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1330400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1049400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>852200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>814000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>893000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>789100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>628800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>569700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>557900</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-158200</v>
+        <v>-172700</v>
       </c>
       <c r="E18" s="3">
-        <v>-204000</v>
+        <v>-156200</v>
       </c>
       <c r="F18" s="3">
-        <v>-188700</v>
+        <v>-201300</v>
       </c>
       <c r="G18" s="3">
-        <v>-200000</v>
+        <v>-186300</v>
       </c>
       <c r="H18" s="3">
-        <v>-349700</v>
+        <v>-197400</v>
       </c>
       <c r="I18" s="3">
-        <v>-394500</v>
+        <v>-345200</v>
       </c>
       <c r="J18" s="3">
+        <v>-389400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-441800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-286000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-308200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-482800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-362700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-185900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-152400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-122800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-158300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-147000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-151200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-110900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-84100</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1380,70 +1413,74 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>16900</v>
+        <v>18000</v>
       </c>
       <c r="E20" s="3">
+        <v>16700</v>
+      </c>
+      <c r="F20" s="3">
         <v>4400</v>
       </c>
-      <c r="F20" s="3">
-        <v>52500</v>
-      </c>
       <c r="G20" s="3">
-        <v>19500</v>
+        <v>51800</v>
       </c>
       <c r="H20" s="3">
-        <v>-57200</v>
+        <v>19200</v>
       </c>
       <c r="I20" s="3">
-        <v>55000</v>
+        <v>-56400</v>
       </c>
       <c r="J20" s="3">
+        <v>54200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-89300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-27300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>52700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-73300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-106200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>96800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>39800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>17900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-20200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1486,197 +1523,206 @@
       <c r="P21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R21" s="3">
         <v>1174600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>835600</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V21" s="3">
         <v>598900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>443800</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>51600</v>
+        <v>52800</v>
       </c>
       <c r="E22" s="3">
-        <v>42000</v>
+        <v>50900</v>
       </c>
       <c r="F22" s="3">
-        <v>42000</v>
+        <v>41500</v>
       </c>
       <c r="G22" s="3">
-        <v>41400</v>
+        <v>41500</v>
       </c>
       <c r="H22" s="3">
         <v>40900</v>
       </c>
       <c r="I22" s="3">
-        <v>43200</v>
+        <v>40300</v>
       </c>
       <c r="J22" s="3">
+        <v>42600</v>
+      </c>
+      <c r="K22" s="3">
         <v>39700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>37900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>20600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>8900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>6300</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S22" s="3">
+      <c r="S22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T22" s="3">
         <v>12200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>9900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>6100</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-192900</v>
+        <v>-207600</v>
       </c>
       <c r="E23" s="3">
-        <v>-241600</v>
+        <v>-190400</v>
       </c>
       <c r="F23" s="3">
-        <v>-178300</v>
+        <v>-238400</v>
       </c>
       <c r="G23" s="3">
-        <v>-221900</v>
+        <v>-175900</v>
       </c>
       <c r="H23" s="3">
-        <v>-447800</v>
+        <v>-219000</v>
       </c>
       <c r="I23" s="3">
-        <v>-382700</v>
+        <v>-442000</v>
       </c>
       <c r="J23" s="3">
+        <v>-377800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-570700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-351100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-276100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-487900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-438200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-293400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-56900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-89300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-156000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-141400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-162700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-137200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-91300</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E24" s="3">
         <v>3200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-2500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2500</v>
       </c>
-      <c r="H24" s="3">
-        <v>800</v>
-      </c>
       <c r="I24" s="3">
+        <v>700</v>
+      </c>
+      <c r="J24" s="3">
         <v>3500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>11500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-1400</v>
-      </c>
-      <c r="R24" s="3">
-        <v>100</v>
       </c>
       <c r="S24" s="3">
         <v>100</v>
@@ -1685,13 +1731,16 @@
         <v>100</v>
       </c>
       <c r="U24" s="3">
+        <v>100</v>
+      </c>
+      <c r="V24" s="3">
         <v>600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-196100</v>
+        <v>-212300</v>
       </c>
       <c r="E26" s="3">
-        <v>-239000</v>
+        <v>-193600</v>
       </c>
       <c r="F26" s="3">
-        <v>-181200</v>
+        <v>-235900</v>
       </c>
       <c r="G26" s="3">
-        <v>-224400</v>
+        <v>-178800</v>
       </c>
       <c r="H26" s="3">
-        <v>-448600</v>
+        <v>-221500</v>
       </c>
       <c r="I26" s="3">
-        <v>-386300</v>
+        <v>-442700</v>
       </c>
       <c r="J26" s="3">
+        <v>-381200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-573200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-352000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-277200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-499400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-437300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-294100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-56900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-87900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-156100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-141500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-162800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-137800</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-198200</v>
+        <v>-215800</v>
       </c>
       <c r="E27" s="3">
-        <v>-241700</v>
+        <v>-195600</v>
       </c>
       <c r="F27" s="3">
-        <v>-183500</v>
+        <v>-238600</v>
       </c>
       <c r="G27" s="3">
-        <v>-225200</v>
+        <v>-181100</v>
       </c>
       <c r="H27" s="3">
-        <v>-448700</v>
+        <v>-222300</v>
       </c>
       <c r="I27" s="3">
-        <v>-389300</v>
+        <v>-442900</v>
       </c>
       <c r="J27" s="3">
+        <v>-384200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-575400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-355600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-275900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-504900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-439500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-294800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-98300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2198300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1737000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-248500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-267600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-410200</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-16900</v>
+        <v>-18000</v>
       </c>
       <c r="E32" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="F32" s="3">
         <v>-4400</v>
       </c>
-      <c r="F32" s="3">
-        <v>-52500</v>
-      </c>
       <c r="G32" s="3">
-        <v>-19500</v>
+        <v>-51800</v>
       </c>
       <c r="H32" s="3">
-        <v>57200</v>
+        <v>-19200</v>
       </c>
       <c r="I32" s="3">
-        <v>-55000</v>
+        <v>56400</v>
       </c>
       <c r="J32" s="3">
+        <v>-54200</v>
+      </c>
+      <c r="K32" s="3">
         <v>89300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>27300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-52700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>73300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>106200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-96800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-39800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-17900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>20200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-198200</v>
+        <v>-215800</v>
       </c>
       <c r="E33" s="3">
-        <v>-241700</v>
+        <v>-195600</v>
       </c>
       <c r="F33" s="3">
-        <v>-183500</v>
+        <v>-238600</v>
       </c>
       <c r="G33" s="3">
-        <v>-225200</v>
+        <v>-181100</v>
       </c>
       <c r="H33" s="3">
-        <v>-448700</v>
+        <v>-222300</v>
       </c>
       <c r="I33" s="3">
-        <v>-389300</v>
+        <v>-442900</v>
       </c>
       <c r="J33" s="3">
+        <v>-384200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-575400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-355600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-275900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-504900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-439500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-294800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-98300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2198300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1737000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-248500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-267600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-410200</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-198200</v>
+        <v>-215800</v>
       </c>
       <c r="E35" s="3">
-        <v>-241700</v>
+        <v>-195600</v>
       </c>
       <c r="F35" s="3">
-        <v>-183500</v>
+        <v>-238600</v>
       </c>
       <c r="G35" s="3">
-        <v>-225200</v>
+        <v>-181100</v>
       </c>
       <c r="H35" s="3">
-        <v>-448700</v>
+        <v>-222300</v>
       </c>
       <c r="I35" s="3">
-        <v>-389300</v>
+        <v>-442900</v>
       </c>
       <c r="J35" s="3">
+        <v>-384200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-575400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-355600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-275900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-504900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-439500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-294800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-98300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2198300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1737000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-248500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-267600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-410200</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,59 +2573,60 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1147100</v>
+        <v>1029300</v>
       </c>
       <c r="E41" s="3">
-        <v>1702900</v>
+        <v>1132200</v>
       </c>
       <c r="F41" s="3">
-        <v>493500</v>
+        <v>1680700</v>
       </c>
       <c r="G41" s="3">
-        <v>667800</v>
+        <v>487100</v>
       </c>
       <c r="H41" s="3">
-        <v>576100</v>
+        <v>659100</v>
       </c>
       <c r="I41" s="3">
-        <v>925900</v>
+        <v>568600</v>
       </c>
       <c r="J41" s="3">
+        <v>913800</v>
+      </c>
+      <c r="K41" s="3">
         <v>702900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>829200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1806300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>666100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>816200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1159100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>57900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>105200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>176500</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2549,59 +2636,62 @@
       <c r="V41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>922800</v>
+        <v>851000</v>
       </c>
       <c r="E42" s="3">
-        <v>523900</v>
+        <v>910800</v>
       </c>
       <c r="F42" s="3">
-        <v>562200</v>
+        <v>517100</v>
       </c>
       <c r="G42" s="3">
-        <v>654700</v>
+        <v>554900</v>
       </c>
       <c r="H42" s="3">
-        <v>820400</v>
+        <v>646100</v>
       </c>
       <c r="I42" s="3">
-        <v>714400</v>
+        <v>809700</v>
       </c>
       <c r="J42" s="3">
+        <v>705100</v>
+      </c>
+      <c r="K42" s="3">
         <v>1067400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1347200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>591100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>880400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>538000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>665100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>70700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>111900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>497500</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2611,59 +2701,62 @@
       <c r="V42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>554600</v>
+        <v>513400</v>
       </c>
       <c r="E43" s="3">
-        <v>536800</v>
+        <v>547400</v>
       </c>
       <c r="F43" s="3">
-        <v>535100</v>
+        <v>529800</v>
       </c>
       <c r="G43" s="3">
-        <v>533300</v>
+        <v>528100</v>
       </c>
       <c r="H43" s="3">
-        <v>714500</v>
+        <v>526300</v>
       </c>
       <c r="I43" s="3">
-        <v>599000</v>
+        <v>705200</v>
       </c>
       <c r="J43" s="3">
+        <v>591200</v>
+      </c>
+      <c r="K43" s="3">
         <v>514100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>513100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>535000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>460500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>452200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>350200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>420800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>322200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>693700</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2673,59 +2766,62 @@
       <c r="V43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>161000</v>
+        <v>137100</v>
       </c>
       <c r="E44" s="3">
-        <v>161500</v>
+        <v>158900</v>
       </c>
       <c r="F44" s="3">
-        <v>194600</v>
+        <v>159400</v>
       </c>
       <c r="G44" s="3">
-        <v>184700</v>
+        <v>192100</v>
       </c>
       <c r="H44" s="3">
-        <v>223600</v>
+        <v>182300</v>
       </c>
       <c r="I44" s="3">
-        <v>191100</v>
+        <v>220600</v>
       </c>
       <c r="J44" s="3">
+        <v>188600</v>
+      </c>
+      <c r="K44" s="3">
         <v>206500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>179700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>191900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>169000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>147200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>162900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>172400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>117500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>110300</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T44" s="3" t="s">
         <v>16</v>
       </c>
@@ -2735,59 +2831,62 @@
       <c r="V44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>670000</v>
+        <v>631400</v>
       </c>
       <c r="E45" s="3">
-        <v>552400</v>
+        <v>661300</v>
       </c>
       <c r="F45" s="3">
-        <v>642600</v>
+        <v>545300</v>
       </c>
       <c r="G45" s="3">
-        <v>719700</v>
+        <v>634300</v>
       </c>
       <c r="H45" s="3">
-        <v>688100</v>
+        <v>710300</v>
       </c>
       <c r="I45" s="3">
-        <v>732300</v>
+        <v>679200</v>
       </c>
       <c r="J45" s="3">
+        <v>722800</v>
+      </c>
+      <c r="K45" s="3">
         <v>1031300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>926000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>772700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>707300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>430500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>377800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>145500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>161200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>137200</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2797,59 +2896,62 @@
       <c r="V45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3455400</v>
+        <v>3162200</v>
       </c>
       <c r="E46" s="3">
-        <v>3477500</v>
+        <v>3410400</v>
       </c>
       <c r="F46" s="3">
-        <v>2428100</v>
+        <v>3432300</v>
       </c>
       <c r="G46" s="3">
-        <v>2760100</v>
+        <v>2396500</v>
       </c>
       <c r="H46" s="3">
-        <v>3022800</v>
+        <v>2724200</v>
       </c>
       <c r="I46" s="3">
-        <v>3162800</v>
+        <v>2983400</v>
       </c>
       <c r="J46" s="3">
+        <v>3121600</v>
+      </c>
+      <c r="K46" s="3">
         <v>3522200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3795200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3897100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2883300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2384200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2715100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>867300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>817900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1615200</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2859,59 +2961,62 @@
       <c r="V46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>544600</v>
+        <v>539500</v>
       </c>
       <c r="E47" s="3">
-        <v>505800</v>
+        <v>537500</v>
       </c>
       <c r="F47" s="3">
-        <v>616700</v>
+        <v>499200</v>
       </c>
       <c r="G47" s="3">
-        <v>613900</v>
+        <v>608600</v>
       </c>
       <c r="H47" s="3">
-        <v>578200</v>
+        <v>605900</v>
       </c>
       <c r="I47" s="3">
-        <v>492100</v>
+        <v>570700</v>
       </c>
       <c r="J47" s="3">
+        <v>485700</v>
+      </c>
+      <c r="K47" s="3">
         <v>480400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>413700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>400600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>381200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>322800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>173900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>170000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>81500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>59000</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T47" s="3" t="s">
         <v>16</v>
       </c>
@@ -2921,59 +3026,62 @@
       <c r="V47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>362500</v>
+        <v>370100</v>
       </c>
       <c r="E48" s="3">
-        <v>373700</v>
+        <v>357800</v>
       </c>
       <c r="F48" s="3">
-        <v>384600</v>
+        <v>368800</v>
       </c>
       <c r="G48" s="3">
-        <v>432300</v>
+        <v>379600</v>
       </c>
       <c r="H48" s="3">
-        <v>400600</v>
+        <v>426700</v>
       </c>
       <c r="I48" s="3">
-        <v>386500</v>
+        <v>395400</v>
       </c>
       <c r="J48" s="3">
+        <v>381400</v>
+      </c>
+      <c r="K48" s="3">
         <v>369600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>358100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>265700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>235000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>206500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>196600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>189200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>179200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>179600</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2983,59 +3091,62 @@
       <c r="V48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2853700</v>
+        <v>3060100</v>
       </c>
       <c r="E49" s="3">
-        <v>2731200</v>
+        <v>2816600</v>
       </c>
       <c r="F49" s="3">
-        <v>2516200</v>
+        <v>2695700</v>
       </c>
       <c r="G49" s="3">
-        <v>2302300</v>
+        <v>2483500</v>
       </c>
       <c r="H49" s="3">
-        <v>2361000</v>
+        <v>2272300</v>
       </c>
       <c r="I49" s="3">
-        <v>2394000</v>
+        <v>2330300</v>
       </c>
       <c r="J49" s="3">
+        <v>2362800</v>
+      </c>
+      <c r="K49" s="3">
         <v>2601800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2423100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2432100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2315500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2285000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1858100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1623800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1409900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1221500</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T49" s="3" t="s">
         <v>16</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,59 +3286,62 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>426300</v>
+        <v>400200</v>
       </c>
       <c r="E52" s="3">
-        <v>429100</v>
+        <v>420800</v>
       </c>
       <c r="F52" s="3">
-        <v>433400</v>
+        <v>423600</v>
       </c>
       <c r="G52" s="3">
-        <v>487100</v>
+        <v>427700</v>
       </c>
       <c r="H52" s="3">
-        <v>430300</v>
+        <v>480700</v>
       </c>
       <c r="I52" s="3">
-        <v>552800</v>
+        <v>424700</v>
       </c>
       <c r="J52" s="3">
+        <v>545600</v>
+      </c>
+      <c r="K52" s="3">
         <v>562800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>686200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>787200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>685500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>570200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>530500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>439700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>409900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>378500</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>16</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,59 +3416,62 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7642600</v>
+        <v>7532100</v>
       </c>
       <c r="E54" s="3">
-        <v>7517400</v>
+        <v>7543100</v>
       </c>
       <c r="F54" s="3">
-        <v>6379000</v>
+        <v>7419600</v>
       </c>
       <c r="G54" s="3">
-        <v>6595700</v>
+        <v>6296000</v>
       </c>
       <c r="H54" s="3">
-        <v>6792900</v>
+        <v>6509900</v>
       </c>
       <c r="I54" s="3">
-        <v>6988100</v>
+        <v>6704500</v>
       </c>
       <c r="J54" s="3">
+        <v>6897200</v>
+      </c>
+      <c r="K54" s="3">
         <v>7536800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7676300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7782700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6500500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5768700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5474100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3289900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2898400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3453700</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>16</v>
       </c>
@@ -3355,8 +3481,11 @@
       <c r="V54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,59 +3533,60 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1171400</v>
+        <v>1266900</v>
       </c>
       <c r="E57" s="3">
-        <v>1179700</v>
+        <v>1156200</v>
       </c>
       <c r="F57" s="3">
-        <v>1163200</v>
+        <v>1164300</v>
       </c>
       <c r="G57" s="3">
-        <v>1200000</v>
+        <v>1148100</v>
       </c>
       <c r="H57" s="3">
-        <v>1299400</v>
+        <v>1184400</v>
       </c>
       <c r="I57" s="3">
-        <v>1281200</v>
+        <v>1282500</v>
       </c>
       <c r="J57" s="3">
+        <v>1264600</v>
+      </c>
+      <c r="K57" s="3">
         <v>1574100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1464200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1574600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1475900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1458800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1269100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1252000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1010300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1035600</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T57" s="3" t="s">
         <v>16</v>
       </c>
@@ -3465,59 +3596,62 @@
       <c r="V57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1235200</v>
+        <v>1339800</v>
       </c>
       <c r="E58" s="3">
-        <v>1345900</v>
+        <v>1219100</v>
       </c>
       <c r="F58" s="3">
-        <v>707900</v>
+        <v>1328400</v>
       </c>
       <c r="G58" s="3">
-        <v>636600</v>
+        <v>698700</v>
       </c>
       <c r="H58" s="3">
-        <v>517700</v>
+        <v>628300</v>
       </c>
       <c r="I58" s="3">
-        <v>523400</v>
+        <v>510900</v>
       </c>
       <c r="J58" s="3">
+        <v>516600</v>
+      </c>
+      <c r="K58" s="3">
         <v>604300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>667800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>557600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>454600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>165500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>89900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>58400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>44400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1232000</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T58" s="3" t="s">
         <v>16</v>
       </c>
@@ -3527,59 +3661,62 @@
       <c r="V58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1519600</v>
+        <v>1431800</v>
       </c>
       <c r="E59" s="3">
-        <v>1352000</v>
+        <v>1499800</v>
       </c>
       <c r="F59" s="3">
-        <v>1327600</v>
+        <v>1334400</v>
       </c>
       <c r="G59" s="3">
-        <v>1356400</v>
+        <v>1310300</v>
       </c>
       <c r="H59" s="3">
-        <v>1440000</v>
+        <v>1338800</v>
       </c>
       <c r="I59" s="3">
-        <v>1342600</v>
+        <v>1421300</v>
       </c>
       <c r="J59" s="3">
+        <v>1325100</v>
+      </c>
+      <c r="K59" s="3">
         <v>1178200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1144200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1013800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>946900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>887200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>710200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>619500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>613400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1325600</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3589,59 +3726,62 @@
       <c r="V59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3926200</v>
+        <v>4038500</v>
       </c>
       <c r="E60" s="3">
-        <v>3877600</v>
+        <v>3875100</v>
       </c>
       <c r="F60" s="3">
-        <v>3198700</v>
+        <v>3827100</v>
       </c>
       <c r="G60" s="3">
-        <v>3193000</v>
+        <v>3157100</v>
       </c>
       <c r="H60" s="3">
-        <v>3257100</v>
+        <v>3151500</v>
       </c>
       <c r="I60" s="3">
-        <v>3147200</v>
+        <v>3214700</v>
       </c>
       <c r="J60" s="3">
+        <v>3106300</v>
+      </c>
+      <c r="K60" s="3">
         <v>3356700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3276200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3146000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2877300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2511500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2069200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1929900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1668000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3593200</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T60" s="3" t="s">
         <v>16</v>
       </c>
@@ -3651,59 +3791,62 @@
       <c r="V60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1976700</v>
+        <v>1938900</v>
       </c>
       <c r="E61" s="3">
-        <v>1860700</v>
+        <v>1951000</v>
       </c>
       <c r="F61" s="3">
-        <v>2018100</v>
+        <v>1836500</v>
       </c>
       <c r="G61" s="3">
-        <v>2118700</v>
+        <v>1991800</v>
       </c>
       <c r="H61" s="3">
-        <v>2104700</v>
+        <v>2091200</v>
       </c>
       <c r="I61" s="3">
-        <v>2055800</v>
+        <v>2077300</v>
       </c>
       <c r="J61" s="3">
+        <v>2029000</v>
+      </c>
+      <c r="K61" s="3">
         <v>2057800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1879700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1856600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>777900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>38300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>39000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>40000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>40700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>42100</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -3713,59 +3856,62 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>289900</v>
+        <v>271400</v>
       </c>
       <c r="E62" s="3">
-        <v>305800</v>
+        <v>286100</v>
       </c>
       <c r="F62" s="3">
-        <v>307700</v>
+        <v>301800</v>
       </c>
       <c r="G62" s="3">
-        <v>307400</v>
+        <v>303700</v>
       </c>
       <c r="H62" s="3">
-        <v>280500</v>
+        <v>303400</v>
       </c>
       <c r="I62" s="3">
-        <v>269500</v>
+        <v>276800</v>
       </c>
       <c r="J62" s="3">
+        <v>266000</v>
+      </c>
+      <c r="K62" s="3">
         <v>220700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>225900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>248700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>208500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>210000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>97000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>96100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1100</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>16</v>
       </c>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,59 +4116,62 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6238900</v>
+        <v>6296800</v>
       </c>
       <c r="E66" s="3">
-        <v>6073300</v>
+        <v>6157700</v>
       </c>
       <c r="F66" s="3">
-        <v>5549800</v>
+        <v>5994300</v>
       </c>
       <c r="G66" s="3">
-        <v>5642400</v>
+        <v>5477600</v>
       </c>
       <c r="H66" s="3">
-        <v>5664500</v>
+        <v>5568900</v>
       </c>
       <c r="I66" s="3">
-        <v>5494900</v>
+        <v>5590800</v>
       </c>
       <c r="J66" s="3">
+        <v>5423400</v>
+      </c>
+      <c r="K66" s="3">
         <v>5659900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5402400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5268100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3880900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2771200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2205600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2066400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1710600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3636400</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>16</v>
       </c>
@@ -4023,8 +4181,11 @@
       <c r="V66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4213,17 +4381,17 @@
         <v>0</v>
       </c>
       <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
         <v>3284400</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>3242900</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>4323600</v>
       </c>
-      <c r="S70" s="3">
-        <v>0</v>
-      </c>
       <c r="T70" s="3">
         <v>0</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,59 +4466,62 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-6590500</v>
+        <v>-6720600</v>
       </c>
       <c r="E72" s="3">
-        <v>-6392300</v>
+        <v>-6504700</v>
       </c>
       <c r="F72" s="3">
-        <v>-6150600</v>
+        <v>-6309200</v>
       </c>
       <c r="G72" s="3">
-        <v>-5967100</v>
+        <v>-6070600</v>
       </c>
       <c r="H72" s="3">
-        <v>-5730200</v>
+        <v>-5889500</v>
       </c>
       <c r="I72" s="3">
-        <v>-5278500</v>
+        <v>-5655600</v>
       </c>
       <c r="J72" s="3">
+        <v>-5209800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-4889200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4224500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3852200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3414300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2796700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2357100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2130900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2154600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-4631600</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>16</v>
       </c>
@@ -4357,8 +4531,11 @@
       <c r="V72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,59 +4726,62 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1403600</v>
+        <v>1235300</v>
       </c>
       <c r="E76" s="3">
-        <v>1444100</v>
+        <v>1385400</v>
       </c>
       <c r="F76" s="3">
-        <v>829100</v>
+        <v>1425300</v>
       </c>
       <c r="G76" s="3">
-        <v>953300</v>
+        <v>818400</v>
       </c>
       <c r="H76" s="3">
-        <v>1128400</v>
+        <v>940900</v>
       </c>
       <c r="I76" s="3">
-        <v>1493200</v>
+        <v>1113700</v>
       </c>
       <c r="J76" s="3">
+        <v>1473700</v>
+      </c>
+      <c r="K76" s="3">
         <v>1876900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2273900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2514600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2619500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2997500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3268500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2060900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2055000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-4506300</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>16</v>
       </c>
@@ -4605,8 +4791,11 @@
       <c r="V76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-198200</v>
+        <v>-215800</v>
       </c>
       <c r="E81" s="3">
-        <v>-241700</v>
+        <v>-195600</v>
       </c>
       <c r="F81" s="3">
-        <v>-183500</v>
+        <v>-238600</v>
       </c>
       <c r="G81" s="3">
-        <v>-225200</v>
+        <v>-181100</v>
       </c>
       <c r="H81" s="3">
-        <v>-448700</v>
+        <v>-222300</v>
       </c>
       <c r="I81" s="3">
-        <v>-389300</v>
+        <v>-442900</v>
       </c>
       <c r="J81" s="3">
+        <v>-384200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-575400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-355600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-275900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-504900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-439500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-294800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-98300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2198300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1737000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-248500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-267600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-410200</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4873,8 +5072,8 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>16</v>
+      <c r="T83" s="3">
+        <v>0</v>
       </c>
       <c r="U83" s="3" t="s">
         <v>16</v>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,28 +5406,31 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-210600</v>
+        <v>-219600</v>
       </c>
       <c r="E89" s="3">
-        <v>-237000</v>
+        <v>-207900</v>
       </c>
       <c r="F89" s="3">
-        <v>-301000</v>
+        <v>-234000</v>
       </c>
       <c r="G89" s="3">
-        <v>-211900</v>
+        <v>-297000</v>
       </c>
       <c r="H89" s="3">
-        <v>-94300</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>16</v>
+        <v>-209100</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-93000</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>16</v>
@@ -5227,8 +5444,8 @@
       <c r="M89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
+      <c r="N89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
@@ -5245,8 +5462,8 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>16</v>
+      <c r="T89" s="3">
+        <v>0</v>
       </c>
       <c r="U89" s="3" t="s">
         <v>16</v>
@@ -5254,8 +5471,11 @@
       <c r="V89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5331,8 +5552,8 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>16</v>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>16</v>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,28 +5691,31 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-433400</v>
+        <v>9000</v>
       </c>
       <c r="E94" s="3">
-        <v>43900</v>
+        <v>-427800</v>
       </c>
       <c r="F94" s="3">
-        <v>53500</v>
+        <v>43300</v>
       </c>
       <c r="G94" s="3">
-        <v>178500</v>
+        <v>52800</v>
       </c>
       <c r="H94" s="3">
-        <v>-251100</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>16</v>
+        <v>176200</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-247800</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>16</v>
@@ -5499,8 +5729,8 @@
       <c r="M94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -5517,8 +5747,8 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>16</v>
+      <c r="T94" s="3">
+        <v>0</v>
       </c>
       <c r="U94" s="3" t="s">
         <v>16</v>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,28 +6041,31 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>95300</v>
+        <v>123300</v>
       </c>
       <c r="E100" s="3">
-        <v>1309300</v>
+        <v>94100</v>
       </c>
       <c r="F100" s="3">
-        <v>37100</v>
+        <v>1292300</v>
       </c>
       <c r="G100" s="3">
-        <v>128400</v>
+        <v>36700</v>
       </c>
       <c r="H100" s="3">
-        <v>-12400</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>16</v>
+        <v>126700</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-12200</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>16</v>
@@ -5833,8 +6079,8 @@
       <c r="M100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
+      <c r="N100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -5851,8 +6097,8 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>16</v>
+      <c r="T100" s="3">
+        <v>0</v>
       </c>
       <c r="U100" s="3" t="s">
         <v>16</v>
@@ -5860,28 +6106,31 @@
       <c r="V100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-4400</v>
+        <v>-14200</v>
       </c>
       <c r="E101" s="3">
-        <v>-5100</v>
+        <v>-4300</v>
       </c>
       <c r="F101" s="3">
-        <v>-17600</v>
+        <v>-5000</v>
       </c>
       <c r="G101" s="3">
-        <v>-1600</v>
+        <v>-17400</v>
       </c>
       <c r="H101" s="3">
-        <v>10100</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>16</v>
+        <v>-1500</v>
+      </c>
+      <c r="I101" s="3">
+        <v>9900</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>16</v>
@@ -5895,8 +6144,8 @@
       <c r="M101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="N101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
@@ -5913,8 +6162,8 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>16</v>
+      <c r="T101" s="3">
+        <v>0</v>
       </c>
       <c r="U101" s="3" t="s">
         <v>16</v>
@@ -5922,28 +6171,31 @@
       <c r="V101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-553100</v>
+        <v>-101500</v>
       </c>
       <c r="E102" s="3">
-        <v>1111100</v>
+        <v>-545900</v>
       </c>
       <c r="F102" s="3">
-        <v>-228000</v>
+        <v>1096600</v>
       </c>
       <c r="G102" s="3">
-        <v>93400</v>
+        <v>-225000</v>
       </c>
       <c r="H102" s="3">
-        <v>-347700</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>16</v>
+        <v>92200</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-343200</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>16</v>
@@ -5957,8 +6209,8 @@
       <c r="M102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
+      <c r="N102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O102" s="3">
         <v>0</v>
@@ -5975,13 +6227,16 @@
       <c r="S102" s="3">
         <v>0</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>16</v>
+      <c r="T102" s="3">
+        <v>0</v>
       </c>
       <c r="U102" s="3" t="s">
         <v>16</v>
       </c>
       <c r="V102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IQ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="92">
   <si>
     <t>IQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="4.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1171500</v>
+        <v>1188100</v>
       </c>
       <c r="E8" s="3">
-        <v>1227000</v>
+        <v>1191200</v>
       </c>
       <c r="F8" s="3">
-        <v>1148400</v>
+        <v>1247500</v>
       </c>
       <c r="G8" s="3">
-        <v>1106800</v>
+        <v>1167700</v>
       </c>
       <c r="H8" s="3">
-        <v>1141200</v>
+        <v>1125300</v>
       </c>
       <c r="I8" s="3">
-        <v>1177900</v>
+        <v>1160400</v>
       </c>
       <c r="J8" s="3">
+        <v>1197700</v>
+      </c>
+      <c r="K8" s="3">
         <v>1154300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1154000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1086300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1063300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1020600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>967700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>863600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>699800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>691200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>734700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>642100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>477600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>458800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>473800</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1057700</v>
+        <v>1100300</v>
       </c>
       <c r="E9" s="3">
-        <v>1094700</v>
+        <v>1075400</v>
       </c>
       <c r="F9" s="3">
-        <v>1044700</v>
+        <v>1113000</v>
       </c>
       <c r="G9" s="3">
-        <v>979800</v>
+        <v>1062200</v>
       </c>
       <c r="H9" s="3">
-        <v>1052200</v>
+        <v>996300</v>
       </c>
       <c r="I9" s="3">
-        <v>1216900</v>
+        <v>1069900</v>
       </c>
       <c r="J9" s="3">
+        <v>1237300</v>
+      </c>
+      <c r="K9" s="3">
         <v>1218700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1275500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1066600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1107000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1237800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1071400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>854700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>695600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>650700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>726900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1304500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1035100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>453900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>456800</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>113900</v>
+        <v>87900</v>
       </c>
       <c r="E10" s="3">
-        <v>132300</v>
+        <v>115800</v>
       </c>
       <c r="F10" s="3">
-        <v>103700</v>
+        <v>134500</v>
       </c>
       <c r="G10" s="3">
-        <v>126900</v>
+        <v>105500</v>
       </c>
       <c r="H10" s="3">
-        <v>89000</v>
+        <v>129000</v>
       </c>
       <c r="I10" s="3">
-        <v>-39000</v>
+        <v>90500</v>
       </c>
       <c r="J10" s="3">
+        <v>-39600</v>
+      </c>
+      <c r="K10" s="3">
         <v>-64300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-121500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>19700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-43700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-217200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-103700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>8900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>40500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>7800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-662500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>-557500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>4900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,73 +990,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>104200</v>
+        <v>106900</v>
       </c>
       <c r="E12" s="3">
-        <v>103500</v>
+        <v>105900</v>
       </c>
       <c r="F12" s="3">
-        <v>102100</v>
+        <v>105200</v>
       </c>
       <c r="G12" s="3">
-        <v>103200</v>
+        <v>103900</v>
       </c>
       <c r="H12" s="3">
-        <v>102200</v>
+        <v>104900</v>
       </c>
       <c r="I12" s="3">
-        <v>104400</v>
+        <v>104000</v>
       </c>
       <c r="J12" s="3">
+        <v>106200</v>
+      </c>
+      <c r="K12" s="3">
         <v>109500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>109700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>100000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>91000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>88200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>78100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>61800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>55600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>52300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>50800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>87400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>78200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>35500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>33400</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1344300</v>
+        <v>1402300</v>
       </c>
       <c r="E17" s="3">
-        <v>1383100</v>
+        <v>1366800</v>
       </c>
       <c r="F17" s="3">
-        <v>1349700</v>
+        <v>1406300</v>
       </c>
       <c r="G17" s="3">
-        <v>1293000</v>
+        <v>1372300</v>
       </c>
       <c r="H17" s="3">
-        <v>1338600</v>
+        <v>1314700</v>
       </c>
       <c r="I17" s="3">
-        <v>1523100</v>
+        <v>1361000</v>
       </c>
       <c r="J17" s="3">
+        <v>1548600</v>
+      </c>
+      <c r="K17" s="3">
         <v>1543700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1595700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1372300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1371500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1503400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1330400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1049400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>852200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>814000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>893000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>789100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>628800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>569700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>557900</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-172700</v>
+        <v>-214200</v>
       </c>
       <c r="E18" s="3">
-        <v>-156200</v>
+        <v>-175600</v>
       </c>
       <c r="F18" s="3">
-        <v>-201300</v>
+        <v>-158800</v>
       </c>
       <c r="G18" s="3">
-        <v>-186300</v>
+        <v>-204700</v>
       </c>
       <c r="H18" s="3">
-        <v>-197400</v>
+        <v>-189400</v>
       </c>
       <c r="I18" s="3">
-        <v>-345200</v>
+        <v>-200700</v>
       </c>
       <c r="J18" s="3">
+        <v>-351000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-389400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-441800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-286000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-308200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-482800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-362700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-185900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-152400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-122800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-158300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-147000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-151200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-110900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-84100</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1414,73 +1447,77 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>18000</v>
+        <v>3300</v>
       </c>
       <c r="E20" s="3">
-        <v>16700</v>
+        <v>18300</v>
       </c>
       <c r="F20" s="3">
+        <v>16900</v>
+      </c>
+      <c r="G20" s="3">
         <v>4400</v>
       </c>
-      <c r="G20" s="3">
-        <v>51800</v>
-      </c>
       <c r="H20" s="3">
-        <v>19200</v>
+        <v>52700</v>
       </c>
       <c r="I20" s="3">
-        <v>-56400</v>
+        <v>19500</v>
       </c>
       <c r="J20" s="3">
+        <v>-57400</v>
+      </c>
+      <c r="K20" s="3">
         <v>54200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-89300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-27300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>52700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-73300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-106200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>96800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>39800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>17900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-20200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1526,206 +1563,215 @@
       <c r="Q21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S21" s="3">
         <v>1174600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>835600</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W21" s="3">
         <v>598900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>443800</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>52800</v>
+        <v>55000</v>
       </c>
       <c r="E22" s="3">
-        <v>50900</v>
+        <v>53700</v>
       </c>
       <c r="F22" s="3">
-        <v>41500</v>
+        <v>51800</v>
       </c>
       <c r="G22" s="3">
-        <v>41500</v>
+        <v>42200</v>
       </c>
       <c r="H22" s="3">
-        <v>40900</v>
+        <v>42200</v>
       </c>
       <c r="I22" s="3">
-        <v>40300</v>
+        <v>41600</v>
       </c>
       <c r="J22" s="3">
+        <v>41000</v>
+      </c>
+      <c r="K22" s="3">
         <v>42600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>39700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>37900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>20600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>8900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>6300</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T22" s="3">
+      <c r="T22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U22" s="3">
         <v>12200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>9900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>6100</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-207600</v>
+        <v>-265900</v>
       </c>
       <c r="E23" s="3">
-        <v>-190400</v>
+        <v>-211100</v>
       </c>
       <c r="F23" s="3">
-        <v>-238400</v>
+        <v>-193600</v>
       </c>
       <c r="G23" s="3">
-        <v>-175900</v>
+        <v>-242400</v>
       </c>
       <c r="H23" s="3">
-        <v>-219000</v>
+        <v>-178900</v>
       </c>
       <c r="I23" s="3">
-        <v>-442000</v>
+        <v>-222700</v>
       </c>
       <c r="J23" s="3">
+        <v>-449400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-377800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-570700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-351100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-276100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-487900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-438200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-293400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-56900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-89300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-156000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-141400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-162700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-137200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-91300</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>4700</v>
+        <v>1400</v>
       </c>
       <c r="E24" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F24" s="3">
         <v>3200</v>
       </c>
-      <c r="F24" s="3">
-        <v>-2500</v>
-      </c>
       <c r="G24" s="3">
-        <v>2900</v>
+        <v>-2600</v>
       </c>
       <c r="H24" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I24" s="3">
         <v>2500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
+        <v>800</v>
+      </c>
+      <c r="K24" s="3">
+        <v>3500</v>
+      </c>
+      <c r="L24" s="3">
+        <v>2500</v>
+      </c>
+      <c r="M24" s="3">
+        <v>900</v>
+      </c>
+      <c r="N24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O24" s="3">
+        <v>11500</v>
+      </c>
+      <c r="P24" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Q24" s="3">
         <v>700</v>
       </c>
-      <c r="J24" s="3">
-        <v>3500</v>
-      </c>
-      <c r="K24" s="3">
-        <v>2500</v>
-      </c>
-      <c r="L24" s="3">
-        <v>900</v>
-      </c>
-      <c r="M24" s="3">
-        <v>1100</v>
-      </c>
-      <c r="N24" s="3">
-        <v>11500</v>
-      </c>
-      <c r="O24" s="3">
-        <v>-800</v>
-      </c>
-      <c r="P24" s="3">
-        <v>700</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-1400</v>
-      </c>
-      <c r="S24" s="3">
-        <v>100</v>
       </c>
       <c r="T24" s="3">
         <v>100</v>
@@ -1734,13 +1780,16 @@
         <v>100</v>
       </c>
       <c r="V24" s="3">
+        <v>100</v>
+      </c>
+      <c r="W24" s="3">
         <v>600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-212300</v>
+        <v>-267300</v>
       </c>
       <c r="E26" s="3">
-        <v>-193600</v>
+        <v>-215800</v>
       </c>
       <c r="F26" s="3">
-        <v>-235900</v>
+        <v>-196800</v>
       </c>
       <c r="G26" s="3">
-        <v>-178800</v>
+        <v>-239900</v>
       </c>
       <c r="H26" s="3">
-        <v>-221500</v>
+        <v>-181800</v>
       </c>
       <c r="I26" s="3">
-        <v>-442700</v>
+        <v>-225200</v>
       </c>
       <c r="J26" s="3">
+        <v>-450100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-381200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-573200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-352000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-277200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-499400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-437300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-294100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-56900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-87900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-156100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-141500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-162800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-137800</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-215800</v>
+        <v>-271500</v>
       </c>
       <c r="E27" s="3">
-        <v>-195600</v>
+        <v>-219400</v>
       </c>
       <c r="F27" s="3">
-        <v>-238600</v>
+        <v>-198900</v>
       </c>
       <c r="G27" s="3">
-        <v>-181100</v>
+        <v>-242600</v>
       </c>
       <c r="H27" s="3">
-        <v>-222300</v>
+        <v>-184100</v>
       </c>
       <c r="I27" s="3">
-        <v>-442900</v>
+        <v>-226000</v>
       </c>
       <c r="J27" s="3">
+        <v>-450300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-384200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-575400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-355600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-275900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-504900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-439500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-294800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-98300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2198300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1737000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-248500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-267600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-410200</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-18000</v>
+        <v>-3300</v>
       </c>
       <c r="E32" s="3">
-        <v>-16700</v>
+        <v>-18300</v>
       </c>
       <c r="F32" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="G32" s="3">
         <v>-4400</v>
       </c>
-      <c r="G32" s="3">
-        <v>-51800</v>
-      </c>
       <c r="H32" s="3">
-        <v>-19200</v>
+        <v>-52700</v>
       </c>
       <c r="I32" s="3">
-        <v>56400</v>
+        <v>-19500</v>
       </c>
       <c r="J32" s="3">
+        <v>57400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-54200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>89300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>27300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-52700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>73300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>106200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-96800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-39800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-17900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>20200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-215800</v>
+        <v>-271500</v>
       </c>
       <c r="E33" s="3">
-        <v>-195600</v>
+        <v>-219400</v>
       </c>
       <c r="F33" s="3">
-        <v>-238600</v>
+        <v>-198900</v>
       </c>
       <c r="G33" s="3">
-        <v>-181100</v>
+        <v>-242600</v>
       </c>
       <c r="H33" s="3">
-        <v>-222300</v>
+        <v>-184100</v>
       </c>
       <c r="I33" s="3">
-        <v>-442900</v>
+        <v>-226000</v>
       </c>
       <c r="J33" s="3">
+        <v>-450300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-384200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-575400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-355600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-275900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-504900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-439500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-294800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-98300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2198300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1737000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-248500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-267600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-410200</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-215800</v>
+        <v>-271500</v>
       </c>
       <c r="E35" s="3">
-        <v>-195600</v>
+        <v>-219400</v>
       </c>
       <c r="F35" s="3">
-        <v>-238600</v>
+        <v>-198900</v>
       </c>
       <c r="G35" s="3">
-        <v>-181100</v>
+        <v>-242600</v>
       </c>
       <c r="H35" s="3">
-        <v>-222300</v>
+        <v>-184100</v>
       </c>
       <c r="I35" s="3">
-        <v>-442900</v>
+        <v>-226000</v>
       </c>
       <c r="J35" s="3">
+        <v>-450300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-384200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-575400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-355600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-275900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-504900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-439500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-294800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-98300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2198300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1737000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-248500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-267600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-410200</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,62 +2660,63 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1029300</v>
+        <v>1142300</v>
       </c>
       <c r="E41" s="3">
-        <v>1132200</v>
+        <v>1046600</v>
       </c>
       <c r="F41" s="3">
-        <v>1680700</v>
+        <v>1151100</v>
       </c>
       <c r="G41" s="3">
-        <v>487100</v>
+        <v>1708900</v>
       </c>
       <c r="H41" s="3">
-        <v>659100</v>
+        <v>495200</v>
       </c>
       <c r="I41" s="3">
-        <v>568600</v>
+        <v>670200</v>
       </c>
       <c r="J41" s="3">
+        <v>578200</v>
+      </c>
+      <c r="K41" s="3">
         <v>913800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>702900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>829200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1806300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>666100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>816200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1159100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>57900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>105200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>176500</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2639,62 +2726,65 @@
       <c r="W41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>851000</v>
+        <v>573300</v>
       </c>
       <c r="E42" s="3">
-        <v>910800</v>
+        <v>865200</v>
       </c>
       <c r="F42" s="3">
-        <v>517100</v>
+        <v>926000</v>
       </c>
       <c r="G42" s="3">
-        <v>554900</v>
+        <v>525800</v>
       </c>
       <c r="H42" s="3">
-        <v>646100</v>
+        <v>564200</v>
       </c>
       <c r="I42" s="3">
-        <v>809700</v>
+        <v>657000</v>
       </c>
       <c r="J42" s="3">
+        <v>823300</v>
+      </c>
+      <c r="K42" s="3">
         <v>705100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1067400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1347200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>591100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>880400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>538000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>665100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>70700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>111900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>497500</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2704,62 +2794,65 @@
       <c r="W42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>513400</v>
+        <v>494300</v>
       </c>
       <c r="E43" s="3">
-        <v>547400</v>
+        <v>522000</v>
       </c>
       <c r="F43" s="3">
-        <v>529800</v>
+        <v>556500</v>
       </c>
       <c r="G43" s="3">
-        <v>528100</v>
+        <v>538700</v>
       </c>
       <c r="H43" s="3">
-        <v>526300</v>
+        <v>537000</v>
       </c>
       <c r="I43" s="3">
-        <v>705200</v>
+        <v>535200</v>
       </c>
       <c r="J43" s="3">
+        <v>717100</v>
+      </c>
+      <c r="K43" s="3">
         <v>591200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>514100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>513100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>535000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>460500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>452200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>350200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>420800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>322200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>693700</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2769,62 +2862,65 @@
       <c r="W43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>137100</v>
+        <v>171700</v>
       </c>
       <c r="E44" s="3">
-        <v>158900</v>
+        <v>139400</v>
       </c>
       <c r="F44" s="3">
-        <v>159400</v>
+        <v>161600</v>
       </c>
       <c r="G44" s="3">
-        <v>192100</v>
+        <v>162100</v>
       </c>
       <c r="H44" s="3">
-        <v>182300</v>
+        <v>195300</v>
       </c>
       <c r="I44" s="3">
-        <v>220600</v>
+        <v>185400</v>
       </c>
       <c r="J44" s="3">
+        <v>224300</v>
+      </c>
+      <c r="K44" s="3">
         <v>188600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>206500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>179700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>191900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>169000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>147200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>162900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>172400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>117500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>110300</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U44" s="3" t="s">
         <v>16</v>
       </c>
@@ -2834,62 +2930,65 @@
       <c r="W44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>631400</v>
+        <v>595800</v>
       </c>
       <c r="E45" s="3">
-        <v>661300</v>
+        <v>642000</v>
       </c>
       <c r="F45" s="3">
-        <v>545300</v>
+        <v>672300</v>
       </c>
       <c r="G45" s="3">
-        <v>634300</v>
+        <v>554400</v>
       </c>
       <c r="H45" s="3">
-        <v>710300</v>
+        <v>644900</v>
       </c>
       <c r="I45" s="3">
-        <v>679200</v>
+        <v>722200</v>
       </c>
       <c r="J45" s="3">
+        <v>690600</v>
+      </c>
+      <c r="K45" s="3">
         <v>722800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1031300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>926000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>772700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>707300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>430500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>377800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>145500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>161200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>137200</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2899,62 +2998,65 @@
       <c r="W45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3162200</v>
+        <v>2977400</v>
       </c>
       <c r="E46" s="3">
-        <v>3410400</v>
+        <v>3215200</v>
       </c>
       <c r="F46" s="3">
-        <v>3432300</v>
+        <v>3467600</v>
       </c>
       <c r="G46" s="3">
-        <v>2396500</v>
+        <v>3489800</v>
       </c>
       <c r="H46" s="3">
-        <v>2724200</v>
+        <v>2436600</v>
       </c>
       <c r="I46" s="3">
-        <v>2983400</v>
+        <v>2769900</v>
       </c>
       <c r="J46" s="3">
+        <v>3033400</v>
+      </c>
+      <c r="K46" s="3">
         <v>3121600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3522200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3795200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3897100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2883300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2384200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2715100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>867300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>817900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1615200</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2964,62 +3066,65 @@
       <c r="W46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>539500</v>
+        <v>550500</v>
       </c>
       <c r="E47" s="3">
-        <v>537500</v>
+        <v>548600</v>
       </c>
       <c r="F47" s="3">
-        <v>499200</v>
+        <v>546500</v>
       </c>
       <c r="G47" s="3">
-        <v>608600</v>
+        <v>507600</v>
       </c>
       <c r="H47" s="3">
-        <v>605900</v>
+        <v>618800</v>
       </c>
       <c r="I47" s="3">
-        <v>570700</v>
+        <v>616100</v>
       </c>
       <c r="J47" s="3">
+        <v>580200</v>
+      </c>
+      <c r="K47" s="3">
         <v>485700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>480400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>413700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>400600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>381200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>322800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>173900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>170000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>81500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>59000</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U47" s="3" t="s">
         <v>16</v>
       </c>
@@ -3029,62 +3134,65 @@
       <c r="W47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>370100</v>
+        <v>353200</v>
       </c>
       <c r="E48" s="3">
-        <v>357800</v>
+        <v>376300</v>
       </c>
       <c r="F48" s="3">
-        <v>368800</v>
+        <v>363800</v>
       </c>
       <c r="G48" s="3">
-        <v>379600</v>
+        <v>375000</v>
       </c>
       <c r="H48" s="3">
-        <v>426700</v>
+        <v>386000</v>
       </c>
       <c r="I48" s="3">
-        <v>395400</v>
+        <v>433900</v>
       </c>
       <c r="J48" s="3">
+        <v>402000</v>
+      </c>
+      <c r="K48" s="3">
         <v>381400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>369600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>358100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>265700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>235000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>206500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>196600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>189200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>179200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>179600</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U48" s="3" t="s">
         <v>16</v>
       </c>
@@ -3094,62 +3202,65 @@
       <c r="W48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3060100</v>
+        <v>3341300</v>
       </c>
       <c r="E49" s="3">
-        <v>2816600</v>
+        <v>3111400</v>
       </c>
       <c r="F49" s="3">
-        <v>2695700</v>
+        <v>2863800</v>
       </c>
       <c r="G49" s="3">
-        <v>2483500</v>
+        <v>2740800</v>
       </c>
       <c r="H49" s="3">
-        <v>2272300</v>
+        <v>2525100</v>
       </c>
       <c r="I49" s="3">
-        <v>2330300</v>
+        <v>2310400</v>
       </c>
       <c r="J49" s="3">
+        <v>2369400</v>
+      </c>
+      <c r="K49" s="3">
         <v>2362800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2601800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2423100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2432100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2315500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2285000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1858100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1623800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1409900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1221500</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U49" s="3" t="s">
         <v>16</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,62 +3406,65 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>400200</v>
+        <v>495500</v>
       </c>
       <c r="E52" s="3">
-        <v>420800</v>
+        <v>406900</v>
       </c>
       <c r="F52" s="3">
-        <v>423600</v>
+        <v>427800</v>
       </c>
       <c r="G52" s="3">
-        <v>427700</v>
+        <v>430700</v>
       </c>
       <c r="H52" s="3">
-        <v>480700</v>
+        <v>434900</v>
       </c>
       <c r="I52" s="3">
-        <v>424700</v>
+        <v>488800</v>
       </c>
       <c r="J52" s="3">
+        <v>431800</v>
+      </c>
+      <c r="K52" s="3">
         <v>545600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>562800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>686200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>787200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>685500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>570200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>530500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>439700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>409900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>378500</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U52" s="3" t="s">
         <v>16</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,62 +3542,65 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7532100</v>
+        <v>7717900</v>
       </c>
       <c r="E54" s="3">
-        <v>7543100</v>
+        <v>7658300</v>
       </c>
       <c r="F54" s="3">
-        <v>7419600</v>
+        <v>7669500</v>
       </c>
       <c r="G54" s="3">
-        <v>6296000</v>
+        <v>7543900</v>
       </c>
       <c r="H54" s="3">
-        <v>6509900</v>
+        <v>6401500</v>
       </c>
       <c r="I54" s="3">
-        <v>6704500</v>
+        <v>6619000</v>
       </c>
       <c r="J54" s="3">
+        <v>6816800</v>
+      </c>
+      <c r="K54" s="3">
         <v>6897200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7536800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7676300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7782700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6500500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5768700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5474100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3289900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2898400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3453700</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>16</v>
       </c>
@@ -3484,8 +3610,11 @@
       <c r="W54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,62 +3664,63 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1266900</v>
+        <v>1429100</v>
       </c>
       <c r="E57" s="3">
-        <v>1156200</v>
+        <v>1288200</v>
       </c>
       <c r="F57" s="3">
-        <v>1164300</v>
+        <v>1175600</v>
       </c>
       <c r="G57" s="3">
-        <v>1148100</v>
+        <v>1183800</v>
       </c>
       <c r="H57" s="3">
-        <v>1184400</v>
+        <v>1167300</v>
       </c>
       <c r="I57" s="3">
-        <v>1282500</v>
+        <v>1204200</v>
       </c>
       <c r="J57" s="3">
+        <v>1304000</v>
+      </c>
+      <c r="K57" s="3">
         <v>1264600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1574100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1464200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1574600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1475900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1458800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1269100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1252000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1010300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1035600</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U57" s="3" t="s">
         <v>16</v>
       </c>
@@ -3599,62 +3730,65 @@
       <c r="W57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1339800</v>
+        <v>1480300</v>
       </c>
       <c r="E58" s="3">
-        <v>1219100</v>
+        <v>1362200</v>
       </c>
       <c r="F58" s="3">
-        <v>1328400</v>
+        <v>1239500</v>
       </c>
       <c r="G58" s="3">
-        <v>698700</v>
+        <v>1350700</v>
       </c>
       <c r="H58" s="3">
-        <v>628300</v>
+        <v>710400</v>
       </c>
       <c r="I58" s="3">
-        <v>510900</v>
+        <v>638800</v>
       </c>
       <c r="J58" s="3">
+        <v>519500</v>
+      </c>
+      <c r="K58" s="3">
         <v>516600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>604300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>667800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>557600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>454600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>165500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>89900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>58400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>44400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1232000</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U58" s="3" t="s">
         <v>16</v>
       </c>
@@ -3664,62 +3798,65 @@
       <c r="W58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1431800</v>
+        <v>1466000</v>
       </c>
       <c r="E59" s="3">
-        <v>1499800</v>
+        <v>1455800</v>
       </c>
       <c r="F59" s="3">
-        <v>1334400</v>
+        <v>1524900</v>
       </c>
       <c r="G59" s="3">
-        <v>1310300</v>
+        <v>1356700</v>
       </c>
       <c r="H59" s="3">
-        <v>1338800</v>
+        <v>1332300</v>
       </c>
       <c r="I59" s="3">
-        <v>1421300</v>
+        <v>1361200</v>
       </c>
       <c r="J59" s="3">
+        <v>1445100</v>
+      </c>
+      <c r="K59" s="3">
         <v>1325100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1178200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1144200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1013800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>946900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>887200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>710200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>619500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>613400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1325600</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3729,62 +3866,65 @@
       <c r="W59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4038500</v>
+        <v>4375400</v>
       </c>
       <c r="E60" s="3">
-        <v>3875100</v>
+        <v>4106200</v>
       </c>
       <c r="F60" s="3">
-        <v>3827100</v>
+        <v>3940100</v>
       </c>
       <c r="G60" s="3">
-        <v>3157100</v>
+        <v>3891200</v>
       </c>
       <c r="H60" s="3">
-        <v>3151500</v>
+        <v>3210000</v>
       </c>
       <c r="I60" s="3">
-        <v>3214700</v>
+        <v>3204300</v>
       </c>
       <c r="J60" s="3">
+        <v>3268600</v>
+      </c>
+      <c r="K60" s="3">
         <v>3106300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3356700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3276200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3146000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2877300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2511500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2069200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1929900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1668000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3593200</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U60" s="3" t="s">
         <v>16</v>
       </c>
@@ -3794,62 +3934,65 @@
       <c r="W60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1938900</v>
+        <v>1983800</v>
       </c>
       <c r="E61" s="3">
-        <v>1951000</v>
+        <v>1971400</v>
       </c>
       <c r="F61" s="3">
-        <v>1836500</v>
+        <v>1983600</v>
       </c>
       <c r="G61" s="3">
-        <v>1991800</v>
+        <v>1867200</v>
       </c>
       <c r="H61" s="3">
-        <v>2091200</v>
+        <v>2025200</v>
       </c>
       <c r="I61" s="3">
-        <v>2077300</v>
+        <v>2126200</v>
       </c>
       <c r="J61" s="3">
+        <v>2112200</v>
+      </c>
+      <c r="K61" s="3">
         <v>2029000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2057800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1879700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1856600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>777900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>38300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>39000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>40000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>40700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>42100</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
@@ -3859,62 +4002,65 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>271400</v>
+        <v>256100</v>
       </c>
       <c r="E62" s="3">
-        <v>286100</v>
+        <v>275900</v>
       </c>
       <c r="F62" s="3">
-        <v>301800</v>
+        <v>290900</v>
       </c>
       <c r="G62" s="3">
-        <v>303700</v>
+        <v>306800</v>
       </c>
       <c r="H62" s="3">
-        <v>303400</v>
+        <v>308800</v>
       </c>
       <c r="I62" s="3">
-        <v>276800</v>
+        <v>308400</v>
       </c>
       <c r="J62" s="3">
+        <v>281500</v>
+      </c>
+      <c r="K62" s="3">
         <v>266000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>220700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>225900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>248700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>208500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>210000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>97000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>96100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1100</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U62" s="3" t="s">
         <v>16</v>
       </c>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,62 +4274,65 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6296800</v>
+        <v>6686600</v>
       </c>
       <c r="E66" s="3">
-        <v>6157700</v>
+        <v>6402300</v>
       </c>
       <c r="F66" s="3">
-        <v>5994300</v>
+        <v>6260900</v>
       </c>
       <c r="G66" s="3">
-        <v>5477600</v>
+        <v>6094700</v>
       </c>
       <c r="H66" s="3">
-        <v>5568900</v>
+        <v>5569400</v>
       </c>
       <c r="I66" s="3">
-        <v>5590800</v>
+        <v>5662300</v>
       </c>
       <c r="J66" s="3">
+        <v>5684500</v>
+      </c>
+      <c r="K66" s="3">
         <v>5423400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5659900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5402400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5268100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3880900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2771200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2205600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2066400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1710600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3636400</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>16</v>
       </c>
@@ -4184,8 +4342,11 @@
       <c r="W66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4384,17 +4552,17 @@
         <v>0</v>
       </c>
       <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
         <v>3284400</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>3242900</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>4323600</v>
       </c>
-      <c r="T70" s="3">
-        <v>0</v>
-      </c>
       <c r="U70" s="3">
         <v>0</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,62 +4640,65 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-6720600</v>
+        <v>-7104700</v>
       </c>
       <c r="E72" s="3">
-        <v>-6504700</v>
+        <v>-6833200</v>
       </c>
       <c r="F72" s="3">
-        <v>-6309200</v>
+        <v>-6613700</v>
       </c>
       <c r="G72" s="3">
-        <v>-6070600</v>
+        <v>-6414900</v>
       </c>
       <c r="H72" s="3">
-        <v>-5889500</v>
+        <v>-6172300</v>
       </c>
       <c r="I72" s="3">
-        <v>-5655600</v>
+        <v>-5988200</v>
       </c>
       <c r="J72" s="3">
+        <v>-5750400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-5209800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4889200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4224500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3852200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3414300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2796700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2357100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2130900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2154600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-4631600</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>16</v>
       </c>
@@ -4534,8 +4708,11 @@
       <c r="W72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,62 +4912,65 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1235300</v>
+        <v>1031300</v>
       </c>
       <c r="E76" s="3">
-        <v>1385400</v>
+        <v>1256000</v>
       </c>
       <c r="F76" s="3">
-        <v>1425300</v>
+        <v>1408600</v>
       </c>
       <c r="G76" s="3">
-        <v>818400</v>
+        <v>1449200</v>
       </c>
       <c r="H76" s="3">
-        <v>940900</v>
+        <v>832100</v>
       </c>
       <c r="I76" s="3">
-        <v>1113700</v>
+        <v>956700</v>
       </c>
       <c r="J76" s="3">
+        <v>1132300</v>
+      </c>
+      <c r="K76" s="3">
         <v>1473700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1876900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2273900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2514600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2619500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2997500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3268500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2060900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2055000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-4506300</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>16</v>
       </c>
@@ -4794,8 +4980,11 @@
       <c r="W76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-215800</v>
+        <v>-271500</v>
       </c>
       <c r="E81" s="3">
-        <v>-195600</v>
+        <v>-219400</v>
       </c>
       <c r="F81" s="3">
-        <v>-238600</v>
+        <v>-198900</v>
       </c>
       <c r="G81" s="3">
-        <v>-181100</v>
+        <v>-242600</v>
       </c>
       <c r="H81" s="3">
-        <v>-222300</v>
+        <v>-184100</v>
       </c>
       <c r="I81" s="3">
-        <v>-442900</v>
+        <v>-226000</v>
       </c>
       <c r="J81" s="3">
+        <v>-450300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-384200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-575400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-355600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-275900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-504900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-439500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-294800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-98300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2198300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1737000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-248500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-267600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-410200</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5075,8 +5274,8 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>16</v>
+      <c r="U83" s="3">
+        <v>0</v>
       </c>
       <c r="V83" s="3" t="s">
         <v>16</v>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,31 +5623,34 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-219600</v>
+        <v>-325700</v>
       </c>
       <c r="E89" s="3">
-        <v>-207900</v>
+        <v>-223200</v>
       </c>
       <c r="F89" s="3">
-        <v>-234000</v>
+        <v>-211400</v>
       </c>
       <c r="G89" s="3">
-        <v>-297000</v>
+        <v>-237900</v>
       </c>
       <c r="H89" s="3">
-        <v>-209100</v>
+        <v>-302000</v>
       </c>
       <c r="I89" s="3">
-        <v>-93000</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>16</v>
+        <v>-212700</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-94600</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>16</v>
@@ -5447,8 +5664,8 @@
       <c r="N89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
+      <c r="O89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
@@ -5465,8 +5682,8 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>16</v>
+      <c r="U89" s="3">
+        <v>0</v>
       </c>
       <c r="V89" s="3" t="s">
         <v>16</v>
@@ -5474,8 +5691,11 @@
       <c r="W89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5555,8 +5776,8 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>16</v>
+      <c r="U91" s="3">
+        <v>0</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>16</v>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,31 +5921,34 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>9000</v>
+        <v>295100</v>
       </c>
       <c r="E94" s="3">
-        <v>-427800</v>
+        <v>9100</v>
       </c>
       <c r="F94" s="3">
-        <v>43300</v>
+        <v>-434900</v>
       </c>
       <c r="G94" s="3">
-        <v>52800</v>
+        <v>44100</v>
       </c>
       <c r="H94" s="3">
-        <v>176200</v>
+        <v>53700</v>
       </c>
       <c r="I94" s="3">
-        <v>-247800</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>16</v>
+        <v>179200</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-252000</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>16</v>
@@ -5732,8 +5962,8 @@
       <c r="N94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -5750,8 +5980,8 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>16</v>
+      <c r="U94" s="3">
+        <v>0</v>
       </c>
       <c r="V94" s="3" t="s">
         <v>16</v>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,31 +6287,34 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>123300</v>
+        <v>135800</v>
       </c>
       <c r="E100" s="3">
-        <v>94100</v>
+        <v>125400</v>
       </c>
       <c r="F100" s="3">
-        <v>1292300</v>
+        <v>95700</v>
       </c>
       <c r="G100" s="3">
-        <v>36700</v>
+        <v>1313900</v>
       </c>
       <c r="H100" s="3">
-        <v>126700</v>
+        <v>37300</v>
       </c>
       <c r="I100" s="3">
-        <v>-12200</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>16</v>
+        <v>128800</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-12400</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>16</v>
@@ -6082,8 +6328,8 @@
       <c r="N100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
+      <c r="O100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
@@ -6100,8 +6346,8 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>16</v>
+      <c r="U100" s="3">
+        <v>0</v>
       </c>
       <c r="V100" s="3" t="s">
         <v>16</v>
@@ -6109,31 +6355,34 @@
       <c r="W100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-14200</v>
+        <v>-3500</v>
       </c>
       <c r="E101" s="3">
-        <v>-4300</v>
+        <v>-14500</v>
       </c>
       <c r="F101" s="3">
-        <v>-5000</v>
+        <v>-4400</v>
       </c>
       <c r="G101" s="3">
-        <v>-17400</v>
+        <v>-5100</v>
       </c>
       <c r="H101" s="3">
-        <v>-1500</v>
+        <v>-17700</v>
       </c>
       <c r="I101" s="3">
-        <v>9900</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>16</v>
+        <v>-1600</v>
+      </c>
+      <c r="J101" s="3">
+        <v>10100</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>16</v>
@@ -6147,8 +6396,8 @@
       <c r="N101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
+      <c r="O101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
@@ -6165,8 +6414,8 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>16</v>
+      <c r="U101" s="3">
+        <v>0</v>
       </c>
       <c r="V101" s="3" t="s">
         <v>16</v>
@@ -6174,31 +6423,34 @@
       <c r="W101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-101500</v>
+        <v>101700</v>
       </c>
       <c r="E102" s="3">
-        <v>-545900</v>
+        <v>-103200</v>
       </c>
       <c r="F102" s="3">
-        <v>1096600</v>
+        <v>-555000</v>
       </c>
       <c r="G102" s="3">
-        <v>-225000</v>
+        <v>1115000</v>
       </c>
       <c r="H102" s="3">
-        <v>92200</v>
+        <v>-228800</v>
       </c>
       <c r="I102" s="3">
-        <v>-343200</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>16</v>
+        <v>93800</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-348900</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>16</v>
@@ -6212,8 +6464,8 @@
       <c r="N102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
+      <c r="O102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P102" s="3">
         <v>0</v>
@@ -6230,13 +6482,16 @@
       <c r="T102" s="3">
         <v>0</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>16</v>
+      <c r="U102" s="3">
+        <v>0</v>
       </c>
       <c r="V102" s="3" t="s">
         <v>16</v>
       </c>
       <c r="W102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IQ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
   <si>
     <t>IQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="4.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1188100</v>
+        <v>1165600</v>
       </c>
       <c r="E8" s="3">
-        <v>1191200</v>
+        <v>1197300</v>
       </c>
       <c r="F8" s="3">
-        <v>1247500</v>
+        <v>1200300</v>
       </c>
       <c r="G8" s="3">
-        <v>1167700</v>
+        <v>1257100</v>
       </c>
       <c r="H8" s="3">
-        <v>1125300</v>
+        <v>1176600</v>
       </c>
       <c r="I8" s="3">
-        <v>1160400</v>
+        <v>1133900</v>
       </c>
       <c r="J8" s="3">
+        <v>1169300</v>
+      </c>
+      <c r="K8" s="3">
         <v>1197700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1154300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1154000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1086300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1063300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1020600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>967700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>863600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>699800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>691200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>734700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>642100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>477600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>458800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>473800</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1100300</v>
+        <v>1026600</v>
       </c>
       <c r="E9" s="3">
-        <v>1075400</v>
+        <v>1108700</v>
       </c>
       <c r="F9" s="3">
-        <v>1113000</v>
+        <v>1083600</v>
       </c>
       <c r="G9" s="3">
-        <v>1062200</v>
+        <v>1121600</v>
       </c>
       <c r="H9" s="3">
-        <v>996300</v>
+        <v>1070300</v>
       </c>
       <c r="I9" s="3">
-        <v>1069900</v>
+        <v>1003900</v>
       </c>
       <c r="J9" s="3">
+        <v>1078100</v>
+      </c>
+      <c r="K9" s="3">
         <v>1237300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1218700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1275500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1066600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1107000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1237800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1071400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>854700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>695600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>650700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>726900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1304500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1035100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>453900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>456800</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>87900</v>
+        <v>139000</v>
       </c>
       <c r="E10" s="3">
-        <v>115800</v>
+        <v>88600</v>
       </c>
       <c r="F10" s="3">
-        <v>134500</v>
+        <v>116700</v>
       </c>
       <c r="G10" s="3">
-        <v>105500</v>
+        <v>135500</v>
       </c>
       <c r="H10" s="3">
-        <v>129000</v>
+        <v>106300</v>
       </c>
       <c r="I10" s="3">
-        <v>90500</v>
+        <v>130000</v>
       </c>
       <c r="J10" s="3">
+        <v>91200</v>
+      </c>
+      <c r="K10" s="3">
         <v>-39600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-64300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-121500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>19700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-43700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-217200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-103700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>8900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>40500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>7800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>-662500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>-557500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>4900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,76 +1003,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>106900</v>
+        <v>120400</v>
       </c>
       <c r="E12" s="3">
-        <v>105900</v>
+        <v>107800</v>
       </c>
       <c r="F12" s="3">
-        <v>105200</v>
+        <v>106700</v>
       </c>
       <c r="G12" s="3">
-        <v>103900</v>
+        <v>106100</v>
       </c>
       <c r="H12" s="3">
-        <v>104900</v>
+        <v>104700</v>
       </c>
       <c r="I12" s="3">
-        <v>104000</v>
+        <v>105700</v>
       </c>
       <c r="J12" s="3">
+        <v>104800</v>
+      </c>
+      <c r="K12" s="3">
         <v>106200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>109500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>109700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>100000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>91000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>88200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>78100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>61800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>55600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>52300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>50800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>87400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>78200</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>35500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>33400</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1402300</v>
+        <v>1319500</v>
       </c>
       <c r="E17" s="3">
-        <v>1366800</v>
+        <v>1413100</v>
       </c>
       <c r="F17" s="3">
-        <v>1406300</v>
+        <v>1377300</v>
       </c>
       <c r="G17" s="3">
+        <v>1417100</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1382900</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1324800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1371400</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1548600</v>
+      </c>
+      <c r="L17" s="3">
+        <v>1543700</v>
+      </c>
+      <c r="M17" s="3">
+        <v>1595700</v>
+      </c>
+      <c r="N17" s="3">
         <v>1372300</v>
       </c>
-      <c r="H17" s="3">
-        <v>1314700</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1361000</v>
-      </c>
-      <c r="J17" s="3">
-        <v>1548600</v>
-      </c>
-      <c r="K17" s="3">
-        <v>1543700</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1595700</v>
-      </c>
-      <c r="M17" s="3">
-        <v>1372300</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1371500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1503400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1330400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1049400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>852200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>814000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>893000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>789100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>628800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>569700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>557900</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-214200</v>
+        <v>-153800</v>
       </c>
       <c r="E18" s="3">
-        <v>-175600</v>
+        <v>-215800</v>
       </c>
       <c r="F18" s="3">
-        <v>-158800</v>
+        <v>-177000</v>
       </c>
       <c r="G18" s="3">
-        <v>-204700</v>
+        <v>-160000</v>
       </c>
       <c r="H18" s="3">
-        <v>-189400</v>
+        <v>-206200</v>
       </c>
       <c r="I18" s="3">
-        <v>-200700</v>
+        <v>-190800</v>
       </c>
       <c r="J18" s="3">
+        <v>-202200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-351000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-389400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-441800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-286000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-308200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-482800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-362700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-185900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-152400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-122800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-158300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-147000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-151200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-110900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-84100</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1448,76 +1480,80 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-67700</v>
+      </c>
+      <c r="E20" s="3">
         <v>3300</v>
       </c>
-      <c r="E20" s="3">
-        <v>18300</v>
-      </c>
       <c r="F20" s="3">
-        <v>16900</v>
+        <v>18400</v>
       </c>
       <c r="G20" s="3">
-        <v>4400</v>
+        <v>17100</v>
       </c>
       <c r="H20" s="3">
+        <v>4500</v>
+      </c>
+      <c r="I20" s="3">
+        <v>53100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>19700</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-57400</v>
+      </c>
+      <c r="L20" s="3">
+        <v>54200</v>
+      </c>
+      <c r="M20" s="3">
+        <v>-89300</v>
+      </c>
+      <c r="N20" s="3">
+        <v>-27300</v>
+      </c>
+      <c r="O20" s="3">
         <v>52700</v>
       </c>
-      <c r="I20" s="3">
-        <v>19500</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-57400</v>
-      </c>
-      <c r="K20" s="3">
-        <v>54200</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-89300</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-27300</v>
-      </c>
-      <c r="N20" s="3">
-        <v>52700</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-73300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-106200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>96800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>39800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>17900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-20200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1566,215 +1602,224 @@
       <c r="R21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T21" s="3">
         <v>1174600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>835600</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X21" s="3">
         <v>598900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>443800</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>55000</v>
+        <v>51200</v>
       </c>
       <c r="E22" s="3">
-        <v>53700</v>
+        <v>55400</v>
       </c>
       <c r="F22" s="3">
-        <v>51800</v>
+        <v>54100</v>
       </c>
       <c r="G22" s="3">
-        <v>42200</v>
+        <v>52200</v>
       </c>
       <c r="H22" s="3">
-        <v>42200</v>
+        <v>42500</v>
       </c>
       <c r="I22" s="3">
-        <v>41600</v>
+        <v>42500</v>
       </c>
       <c r="J22" s="3">
+        <v>41900</v>
+      </c>
+      <c r="K22" s="3">
         <v>41000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>42600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>39700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>37900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>20600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>8900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>6300</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U22" s="3">
+      <c r="U22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V22" s="3">
         <v>12200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>9900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>6100</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-265900</v>
+        <v>-272700</v>
       </c>
       <c r="E23" s="3">
-        <v>-211100</v>
+        <v>-267900</v>
       </c>
       <c r="F23" s="3">
-        <v>-193600</v>
+        <v>-212700</v>
       </c>
       <c r="G23" s="3">
-        <v>-242400</v>
+        <v>-195100</v>
       </c>
       <c r="H23" s="3">
-        <v>-178900</v>
+        <v>-244300</v>
       </c>
       <c r="I23" s="3">
-        <v>-222700</v>
+        <v>-180300</v>
       </c>
       <c r="J23" s="3">
+        <v>-224400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-449400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-377800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-570700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-351100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-276100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-487900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-438200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-293400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-56900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-89300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-156000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-141400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-162700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-137200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-91300</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E24" s="3">
         <v>1400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4800</v>
       </c>
-      <c r="F24" s="3">
-        <v>3200</v>
-      </c>
       <c r="G24" s="3">
+        <v>3300</v>
+      </c>
+      <c r="H24" s="3">
         <v>-2600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>11500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-1400</v>
-      </c>
-      <c r="T24" s="3">
-        <v>100</v>
       </c>
       <c r="U24" s="3">
         <v>100</v>
@@ -1783,13 +1828,16 @@
         <v>100</v>
       </c>
       <c r="W24" s="3">
+        <v>100</v>
+      </c>
+      <c r="X24" s="3">
         <v>600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-267300</v>
+        <v>-278500</v>
       </c>
       <c r="E26" s="3">
-        <v>-215800</v>
+        <v>-269400</v>
       </c>
       <c r="F26" s="3">
-        <v>-196800</v>
+        <v>-217500</v>
       </c>
       <c r="G26" s="3">
-        <v>-239900</v>
+        <v>-198300</v>
       </c>
       <c r="H26" s="3">
-        <v>-181800</v>
+        <v>-241700</v>
       </c>
       <c r="I26" s="3">
-        <v>-225200</v>
+        <v>-183200</v>
       </c>
       <c r="J26" s="3">
+        <v>-226900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-450100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-381200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-573200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-352000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-277200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-499400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-437300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-294100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-56900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-87900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-156100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-141500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-162800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-137800</v>
       </c>
-      <c r="X26" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-271500</v>
+        <v>-281400</v>
       </c>
       <c r="E27" s="3">
-        <v>-219400</v>
+        <v>-273600</v>
       </c>
       <c r="F27" s="3">
-        <v>-198900</v>
+        <v>-221100</v>
       </c>
       <c r="G27" s="3">
-        <v>-242600</v>
+        <v>-200400</v>
       </c>
       <c r="H27" s="3">
-        <v>-184100</v>
+        <v>-244400</v>
       </c>
       <c r="I27" s="3">
-        <v>-226000</v>
+        <v>-185500</v>
       </c>
       <c r="J27" s="3">
+        <v>-227700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-450300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-384200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-575400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-355600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-275900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-504900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-439500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-294800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-98300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2198300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1737000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-248500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-267600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-410200</v>
       </c>
-      <c r="X27" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>67700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3300</v>
       </c>
-      <c r="E32" s="3">
-        <v>-18300</v>
-      </c>
       <c r="F32" s="3">
-        <v>-16900</v>
+        <v>-18400</v>
       </c>
       <c r="G32" s="3">
-        <v>-4400</v>
+        <v>-17100</v>
       </c>
       <c r="H32" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-53100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="K32" s="3">
+        <v>57400</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-54200</v>
+      </c>
+      <c r="M32" s="3">
+        <v>89300</v>
+      </c>
+      <c r="N32" s="3">
+        <v>27300</v>
+      </c>
+      <c r="O32" s="3">
         <v>-52700</v>
       </c>
-      <c r="I32" s="3">
-        <v>-19500</v>
-      </c>
-      <c r="J32" s="3">
-        <v>57400</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-54200</v>
-      </c>
-      <c r="L32" s="3">
-        <v>89300</v>
-      </c>
-      <c r="M32" s="3">
-        <v>27300</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-52700</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>73300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>106200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-96800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-39800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-17900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>20200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-271500</v>
+        <v>-281400</v>
       </c>
       <c r="E33" s="3">
-        <v>-219400</v>
+        <v>-273600</v>
       </c>
       <c r="F33" s="3">
-        <v>-198900</v>
+        <v>-221100</v>
       </c>
       <c r="G33" s="3">
-        <v>-242600</v>
+        <v>-200400</v>
       </c>
       <c r="H33" s="3">
-        <v>-184100</v>
+        <v>-244400</v>
       </c>
       <c r="I33" s="3">
-        <v>-226000</v>
+        <v>-185500</v>
       </c>
       <c r="J33" s="3">
+        <v>-227700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-450300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-384200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-575400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-355600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-275900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-504900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-439500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-294800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-98300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2198300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1737000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-248500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-267600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-410200</v>
       </c>
-      <c r="X33" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-271500</v>
+        <v>-281400</v>
       </c>
       <c r="E35" s="3">
-        <v>-219400</v>
+        <v>-273600</v>
       </c>
       <c r="F35" s="3">
-        <v>-198900</v>
+        <v>-221100</v>
       </c>
       <c r="G35" s="3">
-        <v>-242600</v>
+        <v>-200400</v>
       </c>
       <c r="H35" s="3">
-        <v>-184100</v>
+        <v>-244400</v>
       </c>
       <c r="I35" s="3">
-        <v>-226000</v>
+        <v>-185500</v>
       </c>
       <c r="J35" s="3">
+        <v>-227700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-450300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-384200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-575400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-355600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-275900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-504900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-439500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-294800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-98300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2198300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1737000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-248500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-267600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-410200</v>
       </c>
-      <c r="X35" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,65 +2746,66 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1142300</v>
+        <v>472800</v>
       </c>
       <c r="E41" s="3">
-        <v>1046600</v>
+        <v>1151000</v>
       </c>
       <c r="F41" s="3">
-        <v>1151100</v>
+        <v>1054600</v>
       </c>
       <c r="G41" s="3">
-        <v>1708900</v>
+        <v>1160000</v>
       </c>
       <c r="H41" s="3">
-        <v>495200</v>
+        <v>1722000</v>
       </c>
       <c r="I41" s="3">
-        <v>670200</v>
+        <v>499000</v>
       </c>
       <c r="J41" s="3">
+        <v>675300</v>
+      </c>
+      <c r="K41" s="3">
         <v>578200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>913800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>702900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>829200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1806300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>666100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>816200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1159100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>57900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>105200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>176500</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2729,65 +2815,68 @@
       <c r="X41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>573300</v>
+        <v>212700</v>
       </c>
       <c r="E42" s="3">
-        <v>865200</v>
+        <v>577700</v>
       </c>
       <c r="F42" s="3">
-        <v>926000</v>
+        <v>871800</v>
       </c>
       <c r="G42" s="3">
-        <v>525800</v>
+        <v>933100</v>
       </c>
       <c r="H42" s="3">
-        <v>564200</v>
+        <v>529800</v>
       </c>
       <c r="I42" s="3">
-        <v>657000</v>
+        <v>568500</v>
       </c>
       <c r="J42" s="3">
+        <v>662000</v>
+      </c>
+      <c r="K42" s="3">
         <v>823300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>705100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1067400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1347200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>591100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>880400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>538000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>665100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>70700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>111900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>497500</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2797,65 +2886,68 @@
       <c r="X42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>494300</v>
+        <v>458000</v>
       </c>
       <c r="E43" s="3">
-        <v>522000</v>
+        <v>498100</v>
       </c>
       <c r="F43" s="3">
-        <v>556500</v>
+        <v>526000</v>
       </c>
       <c r="G43" s="3">
-        <v>538700</v>
+        <v>560800</v>
       </c>
       <c r="H43" s="3">
-        <v>537000</v>
+        <v>542800</v>
       </c>
       <c r="I43" s="3">
-        <v>535200</v>
+        <v>541100</v>
       </c>
       <c r="J43" s="3">
+        <v>539300</v>
+      </c>
+      <c r="K43" s="3">
         <v>717100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>591200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>514100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>513100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>535000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>460500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>452200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>350200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>420800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>322200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>693700</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2865,65 +2957,68 @@
       <c r="X43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>171700</v>
+        <v>146900</v>
       </c>
       <c r="E44" s="3">
-        <v>139400</v>
+        <v>173100</v>
       </c>
       <c r="F44" s="3">
-        <v>161600</v>
+        <v>140500</v>
       </c>
       <c r="G44" s="3">
-        <v>162100</v>
+        <v>162800</v>
       </c>
       <c r="H44" s="3">
-        <v>195300</v>
+        <v>163300</v>
       </c>
       <c r="I44" s="3">
-        <v>185400</v>
+        <v>196800</v>
       </c>
       <c r="J44" s="3">
+        <v>186800</v>
+      </c>
+      <c r="K44" s="3">
         <v>224300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>188600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>206500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>179700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>191900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>169000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>147200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>162900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>172400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>117500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>110300</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V44" s="3" t="s">
         <v>16</v>
       </c>
@@ -2933,65 +3028,68 @@
       <c r="X44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>595800</v>
+        <v>527600</v>
       </c>
       <c r="E45" s="3">
-        <v>642000</v>
+        <v>600300</v>
       </c>
       <c r="F45" s="3">
-        <v>672300</v>
+        <v>646900</v>
       </c>
       <c r="G45" s="3">
-        <v>554400</v>
+        <v>677500</v>
       </c>
       <c r="H45" s="3">
-        <v>644900</v>
+        <v>558600</v>
       </c>
       <c r="I45" s="3">
-        <v>722200</v>
+        <v>649800</v>
       </c>
       <c r="J45" s="3">
+        <v>727700</v>
+      </c>
+      <c r="K45" s="3">
         <v>690600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>722800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1031300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>926000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>772700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>707300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>430500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>377800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>145500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>161200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>137200</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V45" s="3" t="s">
         <v>16</v>
       </c>
@@ -3001,65 +3099,68 @@
       <c r="X45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2977400</v>
+        <v>1818000</v>
       </c>
       <c r="E46" s="3">
-        <v>3215200</v>
+        <v>3000200</v>
       </c>
       <c r="F46" s="3">
-        <v>3467600</v>
+        <v>3239900</v>
       </c>
       <c r="G46" s="3">
-        <v>3489800</v>
+        <v>3494200</v>
       </c>
       <c r="H46" s="3">
-        <v>2436600</v>
+        <v>3516500</v>
       </c>
       <c r="I46" s="3">
-        <v>2769900</v>
+        <v>2455300</v>
       </c>
       <c r="J46" s="3">
+        <v>2791100</v>
+      </c>
+      <c r="K46" s="3">
         <v>3033400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3121600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3522200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3795200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3897100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2883300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2384200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2715100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>867300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>817900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1615200</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V46" s="3" t="s">
         <v>16</v>
       </c>
@@ -3069,65 +3170,68 @@
       <c r="X46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>550500</v>
+        <v>491600</v>
       </c>
       <c r="E47" s="3">
-        <v>548600</v>
+        <v>554800</v>
       </c>
       <c r="F47" s="3">
-        <v>546500</v>
+        <v>552800</v>
       </c>
       <c r="G47" s="3">
-        <v>507600</v>
+        <v>550700</v>
       </c>
       <c r="H47" s="3">
-        <v>618800</v>
+        <v>511500</v>
       </c>
       <c r="I47" s="3">
-        <v>616100</v>
+        <v>623600</v>
       </c>
       <c r="J47" s="3">
+        <v>620800</v>
+      </c>
+      <c r="K47" s="3">
         <v>580200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>485700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>480400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>413700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>400600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>381200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>322800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>173900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>170000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>81500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>59000</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V47" s="3" t="s">
         <v>16</v>
       </c>
@@ -3137,65 +3241,68 @@
       <c r="X47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>353200</v>
+        <v>355300</v>
       </c>
       <c r="E48" s="3">
-        <v>376300</v>
+        <v>355900</v>
       </c>
       <c r="F48" s="3">
-        <v>363800</v>
+        <v>379200</v>
       </c>
       <c r="G48" s="3">
-        <v>375000</v>
+        <v>366600</v>
       </c>
       <c r="H48" s="3">
-        <v>386000</v>
+        <v>377900</v>
       </c>
       <c r="I48" s="3">
-        <v>433900</v>
+        <v>388900</v>
       </c>
       <c r="J48" s="3">
+        <v>437200</v>
+      </c>
+      <c r="K48" s="3">
         <v>402000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>381400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>369600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>358100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>265700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>235000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>206500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>196600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>189200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>179200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>179600</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V48" s="3" t="s">
         <v>16</v>
       </c>
@@ -3205,65 +3312,68 @@
       <c r="X48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3341300</v>
+        <v>3572100</v>
       </c>
       <c r="E49" s="3">
-        <v>3111400</v>
+        <v>3366900</v>
       </c>
       <c r="F49" s="3">
-        <v>2863800</v>
+        <v>3135200</v>
       </c>
       <c r="G49" s="3">
-        <v>2740800</v>
+        <v>2885700</v>
       </c>
       <c r="H49" s="3">
-        <v>2525100</v>
+        <v>2761900</v>
       </c>
       <c r="I49" s="3">
-        <v>2310400</v>
+        <v>2544500</v>
       </c>
       <c r="J49" s="3">
+        <v>2328100</v>
+      </c>
+      <c r="K49" s="3">
         <v>2369400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2362800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2601800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2423100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2432100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2315500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2285000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1858100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1623800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1409900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1221500</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V49" s="3" t="s">
         <v>16</v>
       </c>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,65 +3525,68 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>495500</v>
+        <v>463300</v>
       </c>
       <c r="E52" s="3">
-        <v>406900</v>
+        <v>499300</v>
       </c>
       <c r="F52" s="3">
-        <v>427800</v>
+        <v>410000</v>
       </c>
       <c r="G52" s="3">
-        <v>430700</v>
+        <v>431100</v>
       </c>
       <c r="H52" s="3">
-        <v>434900</v>
+        <v>434000</v>
       </c>
       <c r="I52" s="3">
-        <v>488800</v>
+        <v>438200</v>
       </c>
       <c r="J52" s="3">
+        <v>492500</v>
+      </c>
+      <c r="K52" s="3">
         <v>431800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>545600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>562800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>686200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>787200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>685500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>570200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>530500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>439700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>409900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>378500</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V52" s="3" t="s">
         <v>16</v>
       </c>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,65 +3667,68 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7717900</v>
+        <v>6700400</v>
       </c>
       <c r="E54" s="3">
-        <v>7658300</v>
+        <v>7777100</v>
       </c>
       <c r="F54" s="3">
-        <v>7669500</v>
+        <v>7717000</v>
       </c>
       <c r="G54" s="3">
-        <v>7543900</v>
+        <v>7728300</v>
       </c>
       <c r="H54" s="3">
-        <v>6401500</v>
+        <v>7601700</v>
       </c>
       <c r="I54" s="3">
-        <v>6619000</v>
+        <v>6450500</v>
       </c>
       <c r="J54" s="3">
+        <v>6669700</v>
+      </c>
+      <c r="K54" s="3">
         <v>6816800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6897200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7536800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7676300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7782700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6500500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5768700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5474100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3289900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2898400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3453700</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V54" s="3" t="s">
         <v>16</v>
       </c>
@@ -3613,8 +3738,11 @@
       <c r="X54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,65 +3794,66 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1429100</v>
+        <v>1403500</v>
       </c>
       <c r="E57" s="3">
-        <v>1288200</v>
+        <v>1440000</v>
       </c>
       <c r="F57" s="3">
-        <v>1175600</v>
+        <v>1298000</v>
       </c>
       <c r="G57" s="3">
-        <v>1183800</v>
+        <v>1184600</v>
       </c>
       <c r="H57" s="3">
-        <v>1167300</v>
+        <v>1192900</v>
       </c>
       <c r="I57" s="3">
-        <v>1204200</v>
+        <v>1176300</v>
       </c>
       <c r="J57" s="3">
+        <v>1213500</v>
+      </c>
+      <c r="K57" s="3">
         <v>1304000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1264600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1574100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1464200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1574600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1475900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1458800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1269100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1252000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1010300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1035600</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V57" s="3" t="s">
         <v>16</v>
       </c>
@@ -3733,65 +3863,68 @@
       <c r="X57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1480300</v>
+        <v>649600</v>
       </c>
       <c r="E58" s="3">
-        <v>1362200</v>
+        <v>1491600</v>
       </c>
       <c r="F58" s="3">
-        <v>1239500</v>
+        <v>1372600</v>
       </c>
       <c r="G58" s="3">
-        <v>1350700</v>
+        <v>1249000</v>
       </c>
       <c r="H58" s="3">
-        <v>710400</v>
+        <v>1361000</v>
       </c>
       <c r="I58" s="3">
-        <v>638800</v>
+        <v>715900</v>
       </c>
       <c r="J58" s="3">
+        <v>643700</v>
+      </c>
+      <c r="K58" s="3">
         <v>519500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>516600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>604300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>667800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>557600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>454600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>165500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>89900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>58400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>44400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1232000</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V58" s="3" t="s">
         <v>16</v>
       </c>
@@ -3801,65 +3934,68 @@
       <c r="X58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1466000</v>
+        <v>1492800</v>
       </c>
       <c r="E59" s="3">
-        <v>1455800</v>
+        <v>1477300</v>
       </c>
       <c r="F59" s="3">
-        <v>1524900</v>
+        <v>1467000</v>
       </c>
       <c r="G59" s="3">
-        <v>1356700</v>
+        <v>1536600</v>
       </c>
       <c r="H59" s="3">
-        <v>1332300</v>
+        <v>1367100</v>
       </c>
       <c r="I59" s="3">
-        <v>1361200</v>
+        <v>1342500</v>
       </c>
       <c r="J59" s="3">
+        <v>1371600</v>
+      </c>
+      <c r="K59" s="3">
         <v>1445100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1325100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1178200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1144200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1013800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>946900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>887200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>710200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>619500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>613400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1325600</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3869,65 +4005,68 @@
       <c r="X59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4375400</v>
+        <v>3545900</v>
       </c>
       <c r="E60" s="3">
-        <v>4106200</v>
+        <v>4408900</v>
       </c>
       <c r="F60" s="3">
-        <v>3940100</v>
+        <v>4137600</v>
       </c>
       <c r="G60" s="3">
-        <v>3891200</v>
+        <v>3970200</v>
       </c>
       <c r="H60" s="3">
-        <v>3210000</v>
+        <v>3921100</v>
       </c>
       <c r="I60" s="3">
-        <v>3204300</v>
+        <v>3234600</v>
       </c>
       <c r="J60" s="3">
+        <v>3228800</v>
+      </c>
+      <c r="K60" s="3">
         <v>3268600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3106300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3356700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3276200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3146000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2877300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2511500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2069200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1929900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1668000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3593200</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V60" s="3" t="s">
         <v>16</v>
       </c>
@@ -3937,65 +4076,68 @@
       <c r="X60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1983800</v>
+        <v>1996000</v>
       </c>
       <c r="E61" s="3">
-        <v>1971400</v>
+        <v>1999000</v>
       </c>
       <c r="F61" s="3">
-        <v>1983600</v>
+        <v>1986500</v>
       </c>
       <c r="G61" s="3">
-        <v>1867200</v>
+        <v>1998800</v>
       </c>
       <c r="H61" s="3">
-        <v>2025200</v>
+        <v>1881600</v>
       </c>
       <c r="I61" s="3">
-        <v>2126200</v>
+        <v>2040700</v>
       </c>
       <c r="J61" s="3">
+        <v>2142500</v>
+      </c>
+      <c r="K61" s="3">
         <v>2112200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2029000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2057800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1879700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1856600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>777900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>38300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>39000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>40000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>40700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>42100</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
@@ -4005,65 +4147,68 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>256100</v>
+        <v>263500</v>
       </c>
       <c r="E62" s="3">
-        <v>275900</v>
+        <v>258100</v>
       </c>
       <c r="F62" s="3">
-        <v>290900</v>
+        <v>278000</v>
       </c>
       <c r="G62" s="3">
-        <v>306800</v>
+        <v>293100</v>
       </c>
       <c r="H62" s="3">
-        <v>308800</v>
+        <v>309200</v>
       </c>
       <c r="I62" s="3">
-        <v>308400</v>
+        <v>311200</v>
       </c>
       <c r="J62" s="3">
+        <v>310800</v>
+      </c>
+      <c r="K62" s="3">
         <v>281500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>266000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>220700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>225900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>248700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>208500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>210000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>97000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>96100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1100</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V62" s="3" t="s">
         <v>16</v>
       </c>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,65 +4431,68 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6686600</v>
+        <v>5882000</v>
       </c>
       <c r="E66" s="3">
-        <v>6402300</v>
+        <v>6737800</v>
       </c>
       <c r="F66" s="3">
-        <v>6260900</v>
+        <v>6451400</v>
       </c>
       <c r="G66" s="3">
-        <v>6094700</v>
+        <v>6308900</v>
       </c>
       <c r="H66" s="3">
-        <v>5569400</v>
+        <v>6141400</v>
       </c>
       <c r="I66" s="3">
-        <v>5662300</v>
+        <v>5612100</v>
       </c>
       <c r="J66" s="3">
+        <v>5705700</v>
+      </c>
+      <c r="K66" s="3">
         <v>5684500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5423400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5659900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5402400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5268100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3880900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2771200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2205600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2066400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1710600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3636400</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>16</v>
       </c>
@@ -4345,8 +4502,11 @@
       <c r="X66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4555,17 +4722,17 @@
         <v>0</v>
       </c>
       <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
         <v>3284400</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>3242900</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>4323600</v>
       </c>
-      <c r="U70" s="3">
-        <v>0</v>
-      </c>
       <c r="V70" s="3">
         <v>0</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,65 +4813,68 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-7104700</v>
+        <v>-7440600</v>
       </c>
       <c r="E72" s="3">
-        <v>-6833200</v>
+        <v>-7159100</v>
       </c>
       <c r="F72" s="3">
-        <v>-6613700</v>
+        <v>-6885500</v>
       </c>
       <c r="G72" s="3">
-        <v>-6414900</v>
+        <v>-6664400</v>
       </c>
       <c r="H72" s="3">
-        <v>-6172300</v>
+        <v>-6464000</v>
       </c>
       <c r="I72" s="3">
-        <v>-5988200</v>
+        <v>-6219600</v>
       </c>
       <c r="J72" s="3">
+        <v>-6034100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-5750400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-5209800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4889200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-4224500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3852200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3414300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2796700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2357100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2130900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-2154600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-4631600</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>16</v>
       </c>
@@ -4711,8 +4884,11 @@
       <c r="X72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,65 +5097,68 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1031300</v>
+        <v>818400</v>
       </c>
       <c r="E76" s="3">
-        <v>1256000</v>
+        <v>1039300</v>
       </c>
       <c r="F76" s="3">
-        <v>1408600</v>
+        <v>1265600</v>
       </c>
       <c r="G76" s="3">
-        <v>1449200</v>
+        <v>1419400</v>
       </c>
       <c r="H76" s="3">
-        <v>832100</v>
+        <v>1460300</v>
       </c>
       <c r="I76" s="3">
-        <v>956700</v>
+        <v>838400</v>
       </c>
       <c r="J76" s="3">
+        <v>964000</v>
+      </c>
+      <c r="K76" s="3">
         <v>1132300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1473700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1876900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2273900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2514600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2619500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2997500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3268500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2060900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-2055000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-4506300</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V76" s="3" t="s">
         <v>16</v>
       </c>
@@ -4983,8 +5168,11 @@
       <c r="X76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-271500</v>
+        <v>-281400</v>
       </c>
       <c r="E81" s="3">
-        <v>-219400</v>
+        <v>-273600</v>
       </c>
       <c r="F81" s="3">
-        <v>-198900</v>
+        <v>-221100</v>
       </c>
       <c r="G81" s="3">
-        <v>-242600</v>
+        <v>-200400</v>
       </c>
       <c r="H81" s="3">
-        <v>-184100</v>
+        <v>-244400</v>
       </c>
       <c r="I81" s="3">
-        <v>-226000</v>
+        <v>-185500</v>
       </c>
       <c r="J81" s="3">
+        <v>-227700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-450300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-384200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-575400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-355600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-275900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-504900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-439500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-294800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-98300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2198300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1737000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-248500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-267600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-410200</v>
       </c>
-      <c r="X81" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5277,8 +5475,8 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>16</v>
+      <c r="V83" s="3">
+        <v>0</v>
       </c>
       <c r="W83" s="3" t="s">
         <v>16</v>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,35 +5839,38 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-325700</v>
+        <v>-172800</v>
       </c>
       <c r="E89" s="3">
-        <v>-223200</v>
+        <v>-328200</v>
       </c>
       <c r="F89" s="3">
-        <v>-211400</v>
+        <v>-225000</v>
       </c>
       <c r="G89" s="3">
-        <v>-237900</v>
+        <v>-213000</v>
       </c>
       <c r="H89" s="3">
-        <v>-302000</v>
+        <v>-239700</v>
       </c>
       <c r="I89" s="3">
-        <v>-212700</v>
+        <v>-304300</v>
       </c>
       <c r="J89" s="3">
+        <v>-214300</v>
+      </c>
+      <c r="K89" s="3">
         <v>-94600</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>16</v>
       </c>
@@ -5667,8 +5883,8 @@
       <c r="O89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
+      <c r="P89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
@@ -5685,8 +5901,8 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>16</v>
+      <c r="V89" s="3">
+        <v>0</v>
       </c>
       <c r="W89" s="3" t="s">
         <v>16</v>
@@ -5694,8 +5910,11 @@
       <c r="X89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5779,8 +5999,8 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>16</v>
+      <c r="V91" s="3">
+        <v>0</v>
       </c>
       <c r="W91" s="3" t="s">
         <v>16</v>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,35 +6150,38 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>295100</v>
+        <v>330800</v>
       </c>
       <c r="E94" s="3">
-        <v>9100</v>
+        <v>297400</v>
       </c>
       <c r="F94" s="3">
-        <v>-434900</v>
+        <v>9200</v>
       </c>
       <c r="G94" s="3">
-        <v>44100</v>
+        <v>-438300</v>
       </c>
       <c r="H94" s="3">
-        <v>53700</v>
+        <v>44400</v>
       </c>
       <c r="I94" s="3">
-        <v>179200</v>
+        <v>54100</v>
       </c>
       <c r="J94" s="3">
+        <v>180500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-252000</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>16</v>
       </c>
@@ -5965,8 +6194,8 @@
       <c r="O94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -5983,8 +6212,8 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>16</v>
+      <c r="V94" s="3">
+        <v>0</v>
       </c>
       <c r="W94" s="3" t="s">
         <v>16</v>
@@ -5992,8 +6221,11 @@
       <c r="X94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,35 +6532,38 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>135800</v>
+        <v>-826500</v>
       </c>
       <c r="E100" s="3">
-        <v>125400</v>
+        <v>136800</v>
       </c>
       <c r="F100" s="3">
-        <v>95700</v>
+        <v>126400</v>
       </c>
       <c r="G100" s="3">
-        <v>1313900</v>
+        <v>96400</v>
       </c>
       <c r="H100" s="3">
-        <v>37300</v>
+        <v>1324000</v>
       </c>
       <c r="I100" s="3">
-        <v>128800</v>
+        <v>37600</v>
       </c>
       <c r="J100" s="3">
+        <v>129800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-12400</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>16</v>
       </c>
@@ -6331,8 +6576,8 @@
       <c r="O100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
+      <c r="P100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
@@ -6349,8 +6594,8 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>16</v>
+      <c r="V100" s="3">
+        <v>0</v>
       </c>
       <c r="W100" s="3" t="s">
         <v>16</v>
@@ -6358,35 +6603,38 @@
       <c r="X100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-3500</v>
       </c>
-      <c r="E101" s="3">
-        <v>-14500</v>
-      </c>
       <c r="F101" s="3">
-        <v>-4400</v>
+        <v>-14600</v>
       </c>
       <c r="G101" s="3">
-        <v>-5100</v>
+        <v>-4500</v>
       </c>
       <c r="H101" s="3">
-        <v>-17700</v>
+        <v>-5200</v>
       </c>
       <c r="I101" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="J101" s="3">
         <v>-1600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>10100</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>16</v>
       </c>
@@ -6399,8 +6647,8 @@
       <c r="O101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
+      <c r="P101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
@@ -6417,8 +6665,8 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>16</v>
+      <c r="V101" s="3">
+        <v>0</v>
       </c>
       <c r="W101" s="3" t="s">
         <v>16</v>
@@ -6426,35 +6674,38 @@
       <c r="X101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>101700</v>
+        <v>-680100</v>
       </c>
       <c r="E102" s="3">
-        <v>-103200</v>
+        <v>102500</v>
       </c>
       <c r="F102" s="3">
-        <v>-555000</v>
+        <v>-104000</v>
       </c>
       <c r="G102" s="3">
-        <v>1115000</v>
+        <v>-559300</v>
       </c>
       <c r="H102" s="3">
-        <v>-228800</v>
+        <v>1123500</v>
       </c>
       <c r="I102" s="3">
-        <v>93800</v>
+        <v>-230500</v>
       </c>
       <c r="J102" s="3">
+        <v>94500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-348900</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>16</v>
       </c>
@@ -6467,8 +6718,8 @@
       <c r="O102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
+      <c r="P102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q102" s="3">
         <v>0</v>
@@ -6485,13 +6736,16 @@
       <c r="U102" s="3">
         <v>0</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>16</v>
+      <c r="V102" s="3">
+        <v>0</v>
       </c>
       <c r="W102" s="3" t="s">
         <v>16</v>
       </c>
       <c r="X102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IQ_QTR_FIN.xlsx
@@ -770,25 +770,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1165600</v>
+        <v>1088800</v>
       </c>
       <c r="E8" s="3">
-        <v>1197300</v>
+        <v>1118300</v>
       </c>
       <c r="F8" s="3">
-        <v>1200300</v>
+        <v>1121200</v>
       </c>
       <c r="G8" s="3">
-        <v>1257100</v>
+        <v>1174200</v>
       </c>
       <c r="H8" s="3">
-        <v>1176600</v>
+        <v>1099000</v>
       </c>
       <c r="I8" s="3">
-        <v>1133900</v>
+        <v>1059200</v>
       </c>
       <c r="J8" s="3">
-        <v>1169300</v>
+        <v>1092200</v>
       </c>
       <c r="K8" s="3">
         <v>1197700</v>
@@ -841,25 +841,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1026600</v>
+        <v>959000</v>
       </c>
       <c r="E9" s="3">
-        <v>1108700</v>
+        <v>1035600</v>
       </c>
       <c r="F9" s="3">
-        <v>1083600</v>
+        <v>1012200</v>
       </c>
       <c r="G9" s="3">
-        <v>1121600</v>
+        <v>1047600</v>
       </c>
       <c r="H9" s="3">
-        <v>1070300</v>
+        <v>999800</v>
       </c>
       <c r="I9" s="3">
-        <v>1003900</v>
+        <v>937700</v>
       </c>
       <c r="J9" s="3">
-        <v>1078100</v>
+        <v>1007000</v>
       </c>
       <c r="K9" s="3">
         <v>1237300</v>
@@ -912,25 +912,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>139000</v>
+        <v>129800</v>
       </c>
       <c r="E10" s="3">
-        <v>88600</v>
+        <v>82700</v>
       </c>
       <c r="F10" s="3">
-        <v>116700</v>
+        <v>109000</v>
       </c>
       <c r="G10" s="3">
-        <v>135500</v>
+        <v>126600</v>
       </c>
       <c r="H10" s="3">
-        <v>106300</v>
+        <v>99300</v>
       </c>
       <c r="I10" s="3">
-        <v>130000</v>
+        <v>121500</v>
       </c>
       <c r="J10" s="3">
-        <v>91200</v>
+        <v>85200</v>
       </c>
       <c r="K10" s="3">
         <v>-39600</v>
@@ -1010,25 +1010,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>120400</v>
+        <v>112500</v>
       </c>
       <c r="E12" s="3">
-        <v>107800</v>
+        <v>100700</v>
       </c>
       <c r="F12" s="3">
-        <v>106700</v>
+        <v>99700</v>
       </c>
       <c r="G12" s="3">
-        <v>106100</v>
+        <v>99100</v>
       </c>
       <c r="H12" s="3">
-        <v>104700</v>
+        <v>97800</v>
       </c>
       <c r="I12" s="3">
-        <v>105700</v>
+        <v>98700</v>
       </c>
       <c r="J12" s="3">
-        <v>104800</v>
+        <v>97900</v>
       </c>
       <c r="K12" s="3">
         <v>106200</v>
@@ -1318,25 +1318,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1319500</v>
+        <v>1232500</v>
       </c>
       <c r="E17" s="3">
-        <v>1413100</v>
+        <v>1319900</v>
       </c>
       <c r="F17" s="3">
-        <v>1377300</v>
+        <v>1286500</v>
       </c>
       <c r="G17" s="3">
-        <v>1417100</v>
+        <v>1323700</v>
       </c>
       <c r="H17" s="3">
-        <v>1382900</v>
+        <v>1291700</v>
       </c>
       <c r="I17" s="3">
-        <v>1324800</v>
+        <v>1237400</v>
       </c>
       <c r="J17" s="3">
-        <v>1371400</v>
+        <v>1281000</v>
       </c>
       <c r="K17" s="3">
         <v>1548600</v>
@@ -1389,25 +1389,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-153800</v>
+        <v>-143700</v>
       </c>
       <c r="E18" s="3">
-        <v>-215800</v>
+        <v>-201600</v>
       </c>
       <c r="F18" s="3">
-        <v>-177000</v>
+        <v>-165300</v>
       </c>
       <c r="G18" s="3">
-        <v>-160000</v>
+        <v>-149500</v>
       </c>
       <c r="H18" s="3">
-        <v>-206200</v>
+        <v>-192700</v>
       </c>
       <c r="I18" s="3">
-        <v>-190800</v>
+        <v>-178200</v>
       </c>
       <c r="J18" s="3">
-        <v>-202200</v>
+        <v>-188900</v>
       </c>
       <c r="K18" s="3">
         <v>-351000</v>
@@ -1487,25 +1487,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-67700</v>
+        <v>-63200</v>
       </c>
       <c r="E20" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="F20" s="3">
+        <v>17200</v>
+      </c>
+      <c r="G20" s="3">
+        <v>15900</v>
+      </c>
+      <c r="H20" s="3">
+        <v>4200</v>
+      </c>
+      <c r="I20" s="3">
+        <v>49600</v>
+      </c>
+      <c r="J20" s="3">
         <v>18400</v>
-      </c>
-      <c r="G20" s="3">
-        <v>17100</v>
-      </c>
-      <c r="H20" s="3">
-        <v>4500</v>
-      </c>
-      <c r="I20" s="3">
-        <v>53100</v>
-      </c>
-      <c r="J20" s="3">
-        <v>19700</v>
       </c>
       <c r="K20" s="3">
         <v>-57400</v>
@@ -1629,25 +1629,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>51200</v>
+        <v>47800</v>
       </c>
       <c r="E22" s="3">
-        <v>55400</v>
+        <v>51800</v>
       </c>
       <c r="F22" s="3">
-        <v>54100</v>
+        <v>50600</v>
       </c>
       <c r="G22" s="3">
-        <v>52200</v>
+        <v>48700</v>
       </c>
       <c r="H22" s="3">
-        <v>42500</v>
+        <v>39700</v>
       </c>
       <c r="I22" s="3">
-        <v>42500</v>
+        <v>39700</v>
       </c>
       <c r="J22" s="3">
-        <v>41900</v>
+        <v>39100</v>
       </c>
       <c r="K22" s="3">
         <v>41000</v>
@@ -1700,25 +1700,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-272700</v>
+        <v>-254700</v>
       </c>
       <c r="E23" s="3">
-        <v>-267900</v>
+        <v>-250300</v>
       </c>
       <c r="F23" s="3">
-        <v>-212700</v>
+        <v>-198700</v>
       </c>
       <c r="G23" s="3">
-        <v>-195100</v>
+        <v>-182200</v>
       </c>
       <c r="H23" s="3">
-        <v>-244300</v>
+        <v>-228200</v>
       </c>
       <c r="I23" s="3">
-        <v>-180300</v>
+        <v>-168400</v>
       </c>
       <c r="J23" s="3">
-        <v>-224400</v>
+        <v>-209600</v>
       </c>
       <c r="K23" s="3">
         <v>-449400</v>
@@ -1771,25 +1771,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>5800</v>
+        <v>5400</v>
       </c>
       <c r="E24" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="F24" s="3">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="G24" s="3">
-        <v>3300</v>
+        <v>3000</v>
       </c>
       <c r="H24" s="3">
-        <v>-2600</v>
+        <v>-2400</v>
       </c>
       <c r="I24" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="J24" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="K24" s="3">
         <v>800</v>
@@ -1913,25 +1913,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-278500</v>
+        <v>-260100</v>
       </c>
       <c r="E26" s="3">
-        <v>-269400</v>
+        <v>-251600</v>
       </c>
       <c r="F26" s="3">
-        <v>-217500</v>
+        <v>-203200</v>
       </c>
       <c r="G26" s="3">
-        <v>-198300</v>
+        <v>-185300</v>
       </c>
       <c r="H26" s="3">
-        <v>-241700</v>
+        <v>-225800</v>
       </c>
       <c r="I26" s="3">
-        <v>-183200</v>
+        <v>-171100</v>
       </c>
       <c r="J26" s="3">
-        <v>-226900</v>
+        <v>-212000</v>
       </c>
       <c r="K26" s="3">
         <v>-450100</v>
@@ -1984,25 +1984,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-281400</v>
+        <v>-262900</v>
       </c>
       <c r="E27" s="3">
-        <v>-273600</v>
+        <v>-255600</v>
       </c>
       <c r="F27" s="3">
-        <v>-221100</v>
+        <v>-206500</v>
       </c>
       <c r="G27" s="3">
-        <v>-200400</v>
+        <v>-187200</v>
       </c>
       <c r="H27" s="3">
-        <v>-244400</v>
+        <v>-228300</v>
       </c>
       <c r="I27" s="3">
-        <v>-185500</v>
+        <v>-173300</v>
       </c>
       <c r="J27" s="3">
-        <v>-227700</v>
+        <v>-212700</v>
       </c>
       <c r="K27" s="3">
         <v>-450300</v>
@@ -2339,25 +2339,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>67700</v>
+        <v>63200</v>
       </c>
       <c r="E32" s="3">
-        <v>-3300</v>
+        <v>-3100</v>
       </c>
       <c r="F32" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-49600</v>
+      </c>
+      <c r="J32" s="3">
         <v>-18400</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-17100</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-4500</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-53100</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-19700</v>
       </c>
       <c r="K32" s="3">
         <v>57400</v>
@@ -2410,25 +2410,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-281400</v>
+        <v>-262900</v>
       </c>
       <c r="E33" s="3">
-        <v>-273600</v>
+        <v>-255600</v>
       </c>
       <c r="F33" s="3">
-        <v>-221100</v>
+        <v>-206500</v>
       </c>
       <c r="G33" s="3">
-        <v>-200400</v>
+        <v>-187200</v>
       </c>
       <c r="H33" s="3">
-        <v>-244400</v>
+        <v>-228300</v>
       </c>
       <c r="I33" s="3">
-        <v>-185500</v>
+        <v>-173300</v>
       </c>
       <c r="J33" s="3">
-        <v>-227700</v>
+        <v>-212700</v>
       </c>
       <c r="K33" s="3">
         <v>-450300</v>
@@ -2552,25 +2552,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-281400</v>
+        <v>-262900</v>
       </c>
       <c r="E35" s="3">
-        <v>-273600</v>
+        <v>-255600</v>
       </c>
       <c r="F35" s="3">
-        <v>-221100</v>
+        <v>-206500</v>
       </c>
       <c r="G35" s="3">
-        <v>-200400</v>
+        <v>-187200</v>
       </c>
       <c r="H35" s="3">
-        <v>-244400</v>
+        <v>-228300</v>
       </c>
       <c r="I35" s="3">
-        <v>-185500</v>
+        <v>-173300</v>
       </c>
       <c r="J35" s="3">
-        <v>-227700</v>
+        <v>-212700</v>
       </c>
       <c r="K35" s="3">
         <v>-450300</v>
@@ -2753,25 +2753,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>472800</v>
+        <v>441700</v>
       </c>
       <c r="E41" s="3">
-        <v>1151000</v>
+        <v>1075200</v>
       </c>
       <c r="F41" s="3">
-        <v>1054600</v>
+        <v>985100</v>
       </c>
       <c r="G41" s="3">
-        <v>1160000</v>
+        <v>1083500</v>
       </c>
       <c r="H41" s="3">
-        <v>1722000</v>
+        <v>1608500</v>
       </c>
       <c r="I41" s="3">
-        <v>499000</v>
+        <v>466100</v>
       </c>
       <c r="J41" s="3">
-        <v>675300</v>
+        <v>630800</v>
       </c>
       <c r="K41" s="3">
         <v>578200</v>
@@ -2824,25 +2824,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>212700</v>
+        <v>198700</v>
       </c>
       <c r="E42" s="3">
-        <v>577700</v>
+        <v>539600</v>
       </c>
       <c r="F42" s="3">
-        <v>871800</v>
+        <v>814400</v>
       </c>
       <c r="G42" s="3">
-        <v>933100</v>
+        <v>871600</v>
       </c>
       <c r="H42" s="3">
-        <v>529800</v>
+        <v>494900</v>
       </c>
       <c r="I42" s="3">
-        <v>568500</v>
+        <v>531100</v>
       </c>
       <c r="J42" s="3">
-        <v>662000</v>
+        <v>618400</v>
       </c>
       <c r="K42" s="3">
         <v>823300</v>
@@ -2895,25 +2895,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>458000</v>
+        <v>427800</v>
       </c>
       <c r="E43" s="3">
-        <v>498100</v>
+        <v>465200</v>
       </c>
       <c r="F43" s="3">
-        <v>526000</v>
+        <v>491300</v>
       </c>
       <c r="G43" s="3">
-        <v>560800</v>
+        <v>523800</v>
       </c>
       <c r="H43" s="3">
-        <v>542800</v>
+        <v>507000</v>
       </c>
       <c r="I43" s="3">
-        <v>541100</v>
+        <v>505400</v>
       </c>
       <c r="J43" s="3">
-        <v>539300</v>
+        <v>503700</v>
       </c>
       <c r="K43" s="3">
         <v>717100</v>
@@ -2966,25 +2966,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>146900</v>
+        <v>137200</v>
       </c>
       <c r="E44" s="3">
-        <v>173100</v>
+        <v>161600</v>
       </c>
       <c r="F44" s="3">
-        <v>140500</v>
+        <v>131200</v>
       </c>
       <c r="G44" s="3">
-        <v>162800</v>
+        <v>152100</v>
       </c>
       <c r="H44" s="3">
-        <v>163300</v>
+        <v>152600</v>
       </c>
       <c r="I44" s="3">
-        <v>196800</v>
+        <v>183800</v>
       </c>
       <c r="J44" s="3">
-        <v>186800</v>
+        <v>174500</v>
       </c>
       <c r="K44" s="3">
         <v>224300</v>
@@ -3037,25 +3037,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>527600</v>
+        <v>492800</v>
       </c>
       <c r="E45" s="3">
-        <v>600300</v>
+        <v>560800</v>
       </c>
       <c r="F45" s="3">
-        <v>646900</v>
+        <v>604300</v>
       </c>
       <c r="G45" s="3">
-        <v>677500</v>
+        <v>632800</v>
       </c>
       <c r="H45" s="3">
-        <v>558600</v>
+        <v>521800</v>
       </c>
       <c r="I45" s="3">
-        <v>649800</v>
+        <v>607000</v>
       </c>
       <c r="J45" s="3">
-        <v>727700</v>
+        <v>679700</v>
       </c>
       <c r="K45" s="3">
         <v>690600</v>
@@ -3108,25 +3108,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1818000</v>
+        <v>1698200</v>
       </c>
       <c r="E46" s="3">
-        <v>3000200</v>
+        <v>2802400</v>
       </c>
       <c r="F46" s="3">
-        <v>3239900</v>
+        <v>3026300</v>
       </c>
       <c r="G46" s="3">
-        <v>3494200</v>
+        <v>3263800</v>
       </c>
       <c r="H46" s="3">
-        <v>3516500</v>
+        <v>3284700</v>
       </c>
       <c r="I46" s="3">
-        <v>2455300</v>
+        <v>2293400</v>
       </c>
       <c r="J46" s="3">
-        <v>2791100</v>
+        <v>2607100</v>
       </c>
       <c r="K46" s="3">
         <v>3033400</v>
@@ -3179,25 +3179,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>491600</v>
+        <v>459200</v>
       </c>
       <c r="E47" s="3">
-        <v>554800</v>
+        <v>518200</v>
       </c>
       <c r="F47" s="3">
-        <v>552800</v>
+        <v>516300</v>
       </c>
       <c r="G47" s="3">
-        <v>550700</v>
+        <v>514400</v>
       </c>
       <c r="H47" s="3">
-        <v>511500</v>
+        <v>477800</v>
       </c>
       <c r="I47" s="3">
-        <v>623600</v>
+        <v>582500</v>
       </c>
       <c r="J47" s="3">
-        <v>620800</v>
+        <v>579900</v>
       </c>
       <c r="K47" s="3">
         <v>580200</v>
@@ -3250,25 +3250,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>355300</v>
+        <v>331900</v>
       </c>
       <c r="E48" s="3">
-        <v>355900</v>
+        <v>332400</v>
       </c>
       <c r="F48" s="3">
-        <v>379200</v>
+        <v>354200</v>
       </c>
       <c r="G48" s="3">
-        <v>366600</v>
+        <v>342400</v>
       </c>
       <c r="H48" s="3">
-        <v>377900</v>
+        <v>353000</v>
       </c>
       <c r="I48" s="3">
-        <v>388900</v>
+        <v>363300</v>
       </c>
       <c r="J48" s="3">
-        <v>437200</v>
+        <v>408400</v>
       </c>
       <c r="K48" s="3">
         <v>402000</v>
@@ -3321,25 +3321,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3572100</v>
+        <v>3336600</v>
       </c>
       <c r="E49" s="3">
-        <v>3366900</v>
+        <v>3145000</v>
       </c>
       <c r="F49" s="3">
-        <v>3135200</v>
+        <v>2928500</v>
       </c>
       <c r="G49" s="3">
-        <v>2885700</v>
+        <v>2695500</v>
       </c>
       <c r="H49" s="3">
-        <v>2761900</v>
+        <v>2579800</v>
       </c>
       <c r="I49" s="3">
-        <v>2544500</v>
+        <v>2376700</v>
       </c>
       <c r="J49" s="3">
-        <v>2328100</v>
+        <v>2174600</v>
       </c>
       <c r="K49" s="3">
         <v>2369400</v>
@@ -3534,25 +3534,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>463300</v>
+        <v>432800</v>
       </c>
       <c r="E52" s="3">
-        <v>499300</v>
+        <v>466400</v>
       </c>
       <c r="F52" s="3">
-        <v>410000</v>
+        <v>383000</v>
       </c>
       <c r="G52" s="3">
-        <v>431100</v>
+        <v>402700</v>
       </c>
       <c r="H52" s="3">
-        <v>434000</v>
+        <v>405400</v>
       </c>
       <c r="I52" s="3">
-        <v>438200</v>
+        <v>409400</v>
       </c>
       <c r="J52" s="3">
-        <v>492500</v>
+        <v>460100</v>
       </c>
       <c r="K52" s="3">
         <v>431800</v>
@@ -3676,25 +3676,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6700400</v>
+        <v>6258700</v>
       </c>
       <c r="E54" s="3">
-        <v>7777100</v>
+        <v>7264400</v>
       </c>
       <c r="F54" s="3">
-        <v>7717000</v>
+        <v>7208300</v>
       </c>
       <c r="G54" s="3">
-        <v>7728300</v>
+        <v>7218800</v>
       </c>
       <c r="H54" s="3">
-        <v>7601700</v>
+        <v>7100600</v>
       </c>
       <c r="I54" s="3">
-        <v>6450500</v>
+        <v>6025300</v>
       </c>
       <c r="J54" s="3">
-        <v>6669700</v>
+        <v>6230000</v>
       </c>
       <c r="K54" s="3">
         <v>6816800</v>
@@ -3801,25 +3801,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1403500</v>
+        <v>1311000</v>
       </c>
       <c r="E57" s="3">
-        <v>1440000</v>
+        <v>1345100</v>
       </c>
       <c r="F57" s="3">
-        <v>1298000</v>
+        <v>1212500</v>
       </c>
       <c r="G57" s="3">
-        <v>1184600</v>
+        <v>1106500</v>
       </c>
       <c r="H57" s="3">
-        <v>1192900</v>
+        <v>1114300</v>
       </c>
       <c r="I57" s="3">
-        <v>1176300</v>
+        <v>1098700</v>
       </c>
       <c r="J57" s="3">
-        <v>1213500</v>
+        <v>1133500</v>
       </c>
       <c r="K57" s="3">
         <v>1304000</v>
@@ -3872,25 +3872,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>649600</v>
+        <v>606800</v>
       </c>
       <c r="E58" s="3">
-        <v>1491600</v>
+        <v>1393300</v>
       </c>
       <c r="F58" s="3">
-        <v>1372600</v>
+        <v>1282200</v>
       </c>
       <c r="G58" s="3">
-        <v>1249000</v>
+        <v>1166700</v>
       </c>
       <c r="H58" s="3">
-        <v>1361000</v>
+        <v>1271300</v>
       </c>
       <c r="I58" s="3">
-        <v>715900</v>
+        <v>668700</v>
       </c>
       <c r="J58" s="3">
-        <v>643700</v>
+        <v>601300</v>
       </c>
       <c r="K58" s="3">
         <v>519500</v>
@@ -3943,25 +3943,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1492800</v>
+        <v>1394400</v>
       </c>
       <c r="E59" s="3">
-        <v>1477300</v>
+        <v>1379900</v>
       </c>
       <c r="F59" s="3">
-        <v>1467000</v>
+        <v>1370300</v>
       </c>
       <c r="G59" s="3">
-        <v>1536600</v>
+        <v>1435300</v>
       </c>
       <c r="H59" s="3">
-        <v>1367100</v>
+        <v>1277000</v>
       </c>
       <c r="I59" s="3">
-        <v>1342500</v>
+        <v>1254000</v>
       </c>
       <c r="J59" s="3">
-        <v>1371600</v>
+        <v>1281200</v>
       </c>
       <c r="K59" s="3">
         <v>1445100</v>
@@ -4014,25 +4014,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3545900</v>
+        <v>3312100</v>
       </c>
       <c r="E60" s="3">
-        <v>4408900</v>
+        <v>4118300</v>
       </c>
       <c r="F60" s="3">
-        <v>4137600</v>
+        <v>3864900</v>
       </c>
       <c r="G60" s="3">
-        <v>3970200</v>
+        <v>3708500</v>
       </c>
       <c r="H60" s="3">
-        <v>3921100</v>
+        <v>3662600</v>
       </c>
       <c r="I60" s="3">
-        <v>3234600</v>
+        <v>3021400</v>
       </c>
       <c r="J60" s="3">
-        <v>3228800</v>
+        <v>3016000</v>
       </c>
       <c r="K60" s="3">
         <v>3268600</v>
@@ -4085,25 +4085,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1996000</v>
+        <v>1864400</v>
       </c>
       <c r="E61" s="3">
-        <v>1999000</v>
+        <v>1867300</v>
       </c>
       <c r="F61" s="3">
-        <v>1986500</v>
+        <v>1855500</v>
       </c>
       <c r="G61" s="3">
-        <v>1998800</v>
+        <v>1867100</v>
       </c>
       <c r="H61" s="3">
-        <v>1881600</v>
+        <v>1757500</v>
       </c>
       <c r="I61" s="3">
-        <v>2040700</v>
+        <v>1906200</v>
       </c>
       <c r="J61" s="3">
-        <v>2142500</v>
+        <v>2001200</v>
       </c>
       <c r="K61" s="3">
         <v>2112200</v>
@@ -4156,25 +4156,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>263500</v>
+        <v>246200</v>
       </c>
       <c r="E62" s="3">
-        <v>258100</v>
+        <v>241000</v>
       </c>
       <c r="F62" s="3">
-        <v>278000</v>
+        <v>259700</v>
       </c>
       <c r="G62" s="3">
-        <v>293100</v>
+        <v>273800</v>
       </c>
       <c r="H62" s="3">
-        <v>309200</v>
+        <v>288800</v>
       </c>
       <c r="I62" s="3">
-        <v>311200</v>
+        <v>290600</v>
       </c>
       <c r="J62" s="3">
-        <v>310800</v>
+        <v>290300</v>
       </c>
       <c r="K62" s="3">
         <v>281500</v>
@@ -4440,25 +4440,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5882000</v>
+        <v>5494300</v>
       </c>
       <c r="E66" s="3">
-        <v>6737800</v>
+        <v>6293600</v>
       </c>
       <c r="F66" s="3">
-        <v>6451400</v>
+        <v>6026100</v>
       </c>
       <c r="G66" s="3">
-        <v>6308900</v>
+        <v>5893000</v>
       </c>
       <c r="H66" s="3">
-        <v>6141400</v>
+        <v>5736500</v>
       </c>
       <c r="I66" s="3">
-        <v>5612100</v>
+        <v>5242100</v>
       </c>
       <c r="J66" s="3">
-        <v>5705700</v>
+        <v>5329500</v>
       </c>
       <c r="K66" s="3">
         <v>5684500</v>
@@ -4822,25 +4822,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-7440600</v>
+        <v>-6950100</v>
       </c>
       <c r="E72" s="3">
-        <v>-7159100</v>
+        <v>-6687200</v>
       </c>
       <c r="F72" s="3">
-        <v>-6885500</v>
+        <v>-6431600</v>
       </c>
       <c r="G72" s="3">
-        <v>-6664400</v>
+        <v>-6225100</v>
       </c>
       <c r="H72" s="3">
-        <v>-6464000</v>
+        <v>-6037900</v>
       </c>
       <c r="I72" s="3">
-        <v>-6219600</v>
+        <v>-5809600</v>
       </c>
       <c r="J72" s="3">
-        <v>-6034100</v>
+        <v>-5636300</v>
       </c>
       <c r="K72" s="3">
         <v>-5750400</v>
@@ -5106,25 +5106,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>818400</v>
+        <v>764400</v>
       </c>
       <c r="E76" s="3">
-        <v>1039300</v>
+        <v>970700</v>
       </c>
       <c r="F76" s="3">
-        <v>1265600</v>
+        <v>1182200</v>
       </c>
       <c r="G76" s="3">
-        <v>1419400</v>
+        <v>1325800</v>
       </c>
       <c r="H76" s="3">
-        <v>1460300</v>
+        <v>1364100</v>
       </c>
       <c r="I76" s="3">
-        <v>838400</v>
+        <v>783200</v>
       </c>
       <c r="J76" s="3">
-        <v>964000</v>
+        <v>900500</v>
       </c>
       <c r="K76" s="3">
         <v>1132300</v>
@@ -5324,25 +5324,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-281400</v>
+        <v>-262900</v>
       </c>
       <c r="E81" s="3">
-        <v>-273600</v>
+        <v>-255600</v>
       </c>
       <c r="F81" s="3">
-        <v>-221100</v>
+        <v>-206500</v>
       </c>
       <c r="G81" s="3">
-        <v>-200400</v>
+        <v>-187200</v>
       </c>
       <c r="H81" s="3">
-        <v>-244400</v>
+        <v>-228300</v>
       </c>
       <c r="I81" s="3">
-        <v>-185500</v>
+        <v>-173300</v>
       </c>
       <c r="J81" s="3">
-        <v>-227700</v>
+        <v>-212700</v>
       </c>
       <c r="K81" s="3">
         <v>-450300</v>
@@ -5848,25 +5848,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-172800</v>
+        <v>-161400</v>
       </c>
       <c r="E89" s="3">
-        <v>-328200</v>
+        <v>-306600</v>
       </c>
       <c r="F89" s="3">
-        <v>-225000</v>
+        <v>-210100</v>
       </c>
       <c r="G89" s="3">
-        <v>-213000</v>
+        <v>-198900</v>
       </c>
       <c r="H89" s="3">
-        <v>-239700</v>
+        <v>-223900</v>
       </c>
       <c r="I89" s="3">
-        <v>-304300</v>
+        <v>-284300</v>
       </c>
       <c r="J89" s="3">
-        <v>-214300</v>
+        <v>-200200</v>
       </c>
       <c r="K89" s="3">
         <v>-94600</v>
@@ -6159,25 +6159,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>330800</v>
+        <v>309000</v>
       </c>
       <c r="E94" s="3">
-        <v>297400</v>
+        <v>277800</v>
       </c>
       <c r="F94" s="3">
-        <v>9200</v>
+        <v>8600</v>
       </c>
       <c r="G94" s="3">
-        <v>-438300</v>
+        <v>-409400</v>
       </c>
       <c r="H94" s="3">
-        <v>44400</v>
+        <v>41500</v>
       </c>
       <c r="I94" s="3">
-        <v>54100</v>
+        <v>50500</v>
       </c>
       <c r="J94" s="3">
-        <v>180500</v>
+        <v>168600</v>
       </c>
       <c r="K94" s="3">
         <v>-252000</v>
@@ -6541,25 +6541,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-826500</v>
+        <v>-772000</v>
       </c>
       <c r="E100" s="3">
-        <v>136800</v>
+        <v>127800</v>
       </c>
       <c r="F100" s="3">
-        <v>126400</v>
+        <v>118000</v>
       </c>
       <c r="G100" s="3">
-        <v>96400</v>
+        <v>90000</v>
       </c>
       <c r="H100" s="3">
-        <v>1324000</v>
+        <v>1236700</v>
       </c>
       <c r="I100" s="3">
-        <v>37600</v>
+        <v>35100</v>
       </c>
       <c r="J100" s="3">
-        <v>129800</v>
+        <v>121200</v>
       </c>
       <c r="K100" s="3">
         <v>-12400</v>
@@ -6612,25 +6612,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-11600</v>
+        <v>-10900</v>
       </c>
       <c r="E101" s="3">
-        <v>-3500</v>
+        <v>-3300</v>
       </c>
       <c r="F101" s="3">
-        <v>-14600</v>
+        <v>-13600</v>
       </c>
       <c r="G101" s="3">
-        <v>-4500</v>
+        <v>-4200</v>
       </c>
       <c r="H101" s="3">
-        <v>-5200</v>
+        <v>-4800</v>
       </c>
       <c r="I101" s="3">
-        <v>-17800</v>
+        <v>-16700</v>
       </c>
       <c r="J101" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="K101" s="3">
         <v>10100</v>
@@ -6683,25 +6683,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-680100</v>
+        <v>-635300</v>
       </c>
       <c r="E102" s="3">
-        <v>102500</v>
+        <v>95700</v>
       </c>
       <c r="F102" s="3">
-        <v>-104000</v>
+        <v>-97100</v>
       </c>
       <c r="G102" s="3">
-        <v>-559300</v>
+        <v>-522400</v>
       </c>
       <c r="H102" s="3">
-        <v>1123500</v>
+        <v>1049500</v>
       </c>
       <c r="I102" s="3">
-        <v>-230500</v>
+        <v>-215300</v>
       </c>
       <c r="J102" s="3">
-        <v>94500</v>
+        <v>88300</v>
       </c>
       <c r="K102" s="3">
         <v>-348900</v>

--- a/AAII_Financials/Quarterly/IQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IQ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="92">
   <si>
     <t>IQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,333 @@
     <col min="1" max="1" width="4.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1088800</v>
+        <v>1062700</v>
       </c>
       <c r="E8" s="3">
-        <v>1118300</v>
+        <v>1079000</v>
       </c>
       <c r="F8" s="3">
-        <v>1121200</v>
+        <v>1108200</v>
       </c>
       <c r="G8" s="3">
-        <v>1174200</v>
+        <v>1111000</v>
       </c>
       <c r="H8" s="3">
-        <v>1099000</v>
+        <v>1163600</v>
       </c>
       <c r="I8" s="3">
-        <v>1059200</v>
+        <v>1089100</v>
       </c>
       <c r="J8" s="3">
+        <v>1049600</v>
+      </c>
+      <c r="K8" s="3">
         <v>1092200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1197700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1154300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1154000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1086300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1063300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1020600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>967700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>863600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>699800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>691200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>734700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>642100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>477600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>458800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>473800</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>959000</v>
+        <v>870900</v>
       </c>
       <c r="E9" s="3">
-        <v>1035600</v>
+        <v>950300</v>
       </c>
       <c r="F9" s="3">
-        <v>1012200</v>
+        <v>1026300</v>
       </c>
       <c r="G9" s="3">
-        <v>1047600</v>
+        <v>1003100</v>
       </c>
       <c r="H9" s="3">
-        <v>999800</v>
+        <v>1038200</v>
       </c>
       <c r="I9" s="3">
-        <v>937700</v>
+        <v>990700</v>
       </c>
       <c r="J9" s="3">
+        <v>929300</v>
+      </c>
+      <c r="K9" s="3">
         <v>1007000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1237300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1218700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1275500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1066600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1107000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1237800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1071400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>854700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>695600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>650700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>726900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1304500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1035100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>453900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>456800</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>129800</v>
+        <v>191800</v>
       </c>
       <c r="E10" s="3">
-        <v>82700</v>
+        <v>128700</v>
       </c>
       <c r="F10" s="3">
-        <v>109000</v>
+        <v>82000</v>
       </c>
       <c r="G10" s="3">
-        <v>126600</v>
+        <v>108000</v>
       </c>
       <c r="H10" s="3">
-        <v>99300</v>
+        <v>125400</v>
       </c>
       <c r="I10" s="3">
-        <v>121500</v>
+        <v>98400</v>
       </c>
       <c r="J10" s="3">
+        <v>120400</v>
+      </c>
+      <c r="K10" s="3">
         <v>85200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-39600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-64300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-121500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>19700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-43700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-217200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-103700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>8900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>40500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>7800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>-662500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>-557500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>4900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,79 +1017,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>112500</v>
+        <v>69400</v>
       </c>
       <c r="E12" s="3">
-        <v>100700</v>
+        <v>111400</v>
       </c>
       <c r="F12" s="3">
         <v>99700</v>
       </c>
       <c r="G12" s="3">
-        <v>99100</v>
+        <v>98800</v>
       </c>
       <c r="H12" s="3">
+        <v>98200</v>
+      </c>
+      <c r="I12" s="3">
+        <v>96900</v>
+      </c>
+      <c r="J12" s="3">
         <v>97800</v>
       </c>
-      <c r="I12" s="3">
-        <v>98700</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>97900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>106200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>109500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>109700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>100000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>91000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>88200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>78100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>61800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>55600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>52300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>50800</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>87400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>78200</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>35500</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>33400</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1146,8 +1163,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1217,8 +1237,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1232500</v>
+        <v>1049000</v>
       </c>
       <c r="E17" s="3">
-        <v>1319900</v>
+        <v>1221400</v>
       </c>
       <c r="F17" s="3">
-        <v>1286500</v>
+        <v>1308000</v>
       </c>
       <c r="G17" s="3">
-        <v>1323700</v>
+        <v>1274900</v>
       </c>
       <c r="H17" s="3">
-        <v>1291700</v>
+        <v>1311700</v>
       </c>
       <c r="I17" s="3">
-        <v>1237400</v>
+        <v>1280000</v>
       </c>
       <c r="J17" s="3">
+        <v>1226300</v>
+      </c>
+      <c r="K17" s="3">
         <v>1281000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1548600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1543700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1595700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1372300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1371500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1503400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1330400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1049400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>852200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>814000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>893000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>789100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>628800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>569700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>557900</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-143700</v>
+        <v>13600</v>
       </c>
       <c r="E18" s="3">
-        <v>-201600</v>
+        <v>-142400</v>
       </c>
       <c r="F18" s="3">
-        <v>-165300</v>
+        <v>-199800</v>
       </c>
       <c r="G18" s="3">
-        <v>-149500</v>
+        <v>-163800</v>
       </c>
       <c r="H18" s="3">
-        <v>-192700</v>
+        <v>-148100</v>
       </c>
       <c r="I18" s="3">
-        <v>-178200</v>
+        <v>-190900</v>
       </c>
       <c r="J18" s="3">
+        <v>-176600</v>
+      </c>
+      <c r="K18" s="3">
         <v>-188900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-351000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-389400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-441800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-286000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-308200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-482800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-362700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-185900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-152400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-122800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-158300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-147000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-151200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-110900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-84100</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1481,79 +1514,83 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-63200</v>
+        <v>39800</v>
       </c>
       <c r="E20" s="3">
-        <v>3100</v>
+        <v>-62600</v>
       </c>
       <c r="F20" s="3">
-        <v>17200</v>
+        <v>3000</v>
       </c>
       <c r="G20" s="3">
-        <v>15900</v>
+        <v>17000</v>
       </c>
       <c r="H20" s="3">
-        <v>4200</v>
+        <v>15800</v>
       </c>
       <c r="I20" s="3">
-        <v>49600</v>
+        <v>4100</v>
       </c>
       <c r="J20" s="3">
+        <v>49100</v>
+      </c>
+      <c r="K20" s="3">
         <v>18400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-57400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>54200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-89300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-27300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>52700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-73300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-106200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>96800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>39800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>17900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-20200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1605,224 +1642,233 @@
       <c r="S21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U21" s="3">
         <v>1174600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>835600</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y21" s="3">
         <v>598900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>443800</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>47800</v>
+        <v>25600</v>
       </c>
       <c r="E22" s="3">
-        <v>51800</v>
+        <v>47400</v>
       </c>
       <c r="F22" s="3">
-        <v>50600</v>
+        <v>51300</v>
       </c>
       <c r="G22" s="3">
-        <v>48700</v>
+        <v>50100</v>
       </c>
       <c r="H22" s="3">
+        <v>48300</v>
+      </c>
+      <c r="I22" s="3">
+        <v>39300</v>
+      </c>
+      <c r="J22" s="3">
+        <v>39300</v>
+      </c>
+      <c r="K22" s="3">
+        <v>39100</v>
+      </c>
+      <c r="L22" s="3">
+        <v>41000</v>
+      </c>
+      <c r="M22" s="3">
+        <v>42600</v>
+      </c>
+      <c r="N22" s="3">
         <v>39700</v>
       </c>
-      <c r="I22" s="3">
-        <v>39700</v>
-      </c>
-      <c r="J22" s="3">
-        <v>39100</v>
-      </c>
-      <c r="K22" s="3">
-        <v>41000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>42600</v>
-      </c>
-      <c r="M22" s="3">
-        <v>39700</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>37900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>20600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>8900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>6300</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="V22" s="3">
+      <c r="V22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W22" s="3">
         <v>12200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>9900</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>6100</v>
       </c>
-      <c r="Y22" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-254700</v>
+        <v>27900</v>
       </c>
       <c r="E23" s="3">
-        <v>-250300</v>
+        <v>-252400</v>
       </c>
       <c r="F23" s="3">
-        <v>-198700</v>
+        <v>-248000</v>
       </c>
       <c r="G23" s="3">
-        <v>-182200</v>
+        <v>-196900</v>
       </c>
       <c r="H23" s="3">
-        <v>-228200</v>
+        <v>-180600</v>
       </c>
       <c r="I23" s="3">
-        <v>-168400</v>
+        <v>-226100</v>
       </c>
       <c r="J23" s="3">
+        <v>-166900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-209600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-449400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-377800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-570700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-351100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-276100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-487900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-438200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-293400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-56900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-89300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-156000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-141400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-162700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-137200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-91300</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>5400</v>
+        <v>2500</v>
       </c>
       <c r="E24" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F24" s="3">
         <v>1300</v>
       </c>
-      <c r="F24" s="3">
-        <v>4500</v>
-      </c>
       <c r="G24" s="3">
+        <v>4400</v>
+      </c>
+      <c r="H24" s="3">
         <v>3000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-2400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>11500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-1400</v>
-      </c>
-      <c r="U24" s="3">
-        <v>100</v>
       </c>
       <c r="V24" s="3">
         <v>100</v>
@@ -1831,13 +1877,16 @@
         <v>100</v>
       </c>
       <c r="X24" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y24" s="3">
         <v>600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-260100</v>
+        <v>25400</v>
       </c>
       <c r="E26" s="3">
-        <v>-251600</v>
+        <v>-257800</v>
       </c>
       <c r="F26" s="3">
-        <v>-203200</v>
+        <v>-249300</v>
       </c>
       <c r="G26" s="3">
-        <v>-185300</v>
+        <v>-201300</v>
       </c>
       <c r="H26" s="3">
-        <v>-225800</v>
+        <v>-183600</v>
       </c>
       <c r="I26" s="3">
-        <v>-171100</v>
+        <v>-223700</v>
       </c>
       <c r="J26" s="3">
+        <v>-169600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-212000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-450100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-381200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-573200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-352000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-277200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-499400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-437300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-294100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-56900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-87900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-156100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-141500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-162800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-137800</v>
       </c>
-      <c r="Y26" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-262900</v>
+        <v>24700</v>
       </c>
       <c r="E27" s="3">
-        <v>-255600</v>
+        <v>-260500</v>
       </c>
       <c r="F27" s="3">
-        <v>-206500</v>
+        <v>-253300</v>
       </c>
       <c r="G27" s="3">
-        <v>-187200</v>
+        <v>-204700</v>
       </c>
       <c r="H27" s="3">
-        <v>-228300</v>
+        <v>-185500</v>
       </c>
       <c r="I27" s="3">
-        <v>-173300</v>
+        <v>-226300</v>
       </c>
       <c r="J27" s="3">
+        <v>-171700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-212700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-450300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-384200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-575400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-355600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-275900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-504900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-439500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-294800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-98300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2198300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1737000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-248500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-267600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-410200</v>
       </c>
-      <c r="Y27" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>63200</v>
+        <v>-39800</v>
       </c>
       <c r="E32" s="3">
-        <v>-3100</v>
+        <v>62600</v>
       </c>
       <c r="F32" s="3">
-        <v>-17200</v>
+        <v>-3000</v>
       </c>
       <c r="G32" s="3">
-        <v>-15900</v>
+        <v>-17000</v>
       </c>
       <c r="H32" s="3">
-        <v>-4200</v>
+        <v>-15800</v>
       </c>
       <c r="I32" s="3">
-        <v>-49600</v>
+        <v>-4100</v>
       </c>
       <c r="J32" s="3">
+        <v>-49100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-18400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>57400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-54200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>89300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>27300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-52700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>73300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>106200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-96800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-39800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-17900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>20200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-262900</v>
+        <v>24700</v>
       </c>
       <c r="E33" s="3">
-        <v>-255600</v>
+        <v>-260500</v>
       </c>
       <c r="F33" s="3">
-        <v>-206500</v>
+        <v>-253300</v>
       </c>
       <c r="G33" s="3">
-        <v>-187200</v>
+        <v>-204700</v>
       </c>
       <c r="H33" s="3">
-        <v>-228300</v>
+        <v>-185500</v>
       </c>
       <c r="I33" s="3">
-        <v>-173300</v>
+        <v>-226300</v>
       </c>
       <c r="J33" s="3">
+        <v>-171700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-212700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-450300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-384200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-575400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-355600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-275900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-504900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-439500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-294800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-98300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2198300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1737000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-248500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-267600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-410200</v>
       </c>
-      <c r="Y33" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-262900</v>
+        <v>24700</v>
       </c>
       <c r="E35" s="3">
-        <v>-255600</v>
+        <v>-260500</v>
       </c>
       <c r="F35" s="3">
-        <v>-206500</v>
+        <v>-253300</v>
       </c>
       <c r="G35" s="3">
-        <v>-187200</v>
+        <v>-204700</v>
       </c>
       <c r="H35" s="3">
-        <v>-228300</v>
+        <v>-185500</v>
       </c>
       <c r="I35" s="3">
-        <v>-173300</v>
+        <v>-226300</v>
       </c>
       <c r="J35" s="3">
+        <v>-171700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-212700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-450300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-384200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-575400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-355600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-275900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-504900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-439500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-294800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-98300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2198300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1737000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-248500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-267600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-410200</v>
       </c>
-      <c r="Y35" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,68 +2833,69 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>441700</v>
+        <v>556600</v>
       </c>
       <c r="E41" s="3">
-        <v>1075200</v>
+        <v>437700</v>
       </c>
       <c r="F41" s="3">
-        <v>985100</v>
+        <v>1065500</v>
       </c>
       <c r="G41" s="3">
-        <v>1083500</v>
+        <v>976200</v>
       </c>
       <c r="H41" s="3">
-        <v>1608500</v>
+        <v>1073700</v>
       </c>
       <c r="I41" s="3">
-        <v>466100</v>
+        <v>1594000</v>
       </c>
       <c r="J41" s="3">
+        <v>461900</v>
+      </c>
+      <c r="K41" s="3">
         <v>630800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>578200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>913800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>702900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>829200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1806300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>666100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>816200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1159100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>57900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>105200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>176500</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2818,68 +2905,71 @@
       <c r="Y41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>198700</v>
+        <v>187300</v>
       </c>
       <c r="E42" s="3">
-        <v>539600</v>
+        <v>196900</v>
       </c>
       <c r="F42" s="3">
-        <v>814400</v>
+        <v>534700</v>
       </c>
       <c r="G42" s="3">
-        <v>871600</v>
+        <v>807000</v>
       </c>
       <c r="H42" s="3">
-        <v>494900</v>
+        <v>863700</v>
       </c>
       <c r="I42" s="3">
-        <v>531100</v>
+        <v>490400</v>
       </c>
       <c r="J42" s="3">
+        <v>526300</v>
+      </c>
+      <c r="K42" s="3">
         <v>618400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>823300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>705100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1067400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1347200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>591100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>880400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>538000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>665100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>70700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>111900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>497500</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2889,68 +2979,71 @@
       <c r="Y42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>427800</v>
+        <v>410600</v>
       </c>
       <c r="E43" s="3">
-        <v>465200</v>
+        <v>424000</v>
       </c>
       <c r="F43" s="3">
-        <v>491300</v>
+        <v>461100</v>
       </c>
       <c r="G43" s="3">
-        <v>523800</v>
+        <v>486900</v>
       </c>
       <c r="H43" s="3">
-        <v>507000</v>
+        <v>519100</v>
       </c>
       <c r="I43" s="3">
-        <v>505400</v>
+        <v>502400</v>
       </c>
       <c r="J43" s="3">
+        <v>500900</v>
+      </c>
+      <c r="K43" s="3">
         <v>503700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>717100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>591200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>514100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>513100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>535000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>460500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>452200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>350200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>420800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>322200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>693700</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2960,68 +3053,71 @@
       <c r="Y43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>137200</v>
+        <v>132900</v>
       </c>
       <c r="E44" s="3">
-        <v>161600</v>
+        <v>136000</v>
       </c>
       <c r="F44" s="3">
-        <v>131200</v>
+        <v>160200</v>
       </c>
       <c r="G44" s="3">
-        <v>152100</v>
+        <v>130000</v>
       </c>
       <c r="H44" s="3">
-        <v>152600</v>
+        <v>150700</v>
       </c>
       <c r="I44" s="3">
-        <v>183800</v>
+        <v>151200</v>
       </c>
       <c r="J44" s="3">
+        <v>182200</v>
+      </c>
+      <c r="K44" s="3">
         <v>174500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>224300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>188600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>206500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>179700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>191900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>169000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>147200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>162900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>172400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>117500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>110300</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W44" s="3" t="s">
         <v>16</v>
       </c>
@@ -3031,68 +3127,71 @@
       <c r="Y44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>492800</v>
+        <v>403200</v>
       </c>
       <c r="E45" s="3">
-        <v>560800</v>
+        <v>488300</v>
       </c>
       <c r="F45" s="3">
-        <v>604300</v>
+        <v>555700</v>
       </c>
       <c r="G45" s="3">
-        <v>632800</v>
+        <v>598800</v>
       </c>
       <c r="H45" s="3">
-        <v>521800</v>
+        <v>627100</v>
       </c>
       <c r="I45" s="3">
-        <v>607000</v>
+        <v>517100</v>
       </c>
       <c r="J45" s="3">
+        <v>601500</v>
+      </c>
+      <c r="K45" s="3">
         <v>679700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>690600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>722800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1031300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>926000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>772700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>707300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>430500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>377800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>145500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>161200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>137200</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W45" s="3" t="s">
         <v>16</v>
       </c>
@@ -3102,68 +3201,71 @@
       <c r="Y45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1698200</v>
+        <v>1690500</v>
       </c>
       <c r="E46" s="3">
-        <v>2802400</v>
+        <v>1682900</v>
       </c>
       <c r="F46" s="3">
-        <v>3026300</v>
+        <v>2777100</v>
       </c>
       <c r="G46" s="3">
-        <v>3263800</v>
+        <v>2999000</v>
       </c>
       <c r="H46" s="3">
-        <v>3284700</v>
+        <v>3234300</v>
       </c>
       <c r="I46" s="3">
-        <v>2293400</v>
+        <v>3255100</v>
       </c>
       <c r="J46" s="3">
+        <v>2272700</v>
+      </c>
+      <c r="K46" s="3">
         <v>2607100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3033400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3121600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3522200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3795200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3897100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2883300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2384200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2715100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>867300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>817900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1615200</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W46" s="3" t="s">
         <v>16</v>
       </c>
@@ -3173,68 +3275,71 @@
       <c r="Y46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>459200</v>
+        <v>478600</v>
       </c>
       <c r="E47" s="3">
-        <v>518200</v>
+        <v>455100</v>
       </c>
       <c r="F47" s="3">
-        <v>516300</v>
+        <v>513500</v>
       </c>
       <c r="G47" s="3">
-        <v>514400</v>
+        <v>511700</v>
       </c>
       <c r="H47" s="3">
-        <v>477800</v>
+        <v>509800</v>
       </c>
       <c r="I47" s="3">
-        <v>582500</v>
+        <v>473500</v>
       </c>
       <c r="J47" s="3">
+        <v>577200</v>
+      </c>
+      <c r="K47" s="3">
         <v>579900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>580200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>485700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>480400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>413700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>400600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>381200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>322800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>173900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>170000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>81500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>59000</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W47" s="3" t="s">
         <v>16</v>
       </c>
@@ -3244,68 +3349,71 @@
       <c r="Y47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>331900</v>
+        <v>320300</v>
       </c>
       <c r="E48" s="3">
-        <v>332400</v>
+        <v>328900</v>
       </c>
       <c r="F48" s="3">
-        <v>354200</v>
+        <v>329400</v>
       </c>
       <c r="G48" s="3">
-        <v>342400</v>
+        <v>351000</v>
       </c>
       <c r="H48" s="3">
-        <v>353000</v>
+        <v>339300</v>
       </c>
       <c r="I48" s="3">
-        <v>363300</v>
+        <v>349800</v>
       </c>
       <c r="J48" s="3">
+        <v>360000</v>
+      </c>
+      <c r="K48" s="3">
         <v>408400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>402000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>381400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>369600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>358100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>265700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>235000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>206500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>196600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>189200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>179200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>179600</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W48" s="3" t="s">
         <v>16</v>
       </c>
@@ -3315,68 +3423,71 @@
       <c r="Y48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3336600</v>
+        <v>3431200</v>
       </c>
       <c r="E49" s="3">
-        <v>3145000</v>
+        <v>3306500</v>
       </c>
       <c r="F49" s="3">
-        <v>2928500</v>
+        <v>3116600</v>
       </c>
       <c r="G49" s="3">
-        <v>2695500</v>
+        <v>2902100</v>
       </c>
       <c r="H49" s="3">
-        <v>2579800</v>
+        <v>2671200</v>
       </c>
       <c r="I49" s="3">
-        <v>2376700</v>
+        <v>2556500</v>
       </c>
       <c r="J49" s="3">
+        <v>2355300</v>
+      </c>
+      <c r="K49" s="3">
         <v>2174600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2369400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2362800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2601800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2423100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2432100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2315500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2285000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1858100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1623800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1409900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1221500</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W49" s="3" t="s">
         <v>16</v>
       </c>
@@ -3386,8 +3497,11 @@
       <c r="Y49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,68 +3645,71 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>432800</v>
+        <v>444300</v>
       </c>
       <c r="E52" s="3">
-        <v>466400</v>
+        <v>428900</v>
       </c>
       <c r="F52" s="3">
-        <v>383000</v>
+        <v>462200</v>
       </c>
       <c r="G52" s="3">
-        <v>402700</v>
+        <v>379500</v>
       </c>
       <c r="H52" s="3">
-        <v>405400</v>
+        <v>399100</v>
       </c>
       <c r="I52" s="3">
-        <v>409400</v>
+        <v>401700</v>
       </c>
       <c r="J52" s="3">
+        <v>405700</v>
+      </c>
+      <c r="K52" s="3">
         <v>460100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>431800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>545600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>562800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>686200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>787200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>685500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>570200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>530500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>439700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>409900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>378500</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W52" s="3" t="s">
         <v>16</v>
       </c>
@@ -3599,8 +3719,11 @@
       <c r="Y52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,68 +3793,71 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6258700</v>
+        <v>6365000</v>
       </c>
       <c r="E54" s="3">
-        <v>7264400</v>
+        <v>6202200</v>
       </c>
       <c r="F54" s="3">
-        <v>7208300</v>
+        <v>7198800</v>
       </c>
       <c r="G54" s="3">
-        <v>7218800</v>
+        <v>7143200</v>
       </c>
       <c r="H54" s="3">
-        <v>7100600</v>
+        <v>7153700</v>
       </c>
       <c r="I54" s="3">
-        <v>6025300</v>
+        <v>7036500</v>
       </c>
       <c r="J54" s="3">
+        <v>5970900</v>
+      </c>
+      <c r="K54" s="3">
         <v>6230000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6816800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6897200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7536800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7676300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7782700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6500500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5768700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5474100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3289900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2898400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3453700</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W54" s="3" t="s">
         <v>16</v>
       </c>
@@ -3741,8 +3867,11 @@
       <c r="Y54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,68 +3925,69 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1311000</v>
+        <v>1025400</v>
       </c>
       <c r="E57" s="3">
-        <v>1345100</v>
+        <v>1299200</v>
       </c>
       <c r="F57" s="3">
-        <v>1212500</v>
+        <v>1333000</v>
       </c>
       <c r="G57" s="3">
-        <v>1106500</v>
+        <v>1201500</v>
       </c>
       <c r="H57" s="3">
-        <v>1114300</v>
+        <v>1096500</v>
       </c>
       <c r="I57" s="3">
-        <v>1098700</v>
+        <v>1104200</v>
       </c>
       <c r="J57" s="3">
+        <v>1088800</v>
+      </c>
+      <c r="K57" s="3">
         <v>1133500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1304000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1264600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1574100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1464200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1574600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1475900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1458800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1269100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1252000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1010300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1035600</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W57" s="3" t="s">
         <v>16</v>
       </c>
@@ -3866,68 +3997,71 @@
       <c r="Y57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>606800</v>
+        <v>641300</v>
       </c>
       <c r="E58" s="3">
-        <v>1393300</v>
+        <v>601300</v>
       </c>
       <c r="F58" s="3">
-        <v>1282200</v>
+        <v>1380700</v>
       </c>
       <c r="G58" s="3">
-        <v>1166700</v>
+        <v>1270600</v>
       </c>
       <c r="H58" s="3">
-        <v>1271300</v>
+        <v>1156200</v>
       </c>
       <c r="I58" s="3">
-        <v>668700</v>
+        <v>1259800</v>
       </c>
       <c r="J58" s="3">
+        <v>662600</v>
+      </c>
+      <c r="K58" s="3">
         <v>601300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>519500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>516600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>604300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>667800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>557600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>454600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>165500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>89900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>58400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>44400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1232000</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W58" s="3" t="s">
         <v>16</v>
       </c>
@@ -3937,68 +4071,71 @@
       <c r="Y58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1394400</v>
+        <v>1470000</v>
       </c>
       <c r="E59" s="3">
-        <v>1379900</v>
+        <v>1381800</v>
       </c>
       <c r="F59" s="3">
-        <v>1370300</v>
+        <v>1367400</v>
       </c>
       <c r="G59" s="3">
-        <v>1435300</v>
+        <v>1357900</v>
       </c>
       <c r="H59" s="3">
-        <v>1277000</v>
+        <v>1422400</v>
       </c>
       <c r="I59" s="3">
-        <v>1254000</v>
+        <v>1265500</v>
       </c>
       <c r="J59" s="3">
+        <v>1242700</v>
+      </c>
+      <c r="K59" s="3">
         <v>1281200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1445100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1325100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1178200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1144200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1013800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>946900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>887200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>710200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>619500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>613400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1325600</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W59" s="3" t="s">
         <v>16</v>
       </c>
@@ -4008,68 +4145,71 @@
       <c r="Y59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3312100</v>
+        <v>3136700</v>
       </c>
       <c r="E60" s="3">
-        <v>4118300</v>
+        <v>3282200</v>
       </c>
       <c r="F60" s="3">
-        <v>3864900</v>
+        <v>4081100</v>
       </c>
       <c r="G60" s="3">
-        <v>3708500</v>
+        <v>3830000</v>
       </c>
       <c r="H60" s="3">
-        <v>3662600</v>
+        <v>3675000</v>
       </c>
       <c r="I60" s="3">
-        <v>3021400</v>
+        <v>3629500</v>
       </c>
       <c r="J60" s="3">
+        <v>2994100</v>
+      </c>
+      <c r="K60" s="3">
         <v>3016000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3268600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3106300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3356700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3276200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3146000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2877300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2511500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2069200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1929900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1668000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3593200</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W60" s="3" t="s">
         <v>16</v>
       </c>
@@ -4079,68 +4219,71 @@
       <c r="Y60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1864400</v>
+        <v>1933300</v>
       </c>
       <c r="E61" s="3">
-        <v>1867300</v>
+        <v>1847600</v>
       </c>
       <c r="F61" s="3">
-        <v>1855500</v>
+        <v>1850400</v>
       </c>
       <c r="G61" s="3">
-        <v>1867100</v>
+        <v>1838800</v>
       </c>
       <c r="H61" s="3">
-        <v>1757500</v>
+        <v>1850200</v>
       </c>
       <c r="I61" s="3">
-        <v>1906200</v>
+        <v>1741700</v>
       </c>
       <c r="J61" s="3">
+        <v>1889000</v>
+      </c>
+      <c r="K61" s="3">
         <v>2001200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2112200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2029000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2057800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1879700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1856600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>777900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>38300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>39000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>40000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>40700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>42100</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
@@ -4150,68 +4293,71 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>246200</v>
+        <v>287200</v>
       </c>
       <c r="E62" s="3">
-        <v>241000</v>
+        <v>243900</v>
       </c>
       <c r="F62" s="3">
-        <v>259700</v>
+        <v>238900</v>
       </c>
       <c r="G62" s="3">
-        <v>273800</v>
+        <v>257400</v>
       </c>
       <c r="H62" s="3">
-        <v>288800</v>
+        <v>271300</v>
       </c>
       <c r="I62" s="3">
-        <v>290600</v>
+        <v>286200</v>
       </c>
       <c r="J62" s="3">
+        <v>288000</v>
+      </c>
+      <c r="K62" s="3">
         <v>290300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>281500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>266000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>220700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>225900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>248700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>208500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>210000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>97000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>96100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1100</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W62" s="3" t="s">
         <v>16</v>
       </c>
@@ -4221,8 +4367,11 @@
       <c r="Y62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,68 +4589,71 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5494300</v>
+        <v>5367200</v>
       </c>
       <c r="E66" s="3">
-        <v>6293600</v>
+        <v>5444700</v>
       </c>
       <c r="F66" s="3">
-        <v>6026100</v>
+        <v>6236800</v>
       </c>
       <c r="G66" s="3">
-        <v>5893000</v>
+        <v>5971700</v>
       </c>
       <c r="H66" s="3">
-        <v>5736500</v>
+        <v>5839800</v>
       </c>
       <c r="I66" s="3">
-        <v>5242100</v>
+        <v>5684800</v>
       </c>
       <c r="J66" s="3">
+        <v>5194800</v>
+      </c>
+      <c r="K66" s="3">
         <v>5329500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5684500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5423400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5659900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5402400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5268100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3880900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2771200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2205600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2066400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1710600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3636400</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W66" s="3" t="s">
         <v>16</v>
       </c>
@@ -4505,8 +4663,11 @@
       <c r="Y66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4725,17 +4893,17 @@
         <v>0</v>
       </c>
       <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
         <v>3284400</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>3242900</v>
       </c>
-      <c r="U70" s="3">
+      <c r="V70" s="3">
         <v>4323600</v>
       </c>
-      <c r="V70" s="3">
-        <v>0</v>
-      </c>
       <c r="W70" s="3">
         <v>0</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,68 +4987,71 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-6950100</v>
+        <v>-6745700</v>
       </c>
       <c r="E72" s="3">
-        <v>-6687200</v>
+        <v>-6887300</v>
       </c>
       <c r="F72" s="3">
-        <v>-6431600</v>
+        <v>-6626800</v>
       </c>
       <c r="G72" s="3">
-        <v>-6225100</v>
+        <v>-6373600</v>
       </c>
       <c r="H72" s="3">
-        <v>-6037900</v>
+        <v>-6168900</v>
       </c>
       <c r="I72" s="3">
-        <v>-5809600</v>
+        <v>-5983400</v>
       </c>
       <c r="J72" s="3">
+        <v>-5757100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-5636300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-5750400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-5209800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-4889200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4224500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3852200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3414300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2796700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2357100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-2130900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-2154600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-4631600</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W72" s="3" t="s">
         <v>16</v>
       </c>
@@ -4887,8 +5061,11 @@
       <c r="Y72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,68 +5283,71 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>764400</v>
+        <v>997800</v>
       </c>
       <c r="E76" s="3">
-        <v>970700</v>
+        <v>757500</v>
       </c>
       <c r="F76" s="3">
-        <v>1182200</v>
+        <v>962000</v>
       </c>
       <c r="G76" s="3">
-        <v>1325800</v>
+        <v>1171500</v>
       </c>
       <c r="H76" s="3">
-        <v>1364100</v>
+        <v>1313900</v>
       </c>
       <c r="I76" s="3">
-        <v>783200</v>
+        <v>1351700</v>
       </c>
       <c r="J76" s="3">
+        <v>776100</v>
+      </c>
+      <c r="K76" s="3">
         <v>900500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1132300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1473700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1876900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2273900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2514600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2619500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2997500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3268500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-2060900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-2055000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-4506300</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W76" s="3" t="s">
         <v>16</v>
       </c>
@@ -5171,8 +5357,11 @@
       <c r="Y76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-262900</v>
+        <v>24700</v>
       </c>
       <c r="E81" s="3">
-        <v>-255600</v>
+        <v>-260500</v>
       </c>
       <c r="F81" s="3">
-        <v>-206500</v>
+        <v>-253300</v>
       </c>
       <c r="G81" s="3">
-        <v>-187200</v>
+        <v>-204700</v>
       </c>
       <c r="H81" s="3">
-        <v>-228300</v>
+        <v>-185500</v>
       </c>
       <c r="I81" s="3">
-        <v>-173300</v>
+        <v>-226300</v>
       </c>
       <c r="J81" s="3">
+        <v>-171700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-212700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-450300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-384200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-575400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-355600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-275900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-504900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-439500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-294800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-98300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2198300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1737000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-248500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-267600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-410200</v>
       </c>
-      <c r="Y81" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5614,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5478,8 +5677,8 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>16</v>
+      <c r="W83" s="3">
+        <v>0</v>
       </c>
       <c r="X83" s="3" t="s">
         <v>16</v>
@@ -5487,8 +5686,11 @@
       <c r="Y83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,38 +6056,41 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-161400</v>
+        <v>-170400</v>
       </c>
       <c r="E89" s="3">
-        <v>-306600</v>
+        <v>-160000</v>
       </c>
       <c r="F89" s="3">
-        <v>-210100</v>
+        <v>-303800</v>
       </c>
       <c r="G89" s="3">
-        <v>-198900</v>
+        <v>-208200</v>
       </c>
       <c r="H89" s="3">
-        <v>-223900</v>
+        <v>-197100</v>
       </c>
       <c r="I89" s="3">
-        <v>-284300</v>
+        <v>-221900</v>
       </c>
       <c r="J89" s="3">
+        <v>-281700</v>
+      </c>
+      <c r="K89" s="3">
         <v>-200200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-94600</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>16</v>
       </c>
@@ -5886,8 +6103,8 @@
       <c r="P89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
+      <c r="Q89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R89" s="3">
         <v>0</v>
@@ -5904,8 +6121,8 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>16</v>
+      <c r="W89" s="3">
+        <v>0</v>
       </c>
       <c r="X89" s="3" t="s">
         <v>16</v>
@@ -5913,8 +6130,11 @@
       <c r="Y89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,31 +6160,32 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-7500</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -6002,8 +6223,8 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>16</v>
+      <c r="W91" s="3">
+        <v>0</v>
       </c>
       <c r="X91" s="3" t="s">
         <v>16</v>
@@ -6011,8 +6232,11 @@
       <c r="Y91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,38 +6380,41 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>309000</v>
+        <v>-9800</v>
       </c>
       <c r="E94" s="3">
-        <v>277800</v>
+        <v>306200</v>
       </c>
       <c r="F94" s="3">
-        <v>8600</v>
+        <v>275300</v>
       </c>
       <c r="G94" s="3">
-        <v>-409400</v>
+        <v>8500</v>
       </c>
       <c r="H94" s="3">
-        <v>41500</v>
+        <v>-405700</v>
       </c>
       <c r="I94" s="3">
-        <v>50500</v>
+        <v>41100</v>
       </c>
       <c r="J94" s="3">
+        <v>50100</v>
+      </c>
+      <c r="K94" s="3">
         <v>168600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-252000</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>16</v>
       </c>
@@ -6197,8 +6427,8 @@
       <c r="P94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -6215,8 +6445,8 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>16</v>
+      <c r="W94" s="3">
+        <v>0</v>
       </c>
       <c r="X94" s="3" t="s">
         <v>16</v>
@@ -6224,8 +6454,11 @@
       <c r="Y94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,38 +6778,41 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-772000</v>
+        <v>298900</v>
       </c>
       <c r="E100" s="3">
-        <v>127800</v>
+        <v>-765000</v>
       </c>
       <c r="F100" s="3">
-        <v>118000</v>
+        <v>126700</v>
       </c>
       <c r="G100" s="3">
-        <v>90000</v>
+        <v>117000</v>
       </c>
       <c r="H100" s="3">
-        <v>1236700</v>
+        <v>89200</v>
       </c>
       <c r="I100" s="3">
-        <v>35100</v>
+        <v>1225600</v>
       </c>
       <c r="J100" s="3">
+        <v>34800</v>
+      </c>
+      <c r="K100" s="3">
         <v>121200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-12400</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>16</v>
       </c>
@@ -6579,8 +6825,8 @@
       <c r="P100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
+      <c r="Q100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
@@ -6597,8 +6843,8 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>16</v>
+      <c r="W100" s="3">
+        <v>0</v>
       </c>
       <c r="X100" s="3" t="s">
         <v>16</v>
@@ -6606,38 +6852,41 @@
       <c r="Y100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-10900</v>
+        <v>-600</v>
       </c>
       <c r="E101" s="3">
-        <v>-3300</v>
+        <v>-10800</v>
       </c>
       <c r="F101" s="3">
-        <v>-13600</v>
+        <v>-3200</v>
       </c>
       <c r="G101" s="3">
-        <v>-4200</v>
+        <v>-13500</v>
       </c>
       <c r="H101" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="I101" s="3">
         <v>-4800</v>
       </c>
-      <c r="I101" s="3">
-        <v>-16700</v>
-      </c>
       <c r="J101" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="K101" s="3">
         <v>-1500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>10100</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M101" s="3" t="s">
         <v>16</v>
       </c>
@@ -6650,8 +6899,8 @@
       <c r="P101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
+      <c r="Q101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R101" s="3">
         <v>0</v>
@@ -6668,8 +6917,8 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-      <c r="W101" s="3" t="s">
-        <v>16</v>
+      <c r="W101" s="3">
+        <v>0</v>
       </c>
       <c r="X101" s="3" t="s">
         <v>16</v>
@@ -6677,38 +6926,41 @@
       <c r="Y101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-635300</v>
+        <v>118000</v>
       </c>
       <c r="E102" s="3">
-        <v>95700</v>
+        <v>-629500</v>
       </c>
       <c r="F102" s="3">
-        <v>-97100</v>
+        <v>94900</v>
       </c>
       <c r="G102" s="3">
-        <v>-522400</v>
+        <v>-96300</v>
       </c>
       <c r="H102" s="3">
-        <v>1049500</v>
+        <v>-517700</v>
       </c>
       <c r="I102" s="3">
-        <v>-215300</v>
+        <v>1040000</v>
       </c>
       <c r="J102" s="3">
+        <v>-213400</v>
+      </c>
+      <c r="K102" s="3">
         <v>88300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-348900</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>16</v>
       </c>
@@ -6721,8 +6973,8 @@
       <c r="P102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
+      <c r="Q102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R102" s="3">
         <v>0</v>
@@ -6739,13 +6991,16 @@
       <c r="V102" s="3">
         <v>0</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>16</v>
+      <c r="W102" s="3">
+        <v>0</v>
       </c>
       <c r="X102" s="3" t="s">
         <v>16</v>
       </c>
       <c r="Y102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IQ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
   <si>
     <t>IQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="4.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1062700</v>
+        <v>926600</v>
       </c>
       <c r="E8" s="3">
-        <v>1079000</v>
+        <v>1013000</v>
       </c>
       <c r="F8" s="3">
-        <v>1108200</v>
+        <v>1028500</v>
       </c>
       <c r="G8" s="3">
-        <v>1111000</v>
+        <v>1056400</v>
       </c>
       <c r="H8" s="3">
-        <v>1163600</v>
+        <v>1059100</v>
       </c>
       <c r="I8" s="3">
-        <v>1089100</v>
+        <v>1109200</v>
       </c>
       <c r="J8" s="3">
+        <v>1038200</v>
+      </c>
+      <c r="K8" s="3">
         <v>1049600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1092200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1197700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1154300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1154000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1086300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1063300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1020600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>967700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>863600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>699800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>691200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>734700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>642100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>477600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>458800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>473800</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>870900</v>
+        <v>730500</v>
       </c>
       <c r="E9" s="3">
-        <v>950300</v>
+        <v>830200</v>
       </c>
       <c r="F9" s="3">
-        <v>1026300</v>
+        <v>905900</v>
       </c>
       <c r="G9" s="3">
-        <v>1003100</v>
+        <v>978300</v>
       </c>
       <c r="H9" s="3">
-        <v>1038200</v>
+        <v>956100</v>
       </c>
       <c r="I9" s="3">
-        <v>990700</v>
+        <v>989600</v>
       </c>
       <c r="J9" s="3">
+        <v>944400</v>
+      </c>
+      <c r="K9" s="3">
         <v>929300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1007000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1237300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1218700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1275500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1066600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1107000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1237800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1071400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>854700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>695600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>650700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>726900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1304500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1035100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>453900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>456800</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>191800</v>
+        <v>196100</v>
       </c>
       <c r="E10" s="3">
-        <v>128700</v>
+        <v>182800</v>
       </c>
       <c r="F10" s="3">
-        <v>82000</v>
+        <v>122600</v>
       </c>
       <c r="G10" s="3">
-        <v>108000</v>
+        <v>78100</v>
       </c>
       <c r="H10" s="3">
-        <v>125400</v>
+        <v>102900</v>
       </c>
       <c r="I10" s="3">
-        <v>98400</v>
+        <v>119600</v>
       </c>
       <c r="J10" s="3">
+        <v>93800</v>
+      </c>
+      <c r="K10" s="3">
         <v>120400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>85200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-39600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-64300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-121500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>19700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-43700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-217200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-103700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>8900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>40500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>7800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>-662500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>-557500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>4900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,82 +1031,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>69400</v>
+        <v>67100</v>
       </c>
       <c r="E12" s="3">
-        <v>111400</v>
+        <v>66100</v>
       </c>
       <c r="F12" s="3">
-        <v>99700</v>
+        <v>106200</v>
       </c>
       <c r="G12" s="3">
-        <v>98800</v>
+        <v>95100</v>
       </c>
       <c r="H12" s="3">
-        <v>98200</v>
+        <v>94200</v>
       </c>
       <c r="I12" s="3">
-        <v>96900</v>
+        <v>93600</v>
       </c>
       <c r="J12" s="3">
+        <v>92300</v>
+      </c>
+      <c r="K12" s="3">
         <v>97800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>97900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>106200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>109500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>109700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>100000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>91000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>88200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>78100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>61800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>55600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>52300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>50800</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>87400</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>78200</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>35500</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>33400</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1240,8 +1260,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1049000</v>
+        <v>909100</v>
       </c>
       <c r="E17" s="3">
-        <v>1221400</v>
+        <v>1000000</v>
       </c>
       <c r="F17" s="3">
-        <v>1308000</v>
+        <v>1164200</v>
       </c>
       <c r="G17" s="3">
-        <v>1274900</v>
+        <v>1246800</v>
       </c>
       <c r="H17" s="3">
-        <v>1311700</v>
+        <v>1215200</v>
       </c>
       <c r="I17" s="3">
-        <v>1280000</v>
+        <v>1250400</v>
       </c>
       <c r="J17" s="3">
+        <v>1220200</v>
+      </c>
+      <c r="K17" s="3">
         <v>1226300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1281000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1548600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1543700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1595700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1372300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1371500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1503400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1330400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1049400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>852200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>814000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>893000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>789100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>628800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>569700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>557900</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>13600</v>
+        <v>17500</v>
       </c>
       <c r="E18" s="3">
-        <v>-142400</v>
+        <v>13000</v>
       </c>
       <c r="F18" s="3">
-        <v>-199800</v>
+        <v>-135700</v>
       </c>
       <c r="G18" s="3">
-        <v>-163800</v>
+        <v>-190400</v>
       </c>
       <c r="H18" s="3">
-        <v>-148100</v>
+        <v>-156200</v>
       </c>
       <c r="I18" s="3">
-        <v>-190900</v>
+        <v>-141200</v>
       </c>
       <c r="J18" s="3">
+        <v>-182000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-176600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-188900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-351000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-389400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-441800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-286000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-308200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-482800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-362700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-185900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-152400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-122800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-158300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-147000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-151200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-110900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-84100</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1515,82 +1548,86 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="E20" s="3">
+        <v>38000</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-59700</v>
+      </c>
+      <c r="G20" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H20" s="3">
+        <v>16200</v>
+      </c>
+      <c r="I20" s="3">
+        <v>15100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>3900</v>
+      </c>
+      <c r="K20" s="3">
+        <v>49100</v>
+      </c>
+      <c r="L20" s="3">
+        <v>18400</v>
+      </c>
+      <c r="M20" s="3">
+        <v>-57400</v>
+      </c>
+      <c r="N20" s="3">
+        <v>54200</v>
+      </c>
+      <c r="O20" s="3">
+        <v>-89300</v>
+      </c>
+      <c r="P20" s="3">
+        <v>-27300</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>52700</v>
+      </c>
+      <c r="R20" s="3">
+        <v>3800</v>
+      </c>
+      <c r="S20" s="3">
+        <v>-73300</v>
+      </c>
+      <c r="T20" s="3">
+        <v>-106200</v>
+      </c>
+      <c r="U20" s="3">
+        <v>96800</v>
+      </c>
+      <c r="V20" s="3">
         <v>39800</v>
       </c>
-      <c r="E20" s="3">
-        <v>-62600</v>
-      </c>
-      <c r="F20" s="3">
-        <v>3000</v>
-      </c>
-      <c r="G20" s="3">
-        <v>17000</v>
-      </c>
-      <c r="H20" s="3">
-        <v>15800</v>
-      </c>
-      <c r="I20" s="3">
-        <v>4100</v>
-      </c>
-      <c r="J20" s="3">
-        <v>49100</v>
-      </c>
-      <c r="K20" s="3">
-        <v>18400</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-57400</v>
-      </c>
-      <c r="M20" s="3">
-        <v>54200</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-89300</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-27300</v>
-      </c>
-      <c r="P20" s="3">
-        <v>52700</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>3800</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-73300</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-106200</v>
-      </c>
-      <c r="T20" s="3">
-        <v>96800</v>
-      </c>
-      <c r="U20" s="3">
-        <v>39800</v>
-      </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>2300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>17900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-20200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1645,233 +1682,242 @@
       <c r="T21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V21" s="3">
         <v>1174600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>835600</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z21" s="3">
         <v>598900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>443800</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>25600</v>
+        <v>25300</v>
       </c>
       <c r="E22" s="3">
-        <v>47400</v>
+        <v>24400</v>
       </c>
       <c r="F22" s="3">
-        <v>51300</v>
+        <v>45200</v>
       </c>
       <c r="G22" s="3">
-        <v>50100</v>
+        <v>48900</v>
       </c>
       <c r="H22" s="3">
-        <v>48300</v>
+        <v>47800</v>
       </c>
       <c r="I22" s="3">
+        <v>46000</v>
+      </c>
+      <c r="J22" s="3">
+        <v>37500</v>
+      </c>
+      <c r="K22" s="3">
         <v>39300</v>
       </c>
-      <c r="J22" s="3">
-        <v>39300</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>39100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>41000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>42600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>39700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>37900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>20600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>8900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>6300</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W22" s="3">
+      <c r="W22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X22" s="3">
         <v>12200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>9900</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>6100</v>
       </c>
-      <c r="Z22" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>27900</v>
+        <v>-23000</v>
       </c>
       <c r="E23" s="3">
-        <v>-252400</v>
+        <v>26600</v>
       </c>
       <c r="F23" s="3">
-        <v>-248000</v>
+        <v>-240600</v>
       </c>
       <c r="G23" s="3">
-        <v>-196900</v>
+        <v>-236400</v>
       </c>
       <c r="H23" s="3">
-        <v>-180600</v>
+        <v>-187700</v>
       </c>
       <c r="I23" s="3">
-        <v>-226100</v>
+        <v>-172100</v>
       </c>
       <c r="J23" s="3">
+        <v>-215500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-166900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-209600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-449400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-377800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-570700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-351100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-276100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-487900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-438200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-293400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-56900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-89300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-156000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-141400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-162700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-137200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-91300</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F24" s="3">
+        <v>5100</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H24" s="3">
+        <v>4200</v>
+      </c>
+      <c r="I24" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="K24" s="3">
+        <v>2800</v>
+      </c>
+      <c r="L24" s="3">
+        <v>2300</v>
+      </c>
+      <c r="M24" s="3">
+        <v>800</v>
+      </c>
+      <c r="N24" s="3">
+        <v>3500</v>
+      </c>
+      <c r="O24" s="3">
         <v>2500</v>
       </c>
-      <c r="E24" s="3">
-        <v>5300</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1300</v>
-      </c>
-      <c r="G24" s="3">
-        <v>4400</v>
-      </c>
-      <c r="H24" s="3">
-        <v>3000</v>
-      </c>
-      <c r="I24" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="J24" s="3">
-        <v>2800</v>
-      </c>
-      <c r="K24" s="3">
-        <v>2300</v>
-      </c>
-      <c r="L24" s="3">
-        <v>800</v>
-      </c>
-      <c r="M24" s="3">
-        <v>3500</v>
-      </c>
-      <c r="N24" s="3">
-        <v>2500</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>11500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-1400</v>
-      </c>
-      <c r="V24" s="3">
-        <v>100</v>
       </c>
       <c r="W24" s="3">
         <v>100</v>
@@ -1880,13 +1926,16 @@
         <v>100</v>
       </c>
       <c r="Y24" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z24" s="3">
         <v>600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>25400</v>
+        <v>-28000</v>
       </c>
       <c r="E26" s="3">
-        <v>-257800</v>
+        <v>24200</v>
       </c>
       <c r="F26" s="3">
-        <v>-249300</v>
+        <v>-245700</v>
       </c>
       <c r="G26" s="3">
-        <v>-201300</v>
+        <v>-237700</v>
       </c>
       <c r="H26" s="3">
-        <v>-183600</v>
+        <v>-191900</v>
       </c>
       <c r="I26" s="3">
-        <v>-223700</v>
+        <v>-175000</v>
       </c>
       <c r="J26" s="3">
+        <v>-213300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-169600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-212000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-450100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-381200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-573200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-352000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-277200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-499400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-437300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-294100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-56900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-87900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-156100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-141500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-162800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-137800</v>
       </c>
-      <c r="Z26" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>24700</v>
+        <v>-29800</v>
       </c>
       <c r="E27" s="3">
-        <v>-260500</v>
+        <v>23500</v>
       </c>
       <c r="F27" s="3">
-        <v>-253300</v>
+        <v>-248300</v>
       </c>
       <c r="G27" s="3">
-        <v>-204700</v>
+        <v>-241400</v>
       </c>
       <c r="H27" s="3">
-        <v>-185500</v>
+        <v>-195100</v>
       </c>
       <c r="I27" s="3">
-        <v>-226300</v>
+        <v>-176800</v>
       </c>
       <c r="J27" s="3">
+        <v>-215700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-171700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-212700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-450300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-384200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-575400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-355600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-275900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-504900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-439500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-294800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-98300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2198300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1737000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-248500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-267600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-410200</v>
       </c>
-      <c r="Z27" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="F32" s="3">
+        <v>59700</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-49100</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="M32" s="3">
+        <v>57400</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-54200</v>
+      </c>
+      <c r="O32" s="3">
+        <v>89300</v>
+      </c>
+      <c r="P32" s="3">
+        <v>27300</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>-52700</v>
+      </c>
+      <c r="R32" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="S32" s="3">
+        <v>73300</v>
+      </c>
+      <c r="T32" s="3">
+        <v>106200</v>
+      </c>
+      <c r="U32" s="3">
+        <v>-96800</v>
+      </c>
+      <c r="V32" s="3">
         <v>-39800</v>
       </c>
-      <c r="E32" s="3">
-        <v>62600</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-17000</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-15800</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-49100</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-18400</v>
-      </c>
-      <c r="L32" s="3">
-        <v>57400</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-54200</v>
-      </c>
-      <c r="N32" s="3">
-        <v>89300</v>
-      </c>
-      <c r="O32" s="3">
-        <v>27300</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-52700</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-3800</v>
-      </c>
-      <c r="R32" s="3">
-        <v>73300</v>
-      </c>
-      <c r="S32" s="3">
-        <v>106200</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-96800</v>
-      </c>
-      <c r="U32" s="3">
-        <v>-39800</v>
-      </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-2300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-17900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>1600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>20200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>24700</v>
+        <v>-29800</v>
       </c>
       <c r="E33" s="3">
-        <v>-260500</v>
+        <v>23500</v>
       </c>
       <c r="F33" s="3">
-        <v>-253300</v>
+        <v>-248300</v>
       </c>
       <c r="G33" s="3">
-        <v>-204700</v>
+        <v>-241400</v>
       </c>
       <c r="H33" s="3">
-        <v>-185500</v>
+        <v>-195100</v>
       </c>
       <c r="I33" s="3">
-        <v>-226300</v>
+        <v>-176800</v>
       </c>
       <c r="J33" s="3">
+        <v>-215700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-171700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-212700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-450300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-384200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-575400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-355600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-275900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-504900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-439500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-294800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-98300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2198300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1737000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-248500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-267600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-410200</v>
       </c>
-      <c r="Z33" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>24700</v>
+        <v>-29800</v>
       </c>
       <c r="E35" s="3">
-        <v>-260500</v>
+        <v>23500</v>
       </c>
       <c r="F35" s="3">
-        <v>-253300</v>
+        <v>-248300</v>
       </c>
       <c r="G35" s="3">
-        <v>-204700</v>
+        <v>-241400</v>
       </c>
       <c r="H35" s="3">
-        <v>-185500</v>
+        <v>-195100</v>
       </c>
       <c r="I35" s="3">
-        <v>-226300</v>
+        <v>-176800</v>
       </c>
       <c r="J35" s="3">
+        <v>-215700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-171700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-212700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-450300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-384200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-575400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-355600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-275900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-504900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-439500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-294800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-98300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2198300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1737000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-248500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-267600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-410200</v>
       </c>
-      <c r="Z35" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,71 +2920,72 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>556600</v>
+        <v>406900</v>
       </c>
       <c r="E41" s="3">
-        <v>437700</v>
+        <v>530500</v>
       </c>
       <c r="F41" s="3">
-        <v>1065500</v>
+        <v>417200</v>
       </c>
       <c r="G41" s="3">
-        <v>976200</v>
+        <v>1015600</v>
       </c>
       <c r="H41" s="3">
-        <v>1073700</v>
+        <v>930500</v>
       </c>
       <c r="I41" s="3">
-        <v>1594000</v>
+        <v>1023500</v>
       </c>
       <c r="J41" s="3">
+        <v>1519400</v>
+      </c>
+      <c r="K41" s="3">
         <v>461900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>630800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>578200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>913800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>702900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>829200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1806300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>666100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>816200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1159100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>57900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>105200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>176500</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2908,71 +2995,74 @@
       <c r="Z41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>187300</v>
+        <v>263200</v>
       </c>
       <c r="E42" s="3">
-        <v>196900</v>
+        <v>178500</v>
       </c>
       <c r="F42" s="3">
-        <v>534700</v>
+        <v>187700</v>
       </c>
       <c r="G42" s="3">
-        <v>807000</v>
+        <v>509700</v>
       </c>
       <c r="H42" s="3">
-        <v>863700</v>
+        <v>769300</v>
       </c>
       <c r="I42" s="3">
-        <v>490400</v>
+        <v>823300</v>
       </c>
       <c r="J42" s="3">
+        <v>467500</v>
+      </c>
+      <c r="K42" s="3">
         <v>526300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>618400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>823300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>705100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1067400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1347200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>591100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>880400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>538000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>665100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>70700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>111900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>497500</v>
       </c>
-      <c r="W42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2982,71 +3072,74 @@
       <c r="Z42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>410600</v>
+        <v>359500</v>
       </c>
       <c r="E43" s="3">
-        <v>424000</v>
+        <v>391400</v>
       </c>
       <c r="F43" s="3">
-        <v>461100</v>
+        <v>404100</v>
       </c>
       <c r="G43" s="3">
-        <v>486900</v>
+        <v>439500</v>
       </c>
       <c r="H43" s="3">
-        <v>519100</v>
+        <v>464100</v>
       </c>
       <c r="I43" s="3">
-        <v>502400</v>
+        <v>494800</v>
       </c>
       <c r="J43" s="3">
+        <v>478900</v>
+      </c>
+      <c r="K43" s="3">
         <v>500900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>503700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>717100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>591200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>514100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>513100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>535000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>460500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>452200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>350200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>420800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>322200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>693700</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X43" s="3" t="s">
         <v>16</v>
       </c>
@@ -3056,71 +3149,74 @@
       <c r="Z43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>132900</v>
+        <v>110800</v>
       </c>
       <c r="E44" s="3">
-        <v>136000</v>
+        <v>126700</v>
       </c>
       <c r="F44" s="3">
-        <v>160200</v>
+        <v>129600</v>
       </c>
       <c r="G44" s="3">
-        <v>130000</v>
+        <v>152700</v>
       </c>
       <c r="H44" s="3">
-        <v>150700</v>
+        <v>123900</v>
       </c>
       <c r="I44" s="3">
-        <v>151200</v>
+        <v>143600</v>
       </c>
       <c r="J44" s="3">
+        <v>144100</v>
+      </c>
+      <c r="K44" s="3">
         <v>182200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>174500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>224300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>188600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>206500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>179700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>191900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>169000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>147200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>162900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>172400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>117500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>110300</v>
       </c>
-      <c r="W44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X44" s="3" t="s">
         <v>16</v>
       </c>
@@ -3130,71 +3226,74 @@
       <c r="Z44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>403200</v>
+        <v>309100</v>
       </c>
       <c r="E45" s="3">
-        <v>488300</v>
+        <v>384300</v>
       </c>
       <c r="F45" s="3">
-        <v>555700</v>
+        <v>465500</v>
       </c>
       <c r="G45" s="3">
-        <v>598800</v>
+        <v>529700</v>
       </c>
       <c r="H45" s="3">
-        <v>627100</v>
+        <v>570800</v>
       </c>
       <c r="I45" s="3">
-        <v>517100</v>
+        <v>597800</v>
       </c>
       <c r="J45" s="3">
+        <v>492900</v>
+      </c>
+      <c r="K45" s="3">
         <v>601500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>679700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>690600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>722800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1031300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>926000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>772700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>707300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>430500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>377800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>145500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>161200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>137200</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X45" s="3" t="s">
         <v>16</v>
       </c>
@@ -3204,71 +3303,74 @@
       <c r="Z45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1690500</v>
+        <v>1449500</v>
       </c>
       <c r="E46" s="3">
-        <v>1682900</v>
+        <v>1611500</v>
       </c>
       <c r="F46" s="3">
-        <v>2777100</v>
+        <v>1604200</v>
       </c>
       <c r="G46" s="3">
-        <v>2999000</v>
+        <v>2647200</v>
       </c>
       <c r="H46" s="3">
-        <v>3234300</v>
+        <v>2858700</v>
       </c>
       <c r="I46" s="3">
-        <v>3255100</v>
+        <v>3083100</v>
       </c>
       <c r="J46" s="3">
+        <v>3102800</v>
+      </c>
+      <c r="K46" s="3">
         <v>2272700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2607100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3033400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3121600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3522200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3795200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3897100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2883300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2384200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2715100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>867300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>817900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1615200</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X46" s="3" t="s">
         <v>16</v>
       </c>
@@ -3278,71 +3380,74 @@
       <c r="Z46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>478600</v>
+        <v>449000</v>
       </c>
       <c r="E47" s="3">
-        <v>455100</v>
+        <v>456200</v>
       </c>
       <c r="F47" s="3">
-        <v>513500</v>
+        <v>433800</v>
       </c>
       <c r="G47" s="3">
-        <v>511700</v>
+        <v>489500</v>
       </c>
       <c r="H47" s="3">
-        <v>509800</v>
+        <v>487700</v>
       </c>
       <c r="I47" s="3">
-        <v>473500</v>
+        <v>485900</v>
       </c>
       <c r="J47" s="3">
+        <v>451300</v>
+      </c>
+      <c r="K47" s="3">
         <v>577200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>579900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>580200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>485700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>480400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>413700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>400600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>381200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>322800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>173900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>170000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>81500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>59000</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X47" s="3" t="s">
         <v>16</v>
       </c>
@@ -3352,71 +3457,74 @@
       <c r="Z47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>320300</v>
+        <v>292400</v>
       </c>
       <c r="E48" s="3">
-        <v>328900</v>
+        <v>305400</v>
       </c>
       <c r="F48" s="3">
-        <v>329400</v>
+        <v>313500</v>
       </c>
       <c r="G48" s="3">
-        <v>351000</v>
+        <v>314000</v>
       </c>
       <c r="H48" s="3">
-        <v>339300</v>
+        <v>334600</v>
       </c>
       <c r="I48" s="3">
-        <v>349800</v>
+        <v>323500</v>
       </c>
       <c r="J48" s="3">
+        <v>333400</v>
+      </c>
+      <c r="K48" s="3">
         <v>360000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>408400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>402000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>381400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>369600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>358100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>265700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>235000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>206500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>196600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>189200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>179200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>179600</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X48" s="3" t="s">
         <v>16</v>
       </c>
@@ -3426,71 +3534,74 @@
       <c r="Z48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3431200</v>
+        <v>3295800</v>
       </c>
       <c r="E49" s="3">
-        <v>3306500</v>
+        <v>3270800</v>
       </c>
       <c r="F49" s="3">
-        <v>3116600</v>
+        <v>3151900</v>
       </c>
       <c r="G49" s="3">
-        <v>2902100</v>
+        <v>2970800</v>
       </c>
       <c r="H49" s="3">
-        <v>2671200</v>
+        <v>2766400</v>
       </c>
       <c r="I49" s="3">
-        <v>2556500</v>
+        <v>2546200</v>
       </c>
       <c r="J49" s="3">
+        <v>2436900</v>
+      </c>
+      <c r="K49" s="3">
         <v>2355300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2174600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2369400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2362800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2601800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2423100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2432100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2315500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2285000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1858100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1623800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1409900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1221500</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X49" s="3" t="s">
         <v>16</v>
       </c>
@@ -3500,8 +3611,11 @@
       <c r="Z49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,71 +3765,74 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>444300</v>
+        <v>441900</v>
       </c>
       <c r="E52" s="3">
-        <v>428900</v>
+        <v>423500</v>
       </c>
       <c r="F52" s="3">
-        <v>462200</v>
+        <v>408800</v>
       </c>
       <c r="G52" s="3">
-        <v>379500</v>
+        <v>440600</v>
       </c>
       <c r="H52" s="3">
-        <v>399100</v>
+        <v>361800</v>
       </c>
       <c r="I52" s="3">
-        <v>401700</v>
+        <v>380400</v>
       </c>
       <c r="J52" s="3">
+        <v>382900</v>
+      </c>
+      <c r="K52" s="3">
         <v>405700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>460100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>431800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>545600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>562800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>686200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>787200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>685500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>570200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>530500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>439700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>409900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>378500</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X52" s="3" t="s">
         <v>16</v>
       </c>
@@ -3722,8 +3842,11 @@
       <c r="Z52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,71 +3919,74 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6365000</v>
+        <v>5928500</v>
       </c>
       <c r="E54" s="3">
-        <v>6202200</v>
+        <v>6067300</v>
       </c>
       <c r="F54" s="3">
-        <v>7198800</v>
+        <v>5912100</v>
       </c>
       <c r="G54" s="3">
-        <v>7143200</v>
+        <v>6862100</v>
       </c>
       <c r="H54" s="3">
-        <v>7153700</v>
+        <v>6809100</v>
       </c>
       <c r="I54" s="3">
-        <v>7036500</v>
+        <v>6819100</v>
       </c>
       <c r="J54" s="3">
+        <v>6707400</v>
+      </c>
+      <c r="K54" s="3">
         <v>5970900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6230000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6816800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6897200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7536800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7676300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7782700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6500500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5768700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5474100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3289900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2898400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3453700</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X54" s="3" t="s">
         <v>16</v>
       </c>
@@ -3870,8 +3996,11 @@
       <c r="Z54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,71 +4056,72 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1025400</v>
+        <v>878500</v>
       </c>
       <c r="E57" s="3">
-        <v>1299200</v>
+        <v>977500</v>
       </c>
       <c r="F57" s="3">
-        <v>1333000</v>
+        <v>1238400</v>
       </c>
       <c r="G57" s="3">
-        <v>1201500</v>
+        <v>1270600</v>
       </c>
       <c r="H57" s="3">
-        <v>1096500</v>
+        <v>1145300</v>
       </c>
       <c r="I57" s="3">
-        <v>1104200</v>
+        <v>1045200</v>
       </c>
       <c r="J57" s="3">
+        <v>1052600</v>
+      </c>
+      <c r="K57" s="3">
         <v>1088800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1133500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1304000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1264600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1574100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1464200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1574600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1475900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1458800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1269100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1252000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1010300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1035600</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X57" s="3" t="s">
         <v>16</v>
       </c>
@@ -4000,71 +4131,74 @@
       <c r="Z57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>641300</v>
+        <v>1681100</v>
       </c>
       <c r="E58" s="3">
+        <v>611300</v>
+      </c>
+      <c r="F58" s="3">
+        <v>573200</v>
+      </c>
+      <c r="G58" s="3">
+        <v>1316100</v>
+      </c>
+      <c r="H58" s="3">
+        <v>1211200</v>
+      </c>
+      <c r="I58" s="3">
+        <v>1102100</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1200900</v>
+      </c>
+      <c r="K58" s="3">
+        <v>662600</v>
+      </c>
+      <c r="L58" s="3">
         <v>601300</v>
       </c>
-      <c r="F58" s="3">
-        <v>1380700</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1270600</v>
-      </c>
-      <c r="H58" s="3">
-        <v>1156200</v>
-      </c>
-      <c r="I58" s="3">
-        <v>1259800</v>
-      </c>
-      <c r="J58" s="3">
-        <v>662600</v>
-      </c>
-      <c r="K58" s="3">
-        <v>601300</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>519500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>516600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>604300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>667800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>557600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>454600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>165500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>89900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>58400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>44400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1232000</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X58" s="3" t="s">
         <v>16</v>
       </c>
@@ -4074,71 +4208,74 @@
       <c r="Z58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1470000</v>
+        <v>1359900</v>
       </c>
       <c r="E59" s="3">
-        <v>1381800</v>
+        <v>1401200</v>
       </c>
       <c r="F59" s="3">
-        <v>1367400</v>
+        <v>1317100</v>
       </c>
       <c r="G59" s="3">
-        <v>1357900</v>
+        <v>1303500</v>
       </c>
       <c r="H59" s="3">
-        <v>1422400</v>
+        <v>1294400</v>
       </c>
       <c r="I59" s="3">
-        <v>1265500</v>
+        <v>1355800</v>
       </c>
       <c r="J59" s="3">
+        <v>1206300</v>
+      </c>
+      <c r="K59" s="3">
         <v>1242700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1281200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1445100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1325100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1178200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1144200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1013800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>946900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>887200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>710200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>619500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>613400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1325600</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X59" s="3" t="s">
         <v>16</v>
       </c>
@@ -4148,71 +4285,74 @@
       <c r="Z59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3136700</v>
+        <v>3919500</v>
       </c>
       <c r="E60" s="3">
-        <v>3282200</v>
+        <v>2990000</v>
       </c>
       <c r="F60" s="3">
-        <v>4081100</v>
+        <v>3128700</v>
       </c>
       <c r="G60" s="3">
-        <v>3830000</v>
+        <v>3890200</v>
       </c>
       <c r="H60" s="3">
-        <v>3675000</v>
+        <v>3650900</v>
       </c>
       <c r="I60" s="3">
-        <v>3629500</v>
+        <v>3503200</v>
       </c>
       <c r="J60" s="3">
+        <v>3459800</v>
+      </c>
+      <c r="K60" s="3">
         <v>2994100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3016000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3268600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3106300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3356700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3276200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3146000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2877300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2511500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2069200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1929900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1668000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3593200</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X60" s="3" t="s">
         <v>16</v>
       </c>
@@ -4222,71 +4362,74 @@
       <c r="Z60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1933300</v>
+        <v>833900</v>
       </c>
       <c r="E61" s="3">
-        <v>1847600</v>
+        <v>1842900</v>
       </c>
       <c r="F61" s="3">
-        <v>1850400</v>
+        <v>1761200</v>
       </c>
       <c r="G61" s="3">
-        <v>1838800</v>
+        <v>1763900</v>
       </c>
       <c r="H61" s="3">
-        <v>1850200</v>
+        <v>1752800</v>
       </c>
       <c r="I61" s="3">
-        <v>1741700</v>
+        <v>1763700</v>
       </c>
       <c r="J61" s="3">
+        <v>1660200</v>
+      </c>
+      <c r="K61" s="3">
         <v>1889000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2001200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2112200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2029000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2057800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1879700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1856600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>777900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>38300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>39000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>40000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>40700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>42100</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
@@ -4296,71 +4439,74 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>287200</v>
+        <v>289200</v>
       </c>
       <c r="E62" s="3">
-        <v>243900</v>
+        <v>273800</v>
       </c>
       <c r="F62" s="3">
-        <v>238900</v>
+        <v>232500</v>
       </c>
       <c r="G62" s="3">
-        <v>257400</v>
+        <v>227700</v>
       </c>
       <c r="H62" s="3">
-        <v>271300</v>
+        <v>245300</v>
       </c>
       <c r="I62" s="3">
-        <v>286200</v>
+        <v>258600</v>
       </c>
       <c r="J62" s="3">
+        <v>272800</v>
+      </c>
+      <c r="K62" s="3">
         <v>288000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>290300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>281500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>266000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>220700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>225900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>248700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>208500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>210000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>97000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>96100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1100</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X62" s="3" t="s">
         <v>16</v>
       </c>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,71 +4747,74 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5367200</v>
+        <v>5055400</v>
       </c>
       <c r="E66" s="3">
-        <v>5444700</v>
+        <v>5116100</v>
       </c>
       <c r="F66" s="3">
-        <v>6236800</v>
+        <v>5190000</v>
       </c>
       <c r="G66" s="3">
-        <v>5971700</v>
+        <v>5945100</v>
       </c>
       <c r="H66" s="3">
-        <v>5839800</v>
+        <v>5692400</v>
       </c>
       <c r="I66" s="3">
-        <v>5684800</v>
+        <v>5566700</v>
       </c>
       <c r="J66" s="3">
+        <v>5418900</v>
+      </c>
+      <c r="K66" s="3">
         <v>5194800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5329500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5684500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5423400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5659900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5402400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5268100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3880900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2771200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2205600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2066400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1710600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3636400</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X66" s="3" t="s">
         <v>16</v>
       </c>
@@ -4666,8 +4824,11 @@
       <c r="Z66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4896,17 +5064,17 @@
         <v>0</v>
       </c>
       <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
         <v>3284400</v>
       </c>
-      <c r="U70" s="3">
+      <c r="V70" s="3">
         <v>3242900</v>
       </c>
-      <c r="V70" s="3">
+      <c r="W70" s="3">
         <v>4323600</v>
       </c>
-      <c r="W70" s="3">
-        <v>0</v>
-      </c>
       <c r="X70" s="3">
         <v>0</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,71 +5161,74 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-6745700</v>
+        <v>-6459900</v>
       </c>
       <c r="E72" s="3">
-        <v>-6887300</v>
+        <v>-6430100</v>
       </c>
       <c r="F72" s="3">
-        <v>-6626800</v>
+        <v>-6565200</v>
       </c>
       <c r="G72" s="3">
-        <v>-6373600</v>
+        <v>-6316900</v>
       </c>
       <c r="H72" s="3">
-        <v>-6168900</v>
+        <v>-6075500</v>
       </c>
       <c r="I72" s="3">
-        <v>-5983400</v>
+        <v>-5880400</v>
       </c>
       <c r="J72" s="3">
+        <v>-5703600</v>
+      </c>
+      <c r="K72" s="3">
         <v>-5757100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-5636300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-5750400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-5209800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4889200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4224500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3852200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3414300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2796700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-2357100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-2130900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-2154600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-4631600</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X72" s="3" t="s">
         <v>16</v>
       </c>
@@ -5064,8 +5238,11 @@
       <c r="Z72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,71 +5469,74 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>997800</v>
+        <v>873100</v>
       </c>
       <c r="E76" s="3">
-        <v>757500</v>
+        <v>951200</v>
       </c>
       <c r="F76" s="3">
-        <v>962000</v>
+        <v>722100</v>
       </c>
       <c r="G76" s="3">
-        <v>1171500</v>
+        <v>917000</v>
       </c>
       <c r="H76" s="3">
-        <v>1313900</v>
+        <v>1116700</v>
       </c>
       <c r="I76" s="3">
-        <v>1351700</v>
+        <v>1252400</v>
       </c>
       <c r="J76" s="3">
+        <v>1288500</v>
+      </c>
+      <c r="K76" s="3">
         <v>776100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>900500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1132300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1473700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1876900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2273900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2514600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2619500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2997500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3268500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-2060900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-2055000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-4506300</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X76" s="3" t="s">
         <v>16</v>
       </c>
@@ -5360,8 +5546,11 @@
       <c r="Z76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>24700</v>
+        <v>-29800</v>
       </c>
       <c r="E81" s="3">
-        <v>-260500</v>
+        <v>23500</v>
       </c>
       <c r="F81" s="3">
-        <v>-253300</v>
+        <v>-248300</v>
       </c>
       <c r="G81" s="3">
-        <v>-204700</v>
+        <v>-241400</v>
       </c>
       <c r="H81" s="3">
-        <v>-185500</v>
+        <v>-195100</v>
       </c>
       <c r="I81" s="3">
-        <v>-226300</v>
+        <v>-176800</v>
       </c>
       <c r="J81" s="3">
+        <v>-215700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-171700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-212700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-450300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-384200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-575400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-355600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-275900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-504900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-439500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-294800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-98300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2198300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1737000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-248500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-267600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-410200</v>
       </c>
-      <c r="Z81" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5680,8 +5879,8 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>16</v>
+      <c r="X83" s="3">
+        <v>0</v>
       </c>
       <c r="Y83" s="3" t="s">
         <v>16</v>
@@ -5689,8 +5888,11 @@
       <c r="Z83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,41 +6273,44 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-170400</v>
+        <v>6600</v>
       </c>
       <c r="E89" s="3">
-        <v>-160000</v>
+        <v>-162500</v>
       </c>
       <c r="F89" s="3">
-        <v>-303800</v>
+        <v>-152500</v>
       </c>
       <c r="G89" s="3">
-        <v>-208200</v>
+        <v>-289600</v>
       </c>
       <c r="H89" s="3">
-        <v>-197100</v>
+        <v>-198500</v>
       </c>
       <c r="I89" s="3">
-        <v>-221900</v>
+        <v>-187900</v>
       </c>
       <c r="J89" s="3">
+        <v>-211500</v>
+      </c>
+      <c r="K89" s="3">
         <v>-281700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-94600</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>16</v>
       </c>
@@ -6106,8 +6323,8 @@
       <c r="Q89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
+      <c r="R89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S89" s="3">
         <v>0</v>
@@ -6124,8 +6341,8 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>16</v>
+      <c r="X89" s="3">
+        <v>0</v>
       </c>
       <c r="Y89" s="3" t="s">
         <v>16</v>
@@ -6133,8 +6350,11 @@
       <c r="Z89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,16 +6381,17 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-7500</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>16</v>
+        <v>-9200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-7100</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>16</v>
@@ -6187,8 +6408,8 @@
       <c r="J91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -6226,8 +6447,8 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>16</v>
+      <c r="X91" s="3">
+        <v>0</v>
       </c>
       <c r="Y91" s="3" t="s">
         <v>16</v>
@@ -6235,8 +6456,11 @@
       <c r="Z91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,41 +6610,44 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-9800</v>
+        <v>-90800</v>
       </c>
       <c r="E94" s="3">
-        <v>306200</v>
+        <v>-9400</v>
       </c>
       <c r="F94" s="3">
-        <v>275300</v>
+        <v>291900</v>
       </c>
       <c r="G94" s="3">
-        <v>8500</v>
+        <v>262400</v>
       </c>
       <c r="H94" s="3">
-        <v>-405700</v>
+        <v>8100</v>
       </c>
       <c r="I94" s="3">
-        <v>41100</v>
+        <v>-386700</v>
       </c>
       <c r="J94" s="3">
+        <v>39200</v>
+      </c>
+      <c r="K94" s="3">
         <v>50100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>168600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-252000</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>16</v>
       </c>
@@ -6430,8 +6660,8 @@
       <c r="Q94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
@@ -6448,8 +6678,8 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>16</v>
+      <c r="X94" s="3">
+        <v>0</v>
       </c>
       <c r="Y94" s="3" t="s">
         <v>16</v>
@@ -6457,8 +6687,11 @@
       <c r="Z94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,41 +7024,44 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>298900</v>
+        <v>-46400</v>
       </c>
       <c r="E100" s="3">
-        <v>-765000</v>
+        <v>284900</v>
       </c>
       <c r="F100" s="3">
-        <v>126700</v>
+        <v>-729300</v>
       </c>
       <c r="G100" s="3">
-        <v>117000</v>
+        <v>120700</v>
       </c>
       <c r="H100" s="3">
-        <v>89200</v>
+        <v>111500</v>
       </c>
       <c r="I100" s="3">
-        <v>1225600</v>
+        <v>85000</v>
       </c>
       <c r="J100" s="3">
+        <v>1168200</v>
+      </c>
+      <c r="K100" s="3">
         <v>34800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>121200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-12400</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>16</v>
       </c>
@@ -6828,8 +7074,8 @@
       <c r="Q100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
+      <c r="R100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
@@ -6846,8 +7092,8 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>16</v>
+      <c r="X100" s="3">
+        <v>0</v>
       </c>
       <c r="Y100" s="3" t="s">
         <v>16</v>
@@ -6855,41 +7101,44 @@
       <c r="Z100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-600</v>
       </c>
-      <c r="E101" s="3">
-        <v>-10800</v>
-      </c>
       <c r="F101" s="3">
-        <v>-3200</v>
+        <v>-10300</v>
       </c>
       <c r="G101" s="3">
-        <v>-13500</v>
+        <v>-3100</v>
       </c>
       <c r="H101" s="3">
-        <v>-4100</v>
+        <v>-12900</v>
       </c>
       <c r="I101" s="3">
-        <v>-4800</v>
+        <v>-3900</v>
       </c>
       <c r="J101" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="K101" s="3">
         <v>-16500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>10100</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N101" s="3" t="s">
         <v>16</v>
       </c>
@@ -6902,8 +7151,8 @@
       <c r="Q101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
+      <c r="R101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S101" s="3">
         <v>0</v>
@@ -6920,8 +7169,8 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-      <c r="X101" s="3" t="s">
-        <v>16</v>
+      <c r="X101" s="3">
+        <v>0</v>
       </c>
       <c r="Y101" s="3" t="s">
         <v>16</v>
@@ -6929,41 +7178,44 @@
       <c r="Z101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>118000</v>
+        <v>-120200</v>
       </c>
       <c r="E102" s="3">
-        <v>-629500</v>
+        <v>112500</v>
       </c>
       <c r="F102" s="3">
-        <v>94900</v>
+        <v>-600100</v>
       </c>
       <c r="G102" s="3">
-        <v>-96300</v>
+        <v>90400</v>
       </c>
       <c r="H102" s="3">
-        <v>-517700</v>
+        <v>-91800</v>
       </c>
       <c r="I102" s="3">
-        <v>1040000</v>
+        <v>-493500</v>
       </c>
       <c r="J102" s="3">
+        <v>991300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-213400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>88300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-348900</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>16</v>
       </c>
@@ -6976,8 +7228,8 @@
       <c r="Q102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
+      <c r="R102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S102" s="3">
         <v>0</v>
@@ -6994,13 +7246,16 @@
       <c r="W102" s="3">
         <v>0</v>
       </c>
-      <c r="X102" s="3" t="s">
-        <v>16</v>
+      <c r="X102" s="3">
+        <v>0</v>
       </c>
       <c r="Y102" s="3" t="s">
         <v>16</v>
       </c>
       <c r="Z102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IQ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="92">
   <si>
     <t>IQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,371 @@
     <col min="1" max="1" width="4.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>926600</v>
+        <v>1090500</v>
       </c>
       <c r="E8" s="3">
-        <v>1013000</v>
+        <v>1073000</v>
       </c>
       <c r="F8" s="3">
-        <v>1028500</v>
+        <v>956000</v>
       </c>
       <c r="G8" s="3">
-        <v>1056400</v>
+        <v>1045100</v>
       </c>
       <c r="H8" s="3">
-        <v>1059100</v>
+        <v>1061200</v>
       </c>
       <c r="I8" s="3">
+        <v>1089900</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1092700</v>
+      </c>
+      <c r="K8" s="3">
         <v>1109200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1038200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1049600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1092200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1197700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1154300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1154000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1086300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1063300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1020600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>967700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>863600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>699800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>691200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>734700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>642100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>477600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>458800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>473800</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>730500</v>
+        <v>775900</v>
       </c>
       <c r="E9" s="3">
-        <v>830200</v>
+        <v>819400</v>
       </c>
       <c r="F9" s="3">
-        <v>905900</v>
+        <v>753700</v>
       </c>
       <c r="G9" s="3">
-        <v>978300</v>
+        <v>856500</v>
       </c>
       <c r="H9" s="3">
-        <v>956100</v>
+        <v>934600</v>
       </c>
       <c r="I9" s="3">
+        <v>1009300</v>
+      </c>
+      <c r="J9" s="3">
+        <v>986500</v>
+      </c>
+      <c r="K9" s="3">
         <v>989600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>944400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>929300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1007000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1237300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1218700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1275500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1066600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>1107000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>1237800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>1071400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>854700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>695600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>650700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>726900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>1304500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>1035100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>453900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>456800</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>196100</v>
+        <v>314600</v>
       </c>
       <c r="E10" s="3">
-        <v>182800</v>
+        <v>253600</v>
       </c>
       <c r="F10" s="3">
-        <v>122600</v>
+        <v>202300</v>
       </c>
       <c r="G10" s="3">
-        <v>78100</v>
+        <v>188600</v>
       </c>
       <c r="H10" s="3">
-        <v>102900</v>
+        <v>126500</v>
       </c>
       <c r="I10" s="3">
+        <v>80600</v>
+      </c>
+      <c r="J10" s="3">
+        <v>106200</v>
+      </c>
+      <c r="K10" s="3">
         <v>119600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>93800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>120400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>85200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>-39600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>-64300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>-121500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>19700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>-43700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>-217200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>-103700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>8900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>4200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>40500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>7800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>-662500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>-557500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>4900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,85 +1057,93 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>67100</v>
+        <v>66900</v>
       </c>
       <c r="E12" s="3">
-        <v>66100</v>
+        <v>68300</v>
       </c>
       <c r="F12" s="3">
+        <v>69300</v>
+      </c>
+      <c r="G12" s="3">
+        <v>68200</v>
+      </c>
+      <c r="H12" s="3">
+        <v>109600</v>
+      </c>
+      <c r="I12" s="3">
+        <v>98100</v>
+      </c>
+      <c r="J12" s="3">
+        <v>97200</v>
+      </c>
+      <c r="K12" s="3">
+        <v>93600</v>
+      </c>
+      <c r="L12" s="3">
+        <v>92300</v>
+      </c>
+      <c r="M12" s="3">
+        <v>97800</v>
+      </c>
+      <c r="N12" s="3">
+        <v>97900</v>
+      </c>
+      <c r="O12" s="3">
         <v>106200</v>
       </c>
-      <c r="G12" s="3">
-        <v>95100</v>
-      </c>
-      <c r="H12" s="3">
-        <v>94200</v>
-      </c>
-      <c r="I12" s="3">
-        <v>93600</v>
-      </c>
-      <c r="J12" s="3">
-        <v>92300</v>
-      </c>
-      <c r="K12" s="3">
-        <v>97800</v>
-      </c>
-      <c r="L12" s="3">
-        <v>97900</v>
-      </c>
-      <c r="M12" s="3">
-        <v>106200</v>
-      </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>109500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>109700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>100000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>91000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>88200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>78100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>61800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>55600</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>52300</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>50800</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>87400</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>78200</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AB12" s="3">
         <v>35500</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AC12" s="3">
         <v>33400</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1186,8 +1219,14 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1263,8 +1302,14 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1340,8 +1385,14 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1417,176 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>909100</v>
+        <v>978000</v>
       </c>
       <c r="E17" s="3">
-        <v>1000000</v>
+        <v>1028500</v>
       </c>
       <c r="F17" s="3">
-        <v>1164200</v>
+        <v>937900</v>
       </c>
       <c r="G17" s="3">
-        <v>1246800</v>
+        <v>1031700</v>
       </c>
       <c r="H17" s="3">
-        <v>1215200</v>
+        <v>1201200</v>
       </c>
       <c r="I17" s="3">
+        <v>1286400</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1253800</v>
+      </c>
+      <c r="K17" s="3">
         <v>1250400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1220200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1226300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1281000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1548600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1543700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1595700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1372300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1371500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1503400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1330400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1049400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>852200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>814000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>893000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>789100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>628800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>569700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>557900</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>17500</v>
+        <v>112500</v>
       </c>
       <c r="E18" s="3">
-        <v>13000</v>
+        <v>44500</v>
       </c>
       <c r="F18" s="3">
-        <v>-135700</v>
+        <v>18100</v>
       </c>
       <c r="G18" s="3">
-        <v>-190400</v>
+        <v>13400</v>
       </c>
       <c r="H18" s="3">
-        <v>-156200</v>
+        <v>-140100</v>
       </c>
       <c r="I18" s="3">
+        <v>-196500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-161100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-141200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-182000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-176600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-188900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-351000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-389400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-441800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-286000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-308200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-482800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-362700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-185900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-152400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-122800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-158300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-147000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-151200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-110900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-84100</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1549,85 +1614,93 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-15200</v>
+        <v>-45200</v>
       </c>
       <c r="E20" s="3">
-        <v>38000</v>
+        <v>-69000</v>
       </c>
       <c r="F20" s="3">
-        <v>-59700</v>
+        <v>-15700</v>
       </c>
       <c r="G20" s="3">
-        <v>2900</v>
+        <v>39200</v>
       </c>
       <c r="H20" s="3">
-        <v>16200</v>
+        <v>-61600</v>
       </c>
       <c r="I20" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>16800</v>
+      </c>
+      <c r="K20" s="3">
         <v>15100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>3900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>49100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>18400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-57400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>54200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-89300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-27300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>52700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>3800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-73300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-106200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>96800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>39800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>2300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>17900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-20200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1685,26 +1758,32 @@
       <c r="U21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X21" s="3">
         <v>1174600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>835600</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z21" s="3">
+      <c r="Z21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB21" s="3">
         <v>598900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>443800</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1712,230 +1791,248 @@
         <v>25300</v>
       </c>
       <c r="E22" s="3">
-        <v>24400</v>
+        <v>26100</v>
       </c>
       <c r="F22" s="3">
-        <v>45200</v>
+        <v>26100</v>
       </c>
       <c r="G22" s="3">
-        <v>48900</v>
+        <v>25200</v>
       </c>
       <c r="H22" s="3">
-        <v>47800</v>
+        <v>46600</v>
       </c>
       <c r="I22" s="3">
+        <v>50500</v>
+      </c>
+      <c r="J22" s="3">
+        <v>49300</v>
+      </c>
+      <c r="K22" s="3">
         <v>46000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>37500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>39300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>39100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>41000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>42600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>39700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>37900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>20600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>8900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>2200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>1300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>1200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>6300</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z22" s="3">
         <v>12200</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>9900</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>6100</v>
       </c>
-      <c r="AA22" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-23000</v>
+        <v>42100</v>
       </c>
       <c r="E23" s="3">
-        <v>26600</v>
+        <v>-50600</v>
       </c>
       <c r="F23" s="3">
-        <v>-240600</v>
+        <v>-23700</v>
       </c>
       <c r="G23" s="3">
-        <v>-236400</v>
+        <v>27400</v>
       </c>
       <c r="H23" s="3">
-        <v>-187700</v>
+        <v>-248300</v>
       </c>
       <c r="I23" s="3">
+        <v>-243900</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-193600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-172100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-215500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-166900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-209600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-449400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-377800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-570700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-351100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-276100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-487900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-438200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-293400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-56900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-89300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-156000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-141400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-162700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-137200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-91300</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>5000</v>
+        <v>-1700</v>
       </c>
       <c r="E24" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F24" s="3">
+        <v>5200</v>
+      </c>
+      <c r="G24" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H24" s="3">
+        <v>5200</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J24" s="3">
+        <v>4400</v>
+      </c>
+      <c r="K24" s="3">
+        <v>2900</v>
+      </c>
+      <c r="L24" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="M24" s="3">
+        <v>2800</v>
+      </c>
+      <c r="N24" s="3">
         <v>2300</v>
       </c>
-      <c r="F24" s="3">
-        <v>5100</v>
-      </c>
-      <c r="G24" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H24" s="3">
-        <v>4200</v>
-      </c>
-      <c r="I24" s="3">
-        <v>2900</v>
-      </c>
-      <c r="J24" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="K24" s="3">
-        <v>2800</v>
-      </c>
-      <c r="L24" s="3">
-        <v>2300</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>3500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>2500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>1100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>11500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>-800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>700</v>
-      </c>
-      <c r="U24" s="3">
-        <v>100</v>
-      </c>
-      <c r="V24" s="3">
-        <v>-1400</v>
       </c>
       <c r="W24" s="3">
         <v>100</v>
       </c>
       <c r="X24" s="3">
-        <v>100</v>
+        <v>-1400</v>
       </c>
       <c r="Y24" s="3">
         <v>100</v>
       </c>
       <c r="Z24" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB24" s="3">
         <v>600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2108,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-28000</v>
+        <v>43800</v>
       </c>
       <c r="E26" s="3">
-        <v>24200</v>
+        <v>-56700</v>
       </c>
       <c r="F26" s="3">
-        <v>-245700</v>
+        <v>-28900</v>
       </c>
       <c r="G26" s="3">
-        <v>-237700</v>
+        <v>25000</v>
       </c>
       <c r="H26" s="3">
-        <v>-191900</v>
+        <v>-253500</v>
       </c>
       <c r="I26" s="3">
+        <v>-245200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-198000</v>
+      </c>
+      <c r="K26" s="3">
         <v>-175000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-213300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-169600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-212000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-450100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-381200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-573200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-352000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-277200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-499400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-437300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-294100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-56900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-87900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-156100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-141500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-162800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-137800</v>
       </c>
-      <c r="AA26" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-29800</v>
+        <v>43700</v>
       </c>
       <c r="E27" s="3">
-        <v>23500</v>
+        <v>-56800</v>
       </c>
       <c r="F27" s="3">
-        <v>-248300</v>
+        <v>-30700</v>
       </c>
       <c r="G27" s="3">
-        <v>-241400</v>
+        <v>24300</v>
       </c>
       <c r="H27" s="3">
-        <v>-195100</v>
+        <v>-256200</v>
       </c>
       <c r="I27" s="3">
+        <v>-249100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-201300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-176800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-215700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-171700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-212700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-450300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-384200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-575400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-355600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-275900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-504900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-439500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-294800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-98300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>2198300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-1737000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-248500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-267600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-410200</v>
       </c>
-      <c r="AA27" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2357,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2440,14 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2523,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2606,180 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>15200</v>
+        <v>45200</v>
       </c>
       <c r="E32" s="3">
-        <v>-38000</v>
+        <v>69000</v>
       </c>
       <c r="F32" s="3">
-        <v>59700</v>
+        <v>15700</v>
       </c>
       <c r="G32" s="3">
-        <v>-2900</v>
+        <v>-39200</v>
       </c>
       <c r="H32" s="3">
-        <v>-16200</v>
+        <v>61600</v>
       </c>
       <c r="I32" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-15100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-3900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-49100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-18400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>57400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-54200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>89300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>27300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-52700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-3800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>73300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>106200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-96800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-39800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-2300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-17900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>1600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>20200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-29800</v>
+        <v>43700</v>
       </c>
       <c r="E33" s="3">
-        <v>23500</v>
+        <v>-56800</v>
       </c>
       <c r="F33" s="3">
-        <v>-248300</v>
+        <v>-30700</v>
       </c>
       <c r="G33" s="3">
-        <v>-241400</v>
+        <v>24300</v>
       </c>
       <c r="H33" s="3">
-        <v>-195100</v>
+        <v>-256200</v>
       </c>
       <c r="I33" s="3">
+        <v>-249100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-201300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-176800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-215700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-171700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-212700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-450300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-384200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-575400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-355600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-275900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-504900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-439500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-294800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-98300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>2198300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-1737000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-248500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-267600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-410200</v>
       </c>
-      <c r="AA33" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2855,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-29800</v>
+        <v>43700</v>
       </c>
       <c r="E35" s="3">
-        <v>23500</v>
+        <v>-56800</v>
       </c>
       <c r="F35" s="3">
-        <v>-248300</v>
+        <v>-30700</v>
       </c>
       <c r="G35" s="3">
-        <v>-241400</v>
+        <v>24300</v>
       </c>
       <c r="H35" s="3">
-        <v>-195100</v>
+        <v>-256200</v>
       </c>
       <c r="I35" s="3">
+        <v>-249100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-201300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-176800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-215700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-171700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-212700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-450300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-384200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-575400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-355600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-275900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-504900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-439500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-294800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-98300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>2198300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-1737000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-248500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-267600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-410200</v>
       </c>
-      <c r="AA35" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +3061,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,701 +3092,757 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>406900</v>
+        <v>1019400</v>
       </c>
       <c r="E41" s="3">
-        <v>530500</v>
+        <v>511300</v>
       </c>
       <c r="F41" s="3">
-        <v>417200</v>
+        <v>419800</v>
       </c>
       <c r="G41" s="3">
-        <v>1015600</v>
+        <v>547400</v>
       </c>
       <c r="H41" s="3">
-        <v>930500</v>
+        <v>430500</v>
       </c>
       <c r="I41" s="3">
+        <v>1047900</v>
+      </c>
+      <c r="J41" s="3">
+        <v>960100</v>
+      </c>
+      <c r="K41" s="3">
         <v>1023500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1519400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>461900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>630800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>578200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>913800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>702900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>829200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1806300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>666100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>816200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>1159100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>57900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>105200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>176500</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z41" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AA41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>263200</v>
+        <v>117500</v>
       </c>
       <c r="E42" s="3">
-        <v>178500</v>
+        <v>211200</v>
       </c>
       <c r="F42" s="3">
-        <v>187700</v>
+        <v>271500</v>
       </c>
       <c r="G42" s="3">
-        <v>509700</v>
+        <v>184200</v>
       </c>
       <c r="H42" s="3">
-        <v>769300</v>
+        <v>193600</v>
       </c>
       <c r="I42" s="3">
+        <v>525900</v>
+      </c>
+      <c r="J42" s="3">
+        <v>793700</v>
+      </c>
+      <c r="K42" s="3">
         <v>823300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>467500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>526300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>618400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>823300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>705100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>1067400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>1347200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>591100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>880400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>538000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>665100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>70700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>111900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>497500</v>
       </c>
-      <c r="X42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z42" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AA42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>359500</v>
+        <v>360000</v>
       </c>
       <c r="E43" s="3">
-        <v>391400</v>
+        <v>395500</v>
       </c>
       <c r="F43" s="3">
-        <v>404100</v>
+        <v>370900</v>
       </c>
       <c r="G43" s="3">
-        <v>439500</v>
+        <v>403800</v>
       </c>
       <c r="H43" s="3">
-        <v>464100</v>
+        <v>417000</v>
       </c>
       <c r="I43" s="3">
-        <v>494800</v>
+        <v>453400</v>
       </c>
       <c r="J43" s="3">
         <v>478900</v>
       </c>
       <c r="K43" s="3">
+        <v>494800</v>
+      </c>
+      <c r="L43" s="3">
+        <v>478900</v>
+      </c>
+      <c r="M43" s="3">
         <v>500900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>503700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>717100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>591200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>514100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>513100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>535000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>460500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>452200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>350200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>420800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>322200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>693700</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z43" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AA43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>110800</v>
+        <v>107100</v>
       </c>
       <c r="E44" s="3">
-        <v>126700</v>
+        <v>117500</v>
       </c>
       <c r="F44" s="3">
-        <v>129600</v>
+        <v>114300</v>
       </c>
       <c r="G44" s="3">
-        <v>152700</v>
+        <v>130700</v>
       </c>
       <c r="H44" s="3">
-        <v>123900</v>
+        <v>133700</v>
       </c>
       <c r="I44" s="3">
+        <v>157500</v>
+      </c>
+      <c r="J44" s="3">
+        <v>127900</v>
+      </c>
+      <c r="K44" s="3">
         <v>143600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>144100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>182200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>174500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>224300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>188600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>206500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>179700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>191900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>169000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>147200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>162900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>172400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>117500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>110300</v>
       </c>
-      <c r="X44" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z44" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AA44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>309100</v>
+        <v>375800</v>
       </c>
       <c r="E45" s="3">
-        <v>384300</v>
+        <v>322300</v>
       </c>
       <c r="F45" s="3">
-        <v>465500</v>
+        <v>318900</v>
       </c>
       <c r="G45" s="3">
-        <v>529700</v>
+        <v>396500</v>
       </c>
       <c r="H45" s="3">
-        <v>570800</v>
+        <v>480300</v>
       </c>
       <c r="I45" s="3">
+        <v>546500</v>
+      </c>
+      <c r="J45" s="3">
+        <v>588900</v>
+      </c>
+      <c r="K45" s="3">
         <v>597800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>492900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>601500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>679700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>690600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>722800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1031300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>926000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>772700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>707300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>430500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>377800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>145500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>161200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>137200</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z45" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AA45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1449500</v>
+        <v>1979900</v>
       </c>
       <c r="E46" s="3">
-        <v>1611500</v>
+        <v>1557800</v>
       </c>
       <c r="F46" s="3">
-        <v>1604200</v>
+        <v>1495500</v>
       </c>
       <c r="G46" s="3">
-        <v>2647200</v>
+        <v>1662600</v>
       </c>
       <c r="H46" s="3">
-        <v>2858700</v>
+        <v>1655100</v>
       </c>
       <c r="I46" s="3">
+        <v>2731300</v>
+      </c>
+      <c r="J46" s="3">
+        <v>2949500</v>
+      </c>
+      <c r="K46" s="3">
         <v>3083100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>3102800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2272700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>2607100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>3033400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>3121600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>3522200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>3795200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>3897100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>2883300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>2384200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>2715100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>867300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>817900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>1615200</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z46" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AA46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>449000</v>
+        <v>361000</v>
       </c>
       <c r="E47" s="3">
-        <v>456200</v>
+        <v>419000</v>
       </c>
       <c r="F47" s="3">
-        <v>433800</v>
+        <v>463300</v>
       </c>
       <c r="G47" s="3">
-        <v>489500</v>
+        <v>470700</v>
       </c>
       <c r="H47" s="3">
-        <v>487700</v>
+        <v>447500</v>
       </c>
       <c r="I47" s="3">
+        <v>505000</v>
+      </c>
+      <c r="J47" s="3">
+        <v>503200</v>
+      </c>
+      <c r="K47" s="3">
         <v>485900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>451300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>577200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>579900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>580200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>485700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>480400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>413700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>400600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>381200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>322800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>173900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>170000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>81500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>59000</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z47" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AA47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>292400</v>
+        <v>255500</v>
       </c>
       <c r="E48" s="3">
-        <v>305400</v>
+        <v>270700</v>
       </c>
       <c r="F48" s="3">
-        <v>313500</v>
+        <v>301700</v>
       </c>
       <c r="G48" s="3">
-        <v>314000</v>
+        <v>315100</v>
       </c>
       <c r="H48" s="3">
-        <v>334600</v>
+        <v>323400</v>
       </c>
       <c r="I48" s="3">
+        <v>324000</v>
+      </c>
+      <c r="J48" s="3">
+        <v>345200</v>
+      </c>
+      <c r="K48" s="3">
         <v>323500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>333400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>360000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>408400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>402000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>381400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>369600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>358100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>265700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>235000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>206500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>196600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>189200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>179200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>179600</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z48" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AA48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3295800</v>
+        <v>3462000</v>
       </c>
       <c r="E49" s="3">
-        <v>3270800</v>
+        <v>3476500</v>
       </c>
       <c r="F49" s="3">
-        <v>3151900</v>
+        <v>3400400</v>
       </c>
       <c r="G49" s="3">
-        <v>2970800</v>
+        <v>3374600</v>
       </c>
       <c r="H49" s="3">
-        <v>2766400</v>
+        <v>3252000</v>
       </c>
       <c r="I49" s="3">
+        <v>3065200</v>
+      </c>
+      <c r="J49" s="3">
+        <v>2854200</v>
+      </c>
+      <c r="K49" s="3">
         <v>2546200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>2436900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>2355300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>2174600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>2369400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>2362800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>2601800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>2423100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>2432100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>2315500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>2285000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>1858100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>1623800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>1409900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>1221500</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z49" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AA49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3918,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +4001,97 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>441900</v>
+        <v>555100</v>
       </c>
       <c r="E52" s="3">
-        <v>423500</v>
+        <v>436200</v>
       </c>
       <c r="F52" s="3">
-        <v>408800</v>
+        <v>455900</v>
       </c>
       <c r="G52" s="3">
-        <v>440600</v>
+        <v>437000</v>
       </c>
       <c r="H52" s="3">
-        <v>361800</v>
+        <v>421800</v>
       </c>
       <c r="I52" s="3">
+        <v>454500</v>
+      </c>
+      <c r="J52" s="3">
+        <v>373200</v>
+      </c>
+      <c r="K52" s="3">
         <v>380400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>382900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>405700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>460100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>431800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>545600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>562800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>686200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>787200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>685500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>570200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>530500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>439700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>409900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>378500</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z52" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AA52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4167,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5928500</v>
+        <v>6613500</v>
       </c>
       <c r="E54" s="3">
-        <v>6067300</v>
+        <v>6160200</v>
       </c>
       <c r="F54" s="3">
-        <v>5912100</v>
+        <v>6116800</v>
       </c>
       <c r="G54" s="3">
-        <v>6862100</v>
+        <v>6259900</v>
       </c>
       <c r="H54" s="3">
-        <v>6809100</v>
+        <v>6099900</v>
       </c>
       <c r="I54" s="3">
+        <v>7080000</v>
+      </c>
+      <c r="J54" s="3">
+        <v>7025300</v>
+      </c>
+      <c r="K54" s="3">
         <v>6819100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>6707400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>5970900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>6230000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>6816800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>6897200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>7536800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>7676300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>7782700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>6500500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>5768700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>5474100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>3289900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>2898400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>3453700</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z54" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AA54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4285,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,470 +4316,508 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>878500</v>
+        <v>860800</v>
       </c>
       <c r="E57" s="3">
-        <v>977500</v>
+        <v>988400</v>
       </c>
       <c r="F57" s="3">
-        <v>1238400</v>
+        <v>906400</v>
       </c>
       <c r="G57" s="3">
-        <v>1270600</v>
+        <v>1008500</v>
       </c>
       <c r="H57" s="3">
-        <v>1145300</v>
+        <v>1277700</v>
       </c>
       <c r="I57" s="3">
+        <v>1311000</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1181700</v>
+      </c>
+      <c r="K57" s="3">
         <v>1045200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1052600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1088800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1133500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1304000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1264600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1574100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1464200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1574600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>1475900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>1458800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>1269100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>1252000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>1010300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>1035600</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z57" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AA57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1681100</v>
+        <v>1673600</v>
       </c>
       <c r="E58" s="3">
-        <v>611300</v>
+        <v>1789400</v>
       </c>
       <c r="F58" s="3">
-        <v>573200</v>
+        <v>1734500</v>
       </c>
       <c r="G58" s="3">
-        <v>1316100</v>
+        <v>630700</v>
       </c>
       <c r="H58" s="3">
-        <v>1211200</v>
+        <v>591400</v>
       </c>
       <c r="I58" s="3">
+        <v>1357900</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1249600</v>
+      </c>
+      <c r="K58" s="3">
         <v>1102100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1200900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>662600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>601300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>519500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>516600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>604300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>667800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>557600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>454600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>165500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>89900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>58400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>44400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>1232000</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z58" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AA58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1359900</v>
+        <v>1505600</v>
       </c>
       <c r="E59" s="3">
-        <v>1401200</v>
+        <v>1408600</v>
       </c>
       <c r="F59" s="3">
-        <v>1317100</v>
+        <v>1403000</v>
       </c>
       <c r="G59" s="3">
-        <v>1303500</v>
+        <v>1445700</v>
       </c>
       <c r="H59" s="3">
-        <v>1294400</v>
+        <v>1359000</v>
       </c>
       <c r="I59" s="3">
+        <v>1344900</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1335500</v>
+      </c>
+      <c r="K59" s="3">
         <v>1355800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1206300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1242700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1281200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1445100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1325100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1178200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1144200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1013800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>946900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>887200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>710200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>619500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>613400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>1325600</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z59" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AA59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3919500</v>
+        <v>4040000</v>
       </c>
       <c r="E60" s="3">
-        <v>2990000</v>
+        <v>4186400</v>
       </c>
       <c r="F60" s="3">
-        <v>3128700</v>
+        <v>4043900</v>
       </c>
       <c r="G60" s="3">
-        <v>3890200</v>
+        <v>3084900</v>
       </c>
       <c r="H60" s="3">
-        <v>3650900</v>
+        <v>3228100</v>
       </c>
       <c r="I60" s="3">
+        <v>4013700</v>
+      </c>
+      <c r="J60" s="3">
+        <v>3766800</v>
+      </c>
+      <c r="K60" s="3">
         <v>3503200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3459800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2994100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>3016000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>3268600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>3106300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>3356700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>3276200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>3146000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>2877300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>2511500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>2069200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1929900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>1668000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>3593200</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z60" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AA60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>833900</v>
+        <v>1374200</v>
       </c>
       <c r="E61" s="3">
-        <v>1842900</v>
+        <v>914900</v>
       </c>
       <c r="F61" s="3">
-        <v>1761200</v>
+        <v>860300</v>
       </c>
       <c r="G61" s="3">
-        <v>1763900</v>
+        <v>1901400</v>
       </c>
       <c r="H61" s="3">
-        <v>1752800</v>
+        <v>1817100</v>
       </c>
       <c r="I61" s="3">
+        <v>1819900</v>
+      </c>
+      <c r="J61" s="3">
+        <v>1808500</v>
+      </c>
+      <c r="K61" s="3">
         <v>1763700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1660200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1889000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>2001200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>2112200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>2029000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>2057800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1879700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>1856600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>777900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>38300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>39000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>40000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>40700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>42100</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
       <c r="Z61" s="3">
         <v>0</v>
       </c>
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>289200</v>
+        <v>288200</v>
       </c>
       <c r="E62" s="3">
-        <v>273800</v>
+        <v>276100</v>
       </c>
       <c r="F62" s="3">
-        <v>232500</v>
+        <v>298300</v>
       </c>
       <c r="G62" s="3">
-        <v>227700</v>
+        <v>282500</v>
       </c>
       <c r="H62" s="3">
-        <v>245300</v>
+        <v>239900</v>
       </c>
       <c r="I62" s="3">
+        <v>234900</v>
+      </c>
+      <c r="J62" s="3">
+        <v>253100</v>
+      </c>
+      <c r="K62" s="3">
         <v>258600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>272800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>288000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>290300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>281500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>266000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>220700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>225900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>248700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>208500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>210000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>97000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>96100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>1200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>1100</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z62" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AA62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4893,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4976,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +5059,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5055400</v>
+        <v>5715700</v>
       </c>
       <c r="E66" s="3">
-        <v>5116100</v>
+        <v>5390900</v>
       </c>
       <c r="F66" s="3">
-        <v>5190000</v>
+        <v>5215900</v>
       </c>
       <c r="G66" s="3">
-        <v>5945100</v>
+        <v>5278600</v>
       </c>
       <c r="H66" s="3">
-        <v>5692400</v>
+        <v>5354800</v>
       </c>
       <c r="I66" s="3">
+        <v>6133900</v>
+      </c>
+      <c r="J66" s="3">
+        <v>5873200</v>
+      </c>
+      <c r="K66" s="3">
         <v>5566700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>5418900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>5194800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>5329500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>5684500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>5423400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>5659900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>5402400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>5268100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>3880900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>2771200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>2205600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>2066400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1710600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>3636400</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z66" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AA66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5177,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5256,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5339,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5067,28 +5402,34 @@
         <v>0</v>
       </c>
       <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
         <v>3284400</v>
       </c>
-      <c r="V70" s="3">
+      <c r="X70" s="3">
         <v>3242900</v>
       </c>
-      <c r="W70" s="3">
+      <c r="Y70" s="3">
         <v>4323600</v>
       </c>
-      <c r="X70" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y70" s="3">
-        <v>0</v>
-      </c>
       <c r="Z70" s="3">
         <v>0</v>
       </c>
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5505,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-6459900</v>
+        <v>-6678200</v>
       </c>
       <c r="E72" s="3">
-        <v>-6430100</v>
+        <v>-6721900</v>
       </c>
       <c r="F72" s="3">
-        <v>-6565200</v>
+        <v>-6665100</v>
       </c>
       <c r="G72" s="3">
-        <v>-6316900</v>
+        <v>-6634300</v>
       </c>
       <c r="H72" s="3">
-        <v>-6075500</v>
+        <v>-6773700</v>
       </c>
       <c r="I72" s="3">
+        <v>-6517500</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-6268400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-5880400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-5703600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-5757100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-5636300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-5750400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-5209800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-4889200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-4224500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-3852200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-3414300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-2796700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-2357100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-2130900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-2154600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-4631600</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z72" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AA72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5671,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5754,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5837,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>873100</v>
+        <v>897700</v>
       </c>
       <c r="E76" s="3">
-        <v>951200</v>
+        <v>769300</v>
       </c>
       <c r="F76" s="3">
-        <v>722100</v>
+        <v>900900</v>
       </c>
       <c r="G76" s="3">
-        <v>917000</v>
+        <v>981400</v>
       </c>
       <c r="H76" s="3">
-        <v>1116700</v>
+        <v>745000</v>
       </c>
       <c r="I76" s="3">
+        <v>946100</v>
+      </c>
+      <c r="J76" s="3">
+        <v>1152200</v>
+      </c>
+      <c r="K76" s="3">
         <v>1252400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1288500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>776100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>900500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1132300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1473700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1876900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>2273900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>2514600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>2619500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>2997500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>3268500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-2060900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-2055000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-4506300</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z76" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AA76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +6003,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-29800</v>
+        <v>43700</v>
       </c>
       <c r="E81" s="3">
-        <v>23500</v>
+        <v>-56800</v>
       </c>
       <c r="F81" s="3">
-        <v>-248300</v>
+        <v>-30700</v>
       </c>
       <c r="G81" s="3">
-        <v>-241400</v>
+        <v>24300</v>
       </c>
       <c r="H81" s="3">
-        <v>-195100</v>
+        <v>-256200</v>
       </c>
       <c r="I81" s="3">
+        <v>-249100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-201300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-176800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-215700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-171700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-212700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-450300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-384200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-575400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-355600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-275900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-504900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-439500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-294800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-98300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>2198300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-1737000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-248500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-267600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-410200</v>
       </c>
-      <c r="AA81" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6209,10 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5882,17 +6279,23 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z83" s="3" t="s">
-        <v>16</v>
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>0</v>
       </c>
       <c r="AA83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6371,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6454,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6537,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6620,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,47 +6703,53 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>6600</v>
+        <v>122600</v>
       </c>
       <c r="E89" s="3">
-        <v>-162500</v>
+        <v>28100</v>
       </c>
       <c r="F89" s="3">
-        <v>-152500</v>
+        <v>6800</v>
       </c>
       <c r="G89" s="3">
-        <v>-289600</v>
+        <v>-167600</v>
       </c>
       <c r="H89" s="3">
-        <v>-198500</v>
+        <v>-157300</v>
       </c>
       <c r="I89" s="3">
+        <v>-298800</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-204800</v>
+      </c>
+      <c r="K89" s="3">
         <v>-187900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-211500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-281700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-200200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-94600</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>16</v>
       </c>
@@ -6326,11 +6759,11 @@
       <c r="R89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
-      <c r="T89" s="3">
-        <v>0</v>
+      <c r="S89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="U89" s="3">
         <v>0</v>
@@ -6344,17 +6777,23 @@
       <c r="X89" s="3">
         <v>0</v>
       </c>
-      <c r="Y89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z89" s="3" t="s">
-        <v>16</v>
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>0</v>
       </c>
       <c r="AA89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,22 +6821,24 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-9200</v>
+        <v>-1300</v>
       </c>
       <c r="E91" s="3">
-        <v>-7100</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>16</v>
+        <v>-6900</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-7400</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>16</v>
@@ -6411,11 +6852,11 @@
       <c r="K91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -6450,17 +6891,23 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z91" s="3" t="s">
-        <v>16</v>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
       </c>
       <c r="AA91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6983,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,47 +7066,53 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-90800</v>
+        <v>83100</v>
       </c>
       <c r="E94" s="3">
-        <v>-9400</v>
+        <v>58400</v>
       </c>
       <c r="F94" s="3">
-        <v>291900</v>
+        <v>-93700</v>
       </c>
       <c r="G94" s="3">
-        <v>262400</v>
+        <v>-9700</v>
       </c>
       <c r="H94" s="3">
-        <v>8100</v>
+        <v>301200</v>
       </c>
       <c r="I94" s="3">
+        <v>270700</v>
+      </c>
+      <c r="J94" s="3">
+        <v>8400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-386700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>39200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>50100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>168600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-252000</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>16</v>
       </c>
@@ -6663,11 +7122,11 @@
       <c r="R94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-      <c r="T94" s="3">
-        <v>0</v>
+      <c r="S94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="U94" s="3">
         <v>0</v>
@@ -6681,17 +7140,23 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z94" s="3" t="s">
-        <v>16</v>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>0</v>
       </c>
       <c r="AA94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +7184,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7263,14 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7346,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7429,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,47 +7512,53 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-46400</v>
+        <v>411000</v>
       </c>
       <c r="E100" s="3">
-        <v>284900</v>
+        <v>-15200</v>
       </c>
       <c r="F100" s="3">
-        <v>-729300</v>
+        <v>-47900</v>
       </c>
       <c r="G100" s="3">
-        <v>120700</v>
+        <v>293900</v>
       </c>
       <c r="H100" s="3">
-        <v>111500</v>
+        <v>-752400</v>
       </c>
       <c r="I100" s="3">
+        <v>124600</v>
+      </c>
+      <c r="J100" s="3">
+        <v>115100</v>
+      </c>
+      <c r="K100" s="3">
         <v>85000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1168200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>34800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>121200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-12400</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>16</v>
       </c>
@@ -7077,11 +7568,11 @@
       <c r="R100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3">
-        <v>0</v>
+      <c r="S100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="U100" s="3">
         <v>0</v>
@@ -7095,56 +7586,62 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-      <c r="Y100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z100" s="3" t="s">
-        <v>16</v>
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>0</v>
       </c>
       <c r="AA100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>10500</v>
+        <v>-1200</v>
       </c>
       <c r="E101" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F101" s="3">
+        <v>10800</v>
+      </c>
+      <c r="G101" s="3">
         <v>-600</v>
       </c>
-      <c r="F101" s="3">
-        <v>-10300</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-3100</v>
-      </c>
       <c r="H101" s="3">
-        <v>-12900</v>
+        <v>-10600</v>
       </c>
       <c r="I101" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="K101" s="3">
         <v>-3900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-4600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-16500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-1500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>10100</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P101" s="3" t="s">
         <v>16</v>
       </c>
@@ -7154,11 +7651,11 @@
       <c r="R101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
-      <c r="T101" s="3">
-        <v>0</v>
+      <c r="S101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="U101" s="3">
         <v>0</v>
@@ -7172,56 +7669,62 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-      <c r="Y101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z101" s="3" t="s">
-        <v>16</v>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
       </c>
       <c r="AA101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-120200</v>
+        <v>615500</v>
       </c>
       <c r="E102" s="3">
-        <v>112500</v>
+        <v>80000</v>
       </c>
       <c r="F102" s="3">
-        <v>-600100</v>
+        <v>-124000</v>
       </c>
       <c r="G102" s="3">
-        <v>90400</v>
+        <v>116000</v>
       </c>
       <c r="H102" s="3">
-        <v>-91800</v>
+        <v>-619100</v>
       </c>
       <c r="I102" s="3">
+        <v>93300</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-94700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-493500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>991300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-213400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>88300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-348900</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>16</v>
       </c>
@@ -7231,11 +7734,11 @@
       <c r="R102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
-      <c r="T102" s="3">
-        <v>0</v>
+      <c r="S102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="U102" s="3">
         <v>0</v>
@@ -7249,13 +7752,19 @@
       <c r="X102" s="3">
         <v>0</v>
       </c>
-      <c r="Y102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z102" s="3" t="s">
-        <v>16</v>
+      <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>0</v>
       </c>
       <c r="AA102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IQ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="92">
   <si>
     <t>IQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,371 +665,384 @@
     <col min="1" max="1" width="4.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1090500</v>
+        <v>1186800</v>
       </c>
       <c r="E8" s="3">
-        <v>1073000</v>
+        <v>1079300</v>
       </c>
       <c r="F8" s="3">
-        <v>956000</v>
+        <v>1062000</v>
       </c>
       <c r="G8" s="3">
-        <v>1045100</v>
+        <v>946200</v>
       </c>
       <c r="H8" s="3">
-        <v>1061200</v>
+        <v>1034400</v>
       </c>
       <c r="I8" s="3">
-        <v>1089900</v>
+        <v>1050300</v>
       </c>
       <c r="J8" s="3">
+        <v>1078800</v>
+      </c>
+      <c r="K8" s="3">
         <v>1092700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1109200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1038200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1049600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1092200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1197700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1154300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1154000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1086300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1063300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1020600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>967700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>863600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>699800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>691200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>734700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>642100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>477600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>458800</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>473800</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>775900</v>
+        <v>846600</v>
       </c>
       <c r="E9" s="3">
-        <v>819400</v>
+        <v>767900</v>
       </c>
       <c r="F9" s="3">
-        <v>753700</v>
+        <v>811000</v>
       </c>
       <c r="G9" s="3">
-        <v>856500</v>
+        <v>746000</v>
       </c>
       <c r="H9" s="3">
-        <v>934600</v>
+        <v>847800</v>
       </c>
       <c r="I9" s="3">
-        <v>1009300</v>
+        <v>925000</v>
       </c>
       <c r="J9" s="3">
+        <v>999000</v>
+      </c>
+      <c r="K9" s="3">
         <v>986500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>989600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>944400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>929300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1007000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1237300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1218700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1275500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1066600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1107000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1237800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1071400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>854700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>695600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>650700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>726900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1304500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1035100</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>453900</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>456800</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>314600</v>
+        <v>340100</v>
       </c>
       <c r="E10" s="3">
-        <v>253600</v>
+        <v>311400</v>
       </c>
       <c r="F10" s="3">
-        <v>202300</v>
+        <v>251000</v>
       </c>
       <c r="G10" s="3">
-        <v>188600</v>
+        <v>200200</v>
       </c>
       <c r="H10" s="3">
-        <v>126500</v>
+        <v>186700</v>
       </c>
       <c r="I10" s="3">
-        <v>80600</v>
+        <v>125200</v>
       </c>
       <c r="J10" s="3">
+        <v>79800</v>
+      </c>
+      <c r="K10" s="3">
         <v>106200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>119600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>93800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>120400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>85200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-39600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-64300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-121500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>19700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-43700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-217200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>-103700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>8900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>4200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>40500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>7800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>-662500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>-557500</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>4900</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,91 +1072,95 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>66900</v>
+        <v>60900</v>
       </c>
       <c r="E12" s="3">
-        <v>68300</v>
+        <v>66300</v>
       </c>
       <c r="F12" s="3">
-        <v>69300</v>
+        <v>67600</v>
       </c>
       <c r="G12" s="3">
-        <v>68200</v>
+        <v>68500</v>
       </c>
       <c r="H12" s="3">
-        <v>109600</v>
+        <v>67500</v>
       </c>
       <c r="I12" s="3">
-        <v>98100</v>
+        <v>108500</v>
       </c>
       <c r="J12" s="3">
+        <v>97100</v>
+      </c>
+      <c r="K12" s="3">
         <v>97200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>93600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>92300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>97800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>97900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>106200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>109500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>109700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>100000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>91000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>88200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>78100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>61800</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>55600</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>52300</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>50800</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>87400</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>78200</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>35500</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>33400</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1225,8 +1242,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1308,8 +1328,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1391,8 +1414,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1445,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>978000</v>
+        <v>1064700</v>
       </c>
       <c r="E17" s="3">
-        <v>1028500</v>
+        <v>967900</v>
       </c>
       <c r="F17" s="3">
-        <v>937900</v>
+        <v>1018000</v>
       </c>
       <c r="G17" s="3">
-        <v>1031700</v>
+        <v>928300</v>
       </c>
       <c r="H17" s="3">
-        <v>1201200</v>
+        <v>1021200</v>
       </c>
       <c r="I17" s="3">
-        <v>1286400</v>
+        <v>1188900</v>
       </c>
       <c r="J17" s="3">
+        <v>1273200</v>
+      </c>
+      <c r="K17" s="3">
         <v>1253800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1250400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1220200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1226300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1281000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1548600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1543700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1595700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1372300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1371500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1503400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1330400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1049400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>852200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>814000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>893000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>789100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>628800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>569700</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>557900</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>112500</v>
+        <v>122100</v>
       </c>
       <c r="E18" s="3">
-        <v>44500</v>
+        <v>111400</v>
       </c>
       <c r="F18" s="3">
-        <v>18100</v>
+        <v>44000</v>
       </c>
       <c r="G18" s="3">
-        <v>13400</v>
+        <v>17900</v>
       </c>
       <c r="H18" s="3">
-        <v>-140100</v>
+        <v>13300</v>
       </c>
       <c r="I18" s="3">
-        <v>-196500</v>
+        <v>-138600</v>
       </c>
       <c r="J18" s="3">
+        <v>-194500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-161100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-141200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-182000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-176600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-188900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-351000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-389400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-441800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-286000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-308200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-482800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-362700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-185900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-152400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-122800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-158300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-147000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-151200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-110900</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-84100</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1616,91 +1649,95 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-45200</v>
+        <v>11000</v>
       </c>
       <c r="E20" s="3">
-        <v>-69000</v>
+        <v>-44700</v>
       </c>
       <c r="F20" s="3">
-        <v>-15700</v>
+        <v>-68300</v>
       </c>
       <c r="G20" s="3">
-        <v>39200</v>
+        <v>-15500</v>
       </c>
       <c r="H20" s="3">
-        <v>-61600</v>
+        <v>38800</v>
       </c>
       <c r="I20" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="J20" s="3">
         <v>3000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>16800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>15100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>49100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>18400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-57400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>54200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-89300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-27300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>52700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>3800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-73300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-106200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>96800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>39800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>2300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>17900</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-1600</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-20200</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1764,260 +1801,269 @@
       <c r="W21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y21" s="3">
         <v>1174600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>835600</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AA21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AB21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC21" s="3">
         <v>598900</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>443800</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>25300</v>
+        <v>40600</v>
       </c>
       <c r="E22" s="3">
-        <v>26100</v>
+        <v>25000</v>
       </c>
       <c r="F22" s="3">
-        <v>26100</v>
+        <v>25800</v>
       </c>
       <c r="G22" s="3">
-        <v>25200</v>
+        <v>25900</v>
       </c>
       <c r="H22" s="3">
-        <v>46600</v>
+        <v>24900</v>
       </c>
       <c r="I22" s="3">
-        <v>50500</v>
+        <v>46100</v>
       </c>
       <c r="J22" s="3">
+        <v>49900</v>
+      </c>
+      <c r="K22" s="3">
         <v>49300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>46000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>37500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>39300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>39100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>41000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>42600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>39700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>37900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>20600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>8900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>2200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>1300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>1200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>6300</v>
       </c>
-      <c r="Y22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z22" s="3">
+      <c r="Z22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA22" s="3">
         <v>12200</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>9900</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>6100</v>
       </c>
-      <c r="AC22" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>42100</v>
+        <v>92500</v>
       </c>
       <c r="E23" s="3">
-        <v>-50600</v>
+        <v>41700</v>
       </c>
       <c r="F23" s="3">
-        <v>-23700</v>
+        <v>-50100</v>
       </c>
       <c r="G23" s="3">
-        <v>27400</v>
+        <v>-23500</v>
       </c>
       <c r="H23" s="3">
-        <v>-248300</v>
+        <v>27100</v>
       </c>
       <c r="I23" s="3">
-        <v>-243900</v>
+        <v>-245700</v>
       </c>
       <c r="J23" s="3">
+        <v>-241400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-193600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-172100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-215500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-166900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-209600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-449400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-377800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-570700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-351100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-276100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-487900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-438200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-293400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-56900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-89300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-156000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-141400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-162700</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-137200</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-91300</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-1700</v>
+        <v>3500</v>
       </c>
       <c r="E24" s="3">
-        <v>6100</v>
+        <v>-1600</v>
       </c>
       <c r="F24" s="3">
+        <v>6000</v>
+      </c>
+      <c r="G24" s="3">
+        <v>5100</v>
+      </c>
+      <c r="H24" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I24" s="3">
         <v>5200</v>
       </c>
-      <c r="G24" s="3">
-        <v>2400</v>
-      </c>
-      <c r="H24" s="3">
-        <v>5200</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>4400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-2300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>11500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-1400</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>100</v>
       </c>
       <c r="Z24" s="3">
         <v>100</v>
@@ -2026,13 +2072,16 @@
         <v>100</v>
       </c>
       <c r="AB24" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC24" s="3">
         <v>600</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2163,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>43800</v>
+      <c r="D26" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E26" s="3">
-        <v>-56700</v>
+        <v>43300</v>
       </c>
       <c r="F26" s="3">
-        <v>-28900</v>
+        <v>-56100</v>
       </c>
       <c r="G26" s="3">
-        <v>25000</v>
+        <v>-28600</v>
       </c>
       <c r="H26" s="3">
-        <v>-253500</v>
+        <v>24700</v>
       </c>
       <c r="I26" s="3">
-        <v>-245200</v>
+        <v>-250900</v>
       </c>
       <c r="J26" s="3">
+        <v>-242700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-198000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-175000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-213300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-169600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-212000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-450100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-381200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-573200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-352000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-277200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-499400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-437300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-294100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-56900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-87900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-156100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-141500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-162800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-137800</v>
       </c>
-      <c r="AC26" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD26" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>43700</v>
+      <c r="D27" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E27" s="3">
-        <v>-56800</v>
+        <v>43300</v>
       </c>
       <c r="F27" s="3">
-        <v>-30700</v>
+        <v>-56200</v>
       </c>
       <c r="G27" s="3">
-        <v>24300</v>
+        <v>-30400</v>
       </c>
       <c r="H27" s="3">
-        <v>-256200</v>
+        <v>24000</v>
       </c>
       <c r="I27" s="3">
-        <v>-249100</v>
+        <v>-253600</v>
       </c>
       <c r="J27" s="3">
+        <v>-246500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-201300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-176800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-215700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-171700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-212700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-450300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-384200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-575400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-355600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-275900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-504900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-439500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-294800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-98300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>2198300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-1737000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-248500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-267600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-410200</v>
       </c>
-      <c r="AC27" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD27" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2446,8 +2507,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,174 +2679,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>45200</v>
+        <v>-11000</v>
       </c>
       <c r="E32" s="3">
-        <v>69000</v>
+        <v>44700</v>
       </c>
       <c r="F32" s="3">
-        <v>15700</v>
+        <v>68300</v>
       </c>
       <c r="G32" s="3">
-        <v>-39200</v>
+        <v>15500</v>
       </c>
       <c r="H32" s="3">
-        <v>61600</v>
+        <v>-38800</v>
       </c>
       <c r="I32" s="3">
+        <v>61000</v>
+      </c>
+      <c r="J32" s="3">
         <v>-3000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-16800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-15100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-49100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-18400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>57400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-54200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>89300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>27300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-52700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-3800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>73300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>106200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-96800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-39800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-2300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-17900</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>1600</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>20200</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>43700</v>
+      <c r="D33" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E33" s="3">
-        <v>-56800</v>
+        <v>43300</v>
       </c>
       <c r="F33" s="3">
-        <v>-30700</v>
+        <v>-56200</v>
       </c>
       <c r="G33" s="3">
-        <v>24300</v>
+        <v>-30400</v>
       </c>
       <c r="H33" s="3">
-        <v>-256200</v>
+        <v>24000</v>
       </c>
       <c r="I33" s="3">
-        <v>-249100</v>
+        <v>-253600</v>
       </c>
       <c r="J33" s="3">
+        <v>-246500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-201300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-176800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-215700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-171700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-212700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-450300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-384200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-575400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-355600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-275900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-504900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-439500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-294800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-98300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>2198300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-1737000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-248500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-267600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-410200</v>
       </c>
-      <c r="AC33" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD33" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +2937,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>43700</v>
+      <c r="D35" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E35" s="3">
-        <v>-56800</v>
+        <v>43300</v>
       </c>
       <c r="F35" s="3">
-        <v>-30700</v>
+        <v>-56200</v>
       </c>
       <c r="G35" s="3">
-        <v>24300</v>
+        <v>-30400</v>
       </c>
       <c r="H35" s="3">
-        <v>-256200</v>
+        <v>24000</v>
       </c>
       <c r="I35" s="3">
-        <v>-249100</v>
+        <v>-253600</v>
       </c>
       <c r="J35" s="3">
+        <v>-246500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-201300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-176800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-215700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-171700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-212700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-450300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-384200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-575400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-355600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-275900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-504900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-439500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-294800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-98300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>2198300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-1737000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-248500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-267600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-410200</v>
       </c>
-      <c r="AC35" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD35" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,80 +3180,81 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1019400</v>
+        <v>643800</v>
       </c>
       <c r="E41" s="3">
-        <v>511300</v>
+        <v>1009000</v>
       </c>
       <c r="F41" s="3">
-        <v>419800</v>
+        <v>506000</v>
       </c>
       <c r="G41" s="3">
-        <v>547400</v>
+        <v>415500</v>
       </c>
       <c r="H41" s="3">
-        <v>430500</v>
+        <v>541800</v>
       </c>
       <c r="I41" s="3">
-        <v>1047900</v>
+        <v>426100</v>
       </c>
       <c r="J41" s="3">
+        <v>1037100</v>
+      </c>
+      <c r="K41" s="3">
         <v>960100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1023500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1519400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>461900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>630800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>578200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>913800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>702900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>829200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1806300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>666100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>816200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1159100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>57900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>105200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>176500</v>
       </c>
-      <c r="Z41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AA41" s="3" t="s">
         <v>16</v>
       </c>
@@ -3177,80 +3264,83 @@
       <c r="AC41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>117500</v>
+        <v>95100</v>
       </c>
       <c r="E42" s="3">
-        <v>211200</v>
+        <v>116300</v>
       </c>
       <c r="F42" s="3">
-        <v>271500</v>
+        <v>209000</v>
       </c>
       <c r="G42" s="3">
-        <v>184200</v>
+        <v>268700</v>
       </c>
       <c r="H42" s="3">
-        <v>193600</v>
+        <v>182300</v>
       </c>
       <c r="I42" s="3">
-        <v>525900</v>
+        <v>191700</v>
       </c>
       <c r="J42" s="3">
+        <v>520500</v>
+      </c>
+      <c r="K42" s="3">
         <v>793700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>823300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>467500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>526300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>618400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>823300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>705100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1067400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1347200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>591100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>880400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>538000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>665100</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>70700</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>111900</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>497500</v>
       </c>
-      <c r="Z42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AA42" s="3" t="s">
         <v>16</v>
       </c>
@@ -3260,80 +3350,83 @@
       <c r="AC42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>360000</v>
+        <v>411400</v>
       </c>
       <c r="E43" s="3">
-        <v>395500</v>
+        <v>356300</v>
       </c>
       <c r="F43" s="3">
-        <v>370900</v>
+        <v>391500</v>
       </c>
       <c r="G43" s="3">
-        <v>403800</v>
+        <v>367100</v>
       </c>
       <c r="H43" s="3">
-        <v>417000</v>
+        <v>399700</v>
       </c>
       <c r="I43" s="3">
-        <v>453400</v>
+        <v>412700</v>
       </c>
       <c r="J43" s="3">
+        <v>448800</v>
+      </c>
+      <c r="K43" s="3">
         <v>478900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>494800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>478900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>500900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>503700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>717100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>591200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>514100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>513100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>535000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>460500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>452200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>350200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>420800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>322200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>693700</v>
       </c>
-      <c r="Z43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AA43" s="3" t="s">
         <v>16</v>
       </c>
@@ -3343,80 +3436,83 @@
       <c r="AC43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>107100</v>
+        <v>133700</v>
       </c>
       <c r="E44" s="3">
+        <v>106100</v>
+      </c>
+      <c r="F44" s="3">
+        <v>116300</v>
+      </c>
+      <c r="G44" s="3">
+        <v>113200</v>
+      </c>
+      <c r="H44" s="3">
+        <v>129400</v>
+      </c>
+      <c r="I44" s="3">
+        <v>132400</v>
+      </c>
+      <c r="J44" s="3">
+        <v>155900</v>
+      </c>
+      <c r="K44" s="3">
+        <v>127900</v>
+      </c>
+      <c r="L44" s="3">
+        <v>143600</v>
+      </c>
+      <c r="M44" s="3">
+        <v>144100</v>
+      </c>
+      <c r="N44" s="3">
+        <v>182200</v>
+      </c>
+      <c r="O44" s="3">
+        <v>174500</v>
+      </c>
+      <c r="P44" s="3">
+        <v>224300</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>188600</v>
+      </c>
+      <c r="R44" s="3">
+        <v>206500</v>
+      </c>
+      <c r="S44" s="3">
+        <v>179700</v>
+      </c>
+      <c r="T44" s="3">
+        <v>191900</v>
+      </c>
+      <c r="U44" s="3">
+        <v>169000</v>
+      </c>
+      <c r="V44" s="3">
+        <v>147200</v>
+      </c>
+      <c r="W44" s="3">
+        <v>162900</v>
+      </c>
+      <c r="X44" s="3">
+        <v>172400</v>
+      </c>
+      <c r="Y44" s="3">
         <v>117500</v>
       </c>
-      <c r="F44" s="3">
-        <v>114300</v>
-      </c>
-      <c r="G44" s="3">
-        <v>130700</v>
-      </c>
-      <c r="H44" s="3">
-        <v>133700</v>
-      </c>
-      <c r="I44" s="3">
-        <v>157500</v>
-      </c>
-      <c r="J44" s="3">
-        <v>127900</v>
-      </c>
-      <c r="K44" s="3">
-        <v>143600</v>
-      </c>
-      <c r="L44" s="3">
-        <v>144100</v>
-      </c>
-      <c r="M44" s="3">
-        <v>182200</v>
-      </c>
-      <c r="N44" s="3">
-        <v>174500</v>
-      </c>
-      <c r="O44" s="3">
-        <v>224300</v>
-      </c>
-      <c r="P44" s="3">
-        <v>188600</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>206500</v>
-      </c>
-      <c r="R44" s="3">
-        <v>179700</v>
-      </c>
-      <c r="S44" s="3">
-        <v>191900</v>
-      </c>
-      <c r="T44" s="3">
-        <v>169000</v>
-      </c>
-      <c r="U44" s="3">
-        <v>147200</v>
-      </c>
-      <c r="V44" s="3">
-        <v>162900</v>
-      </c>
-      <c r="W44" s="3">
-        <v>172400</v>
-      </c>
-      <c r="X44" s="3">
-        <v>117500</v>
-      </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>110300</v>
       </c>
-      <c r="Z44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AA44" s="3" t="s">
         <v>16</v>
       </c>
@@ -3426,80 +3522,83 @@
       <c r="AC44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>375800</v>
+        <v>1595900</v>
       </c>
       <c r="E45" s="3">
-        <v>322300</v>
+        <v>371900</v>
       </c>
       <c r="F45" s="3">
-        <v>318900</v>
+        <v>319000</v>
       </c>
       <c r="G45" s="3">
-        <v>396500</v>
+        <v>315700</v>
       </c>
       <c r="H45" s="3">
-        <v>480300</v>
+        <v>392500</v>
       </c>
       <c r="I45" s="3">
-        <v>546500</v>
+        <v>475400</v>
       </c>
       <c r="J45" s="3">
+        <v>540900</v>
+      </c>
+      <c r="K45" s="3">
         <v>588900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>597800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>492900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>601500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>679700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>690600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>722800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1031300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>926000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>772700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>707300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>430500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>377800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>145500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>161200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>137200</v>
       </c>
-      <c r="Z45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AA45" s="3" t="s">
         <v>16</v>
       </c>
@@ -3509,80 +3608,83 @@
       <c r="AC45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1979900</v>
+        <v>2880000</v>
       </c>
       <c r="E46" s="3">
-        <v>1557800</v>
+        <v>1959600</v>
       </c>
       <c r="F46" s="3">
-        <v>1495500</v>
+        <v>1541900</v>
       </c>
       <c r="G46" s="3">
-        <v>1662600</v>
+        <v>1480200</v>
       </c>
       <c r="H46" s="3">
-        <v>1655100</v>
+        <v>1645600</v>
       </c>
       <c r="I46" s="3">
-        <v>2731300</v>
+        <v>1638200</v>
       </c>
       <c r="J46" s="3">
+        <v>2703300</v>
+      </c>
+      <c r="K46" s="3">
         <v>2949500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3083100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3102800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2272700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2607100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3033400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3121600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3522200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3795200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3897100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2883300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2384200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2715100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>867300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>817900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1615200</v>
       </c>
-      <c r="Z46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AA46" s="3" t="s">
         <v>16</v>
       </c>
@@ -3592,80 +3694,83 @@
       <c r="AC46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>361000</v>
+        <v>329800</v>
       </c>
       <c r="E47" s="3">
-        <v>419000</v>
+        <v>357300</v>
       </c>
       <c r="F47" s="3">
-        <v>463300</v>
+        <v>414700</v>
       </c>
       <c r="G47" s="3">
-        <v>470700</v>
+        <v>458500</v>
       </c>
       <c r="H47" s="3">
-        <v>447500</v>
+        <v>465800</v>
       </c>
       <c r="I47" s="3">
-        <v>505000</v>
+        <v>443000</v>
       </c>
       <c r="J47" s="3">
+        <v>499900</v>
+      </c>
+      <c r="K47" s="3">
         <v>503200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>485900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>451300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>577200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>579900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>580200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>485700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>480400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>413700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>400600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>381200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>322800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>173900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>170000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>81500</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>59000</v>
       </c>
-      <c r="Z47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AA47" s="3" t="s">
         <v>16</v>
       </c>
@@ -3675,80 +3780,83 @@
       <c r="AC47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>255500</v>
+        <v>240300</v>
       </c>
       <c r="E48" s="3">
-        <v>270700</v>
+        <v>252800</v>
       </c>
       <c r="F48" s="3">
-        <v>301700</v>
+        <v>267900</v>
       </c>
       <c r="G48" s="3">
-        <v>315100</v>
+        <v>298600</v>
       </c>
       <c r="H48" s="3">
-        <v>323400</v>
+        <v>311800</v>
       </c>
       <c r="I48" s="3">
-        <v>324000</v>
+        <v>320100</v>
       </c>
       <c r="J48" s="3">
+        <v>320700</v>
+      </c>
+      <c r="K48" s="3">
         <v>345200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>323500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>333400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>360000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>408400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>402000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>381400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>369600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>358100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>265700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>235000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>206500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>196600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>189200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>179200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>179600</v>
       </c>
-      <c r="Z48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AA48" s="3" t="s">
         <v>16</v>
       </c>
@@ -3758,80 +3866,83 @@
       <c r="AC48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3462000</v>
+        <v>3346900</v>
       </c>
       <c r="E49" s="3">
-        <v>3476500</v>
+        <v>3426600</v>
       </c>
       <c r="F49" s="3">
-        <v>3400400</v>
+        <v>3440900</v>
       </c>
       <c r="G49" s="3">
-        <v>3374600</v>
+        <v>3365600</v>
       </c>
       <c r="H49" s="3">
-        <v>3252000</v>
+        <v>3340100</v>
       </c>
       <c r="I49" s="3">
-        <v>3065200</v>
+        <v>3218700</v>
       </c>
       <c r="J49" s="3">
+        <v>3033800</v>
+      </c>
+      <c r="K49" s="3">
         <v>2854200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2546200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2436900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2355300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2174600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2369400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2362800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2601800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2423100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2432100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2315500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2285000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1858100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1623800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1409900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1221500</v>
       </c>
-      <c r="Z49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AA49" s="3" t="s">
         <v>16</v>
       </c>
@@ -3841,8 +3952,11 @@
       <c r="AC49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,80 +4124,83 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>555100</v>
+        <v>599500</v>
       </c>
       <c r="E52" s="3">
-        <v>436200</v>
+        <v>549400</v>
       </c>
       <c r="F52" s="3">
-        <v>455900</v>
+        <v>431700</v>
       </c>
       <c r="G52" s="3">
-        <v>437000</v>
+        <v>451200</v>
       </c>
       <c r="H52" s="3">
-        <v>421800</v>
+        <v>432500</v>
       </c>
       <c r="I52" s="3">
-        <v>454500</v>
+        <v>417500</v>
       </c>
       <c r="J52" s="3">
+        <v>449900</v>
+      </c>
+      <c r="K52" s="3">
         <v>373200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>380400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>382900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>405700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>460100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>431800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>545600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>562800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>686200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>787200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>685500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>570200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>530500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>439700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>409900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>378500</v>
       </c>
-      <c r="Z52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AA52" s="3" t="s">
         <v>16</v>
       </c>
@@ -4090,8 +4210,11 @@
       <c r="AC52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,80 +4296,83 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6613500</v>
+        <v>7396500</v>
       </c>
       <c r="E54" s="3">
-        <v>6160200</v>
+        <v>6545800</v>
       </c>
       <c r="F54" s="3">
-        <v>6116800</v>
+        <v>6097200</v>
       </c>
       <c r="G54" s="3">
-        <v>6259900</v>
+        <v>6054200</v>
       </c>
       <c r="H54" s="3">
-        <v>6099900</v>
+        <v>6195900</v>
       </c>
       <c r="I54" s="3">
-        <v>7080000</v>
+        <v>6037400</v>
       </c>
       <c r="J54" s="3">
+        <v>7007500</v>
+      </c>
+      <c r="K54" s="3">
         <v>7025300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6819100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6707400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5970900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6230000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6816800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6897200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7536800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7676300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7782700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6500500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5768700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5474100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3289900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2898400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>3453700</v>
       </c>
-      <c r="Z54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AA54" s="3" t="s">
         <v>16</v>
       </c>
@@ -4256,8 +4382,11 @@
       <c r="AC54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,80 +4448,81 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>860800</v>
+        <v>813300</v>
       </c>
       <c r="E57" s="3">
-        <v>988400</v>
+        <v>852000</v>
       </c>
       <c r="F57" s="3">
-        <v>906400</v>
+        <v>978300</v>
       </c>
       <c r="G57" s="3">
-        <v>1008500</v>
+        <v>897100</v>
       </c>
       <c r="H57" s="3">
-        <v>1277700</v>
+        <v>998200</v>
       </c>
       <c r="I57" s="3">
-        <v>1311000</v>
+        <v>1264600</v>
       </c>
       <c r="J57" s="3">
+        <v>1297500</v>
+      </c>
+      <c r="K57" s="3">
         <v>1181700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1045200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1052600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1088800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1133500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1304000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1264600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1574100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1464200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1574600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1475900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1458800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1269100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1252000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1010300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1035600</v>
       </c>
-      <c r="Z57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AA57" s="3" t="s">
         <v>16</v>
       </c>
@@ -4401,80 +4532,83 @@
       <c r="AC57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1673600</v>
+        <v>1638600</v>
       </c>
       <c r="E58" s="3">
-        <v>1789400</v>
+        <v>1656500</v>
       </c>
       <c r="F58" s="3">
-        <v>1734500</v>
+        <v>1771100</v>
       </c>
       <c r="G58" s="3">
-        <v>630700</v>
+        <v>1716700</v>
       </c>
       <c r="H58" s="3">
-        <v>591400</v>
+        <v>624200</v>
       </c>
       <c r="I58" s="3">
-        <v>1357900</v>
+        <v>585300</v>
       </c>
       <c r="J58" s="3">
+        <v>1344000</v>
+      </c>
+      <c r="K58" s="3">
         <v>1249600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1102100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1200900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>662600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>601300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>519500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>516600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>604300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>667800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>557600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>454600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>165500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>89900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>58400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>44400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1232000</v>
       </c>
-      <c r="Z58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AA58" s="3" t="s">
         <v>16</v>
       </c>
@@ -4484,80 +4618,83 @@
       <c r="AC58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1505600</v>
+        <v>1482300</v>
       </c>
       <c r="E59" s="3">
-        <v>1408600</v>
+        <v>1490200</v>
       </c>
       <c r="F59" s="3">
-        <v>1403000</v>
+        <v>1394200</v>
       </c>
       <c r="G59" s="3">
-        <v>1445700</v>
+        <v>1388700</v>
       </c>
       <c r="H59" s="3">
-        <v>1359000</v>
+        <v>1430900</v>
       </c>
       <c r="I59" s="3">
-        <v>1344900</v>
+        <v>1345100</v>
       </c>
       <c r="J59" s="3">
+        <v>1331100</v>
+      </c>
+      <c r="K59" s="3">
         <v>1335500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1355800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1206300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1242700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1281200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1445100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1325100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1178200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1144200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1013800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>946900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>887200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>710200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>619500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>613400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1325600</v>
       </c>
-      <c r="Z59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AA59" s="3" t="s">
         <v>16</v>
       </c>
@@ -4567,80 +4704,83 @@
       <c r="AC59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4040000</v>
+        <v>3934200</v>
       </c>
       <c r="E60" s="3">
-        <v>4186400</v>
+        <v>3998700</v>
       </c>
       <c r="F60" s="3">
-        <v>4043900</v>
+        <v>4143600</v>
       </c>
       <c r="G60" s="3">
-        <v>3084900</v>
+        <v>4002500</v>
       </c>
       <c r="H60" s="3">
-        <v>3228100</v>
+        <v>3053400</v>
       </c>
       <c r="I60" s="3">
-        <v>4013700</v>
+        <v>3195000</v>
       </c>
       <c r="J60" s="3">
+        <v>3972600</v>
+      </c>
+      <c r="K60" s="3">
         <v>3766800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3503200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3459800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2994100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3016000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3268600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3106300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3356700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3276200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3146000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2877300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2511500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2069200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1929900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1668000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>3593200</v>
       </c>
-      <c r="Z60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AA60" s="3" t="s">
         <v>16</v>
       </c>
@@ -4650,80 +4790,83 @@
       <c r="AC60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1374200</v>
+        <v>1658700</v>
       </c>
       <c r="E61" s="3">
-        <v>914900</v>
+        <v>1360100</v>
       </c>
       <c r="F61" s="3">
-        <v>860300</v>
+        <v>905500</v>
       </c>
       <c r="G61" s="3">
-        <v>1901400</v>
+        <v>851500</v>
       </c>
       <c r="H61" s="3">
-        <v>1817100</v>
+        <v>1881900</v>
       </c>
       <c r="I61" s="3">
-        <v>1819900</v>
+        <v>1798500</v>
       </c>
       <c r="J61" s="3">
+        <v>1801200</v>
+      </c>
+      <c r="K61" s="3">
         <v>1808500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1763700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1660200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1889000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2001200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2112200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2029000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2057800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1879700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1856600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>777900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>38300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>39000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>40000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>40700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>42100</v>
       </c>
-      <c r="Z61" s="3">
-        <v>0</v>
-      </c>
       <c r="AA61" s="3">
         <v>0</v>
       </c>
@@ -4733,80 +4876,83 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>288200</v>
+        <v>289400</v>
       </c>
       <c r="E62" s="3">
-        <v>276100</v>
+        <v>285200</v>
       </c>
       <c r="F62" s="3">
-        <v>298300</v>
+        <v>273200</v>
       </c>
       <c r="G62" s="3">
-        <v>282500</v>
+        <v>295300</v>
       </c>
       <c r="H62" s="3">
-        <v>239900</v>
+        <v>279600</v>
       </c>
       <c r="I62" s="3">
-        <v>234900</v>
+        <v>237400</v>
       </c>
       <c r="J62" s="3">
+        <v>232500</v>
+      </c>
+      <c r="K62" s="3">
         <v>253100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>258600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>272800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>288000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>290300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>281500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>266000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>220700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>225900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>248700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>208500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>210000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>97000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>96100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1100</v>
       </c>
-      <c r="Z62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AA62" s="3" t="s">
         <v>16</v>
       </c>
@@ -4816,8 +4962,11 @@
       <c r="AC62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,80 +5220,83 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5715700</v>
+        <v>5894100</v>
       </c>
       <c r="E66" s="3">
-        <v>5390900</v>
+        <v>5657200</v>
       </c>
       <c r="F66" s="3">
-        <v>5215900</v>
+        <v>5335800</v>
       </c>
       <c r="G66" s="3">
-        <v>5278600</v>
+        <v>5162500</v>
       </c>
       <c r="H66" s="3">
-        <v>5354800</v>
+        <v>5224500</v>
       </c>
       <c r="I66" s="3">
-        <v>6133900</v>
+        <v>5300000</v>
       </c>
       <c r="J66" s="3">
+        <v>6071100</v>
+      </c>
+      <c r="K66" s="3">
         <v>5873200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5566700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5418900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5194800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5329500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5684500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5423400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5659900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5402400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5268100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3880900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2771200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2205600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2066400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1710600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3636400</v>
       </c>
-      <c r="Z66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AA66" s="3" t="s">
         <v>16</v>
       </c>
@@ -5148,8 +5306,11 @@
       <c r="AC66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5408,17 +5576,17 @@
         <v>0</v>
       </c>
       <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
         <v>3284400</v>
       </c>
-      <c r="X70" s="3">
+      <c r="Y70" s="3">
         <v>3242900</v>
       </c>
-      <c r="Y70" s="3">
+      <c r="Z70" s="3">
         <v>4323600</v>
       </c>
-      <c r="Z70" s="3">
-        <v>0</v>
-      </c>
       <c r="AA70" s="3">
         <v>0</v>
       </c>
@@ -5428,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,80 +5682,83 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-6678200</v>
+        <v>-6522000</v>
       </c>
       <c r="E72" s="3">
-        <v>-6721900</v>
+        <v>-6609800</v>
       </c>
       <c r="F72" s="3">
-        <v>-6665100</v>
+        <v>-6653100</v>
       </c>
       <c r="G72" s="3">
-        <v>-6634300</v>
+        <v>-6596800</v>
       </c>
       <c r="H72" s="3">
-        <v>-6773700</v>
+        <v>-6566400</v>
       </c>
       <c r="I72" s="3">
-        <v>-6517500</v>
+        <v>-6704300</v>
       </c>
       <c r="J72" s="3">
+        <v>-6450800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-6268400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-5880400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-5703600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-5757100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-5636300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-5750400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-5209800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-4889200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-4224500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-3852200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-3414300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-2796700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-2357100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-2130900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-2154600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-4631600</v>
       </c>
-      <c r="Z72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AA72" s="3" t="s">
         <v>16</v>
       </c>
@@ -5594,8 +5768,11 @@
       <c r="AC72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,80 +6026,83 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>897700</v>
+        <v>1514100</v>
       </c>
       <c r="E76" s="3">
-        <v>769300</v>
+        <v>888500</v>
       </c>
       <c r="F76" s="3">
-        <v>900900</v>
+        <v>761400</v>
       </c>
       <c r="G76" s="3">
-        <v>981400</v>
+        <v>891600</v>
       </c>
       <c r="H76" s="3">
-        <v>745000</v>
+        <v>971300</v>
       </c>
       <c r="I76" s="3">
-        <v>946100</v>
+        <v>737400</v>
       </c>
       <c r="J76" s="3">
+        <v>936400</v>
+      </c>
+      <c r="K76" s="3">
         <v>1152200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1252400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1288500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>776100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>900500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1132300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1473700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1876900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2273900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2514600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2619500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2997500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3268500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-2060900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-2055000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-4506300</v>
       </c>
-      <c r="Z76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AA76" s="3" t="s">
         <v>16</v>
       </c>
@@ -5926,8 +6112,11 @@
       <c r="AC76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6198,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>43700</v>
+      <c r="D81" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E81" s="3">
-        <v>-56800</v>
+        <v>43300</v>
       </c>
       <c r="F81" s="3">
-        <v>-30700</v>
+        <v>-56200</v>
       </c>
       <c r="G81" s="3">
-        <v>24300</v>
+        <v>-30400</v>
       </c>
       <c r="H81" s="3">
-        <v>-256200</v>
+        <v>24000</v>
       </c>
       <c r="I81" s="3">
-        <v>-249100</v>
+        <v>-253600</v>
       </c>
       <c r="J81" s="3">
+        <v>-246500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-201300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-176800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-215700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-171700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-212700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-450300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-384200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-575400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-355600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-275900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-504900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-439500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-294800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-98300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>2198300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-1737000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-248500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-267600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-410200</v>
       </c>
-      <c r="AC81" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD81" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,8 +6409,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6285,8 +6484,8 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-      <c r="AA83" s="3" t="s">
-        <v>16</v>
+      <c r="AA83" s="3">
+        <v>0</v>
       </c>
       <c r="AB83" s="3" t="s">
         <v>16</v>
@@ -6294,8 +6493,11 @@
       <c r="AC83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,50 +6923,53 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>122600</v>
+        <v>142400</v>
       </c>
       <c r="E89" s="3">
-        <v>28100</v>
+        <v>121300</v>
       </c>
       <c r="F89" s="3">
-        <v>6800</v>
+        <v>27800</v>
       </c>
       <c r="G89" s="3">
-        <v>-167600</v>
+        <v>6700</v>
       </c>
       <c r="H89" s="3">
-        <v>-157300</v>
+        <v>-165900</v>
       </c>
       <c r="I89" s="3">
-        <v>-298800</v>
+        <v>-155700</v>
       </c>
       <c r="J89" s="3">
+        <v>-295700</v>
+      </c>
+      <c r="K89" s="3">
         <v>-204800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-187900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-211500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-281700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-200200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-94600</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>16</v>
       </c>
@@ -6765,8 +6982,8 @@
       <c r="T89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
+      <c r="U89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="V89" s="3">
         <v>0</v>
@@ -6783,8 +7000,8 @@
       <c r="Z89" s="3">
         <v>0</v>
       </c>
-      <c r="AA89" s="3" t="s">
-        <v>16</v>
+      <c r="AA89" s="3">
+        <v>0</v>
       </c>
       <c r="AB89" s="3" t="s">
         <v>16</v>
@@ -6792,8 +7009,11 @@
       <c r="AC89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,31 +7043,32 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1300</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
-        <v>-6900</v>
+        <v>-8800</v>
       </c>
       <c r="F91" s="3">
-        <v>-9500</v>
+        <v>-48100</v>
       </c>
       <c r="G91" s="3">
-        <v>-7400</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>16</v>
+        <v>-66000</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>16</v>
@@ -6858,8 +7079,8 @@
       <c r="M91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -6897,8 +7118,8 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-      <c r="AA91" s="3" t="s">
-        <v>16</v>
+      <c r="AA91" s="3">
+        <v>0</v>
       </c>
       <c r="AB91" s="3" t="s">
         <v>16</v>
@@ -6906,8 +7127,11 @@
       <c r="AC91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,50 +7299,53 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>83100</v>
+        <v>23700</v>
       </c>
       <c r="E94" s="3">
-        <v>58400</v>
+        <v>82300</v>
       </c>
       <c r="F94" s="3">
-        <v>-93700</v>
+        <v>57800</v>
       </c>
       <c r="G94" s="3">
-        <v>-9700</v>
+        <v>-92700</v>
       </c>
       <c r="H94" s="3">
-        <v>301200</v>
+        <v>-9600</v>
       </c>
       <c r="I94" s="3">
-        <v>270700</v>
+        <v>298100</v>
       </c>
       <c r="J94" s="3">
+        <v>268000</v>
+      </c>
+      <c r="K94" s="3">
         <v>8400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-386700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>39200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>50100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>168600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-252000</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>16</v>
       </c>
@@ -7128,8 +7358,8 @@
       <c r="T94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
+      <c r="U94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="V94" s="3">
         <v>0</v>
@@ -7146,8 +7376,8 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-      <c r="AA94" s="3" t="s">
-        <v>16</v>
+      <c r="AA94" s="3">
+        <v>0</v>
       </c>
       <c r="AB94" s="3" t="s">
         <v>16</v>
@@ -7155,8 +7385,11 @@
       <c r="AC94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7419,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7503,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,50 +7761,53 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>411000</v>
+        <v>-477100</v>
       </c>
       <c r="E100" s="3">
-        <v>-15200</v>
+        <v>406800</v>
       </c>
       <c r="F100" s="3">
-        <v>-47900</v>
+        <v>-15100</v>
       </c>
       <c r="G100" s="3">
-        <v>293900</v>
+        <v>-47400</v>
       </c>
       <c r="H100" s="3">
-        <v>-752400</v>
+        <v>290900</v>
       </c>
       <c r="I100" s="3">
-        <v>124600</v>
+        <v>-744700</v>
       </c>
       <c r="J100" s="3">
+        <v>123300</v>
+      </c>
+      <c r="K100" s="3">
         <v>115100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>85000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1168200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>34800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>121200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-12400</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>16</v>
       </c>
@@ -7574,8 +7820,8 @@
       <c r="T100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
+      <c r="U100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="V100" s="3">
         <v>0</v>
@@ -7592,8 +7838,8 @@
       <c r="Z100" s="3">
         <v>0</v>
       </c>
-      <c r="AA100" s="3" t="s">
-        <v>16</v>
+      <c r="AA100" s="3">
+        <v>0</v>
       </c>
       <c r="AB100" s="3" t="s">
         <v>16</v>
@@ -7601,50 +7847,53 @@
       <c r="AC100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>8600</v>
       </c>
-      <c r="F101" s="3">
-        <v>10800</v>
-      </c>
       <c r="G101" s="3">
+        <v>10700</v>
+      </c>
+      <c r="H101" s="3">
         <v>-600</v>
       </c>
-      <c r="H101" s="3">
-        <v>-10600</v>
-      </c>
       <c r="I101" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="J101" s="3">
         <v>-3200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-13300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-3900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-4600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-16500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>10100</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q101" s="3" t="s">
         <v>16</v>
       </c>
@@ -7657,8 +7906,8 @@
       <c r="T101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
+      <c r="U101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="V101" s="3">
         <v>0</v>
@@ -7675,8 +7924,8 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-      <c r="AA101" s="3" t="s">
-        <v>16</v>
+      <c r="AA101" s="3">
+        <v>0</v>
       </c>
       <c r="AB101" s="3" t="s">
         <v>16</v>
@@ -7684,50 +7933,53 @@
       <c r="AC101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>615500</v>
+        <v>-312300</v>
       </c>
       <c r="E102" s="3">
-        <v>80000</v>
+        <v>609200</v>
       </c>
       <c r="F102" s="3">
-        <v>-124000</v>
+        <v>79200</v>
       </c>
       <c r="G102" s="3">
-        <v>116000</v>
+        <v>-122700</v>
       </c>
       <c r="H102" s="3">
-        <v>-619100</v>
+        <v>114800</v>
       </c>
       <c r="I102" s="3">
-        <v>93300</v>
+        <v>-612800</v>
       </c>
       <c r="J102" s="3">
+        <v>92400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-94700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-493500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>991300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-213400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>88300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-348900</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>16</v>
       </c>
@@ -7740,8 +7992,8 @@
       <c r="T102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
+      <c r="U102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="V102" s="3">
         <v>0</v>
@@ -7758,13 +8010,16 @@
       <c r="Z102" s="3">
         <v>0</v>
       </c>
-      <c r="AA102" s="3" t="s">
-        <v>16</v>
+      <c r="AA102" s="3">
+        <v>0</v>
       </c>
       <c r="AB102" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AC102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IQ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="92">
   <si>
     <t>IQ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,384 +665,397 @@
     <col min="1" max="1" width="4.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1186800</v>
+        <v>1075000</v>
       </c>
       <c r="E8" s="3">
-        <v>1079300</v>
+        <v>1150300</v>
       </c>
       <c r="F8" s="3">
-        <v>1062000</v>
+        <v>1046100</v>
       </c>
       <c r="G8" s="3">
-        <v>946200</v>
+        <v>1029400</v>
       </c>
       <c r="H8" s="3">
-        <v>1034400</v>
+        <v>917100</v>
       </c>
       <c r="I8" s="3">
-        <v>1050300</v>
+        <v>1002600</v>
       </c>
       <c r="J8" s="3">
+        <v>1018000</v>
+      </c>
+      <c r="K8" s="3">
         <v>1078800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1092700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1109200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1038200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1049600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1092200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1197700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1154300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1154000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1086300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1063300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1020600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>967700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>863600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>699800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>691200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>734700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>642100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>477600</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>458800</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>473800</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>846600</v>
+        <v>795500</v>
       </c>
       <c r="E9" s="3">
-        <v>767900</v>
+        <v>820600</v>
       </c>
       <c r="F9" s="3">
-        <v>811000</v>
+        <v>744300</v>
       </c>
       <c r="G9" s="3">
-        <v>746000</v>
+        <v>786100</v>
       </c>
       <c r="H9" s="3">
-        <v>847800</v>
+        <v>723100</v>
       </c>
       <c r="I9" s="3">
-        <v>925000</v>
+        <v>821700</v>
       </c>
       <c r="J9" s="3">
+        <v>896600</v>
+      </c>
+      <c r="K9" s="3">
         <v>999000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>986500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>989600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>944400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>929300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1007000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1237300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1218700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1275500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1066600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1107000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1237800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1071400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>854700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>695600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>650700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>726900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1304500</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1035100</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>453900</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>456800</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>340100</v>
+        <v>279500</v>
       </c>
       <c r="E10" s="3">
-        <v>311400</v>
+        <v>329700</v>
       </c>
       <c r="F10" s="3">
-        <v>251000</v>
+        <v>301800</v>
       </c>
       <c r="G10" s="3">
-        <v>200200</v>
+        <v>243300</v>
       </c>
       <c r="H10" s="3">
-        <v>186700</v>
+        <v>194100</v>
       </c>
       <c r="I10" s="3">
-        <v>125200</v>
+        <v>180900</v>
       </c>
       <c r="J10" s="3">
+        <v>121400</v>
+      </c>
+      <c r="K10" s="3">
         <v>79800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>106200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>119600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>93800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>120400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>85200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-39600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-64300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-121500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>19700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-43700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>-217200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>-103700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>8900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>4200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>40500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>7800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>-662500</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>-557500</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>4900</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,94 +1086,98 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>60900</v>
+        <v>60500</v>
       </c>
       <c r="E12" s="3">
-        <v>66300</v>
+        <v>59000</v>
       </c>
       <c r="F12" s="3">
-        <v>67600</v>
+        <v>64200</v>
       </c>
       <c r="G12" s="3">
-        <v>68500</v>
+        <v>65600</v>
       </c>
       <c r="H12" s="3">
-        <v>67500</v>
+        <v>66400</v>
       </c>
       <c r="I12" s="3">
-        <v>108500</v>
+        <v>65400</v>
       </c>
       <c r="J12" s="3">
+        <v>105100</v>
+      </c>
+      <c r="K12" s="3">
         <v>97100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>97200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>93600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>92300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>97800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>97900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>106200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>109500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>109700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>100000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>91000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>88200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>78100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>61800</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>55600</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>52300</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>50800</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>87400</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>78200</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>35500</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>33400</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1245,8 +1262,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1331,8 +1351,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1064700</v>
+        <v>990900</v>
       </c>
       <c r="E17" s="3">
-        <v>967900</v>
+        <v>1032000</v>
       </c>
       <c r="F17" s="3">
-        <v>1018000</v>
+        <v>938200</v>
       </c>
       <c r="G17" s="3">
-        <v>928300</v>
+        <v>986700</v>
       </c>
       <c r="H17" s="3">
-        <v>1021200</v>
+        <v>899800</v>
       </c>
       <c r="I17" s="3">
-        <v>1188900</v>
+        <v>989800</v>
       </c>
       <c r="J17" s="3">
+        <v>1152400</v>
+      </c>
+      <c r="K17" s="3">
         <v>1273200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1253800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1250400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1220200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1226300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1281000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1548600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1543700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1595700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1372300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1371500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1503400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1330400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1049400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>852200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>814000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>893000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>789100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>628800</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>569700</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>557900</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>122100</v>
+        <v>84100</v>
       </c>
       <c r="E18" s="3">
-        <v>111400</v>
+        <v>118300</v>
       </c>
       <c r="F18" s="3">
-        <v>44000</v>
+        <v>108000</v>
       </c>
       <c r="G18" s="3">
-        <v>17900</v>
+        <v>42700</v>
       </c>
       <c r="H18" s="3">
-        <v>13300</v>
+        <v>17300</v>
       </c>
       <c r="I18" s="3">
-        <v>-138600</v>
+        <v>12900</v>
       </c>
       <c r="J18" s="3">
+        <v>-134400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-194500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-161100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-141200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-182000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-176600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-188900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-351000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-389400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-441800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-286000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-308200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-482800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-362700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-185900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-152400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-122800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-158300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-147000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-151200</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-110900</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-84100</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1650,94 +1683,98 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>11000</v>
+        <v>6100</v>
       </c>
       <c r="E20" s="3">
-        <v>-44700</v>
+        <v>10700</v>
       </c>
       <c r="F20" s="3">
-        <v>-68300</v>
+        <v>-43300</v>
       </c>
       <c r="G20" s="3">
-        <v>-15500</v>
+        <v>-66200</v>
       </c>
       <c r="H20" s="3">
-        <v>38800</v>
+        <v>-15000</v>
       </c>
       <c r="I20" s="3">
-        <v>-61000</v>
+        <v>37600</v>
       </c>
       <c r="J20" s="3">
+        <v>-59100</v>
+      </c>
+      <c r="K20" s="3">
         <v>3000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>16800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>15100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>49100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>18400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-57400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>54200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-89300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-27300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>52700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>3800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-73300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-106200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>96800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>39800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>2300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>17900</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-1600</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-20200</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1804,269 +1841,278 @@
       <c r="X21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z21" s="3">
         <v>1174600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>835600</v>
       </c>
-      <c r="AA21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AB21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AC21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD21" s="3">
         <v>598900</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>443800</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>40600</v>
+        <v>38400</v>
       </c>
       <c r="E22" s="3">
+        <v>39400</v>
+      </c>
+      <c r="F22" s="3">
+        <v>24300</v>
+      </c>
+      <c r="G22" s="3">
         <v>25000</v>
       </c>
-      <c r="F22" s="3">
-        <v>25800</v>
-      </c>
-      <c r="G22" s="3">
-        <v>25900</v>
-      </c>
       <c r="H22" s="3">
-        <v>24900</v>
+        <v>25100</v>
       </c>
       <c r="I22" s="3">
-        <v>46100</v>
+        <v>24200</v>
       </c>
       <c r="J22" s="3">
+        <v>44700</v>
+      </c>
+      <c r="K22" s="3">
         <v>49900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>49300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>46000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>37500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>39300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>39100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>41000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>42600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>39700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>37900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>20600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>8900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>2200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>1300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>1200</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>6300</v>
       </c>
-      <c r="Z22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA22" s="3">
+      <c r="AA22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB22" s="3">
         <v>12200</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>9900</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>6100</v>
       </c>
-      <c r="AD22" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>92500</v>
+        <v>51800</v>
       </c>
       <c r="E23" s="3">
-        <v>41700</v>
+        <v>89600</v>
       </c>
       <c r="F23" s="3">
-        <v>-50100</v>
+        <v>40400</v>
       </c>
       <c r="G23" s="3">
-        <v>-23500</v>
+        <v>-48600</v>
       </c>
       <c r="H23" s="3">
-        <v>27100</v>
+        <v>-22800</v>
       </c>
       <c r="I23" s="3">
-        <v>-245700</v>
+        <v>26300</v>
       </c>
       <c r="J23" s="3">
+        <v>-238200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-241400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-193600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-172100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-215500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-166900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-209600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-449400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-377800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-570700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-351100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-276100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-487900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-438200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-293400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-56900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-89300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-156000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-141400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-162700</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-137200</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-91300</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F24" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G24" s="3">
+        <v>5900</v>
+      </c>
+      <c r="H24" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I24" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J24" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L24" s="3">
+        <v>4400</v>
+      </c>
+      <c r="M24" s="3">
+        <v>2900</v>
+      </c>
+      <c r="N24" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="O24" s="3">
+        <v>2800</v>
+      </c>
+      <c r="P24" s="3">
+        <v>2300</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>800</v>
+      </c>
+      <c r="R24" s="3">
         <v>3500</v>
       </c>
-      <c r="E24" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="F24" s="3">
-        <v>6000</v>
-      </c>
-      <c r="G24" s="3">
-        <v>5100</v>
-      </c>
-      <c r="H24" s="3">
-        <v>2400</v>
-      </c>
-      <c r="I24" s="3">
-        <v>5200</v>
-      </c>
-      <c r="J24" s="3">
-        <v>1300</v>
-      </c>
-      <c r="K24" s="3">
-        <v>4400</v>
-      </c>
-      <c r="L24" s="3">
-        <v>2900</v>
-      </c>
-      <c r="M24" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="N24" s="3">
-        <v>2800</v>
-      </c>
-      <c r="O24" s="3">
-        <v>2300</v>
-      </c>
-      <c r="P24" s="3">
-        <v>800</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>3500</v>
-      </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>11500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-1400</v>
-      </c>
-      <c r="Z24" s="3">
-        <v>100</v>
       </c>
       <c r="AA24" s="3">
         <v>100</v>
@@ -2075,13 +2121,16 @@
         <v>100</v>
       </c>
       <c r="AC24" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD24" s="3">
         <v>600</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>16</v>
+      <c r="D26" s="3">
+        <v>50700</v>
       </c>
       <c r="E26" s="3">
-        <v>43300</v>
+        <v>86200</v>
       </c>
       <c r="F26" s="3">
-        <v>-56100</v>
+        <v>42000</v>
       </c>
       <c r="G26" s="3">
-        <v>-28600</v>
+        <v>-54400</v>
       </c>
       <c r="H26" s="3">
-        <v>24700</v>
+        <v>-27700</v>
       </c>
       <c r="I26" s="3">
-        <v>-250900</v>
+        <v>24000</v>
       </c>
       <c r="J26" s="3">
+        <v>-243200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-242700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-198000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-175000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-213300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-169600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-212000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-450100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-381200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-573200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-352000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-277200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-499400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-437300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-294100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-56900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-87900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-156100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-141500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-162800</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-137800</v>
       </c>
-      <c r="AD26" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE26" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>16</v>
+      <c r="D27" s="3">
+        <v>50300</v>
       </c>
       <c r="E27" s="3">
-        <v>43300</v>
+        <v>85200</v>
       </c>
       <c r="F27" s="3">
-        <v>-56200</v>
+        <v>41900</v>
       </c>
       <c r="G27" s="3">
-        <v>-30400</v>
+        <v>-54500</v>
       </c>
       <c r="H27" s="3">
-        <v>24000</v>
+        <v>-29500</v>
       </c>
       <c r="I27" s="3">
-        <v>-253600</v>
+        <v>23300</v>
       </c>
       <c r="J27" s="3">
+        <v>-245800</v>
+      </c>
+      <c r="K27" s="3">
         <v>-246500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-201300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-176800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-215700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-171700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-212700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-450300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-384200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-575400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-355600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-275900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-504900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-439500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-294800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-98300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>2198300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-1737000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-248500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-267600</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-410200</v>
       </c>
-      <c r="AD27" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE27" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,180 +2749,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-11000</v>
+        <v>-6100</v>
       </c>
       <c r="E32" s="3">
-        <v>44700</v>
+        <v>-10700</v>
       </c>
       <c r="F32" s="3">
-        <v>68300</v>
+        <v>43300</v>
       </c>
       <c r="G32" s="3">
-        <v>15500</v>
+        <v>66200</v>
       </c>
       <c r="H32" s="3">
-        <v>-38800</v>
+        <v>15000</v>
       </c>
       <c r="I32" s="3">
-        <v>61000</v>
+        <v>-37600</v>
       </c>
       <c r="J32" s="3">
+        <v>59100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-3000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-16800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-15100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-49100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-18400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>57400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-54200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>89300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>27300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-52700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-3800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>73300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>106200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-96800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-39800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-2300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-17900</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>1600</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>20200</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>16</v>
+      <c r="D33" s="3">
+        <v>50300</v>
       </c>
       <c r="E33" s="3">
-        <v>43300</v>
+        <v>85200</v>
       </c>
       <c r="F33" s="3">
-        <v>-56200</v>
+        <v>41900</v>
       </c>
       <c r="G33" s="3">
-        <v>-30400</v>
+        <v>-54500</v>
       </c>
       <c r="H33" s="3">
-        <v>24000</v>
+        <v>-29500</v>
       </c>
       <c r="I33" s="3">
-        <v>-253600</v>
+        <v>23300</v>
       </c>
       <c r="J33" s="3">
+        <v>-245800</v>
+      </c>
+      <c r="K33" s="3">
         <v>-246500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-201300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-176800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-215700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-171700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-212700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-450300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-384200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-575400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-355600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-275900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-504900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-439500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-294800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-98300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>2198300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-1737000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-248500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-267600</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-410200</v>
       </c>
-      <c r="AD33" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE33" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>16</v>
+      <c r="D35" s="3">
+        <v>50300</v>
       </c>
       <c r="E35" s="3">
-        <v>43300</v>
+        <v>85200</v>
       </c>
       <c r="F35" s="3">
-        <v>-56200</v>
+        <v>41900</v>
       </c>
       <c r="G35" s="3">
-        <v>-30400</v>
+        <v>-54500</v>
       </c>
       <c r="H35" s="3">
-        <v>24000</v>
+        <v>-29500</v>
       </c>
       <c r="I35" s="3">
-        <v>-253600</v>
+        <v>23300</v>
       </c>
       <c r="J35" s="3">
+        <v>-245800</v>
+      </c>
+      <c r="K35" s="3">
         <v>-246500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-201300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-176800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-215700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-171700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-212700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-450300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-384200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-575400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-355600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-275900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-504900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-439500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-294800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-98300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>2198300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-1737000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-248500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-267600</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-410200</v>
       </c>
-      <c r="AD35" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE35" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,83 +3267,84 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>643800</v>
+        <v>491200</v>
       </c>
       <c r="E41" s="3">
-        <v>1009000</v>
+        <v>624000</v>
       </c>
       <c r="F41" s="3">
-        <v>506000</v>
+        <v>978000</v>
       </c>
       <c r="G41" s="3">
-        <v>415500</v>
+        <v>490500</v>
       </c>
       <c r="H41" s="3">
-        <v>541800</v>
+        <v>402800</v>
       </c>
       <c r="I41" s="3">
-        <v>426100</v>
+        <v>525100</v>
       </c>
       <c r="J41" s="3">
+        <v>413000</v>
+      </c>
+      <c r="K41" s="3">
         <v>1037100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>960100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1023500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1519400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>461900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>630800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>578200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>913800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>702900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>829200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1806300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>666100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>816200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1159100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>57900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>105200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>176500</v>
       </c>
-      <c r="AA41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AB41" s="3" t="s">
         <v>16</v>
       </c>
@@ -3267,83 +3354,86 @@
       <c r="AD41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>95100</v>
+        <v>139800</v>
       </c>
       <c r="E42" s="3">
-        <v>116300</v>
+        <v>92200</v>
       </c>
       <c r="F42" s="3">
-        <v>209000</v>
+        <v>112700</v>
       </c>
       <c r="G42" s="3">
-        <v>268700</v>
+        <v>202600</v>
       </c>
       <c r="H42" s="3">
-        <v>182300</v>
+        <v>260500</v>
       </c>
       <c r="I42" s="3">
-        <v>191700</v>
+        <v>176700</v>
       </c>
       <c r="J42" s="3">
+        <v>185800</v>
+      </c>
+      <c r="K42" s="3">
         <v>520500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>793700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>823300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>467500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>526300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>618400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>823300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>705100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1067400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1347200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>591100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>880400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>538000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>665100</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>70700</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>111900</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>497500</v>
       </c>
-      <c r="AA42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AB42" s="3" t="s">
         <v>16</v>
       </c>
@@ -3353,83 +3443,86 @@
       <c r="AD42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>411400</v>
+        <v>393000</v>
       </c>
       <c r="E43" s="3">
-        <v>356300</v>
+        <v>398800</v>
       </c>
       <c r="F43" s="3">
-        <v>391500</v>
+        <v>345400</v>
       </c>
       <c r="G43" s="3">
-        <v>367100</v>
+        <v>379400</v>
       </c>
       <c r="H43" s="3">
-        <v>399700</v>
+        <v>355800</v>
       </c>
       <c r="I43" s="3">
-        <v>412700</v>
+        <v>387400</v>
       </c>
       <c r="J43" s="3">
+        <v>400000</v>
+      </c>
+      <c r="K43" s="3">
         <v>448800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>478900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>494800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>478900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>500900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>503700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>717100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>591200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>514100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>513100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>535000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>460500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>452200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>350200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>420800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>322200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>693700</v>
       </c>
-      <c r="AA43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AB43" s="3" t="s">
         <v>16</v>
       </c>
@@ -3439,83 +3532,86 @@
       <c r="AD43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>133700</v>
+        <v>114600</v>
       </c>
       <c r="E44" s="3">
-        <v>106100</v>
+        <v>129600</v>
       </c>
       <c r="F44" s="3">
-        <v>116300</v>
+        <v>102800</v>
       </c>
       <c r="G44" s="3">
-        <v>113200</v>
+        <v>112700</v>
       </c>
       <c r="H44" s="3">
-        <v>129400</v>
+        <v>109700</v>
       </c>
       <c r="I44" s="3">
-        <v>132400</v>
+        <v>125400</v>
       </c>
       <c r="J44" s="3">
+        <v>128300</v>
+      </c>
+      <c r="K44" s="3">
         <v>155900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>127900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>143600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>144100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>182200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>174500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>224300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>188600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>206500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>179700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>191900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>169000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>147200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>162900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>172400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>117500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>110300</v>
       </c>
-      <c r="AA44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AB44" s="3" t="s">
         <v>16</v>
       </c>
@@ -3525,83 +3621,86 @@
       <c r="AD44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1595900</v>
+        <v>368000</v>
       </c>
       <c r="E45" s="3">
-        <v>371900</v>
+        <v>1546900</v>
       </c>
       <c r="F45" s="3">
-        <v>319000</v>
+        <v>360500</v>
       </c>
       <c r="G45" s="3">
-        <v>315700</v>
+        <v>309200</v>
       </c>
       <c r="H45" s="3">
-        <v>392500</v>
+        <v>306000</v>
       </c>
       <c r="I45" s="3">
-        <v>475400</v>
+        <v>380400</v>
       </c>
       <c r="J45" s="3">
+        <v>460800</v>
+      </c>
+      <c r="K45" s="3">
         <v>540900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>588900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>597800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>492900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>601500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>679700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>690600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>722800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1031300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>926000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>772700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>707300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>430500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>377800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>145500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>161200</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>137200</v>
       </c>
-      <c r="AA45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AB45" s="3" t="s">
         <v>16</v>
       </c>
@@ -3611,83 +3710,86 @@
       <c r="AD45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2880000</v>
+        <v>1506600</v>
       </c>
       <c r="E46" s="3">
-        <v>1959600</v>
+        <v>2791400</v>
       </c>
       <c r="F46" s="3">
-        <v>1541900</v>
+        <v>1899400</v>
       </c>
       <c r="G46" s="3">
-        <v>1480200</v>
+        <v>1494500</v>
       </c>
       <c r="H46" s="3">
-        <v>1645600</v>
+        <v>1434700</v>
       </c>
       <c r="I46" s="3">
-        <v>1638200</v>
+        <v>1595000</v>
       </c>
       <c r="J46" s="3">
+        <v>1587800</v>
+      </c>
+      <c r="K46" s="3">
         <v>2703300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2949500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3083100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3102800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2272700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2607100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3033400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3121600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3522200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3795200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3897100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2883300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2384200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2715100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>867300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>817900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1615200</v>
       </c>
-      <c r="AA46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AB46" s="3" t="s">
         <v>16</v>
       </c>
@@ -3697,83 +3799,86 @@
       <c r="AD46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>329800</v>
+        <v>349300</v>
       </c>
       <c r="E47" s="3">
-        <v>357300</v>
+        <v>319700</v>
       </c>
       <c r="F47" s="3">
-        <v>414700</v>
+        <v>346300</v>
       </c>
       <c r="G47" s="3">
-        <v>458500</v>
+        <v>402000</v>
       </c>
       <c r="H47" s="3">
-        <v>465800</v>
+        <v>444400</v>
       </c>
       <c r="I47" s="3">
-        <v>443000</v>
+        <v>451500</v>
       </c>
       <c r="J47" s="3">
+        <v>429300</v>
+      </c>
+      <c r="K47" s="3">
         <v>499900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>503200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>485900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>451300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>577200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>579900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>580200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>485700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>480400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>413700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>400600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>381200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>322800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>173900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>170000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>81500</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>59000</v>
       </c>
-      <c r="AA47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AB47" s="3" t="s">
         <v>16</v>
       </c>
@@ -3783,83 +3888,86 @@
       <c r="AD47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>240300</v>
+        <v>222700</v>
       </c>
       <c r="E48" s="3">
-        <v>252800</v>
+        <v>232900</v>
       </c>
       <c r="F48" s="3">
-        <v>267900</v>
+        <v>245100</v>
       </c>
       <c r="G48" s="3">
-        <v>298600</v>
+        <v>259700</v>
       </c>
       <c r="H48" s="3">
-        <v>311800</v>
+        <v>289400</v>
       </c>
       <c r="I48" s="3">
-        <v>320100</v>
+        <v>302200</v>
       </c>
       <c r="J48" s="3">
+        <v>310300</v>
+      </c>
+      <c r="K48" s="3">
         <v>320700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>345200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>323500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>333400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>360000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>408400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>402000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>381400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>369600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>358100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>265700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>235000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>206500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>196600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>189200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>179200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>179600</v>
       </c>
-      <c r="AA48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AB48" s="3" t="s">
         <v>16</v>
       </c>
@@ -3869,83 +3977,86 @@
       <c r="AD48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3346900</v>
+        <v>3223700</v>
       </c>
       <c r="E49" s="3">
-        <v>3426600</v>
+        <v>3244000</v>
       </c>
       <c r="F49" s="3">
-        <v>3440900</v>
+        <v>3321200</v>
       </c>
       <c r="G49" s="3">
-        <v>3365600</v>
+        <v>3335100</v>
       </c>
       <c r="H49" s="3">
-        <v>3340100</v>
+        <v>3262100</v>
       </c>
       <c r="I49" s="3">
-        <v>3218700</v>
+        <v>3237400</v>
       </c>
       <c r="J49" s="3">
+        <v>3119700</v>
+      </c>
+      <c r="K49" s="3">
         <v>3033800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2854200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2546200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2436900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2355300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2174600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2369400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2362800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2601800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2423100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2432100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2315500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2285000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1858100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1623800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1409900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1221500</v>
       </c>
-      <c r="AA49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AB49" s="3" t="s">
         <v>16</v>
       </c>
@@ -3955,8 +4066,11 @@
       <c r="AD49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,83 +4244,86 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>599500</v>
+        <v>634400</v>
       </c>
       <c r="E52" s="3">
-        <v>549400</v>
+        <v>581000</v>
       </c>
       <c r="F52" s="3">
-        <v>431700</v>
+        <v>532500</v>
       </c>
       <c r="G52" s="3">
-        <v>451200</v>
+        <v>418500</v>
       </c>
       <c r="H52" s="3">
-        <v>432500</v>
+        <v>437400</v>
       </c>
       <c r="I52" s="3">
-        <v>417500</v>
+        <v>419200</v>
       </c>
       <c r="J52" s="3">
+        <v>404700</v>
+      </c>
+      <c r="K52" s="3">
         <v>449900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>373200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>380400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>382900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>405700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>460100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>431800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>545600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>562800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>686200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>787200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>685500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>570200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>530500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>439700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>409900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>378500</v>
       </c>
-      <c r="AA52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AB52" s="3" t="s">
         <v>16</v>
       </c>
@@ -4213,8 +4333,11 @@
       <c r="AD52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,83 +4422,86 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7396500</v>
+        <v>5936800</v>
       </c>
       <c r="E54" s="3">
-        <v>6545800</v>
+        <v>7169100</v>
       </c>
       <c r="F54" s="3">
-        <v>6097200</v>
+        <v>6344500</v>
       </c>
       <c r="G54" s="3">
-        <v>6054200</v>
+        <v>5909700</v>
       </c>
       <c r="H54" s="3">
-        <v>6195900</v>
+        <v>5868000</v>
       </c>
       <c r="I54" s="3">
-        <v>6037400</v>
+        <v>6005400</v>
       </c>
       <c r="J54" s="3">
+        <v>5851800</v>
+      </c>
+      <c r="K54" s="3">
         <v>7007500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7025300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6819100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6707400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5970900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6230000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6816800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6897200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7536800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7676300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>7782700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6500500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5768700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>5474100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3289900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2898400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>3453700</v>
       </c>
-      <c r="AA54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AB54" s="3" t="s">
         <v>16</v>
       </c>
@@ -4385,8 +4511,11 @@
       <c r="AD54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,83 +4579,84 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>813300</v>
+        <v>790900</v>
       </c>
       <c r="E57" s="3">
-        <v>852000</v>
+        <v>788300</v>
       </c>
       <c r="F57" s="3">
-        <v>978300</v>
+        <v>825800</v>
       </c>
       <c r="G57" s="3">
-        <v>897100</v>
+        <v>948200</v>
       </c>
       <c r="H57" s="3">
-        <v>998200</v>
+        <v>869500</v>
       </c>
       <c r="I57" s="3">
+        <v>967500</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1225800</v>
+      </c>
+      <c r="K57" s="3">
+        <v>1297500</v>
+      </c>
+      <c r="L57" s="3">
+        <v>1181700</v>
+      </c>
+      <c r="M57" s="3">
+        <v>1045200</v>
+      </c>
+      <c r="N57" s="3">
+        <v>1052600</v>
+      </c>
+      <c r="O57" s="3">
+        <v>1088800</v>
+      </c>
+      <c r="P57" s="3">
+        <v>1133500</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>1304000</v>
+      </c>
+      <c r="R57" s="3">
         <v>1264600</v>
       </c>
-      <c r="J57" s="3">
-        <v>1297500</v>
-      </c>
-      <c r="K57" s="3">
-        <v>1181700</v>
-      </c>
-      <c r="L57" s="3">
-        <v>1045200</v>
-      </c>
-      <c r="M57" s="3">
-        <v>1052600</v>
-      </c>
-      <c r="N57" s="3">
-        <v>1088800</v>
-      </c>
-      <c r="O57" s="3">
-        <v>1133500</v>
-      </c>
-      <c r="P57" s="3">
-        <v>1304000</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>1264600</v>
-      </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1574100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1464200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1574600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1475900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1458800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1269100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1252000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1010300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1035600</v>
       </c>
-      <c r="AA57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AB57" s="3" t="s">
         <v>16</v>
       </c>
@@ -4535,83 +4666,86 @@
       <c r="AD57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1638600</v>
+        <v>415500</v>
       </c>
       <c r="E58" s="3">
-        <v>1656500</v>
+        <v>1588200</v>
       </c>
       <c r="F58" s="3">
-        <v>1771100</v>
+        <v>1605600</v>
       </c>
       <c r="G58" s="3">
         <v>1716700</v>
       </c>
       <c r="H58" s="3">
-        <v>624200</v>
+        <v>1664000</v>
       </c>
       <c r="I58" s="3">
-        <v>585300</v>
+        <v>605100</v>
       </c>
       <c r="J58" s="3">
+        <v>567300</v>
+      </c>
+      <c r="K58" s="3">
         <v>1344000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1249600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1102100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1200900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>662600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>601300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>519500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>516600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>604300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>667800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>557600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>454600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>165500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>89900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>58400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>44400</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1232000</v>
       </c>
-      <c r="AA58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AB58" s="3" t="s">
         <v>16</v>
       </c>
@@ -4621,83 +4755,86 @@
       <c r="AD58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1482300</v>
+        <v>1375400</v>
       </c>
       <c r="E59" s="3">
-        <v>1490200</v>
+        <v>1436700</v>
       </c>
       <c r="F59" s="3">
-        <v>1394200</v>
+        <v>1444400</v>
       </c>
       <c r="G59" s="3">
-        <v>1388700</v>
+        <v>1351300</v>
       </c>
       <c r="H59" s="3">
-        <v>1430900</v>
+        <v>1346000</v>
       </c>
       <c r="I59" s="3">
-        <v>1345100</v>
+        <v>1386900</v>
       </c>
       <c r="J59" s="3">
+        <v>1303700</v>
+      </c>
+      <c r="K59" s="3">
         <v>1331100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1335500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1355800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1206300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1242700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1281200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1445100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1325100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1178200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1144200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1013800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>946900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>887200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>710200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>619500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>613400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1325600</v>
       </c>
-      <c r="AA59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AB59" s="3" t="s">
         <v>16</v>
       </c>
@@ -4707,83 +4844,86 @@
       <c r="AD59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3934200</v>
+        <v>2581700</v>
       </c>
       <c r="E60" s="3">
-        <v>3998700</v>
+        <v>3813300</v>
       </c>
       <c r="F60" s="3">
-        <v>4143600</v>
+        <v>3875800</v>
       </c>
       <c r="G60" s="3">
-        <v>4002500</v>
+        <v>4016200</v>
       </c>
       <c r="H60" s="3">
-        <v>3053400</v>
+        <v>3879500</v>
       </c>
       <c r="I60" s="3">
-        <v>3195000</v>
+        <v>2959500</v>
       </c>
       <c r="J60" s="3">
+        <v>3096800</v>
+      </c>
+      <c r="K60" s="3">
         <v>3972600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3766800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3503200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3459800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2994100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3016000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3268600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3106300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3356700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3276200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3146000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2877300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2511500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2069200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1929900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1668000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>3593200</v>
       </c>
-      <c r="AA60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AB60" s="3" t="s">
         <v>16</v>
       </c>
@@ -4793,83 +4933,86 @@
       <c r="AD60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1658700</v>
+        <v>1577100</v>
       </c>
       <c r="E61" s="3">
-        <v>1360100</v>
+        <v>1607700</v>
       </c>
       <c r="F61" s="3">
-        <v>905500</v>
+        <v>1318300</v>
       </c>
       <c r="G61" s="3">
-        <v>851500</v>
+        <v>877700</v>
       </c>
       <c r="H61" s="3">
-        <v>1881900</v>
+        <v>825300</v>
       </c>
       <c r="I61" s="3">
-        <v>1798500</v>
+        <v>1824100</v>
       </c>
       <c r="J61" s="3">
+        <v>1743200</v>
+      </c>
+      <c r="K61" s="3">
         <v>1801200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1808500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1763700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1660200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1889000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2001200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2112200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2029000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2057800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1879700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1856600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>777900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>38300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>39000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>40000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>40700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>42100</v>
       </c>
-      <c r="AA61" s="3">
-        <v>0</v>
-      </c>
       <c r="AB61" s="3">
         <v>0</v>
       </c>
@@ -4879,83 +5022,86 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>289400</v>
+        <v>298000</v>
       </c>
       <c r="E62" s="3">
-        <v>285200</v>
+        <v>280500</v>
       </c>
       <c r="F62" s="3">
-        <v>273200</v>
+        <v>276500</v>
       </c>
       <c r="G62" s="3">
-        <v>295300</v>
+        <v>264800</v>
       </c>
       <c r="H62" s="3">
-        <v>279600</v>
+        <v>286200</v>
       </c>
       <c r="I62" s="3">
-        <v>237400</v>
+        <v>271000</v>
       </c>
       <c r="J62" s="3">
+        <v>230100</v>
+      </c>
+      <c r="K62" s="3">
         <v>232500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>253100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>258600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>272800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>288000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>290300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>281500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>266000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>220700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>225900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>248700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>208500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>210000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>97000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>96100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1100</v>
       </c>
-      <c r="AA62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AB62" s="3" t="s">
         <v>16</v>
       </c>
@@ -4965,8 +5111,11 @@
       <c r="AD62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,83 +5378,86 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5894100</v>
+        <v>4468200</v>
       </c>
       <c r="E66" s="3">
-        <v>5657200</v>
+        <v>5712900</v>
       </c>
       <c r="F66" s="3">
-        <v>5335800</v>
+        <v>5483300</v>
       </c>
       <c r="G66" s="3">
-        <v>5162500</v>
+        <v>5171700</v>
       </c>
       <c r="H66" s="3">
-        <v>5224500</v>
+        <v>5003800</v>
       </c>
       <c r="I66" s="3">
-        <v>5300000</v>
+        <v>5063900</v>
       </c>
       <c r="J66" s="3">
+        <v>5137100</v>
+      </c>
+      <c r="K66" s="3">
         <v>6071100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5873200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5566700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5418900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5194800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5329500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5684500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5423400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5659900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5402400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5268100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3880900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2771200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2205600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2066400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1710600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>3636400</v>
       </c>
-      <c r="AA66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AB66" s="3" t="s">
         <v>16</v>
       </c>
@@ -5309,8 +5467,11 @@
       <c r="AD66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5579,17 +5747,17 @@
         <v>0</v>
       </c>
       <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
         <v>3284400</v>
       </c>
-      <c r="Y70" s="3">
+      <c r="Z70" s="3">
         <v>3242900</v>
       </c>
-      <c r="Z70" s="3">
+      <c r="AA70" s="3">
         <v>4323600</v>
       </c>
-      <c r="AA70" s="3">
-        <v>0</v>
-      </c>
       <c r="AB70" s="3">
         <v>0</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,83 +5856,86 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-6522000</v>
+        <v>-6271100</v>
       </c>
       <c r="E72" s="3">
-        <v>-6609800</v>
+        <v>-6321500</v>
       </c>
       <c r="F72" s="3">
-        <v>-6653100</v>
+        <v>-6406600</v>
       </c>
       <c r="G72" s="3">
-        <v>-6596800</v>
+        <v>-6448500</v>
       </c>
       <c r="H72" s="3">
-        <v>-6566400</v>
+        <v>-6394000</v>
       </c>
       <c r="I72" s="3">
-        <v>-6704300</v>
+        <v>-6364600</v>
       </c>
       <c r="J72" s="3">
+        <v>-6498200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-6450800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-6268400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-5880400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-5703600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-5757100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-5636300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-5750400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-5209800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-4889200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-4224500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-3852200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-3414300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-2796700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-2357100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-2130900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-2154600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-4631600</v>
       </c>
-      <c r="AA72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AB72" s="3" t="s">
         <v>16</v>
       </c>
@@ -5771,8 +5945,11 @@
       <c r="AD72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,83 +6212,86 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1514100</v>
+        <v>1468600</v>
       </c>
       <c r="E76" s="3">
-        <v>888500</v>
+        <v>1456200</v>
       </c>
       <c r="F76" s="3">
-        <v>761400</v>
+        <v>861200</v>
       </c>
       <c r="G76" s="3">
-        <v>891600</v>
+        <v>738000</v>
       </c>
       <c r="H76" s="3">
-        <v>971300</v>
+        <v>864200</v>
       </c>
       <c r="I76" s="3">
-        <v>737400</v>
+        <v>941500</v>
       </c>
       <c r="J76" s="3">
+        <v>714700</v>
+      </c>
+      <c r="K76" s="3">
         <v>936400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1152200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1252400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1288500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>776100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>900500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1132300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1473700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1876900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2273900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2514600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2619500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2997500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3268500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-2060900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-2055000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-4506300</v>
       </c>
-      <c r="AA76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AB76" s="3" t="s">
         <v>16</v>
       </c>
@@ -6115,8 +6301,11 @@
       <c r="AD76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>16</v>
+      <c r="D81" s="3">
+        <v>50300</v>
       </c>
       <c r="E81" s="3">
-        <v>43300</v>
+        <v>85200</v>
       </c>
       <c r="F81" s="3">
-        <v>-56200</v>
+        <v>41900</v>
       </c>
       <c r="G81" s="3">
-        <v>-30400</v>
+        <v>-54500</v>
       </c>
       <c r="H81" s="3">
-        <v>24000</v>
+        <v>-29500</v>
       </c>
       <c r="I81" s="3">
-        <v>-253600</v>
+        <v>23300</v>
       </c>
       <c r="J81" s="3">
+        <v>-245800</v>
+      </c>
+      <c r="K81" s="3">
         <v>-246500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-201300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-176800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-215700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-171700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-212700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-450300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-384200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-575400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-355600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-275900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-504900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-439500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-294800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-98300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>2198300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-1737000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-248500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-267600</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-410200</v>
       </c>
-      <c r="AD81" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE81" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6487,8 +6686,8 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-      <c r="AB83" s="3" t="s">
-        <v>16</v>
+      <c r="AB83" s="3">
+        <v>0</v>
       </c>
       <c r="AC83" s="3" t="s">
         <v>16</v>
@@ -6496,8 +6695,11 @@
       <c r="AD83" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,53 +7140,56 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>142400</v>
+        <v>-16000</v>
       </c>
       <c r="E89" s="3">
-        <v>121300</v>
+        <v>138000</v>
       </c>
       <c r="F89" s="3">
-        <v>27800</v>
+        <v>117600</v>
       </c>
       <c r="G89" s="3">
-        <v>6700</v>
+        <v>27000</v>
       </c>
       <c r="H89" s="3">
-        <v>-165900</v>
+        <v>6500</v>
       </c>
       <c r="I89" s="3">
-        <v>-155700</v>
+        <v>-160800</v>
       </c>
       <c r="J89" s="3">
+        <v>-150900</v>
+      </c>
+      <c r="K89" s="3">
         <v>-295700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-204800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-187900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-211500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-281700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-200200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-94600</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>16</v>
       </c>
@@ -6985,8 +7202,8 @@
       <c r="U89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
+      <c r="V89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="W89" s="3">
         <v>0</v>
@@ -7003,8 +7220,8 @@
       <c r="AA89" s="3">
         <v>0</v>
       </c>
-      <c r="AB89" s="3" t="s">
-        <v>16</v>
+      <c r="AB89" s="3">
+        <v>0</v>
       </c>
       <c r="AC89" s="3" t="s">
         <v>16</v>
@@ -7012,8 +7229,11 @@
       <c r="AD89" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,34 +7264,35 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-8800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-48100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-66000</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>16</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>16</v>
@@ -7082,8 +7303,8 @@
       <c r="N91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -7121,8 +7342,8 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-      <c r="AB91" s="3" t="s">
-        <v>16</v>
+      <c r="AB91" s="3">
+        <v>0</v>
       </c>
       <c r="AC91" s="3" t="s">
         <v>16</v>
@@ -7130,8 +7351,11 @@
       <c r="AD91" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,53 +7529,56 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>23700</v>
+        <v>-80900</v>
       </c>
       <c r="E94" s="3">
-        <v>82300</v>
+        <v>23000</v>
       </c>
       <c r="F94" s="3">
-        <v>57800</v>
+        <v>79800</v>
       </c>
       <c r="G94" s="3">
-        <v>-92700</v>
+        <v>56100</v>
       </c>
       <c r="H94" s="3">
-        <v>-9600</v>
+        <v>-89900</v>
       </c>
       <c r="I94" s="3">
-        <v>298100</v>
+        <v>-9300</v>
       </c>
       <c r="J94" s="3">
+        <v>288900</v>
+      </c>
+      <c r="K94" s="3">
         <v>268000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>8400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-386700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>39200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>50100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>168600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-252000</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>16</v>
       </c>
@@ -7361,8 +7591,8 @@
       <c r="U94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
+      <c r="V94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="W94" s="3">
         <v>0</v>
@@ -7379,8 +7609,8 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-      <c r="AB94" s="3" t="s">
-        <v>16</v>
+      <c r="AB94" s="3">
+        <v>0</v>
       </c>
       <c r="AC94" s="3" t="s">
         <v>16</v>
@@ -7388,8 +7618,11 @@
       <c r="AD94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,53 +8007,56 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-477100</v>
+        <v>300600</v>
       </c>
       <c r="E100" s="3">
-        <v>406800</v>
+        <v>-462500</v>
       </c>
       <c r="F100" s="3">
-        <v>-15100</v>
+        <v>394300</v>
       </c>
       <c r="G100" s="3">
-        <v>-47400</v>
+        <v>-14600</v>
       </c>
       <c r="H100" s="3">
-        <v>290900</v>
+        <v>-45900</v>
       </c>
       <c r="I100" s="3">
-        <v>-744700</v>
+        <v>282000</v>
       </c>
       <c r="J100" s="3">
+        <v>-721800</v>
+      </c>
+      <c r="K100" s="3">
         <v>123300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>115100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>85000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1168200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>34800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>121200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-12400</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>16</v>
       </c>
@@ -7823,8 +8069,8 @@
       <c r="U100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
+      <c r="V100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="W100" s="3">
         <v>0</v>
@@ -7841,8 +8087,8 @@
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-      <c r="AB100" s="3" t="s">
-        <v>16</v>
+      <c r="AB100" s="3">
+        <v>0</v>
       </c>
       <c r="AC100" s="3" t="s">
         <v>16</v>
@@ -7850,53 +8096,56 @@
       <c r="AD100" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1300</v>
+        <v>18800</v>
       </c>
       <c r="E101" s="3">
         <v>-1200</v>
       </c>
       <c r="F101" s="3">
-        <v>8600</v>
+        <v>-1200</v>
       </c>
       <c r="G101" s="3">
-        <v>10700</v>
+        <v>8300</v>
       </c>
       <c r="H101" s="3">
+        <v>10300</v>
+      </c>
+      <c r="I101" s="3">
         <v>-600</v>
       </c>
-      <c r="I101" s="3">
-        <v>-10500</v>
-      </c>
       <c r="J101" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="K101" s="3">
         <v>-3200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-13300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-3900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-4600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-16500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>10100</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R101" s="3" t="s">
         <v>16</v>
       </c>
@@ -7909,8 +8158,8 @@
       <c r="U101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
+      <c r="V101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="W101" s="3">
         <v>0</v>
@@ -7927,8 +8176,8 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-      <c r="AB101" s="3" t="s">
-        <v>16</v>
+      <c r="AB101" s="3">
+        <v>0</v>
       </c>
       <c r="AC101" s="3" t="s">
         <v>16</v>
@@ -7936,53 +8185,56 @@
       <c r="AD101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-312300</v>
+        <v>222500</v>
       </c>
       <c r="E102" s="3">
-        <v>609200</v>
+        <v>-302700</v>
       </c>
       <c r="F102" s="3">
-        <v>79200</v>
+        <v>590400</v>
       </c>
       <c r="G102" s="3">
-        <v>-122700</v>
+        <v>76700</v>
       </c>
       <c r="H102" s="3">
-        <v>114800</v>
+        <v>-119000</v>
       </c>
       <c r="I102" s="3">
-        <v>-612800</v>
+        <v>111300</v>
       </c>
       <c r="J102" s="3">
+        <v>-594000</v>
+      </c>
+      <c r="K102" s="3">
         <v>92400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-94700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-493500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>991300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-213400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>88300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-348900</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>16</v>
       </c>
@@ -7995,8 +8247,8 @@
       <c r="U102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
+      <c r="V102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="W102" s="3">
         <v>0</v>
@@ -8013,13 +8265,16 @@
       <c r="AA102" s="3">
         <v>0</v>
       </c>
-      <c r="AB102" s="3" t="s">
-        <v>16</v>
+      <c r="AB102" s="3">
+        <v>0</v>
       </c>
       <c r="AC102" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AD102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE102" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IQ_QTR_FIN.xlsx
@@ -793,25 +793,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1075000</v>
+        <v>1077300</v>
       </c>
       <c r="E8" s="3">
-        <v>1150300</v>
+        <v>1152800</v>
       </c>
       <c r="F8" s="3">
-        <v>1046100</v>
+        <v>1048400</v>
       </c>
       <c r="G8" s="3">
-        <v>1029400</v>
+        <v>1031600</v>
       </c>
       <c r="H8" s="3">
-        <v>917100</v>
+        <v>919100</v>
       </c>
       <c r="I8" s="3">
-        <v>1002600</v>
+        <v>1004800</v>
       </c>
       <c r="J8" s="3">
-        <v>1018000</v>
+        <v>1020200</v>
       </c>
       <c r="K8" s="3">
         <v>1078800</v>
@@ -882,25 +882,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>795500</v>
+        <v>797300</v>
       </c>
       <c r="E9" s="3">
-        <v>820600</v>
+        <v>822400</v>
       </c>
       <c r="F9" s="3">
-        <v>744300</v>
+        <v>745900</v>
       </c>
       <c r="G9" s="3">
-        <v>786100</v>
+        <v>787800</v>
       </c>
       <c r="H9" s="3">
-        <v>723100</v>
+        <v>724600</v>
       </c>
       <c r="I9" s="3">
-        <v>821700</v>
+        <v>823500</v>
       </c>
       <c r="J9" s="3">
-        <v>896600</v>
+        <v>898600</v>
       </c>
       <c r="K9" s="3">
         <v>999000</v>
@@ -971,25 +971,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>279500</v>
+        <v>280100</v>
       </c>
       <c r="E10" s="3">
-        <v>329700</v>
+        <v>330400</v>
       </c>
       <c r="F10" s="3">
-        <v>301800</v>
+        <v>302500</v>
       </c>
       <c r="G10" s="3">
-        <v>243300</v>
+        <v>243800</v>
       </c>
       <c r="H10" s="3">
-        <v>194100</v>
+        <v>194500</v>
       </c>
       <c r="I10" s="3">
-        <v>180900</v>
+        <v>181300</v>
       </c>
       <c r="J10" s="3">
-        <v>121400</v>
+        <v>121700</v>
       </c>
       <c r="K10" s="3">
         <v>79800</v>
@@ -1093,25 +1093,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>60500</v>
+        <v>60600</v>
       </c>
       <c r="E12" s="3">
-        <v>59000</v>
+        <v>59100</v>
       </c>
       <c r="F12" s="3">
-        <v>64200</v>
+        <v>64400</v>
       </c>
       <c r="G12" s="3">
+        <v>65700</v>
+      </c>
+      <c r="H12" s="3">
+        <v>66600</v>
+      </c>
+      <c r="I12" s="3">
         <v>65600</v>
       </c>
-      <c r="H12" s="3">
-        <v>66400</v>
-      </c>
-      <c r="I12" s="3">
-        <v>65400</v>
-      </c>
       <c r="J12" s="3">
-        <v>105100</v>
+        <v>105400</v>
       </c>
       <c r="K12" s="3">
         <v>97100</v>
@@ -1479,25 +1479,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>990900</v>
+        <v>993100</v>
       </c>
       <c r="E17" s="3">
-        <v>1032000</v>
+        <v>1034200</v>
       </c>
       <c r="F17" s="3">
-        <v>938200</v>
+        <v>940200</v>
       </c>
       <c r="G17" s="3">
-        <v>986700</v>
+        <v>988800</v>
       </c>
       <c r="H17" s="3">
-        <v>899800</v>
+        <v>901800</v>
       </c>
       <c r="I17" s="3">
-        <v>989800</v>
+        <v>991900</v>
       </c>
       <c r="J17" s="3">
-        <v>1152400</v>
+        <v>1154900</v>
       </c>
       <c r="K17" s="3">
         <v>1273200</v>
@@ -1568,25 +1568,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>84100</v>
+        <v>84300</v>
       </c>
       <c r="E18" s="3">
-        <v>118300</v>
+        <v>118600</v>
       </c>
       <c r="F18" s="3">
-        <v>108000</v>
+        <v>108200</v>
       </c>
       <c r="G18" s="3">
-        <v>42700</v>
+        <v>42800</v>
       </c>
       <c r="H18" s="3">
-        <v>17300</v>
+        <v>17400</v>
       </c>
       <c r="I18" s="3">
         <v>12900</v>
       </c>
       <c r="J18" s="3">
-        <v>-134400</v>
+        <v>-134700</v>
       </c>
       <c r="K18" s="3">
         <v>-194500</v>
@@ -1696,19 +1696,19 @@
         <v>10700</v>
       </c>
       <c r="F20" s="3">
-        <v>-43300</v>
+        <v>-43400</v>
       </c>
       <c r="G20" s="3">
-        <v>-66200</v>
+        <v>-66300</v>
       </c>
       <c r="H20" s="3">
-        <v>-15000</v>
+        <v>-15100</v>
       </c>
       <c r="I20" s="3">
-        <v>37600</v>
+        <v>37700</v>
       </c>
       <c r="J20" s="3">
-        <v>-59100</v>
+        <v>-59200</v>
       </c>
       <c r="K20" s="3">
         <v>3000</v>
@@ -1868,16 +1868,16 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>38400</v>
+        <v>38500</v>
       </c>
       <c r="E22" s="3">
-        <v>39400</v>
+        <v>39500</v>
       </c>
       <c r="F22" s="3">
         <v>24300</v>
       </c>
       <c r="G22" s="3">
-        <v>25000</v>
+        <v>25100</v>
       </c>
       <c r="H22" s="3">
         <v>25100</v>
@@ -1886,7 +1886,7 @@
         <v>24200</v>
       </c>
       <c r="J22" s="3">
-        <v>44700</v>
+        <v>44800</v>
       </c>
       <c r="K22" s="3">
         <v>49900</v>
@@ -1957,16 +1957,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>51800</v>
+        <v>51900</v>
       </c>
       <c r="E23" s="3">
-        <v>89600</v>
+        <v>89800</v>
       </c>
       <c r="F23" s="3">
-        <v>40400</v>
+        <v>40500</v>
       </c>
       <c r="G23" s="3">
-        <v>-48600</v>
+        <v>-48700</v>
       </c>
       <c r="H23" s="3">
         <v>-22800</v>
@@ -1975,7 +1975,7 @@
         <v>26300</v>
       </c>
       <c r="J23" s="3">
-        <v>-238200</v>
+        <v>-238700</v>
       </c>
       <c r="K23" s="3">
         <v>-241400</v>
@@ -2224,25 +2224,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>50700</v>
+        <v>50800</v>
       </c>
       <c r="E26" s="3">
-        <v>86200</v>
+        <v>86400</v>
       </c>
       <c r="F26" s="3">
-        <v>42000</v>
+        <v>42100</v>
       </c>
       <c r="G26" s="3">
-        <v>-54400</v>
+        <v>-54500</v>
       </c>
       <c r="H26" s="3">
-        <v>-27700</v>
+        <v>-27800</v>
       </c>
       <c r="I26" s="3">
         <v>24000</v>
       </c>
       <c r="J26" s="3">
-        <v>-243200</v>
+        <v>-243700</v>
       </c>
       <c r="K26" s="3">
         <v>-242700</v>
@@ -2313,16 +2313,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="E27" s="3">
-        <v>85200</v>
+        <v>85300</v>
       </c>
       <c r="F27" s="3">
-        <v>41900</v>
+        <v>42000</v>
       </c>
       <c r="G27" s="3">
-        <v>-54500</v>
+        <v>-54600</v>
       </c>
       <c r="H27" s="3">
         <v>-29500</v>
@@ -2331,7 +2331,7 @@
         <v>23300</v>
       </c>
       <c r="J27" s="3">
-        <v>-245800</v>
+        <v>-246300</v>
       </c>
       <c r="K27" s="3">
         <v>-246500</v>
@@ -2764,19 +2764,19 @@
         <v>-10700</v>
       </c>
       <c r="F32" s="3">
-        <v>43300</v>
+        <v>43400</v>
       </c>
       <c r="G32" s="3">
-        <v>66200</v>
+        <v>66300</v>
       </c>
       <c r="H32" s="3">
-        <v>15000</v>
+        <v>15100</v>
       </c>
       <c r="I32" s="3">
-        <v>-37600</v>
+        <v>-37700</v>
       </c>
       <c r="J32" s="3">
-        <v>59100</v>
+        <v>59200</v>
       </c>
       <c r="K32" s="3">
         <v>-3000</v>
@@ -2847,16 +2847,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="E33" s="3">
-        <v>85200</v>
+        <v>85300</v>
       </c>
       <c r="F33" s="3">
-        <v>41900</v>
+        <v>42000</v>
       </c>
       <c r="G33" s="3">
-        <v>-54500</v>
+        <v>-54600</v>
       </c>
       <c r="H33" s="3">
         <v>-29500</v>
@@ -2865,7 +2865,7 @@
         <v>23300</v>
       </c>
       <c r="J33" s="3">
-        <v>-245800</v>
+        <v>-246300</v>
       </c>
       <c r="K33" s="3">
         <v>-246500</v>
@@ -3025,16 +3025,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="E35" s="3">
-        <v>85200</v>
+        <v>85300</v>
       </c>
       <c r="F35" s="3">
-        <v>41900</v>
+        <v>42000</v>
       </c>
       <c r="G35" s="3">
-        <v>-54500</v>
+        <v>-54600</v>
       </c>
       <c r="H35" s="3">
         <v>-29500</v>
@@ -3043,7 +3043,7 @@
         <v>23300</v>
       </c>
       <c r="J35" s="3">
-        <v>-245800</v>
+        <v>-246300</v>
       </c>
       <c r="K35" s="3">
         <v>-246500</v>
@@ -3274,25 +3274,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>491200</v>
+        <v>492300</v>
       </c>
       <c r="E41" s="3">
-        <v>624000</v>
+        <v>625400</v>
       </c>
       <c r="F41" s="3">
-        <v>978000</v>
+        <v>980100</v>
       </c>
       <c r="G41" s="3">
-        <v>490500</v>
+        <v>491600</v>
       </c>
       <c r="H41" s="3">
-        <v>402800</v>
+        <v>403600</v>
       </c>
       <c r="I41" s="3">
-        <v>525100</v>
+        <v>526300</v>
       </c>
       <c r="J41" s="3">
-        <v>413000</v>
+        <v>413900</v>
       </c>
       <c r="K41" s="3">
         <v>1037100</v>
@@ -3363,25 +3363,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>139800</v>
+        <v>140100</v>
       </c>
       <c r="E42" s="3">
-        <v>92200</v>
+        <v>92400</v>
       </c>
       <c r="F42" s="3">
-        <v>112700</v>
+        <v>113000</v>
       </c>
       <c r="G42" s="3">
-        <v>202600</v>
+        <v>203000</v>
       </c>
       <c r="H42" s="3">
-        <v>260500</v>
+        <v>261000</v>
       </c>
       <c r="I42" s="3">
-        <v>176700</v>
+        <v>177100</v>
       </c>
       <c r="J42" s="3">
-        <v>185800</v>
+        <v>186200</v>
       </c>
       <c r="K42" s="3">
         <v>520500</v>
@@ -3452,25 +3452,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>393000</v>
+        <v>393800</v>
       </c>
       <c r="E43" s="3">
-        <v>398800</v>
+        <v>399600</v>
       </c>
       <c r="F43" s="3">
-        <v>345400</v>
+        <v>346100</v>
       </c>
       <c r="G43" s="3">
-        <v>379400</v>
+        <v>380200</v>
       </c>
       <c r="H43" s="3">
-        <v>355800</v>
+        <v>356600</v>
       </c>
       <c r="I43" s="3">
-        <v>387400</v>
+        <v>388200</v>
       </c>
       <c r="J43" s="3">
-        <v>400000</v>
+        <v>400900</v>
       </c>
       <c r="K43" s="3">
         <v>448800</v>
@@ -3541,25 +3541,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>114600</v>
+        <v>114900</v>
       </c>
       <c r="E44" s="3">
-        <v>129600</v>
+        <v>129900</v>
       </c>
       <c r="F44" s="3">
-        <v>102800</v>
+        <v>103000</v>
       </c>
       <c r="G44" s="3">
-        <v>112700</v>
+        <v>113000</v>
       </c>
       <c r="H44" s="3">
-        <v>109700</v>
+        <v>109900</v>
       </c>
       <c r="I44" s="3">
-        <v>125400</v>
+        <v>125700</v>
       </c>
       <c r="J44" s="3">
-        <v>128300</v>
+        <v>128600</v>
       </c>
       <c r="K44" s="3">
         <v>155900</v>
@@ -3630,25 +3630,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>368000</v>
+        <v>368800</v>
       </c>
       <c r="E45" s="3">
-        <v>1546900</v>
+        <v>1550300</v>
       </c>
       <c r="F45" s="3">
-        <v>360500</v>
+        <v>361300</v>
       </c>
       <c r="G45" s="3">
-        <v>309200</v>
+        <v>309900</v>
       </c>
       <c r="H45" s="3">
-        <v>306000</v>
+        <v>306600</v>
       </c>
       <c r="I45" s="3">
-        <v>380400</v>
+        <v>381200</v>
       </c>
       <c r="J45" s="3">
-        <v>460800</v>
+        <v>461800</v>
       </c>
       <c r="K45" s="3">
         <v>540900</v>
@@ -3719,25 +3719,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1506600</v>
+        <v>1509900</v>
       </c>
       <c r="E46" s="3">
-        <v>2791400</v>
+        <v>2797500</v>
       </c>
       <c r="F46" s="3">
-        <v>1899400</v>
+        <v>1903500</v>
       </c>
       <c r="G46" s="3">
-        <v>1494500</v>
+        <v>1497700</v>
       </c>
       <c r="H46" s="3">
-        <v>1434700</v>
+        <v>1437800</v>
       </c>
       <c r="I46" s="3">
-        <v>1595000</v>
+        <v>1598500</v>
       </c>
       <c r="J46" s="3">
-        <v>1587800</v>
+        <v>1591300</v>
       </c>
       <c r="K46" s="3">
         <v>2703300</v>
@@ -3808,25 +3808,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>349300</v>
+        <v>350000</v>
       </c>
       <c r="E47" s="3">
-        <v>319700</v>
+        <v>320400</v>
       </c>
       <c r="F47" s="3">
-        <v>346300</v>
+        <v>347100</v>
       </c>
       <c r="G47" s="3">
-        <v>402000</v>
+        <v>402900</v>
       </c>
       <c r="H47" s="3">
-        <v>444400</v>
+        <v>445400</v>
       </c>
       <c r="I47" s="3">
-        <v>451500</v>
+        <v>452500</v>
       </c>
       <c r="J47" s="3">
-        <v>429300</v>
+        <v>430300</v>
       </c>
       <c r="K47" s="3">
         <v>499900</v>
@@ -3897,25 +3897,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>222700</v>
+        <v>223200</v>
       </c>
       <c r="E48" s="3">
-        <v>232900</v>
+        <v>233400</v>
       </c>
       <c r="F48" s="3">
-        <v>245100</v>
+        <v>245600</v>
       </c>
       <c r="G48" s="3">
-        <v>259700</v>
+        <v>260300</v>
       </c>
       <c r="H48" s="3">
-        <v>289400</v>
+        <v>290100</v>
       </c>
       <c r="I48" s="3">
-        <v>302200</v>
+        <v>302900</v>
       </c>
       <c r="J48" s="3">
-        <v>310300</v>
+        <v>311000</v>
       </c>
       <c r="K48" s="3">
         <v>320700</v>
@@ -3986,25 +3986,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3223700</v>
+        <v>3230800</v>
       </c>
       <c r="E49" s="3">
-        <v>3244000</v>
+        <v>3251100</v>
       </c>
       <c r="F49" s="3">
-        <v>3321200</v>
+        <v>3328500</v>
       </c>
       <c r="G49" s="3">
-        <v>3335100</v>
+        <v>3342400</v>
       </c>
       <c r="H49" s="3">
-        <v>3262100</v>
+        <v>3269200</v>
       </c>
       <c r="I49" s="3">
-        <v>3237400</v>
+        <v>3244400</v>
       </c>
       <c r="J49" s="3">
-        <v>3119700</v>
+        <v>3126500</v>
       </c>
       <c r="K49" s="3">
         <v>3033800</v>
@@ -4253,25 +4253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>634400</v>
+        <v>635800</v>
       </c>
       <c r="E52" s="3">
-        <v>581000</v>
+        <v>582300</v>
       </c>
       <c r="F52" s="3">
-        <v>532500</v>
+        <v>533700</v>
       </c>
       <c r="G52" s="3">
-        <v>418500</v>
+        <v>419400</v>
       </c>
       <c r="H52" s="3">
-        <v>437400</v>
+        <v>438300</v>
       </c>
       <c r="I52" s="3">
-        <v>419200</v>
+        <v>420100</v>
       </c>
       <c r="J52" s="3">
-        <v>404700</v>
+        <v>405500</v>
       </c>
       <c r="K52" s="3">
         <v>449900</v>
@@ -4431,25 +4431,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5936800</v>
+        <v>5949700</v>
       </c>
       <c r="E54" s="3">
-        <v>7169100</v>
+        <v>7184700</v>
       </c>
       <c r="F54" s="3">
-        <v>6344500</v>
+        <v>6358400</v>
       </c>
       <c r="G54" s="3">
-        <v>5909700</v>
+        <v>5922600</v>
       </c>
       <c r="H54" s="3">
-        <v>5868000</v>
+        <v>5880800</v>
       </c>
       <c r="I54" s="3">
-        <v>6005400</v>
+        <v>6018500</v>
       </c>
       <c r="J54" s="3">
-        <v>5851800</v>
+        <v>5864600</v>
       </c>
       <c r="K54" s="3">
         <v>7007500</v>
@@ -4586,25 +4586,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>790900</v>
+        <v>792600</v>
       </c>
       <c r="E57" s="3">
-        <v>788300</v>
+        <v>790000</v>
       </c>
       <c r="F57" s="3">
-        <v>825800</v>
+        <v>827600</v>
       </c>
       <c r="G57" s="3">
-        <v>948200</v>
+        <v>950300</v>
       </c>
       <c r="H57" s="3">
-        <v>869500</v>
+        <v>871400</v>
       </c>
       <c r="I57" s="3">
-        <v>967500</v>
+        <v>969600</v>
       </c>
       <c r="J57" s="3">
-        <v>1225800</v>
+        <v>1228400</v>
       </c>
       <c r="K57" s="3">
         <v>1297500</v>
@@ -4675,25 +4675,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>415500</v>
+        <v>416400</v>
       </c>
       <c r="E58" s="3">
-        <v>1588200</v>
+        <v>1591700</v>
       </c>
       <c r="F58" s="3">
-        <v>1605600</v>
+        <v>1609100</v>
       </c>
       <c r="G58" s="3">
-        <v>1716700</v>
+        <v>1720400</v>
       </c>
       <c r="H58" s="3">
-        <v>1664000</v>
+        <v>1667600</v>
       </c>
       <c r="I58" s="3">
-        <v>605100</v>
+        <v>606400</v>
       </c>
       <c r="J58" s="3">
-        <v>567300</v>
+        <v>568600</v>
       </c>
       <c r="K58" s="3">
         <v>1344000</v>
@@ -4764,25 +4764,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1375400</v>
+        <v>1378400</v>
       </c>
       <c r="E59" s="3">
-        <v>1436700</v>
+        <v>1439900</v>
       </c>
       <c r="F59" s="3">
-        <v>1444400</v>
+        <v>1447600</v>
       </c>
       <c r="G59" s="3">
-        <v>1351300</v>
+        <v>1354300</v>
       </c>
       <c r="H59" s="3">
-        <v>1346000</v>
+        <v>1348900</v>
       </c>
       <c r="I59" s="3">
-        <v>1386900</v>
+        <v>1389900</v>
       </c>
       <c r="J59" s="3">
-        <v>1303700</v>
+        <v>1306500</v>
       </c>
       <c r="K59" s="3">
         <v>1331100</v>
@@ -4853,25 +4853,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2581700</v>
+        <v>2587300</v>
       </c>
       <c r="E60" s="3">
-        <v>3813300</v>
+        <v>3821600</v>
       </c>
       <c r="F60" s="3">
-        <v>3875800</v>
+        <v>3884200</v>
       </c>
       <c r="G60" s="3">
-        <v>4016200</v>
+        <v>4025000</v>
       </c>
       <c r="H60" s="3">
-        <v>3879500</v>
+        <v>3887900</v>
       </c>
       <c r="I60" s="3">
-        <v>2959500</v>
+        <v>2965900</v>
       </c>
       <c r="J60" s="3">
-        <v>3096800</v>
+        <v>3103600</v>
       </c>
       <c r="K60" s="3">
         <v>3972600</v>
@@ -4942,25 +4942,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1577100</v>
+        <v>1580600</v>
       </c>
       <c r="E61" s="3">
-        <v>1607700</v>
+        <v>1611200</v>
       </c>
       <c r="F61" s="3">
-        <v>1318300</v>
+        <v>1321200</v>
       </c>
       <c r="G61" s="3">
-        <v>877700</v>
+        <v>879600</v>
       </c>
       <c r="H61" s="3">
-        <v>825300</v>
+        <v>827100</v>
       </c>
       <c r="I61" s="3">
-        <v>1824100</v>
+        <v>1828100</v>
       </c>
       <c r="J61" s="3">
-        <v>1743200</v>
+        <v>1747000</v>
       </c>
       <c r="K61" s="3">
         <v>1801200</v>
@@ -5031,25 +5031,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>298000</v>
+        <v>298700</v>
       </c>
       <c r="E62" s="3">
-        <v>280500</v>
+        <v>281200</v>
       </c>
       <c r="F62" s="3">
-        <v>276500</v>
+        <v>277100</v>
       </c>
       <c r="G62" s="3">
-        <v>264800</v>
+        <v>265400</v>
       </c>
       <c r="H62" s="3">
-        <v>286200</v>
+        <v>286800</v>
       </c>
       <c r="I62" s="3">
-        <v>271000</v>
+        <v>271600</v>
       </c>
       <c r="J62" s="3">
-        <v>230100</v>
+        <v>230700</v>
       </c>
       <c r="K62" s="3">
         <v>232500</v>
@@ -5387,25 +5387,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4468200</v>
+        <v>4477900</v>
       </c>
       <c r="E66" s="3">
-        <v>5712900</v>
+        <v>5725300</v>
       </c>
       <c r="F66" s="3">
-        <v>5483300</v>
+        <v>5495300</v>
       </c>
       <c r="G66" s="3">
-        <v>5171700</v>
+        <v>5183000</v>
       </c>
       <c r="H66" s="3">
-        <v>5003800</v>
+        <v>5014700</v>
       </c>
       <c r="I66" s="3">
-        <v>5063900</v>
+        <v>5075000</v>
       </c>
       <c r="J66" s="3">
-        <v>5137100</v>
+        <v>5148300</v>
       </c>
       <c r="K66" s="3">
         <v>6071100</v>
@@ -5865,25 +5865,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-6271100</v>
+        <v>-6284800</v>
       </c>
       <c r="E72" s="3">
-        <v>-6321500</v>
+        <v>-6335200</v>
       </c>
       <c r="F72" s="3">
-        <v>-6406600</v>
+        <v>-6420600</v>
       </c>
       <c r="G72" s="3">
-        <v>-6448500</v>
+        <v>-6462600</v>
       </c>
       <c r="H72" s="3">
-        <v>-6394000</v>
+        <v>-6408000</v>
       </c>
       <c r="I72" s="3">
-        <v>-6364600</v>
+        <v>-6378400</v>
       </c>
       <c r="J72" s="3">
-        <v>-6498200</v>
+        <v>-6512400</v>
       </c>
       <c r="K72" s="3">
         <v>-6450800</v>
@@ -6221,25 +6221,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1468600</v>
+        <v>1471800</v>
       </c>
       <c r="E76" s="3">
-        <v>1456200</v>
+        <v>1459400</v>
       </c>
       <c r="F76" s="3">
-        <v>861200</v>
+        <v>863100</v>
       </c>
       <c r="G76" s="3">
-        <v>738000</v>
+        <v>739600</v>
       </c>
       <c r="H76" s="3">
-        <v>864200</v>
+        <v>866100</v>
       </c>
       <c r="I76" s="3">
-        <v>941500</v>
+        <v>943500</v>
       </c>
       <c r="J76" s="3">
-        <v>714700</v>
+        <v>716300</v>
       </c>
       <c r="K76" s="3">
         <v>936400</v>
@@ -6493,16 +6493,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="E81" s="3">
-        <v>85200</v>
+        <v>85300</v>
       </c>
       <c r="F81" s="3">
-        <v>41900</v>
+        <v>42000</v>
       </c>
       <c r="G81" s="3">
-        <v>-54500</v>
+        <v>-54600</v>
       </c>
       <c r="H81" s="3">
         <v>-29500</v>
@@ -6511,7 +6511,7 @@
         <v>23300</v>
       </c>
       <c r="J81" s="3">
-        <v>-245800</v>
+        <v>-246300</v>
       </c>
       <c r="K81" s="3">
         <v>-246500</v>
@@ -7152,10 +7152,10 @@
         <v>-16000</v>
       </c>
       <c r="E89" s="3">
-        <v>138000</v>
+        <v>138300</v>
       </c>
       <c r="F89" s="3">
-        <v>117600</v>
+        <v>117800</v>
       </c>
       <c r="G89" s="3">
         <v>27000</v>
@@ -7164,10 +7164,10 @@
         <v>6500</v>
       </c>
       <c r="I89" s="3">
-        <v>-160800</v>
+        <v>-161100</v>
       </c>
       <c r="J89" s="3">
-        <v>-150900</v>
+        <v>-151200</v>
       </c>
       <c r="K89" s="3">
         <v>-295700</v>
@@ -7538,25 +7538,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-80900</v>
+        <v>-81100</v>
       </c>
       <c r="E94" s="3">
         <v>23000</v>
       </c>
       <c r="F94" s="3">
-        <v>79800</v>
+        <v>79900</v>
       </c>
       <c r="G94" s="3">
-        <v>56100</v>
+        <v>56200</v>
       </c>
       <c r="H94" s="3">
-        <v>-89900</v>
+        <v>-90100</v>
       </c>
       <c r="I94" s="3">
         <v>-9300</v>
       </c>
       <c r="J94" s="3">
-        <v>288900</v>
+        <v>289600</v>
       </c>
       <c r="K94" s="3">
         <v>268000</v>
@@ -8016,25 +8016,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>300600</v>
+        <v>301200</v>
       </c>
       <c r="E100" s="3">
-        <v>-462500</v>
+        <v>-463500</v>
       </c>
       <c r="F100" s="3">
-        <v>394300</v>
+        <v>395100</v>
       </c>
       <c r="G100" s="3">
         <v>-14600</v>
       </c>
       <c r="H100" s="3">
-        <v>-45900</v>
+        <v>-46000</v>
       </c>
       <c r="I100" s="3">
-        <v>282000</v>
+        <v>282600</v>
       </c>
       <c r="J100" s="3">
-        <v>-721800</v>
+        <v>-723400</v>
       </c>
       <c r="K100" s="3">
         <v>123300</v>
@@ -8105,7 +8105,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>18800</v>
+        <v>18900</v>
       </c>
       <c r="E101" s="3">
         <v>-1200</v>
@@ -8117,7 +8117,7 @@
         <v>8300</v>
       </c>
       <c r="H101" s="3">
-        <v>10300</v>
+        <v>10400</v>
       </c>
       <c r="I101" s="3">
         <v>-600</v>
@@ -8194,25 +8194,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>222500</v>
+        <v>222900</v>
       </c>
       <c r="E102" s="3">
-        <v>-302700</v>
+        <v>-303300</v>
       </c>
       <c r="F102" s="3">
-        <v>590400</v>
+        <v>591700</v>
       </c>
       <c r="G102" s="3">
-        <v>76700</v>
+        <v>76900</v>
       </c>
       <c r="H102" s="3">
-        <v>-119000</v>
+        <v>-119200</v>
       </c>
       <c r="I102" s="3">
-        <v>111300</v>
+        <v>111600</v>
       </c>
       <c r="J102" s="3">
-        <v>-594000</v>
+        <v>-595300</v>
       </c>
       <c r="K102" s="3">
         <v>92400</v>
